--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
@@ -258,7 +258,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>「2.4.画面イベント一覧」で定義したイベント毎に、処理詳細を処理順に記述する。
+          <t>「2.5.画面イベント一覧」で定義したイベント毎に、処理詳細を処理順に記述する。
 基本は、以下の3パターンの処理の記述が必要。
 　(1)　バリデーション処理
 　(2)　検索 or 登録 or 更新 or 削除処理
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q131" authorId="0">
+    <comment ref="P130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D132" authorId="0">
+    <comment ref="C131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,24 +1085,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>(1) 画面引継ぎ項目</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒキツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>【内部設計情報】 画面項目名（物理）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（1-1） XXXXXイベント</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1129,6 +1112,14 @@
   </si>
   <si>
     <t>HTTPセッションストア</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【内部設計情報】 画面引継ぎ項目</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>（1） XXXXXイベント</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2103,20 +2094,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4492,7 +4483,7 @@
       <c r="AI7" s="176"/>
     </row>
     <row r="8" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="147"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="178"/>
       <c r="C8" s="179"/>
       <c r="D8" s="180"/>
@@ -8648,7 +8639,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB170"/>
+  <dimension ref="A1:BB169"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -9111,7 +9102,7 @@
     </row>
     <row r="51" spans="3:47" x14ac:dyDescent="0.15">
       <c r="AK51" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL51" s="83"/>
       <c r="AM51" s="83"/>
@@ -10070,10 +10061,10 @@
       <c r="M75" s="164"/>
       <c r="N75" s="165"/>
       <c r="O75" s="97"/>
-      <c r="P75" s="146"/>
-      <c r="Q75" s="146"/>
-      <c r="R75" s="146"/>
-      <c r="S75" s="146"/>
+      <c r="P75" s="143"/>
+      <c r="Q75" s="143"/>
+      <c r="R75" s="143"/>
+      <c r="S75" s="143"/>
       <c r="T75" s="318"/>
       <c r="U75" s="319"/>
       <c r="V75" s="163"/>
@@ -10118,10 +10109,10 @@
       <c r="M76" s="164"/>
       <c r="N76" s="165"/>
       <c r="O76" s="98"/>
-      <c r="P76" s="146"/>
-      <c r="Q76" s="146"/>
-      <c r="R76" s="146"/>
-      <c r="S76" s="146"/>
+      <c r="P76" s="143"/>
+      <c r="Q76" s="143"/>
+      <c r="R76" s="143"/>
+      <c r="S76" s="143"/>
       <c r="T76" s="318"/>
       <c r="U76" s="319"/>
       <c r="V76" s="163"/>
@@ -10166,10 +10157,10 @@
       <c r="M77" s="164"/>
       <c r="N77" s="165"/>
       <c r="O77" s="98"/>
-      <c r="P77" s="146"/>
-      <c r="Q77" s="146"/>
-      <c r="R77" s="146"/>
-      <c r="S77" s="146"/>
+      <c r="P77" s="143"/>
+      <c r="Q77" s="143"/>
+      <c r="R77" s="143"/>
+      <c r="S77" s="143"/>
       <c r="T77" s="318"/>
       <c r="U77" s="319"/>
       <c r="V77" s="163"/>
@@ -10357,7 +10348,7 @@
       <c r="AC82" s="321"/>
       <c r="AD82" s="322"/>
       <c r="AE82" s="326" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF82" s="327"/>
       <c r="AG82" s="327"/>
@@ -12000,8 +11991,10 @@
       <c r="AJ125" s="94"/>
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A126" s="63"/>
-      <c r="B126" s="60"/>
+      <c r="A126" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="17"/>
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
       <c r="E126" s="63"/>
@@ -12038,9 +12031,9 @@
       <c r="AJ126" s="94"/>
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33" t="s">
-        <v>108</v>
+      <c r="A127" s="17"/>
+      <c r="B127" s="74" t="s">
+        <v>115</v>
       </c>
       <c r="C127" s="74"/>
       <c r="D127" s="74"/>
@@ -12083,9 +12076,7 @@
     <row r="128" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
-      <c r="C128" s="74" t="s">
-        <v>110</v>
-      </c>
+      <c r="C128" s="74"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
@@ -12126,304 +12117,300 @@
     <row r="129" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="33"/>
-      <c r="O129" s="33"/>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="33"/>
-      <c r="R129" s="33"/>
-      <c r="S129" s="33"/>
-      <c r="T129" s="33"/>
-      <c r="U129" s="33"/>
-      <c r="V129" s="33"/>
-      <c r="W129" s="33"/>
-      <c r="X129" s="33"/>
-      <c r="Y129" s="33"/>
-      <c r="Z129" s="33"/>
-      <c r="AA129" s="33"/>
-      <c r="AB129" s="33"/>
-      <c r="AC129" s="33"/>
-      <c r="AD129" s="33"/>
-      <c r="AE129" s="33"/>
-      <c r="AF129" s="33"/>
-      <c r="AG129" s="33"/>
-      <c r="AH129" s="33"/>
-      <c r="AI129" s="33"/>
-      <c r="AJ129" s="33"/>
-      <c r="AK129" s="33"/>
-      <c r="AL129" s="33"/>
-      <c r="AM129" s="33"/>
+      <c r="C129" s="290" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="140"/>
+      <c r="F129" s="140"/>
+      <c r="G129" s="140"/>
+      <c r="H129" s="140"/>
+      <c r="I129" s="140"/>
+      <c r="J129" s="140"/>
+      <c r="K129" s="140"/>
+      <c r="L129" s="140"/>
+      <c r="M129" s="140"/>
+      <c r="N129" s="140"/>
+      <c r="O129" s="140"/>
+      <c r="P129" s="140"/>
+      <c r="Q129" s="140"/>
+      <c r="R129" s="140"/>
+      <c r="S129" s="140"/>
+      <c r="T129" s="140"/>
+      <c r="U129" s="140"/>
+      <c r="V129" s="140"/>
+      <c r="W129" s="140"/>
+      <c r="X129" s="140"/>
+      <c r="Y129" s="140"/>
+      <c r="Z129" s="140"/>
+      <c r="AA129" s="141"/>
+      <c r="AB129" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC129" s="134"/>
+      <c r="AD129" s="134"/>
+      <c r="AE129" s="134"/>
+      <c r="AF129" s="134"/>
+      <c r="AG129" s="134"/>
+      <c r="AH129" s="134"/>
+      <c r="AI129" s="135"/>
+      <c r="AJ129" s="102"/>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="290" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" s="139" t="s">
-        <v>49</v>
-      </c>
+      <c r="B130" s="63"/>
+      <c r="C130" s="292"/>
+      <c r="D130" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="140"/>
       <c r="F130" s="140"/>
       <c r="G130" s="140"/>
       <c r="H130" s="140"/>
       <c r="I130" s="140"/>
       <c r="J130" s="140"/>
-      <c r="K130" s="140"/>
-      <c r="L130" s="140"/>
-      <c r="M130" s="140"/>
-      <c r="N130" s="140"/>
-      <c r="O130" s="140"/>
-      <c r="P130" s="140"/>
-      <c r="Q130" s="140"/>
-      <c r="R130" s="140"/>
-      <c r="S130" s="140"/>
-      <c r="T130" s="140"/>
-      <c r="U130" s="140"/>
-      <c r="V130" s="140"/>
-      <c r="W130" s="140"/>
-      <c r="X130" s="140"/>
-      <c r="Y130" s="140"/>
-      <c r="Z130" s="140"/>
-      <c r="AA130" s="140"/>
-      <c r="AB130" s="141"/>
-      <c r="AC130" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD130" s="134"/>
-      <c r="AE130" s="134"/>
-      <c r="AF130" s="134"/>
-      <c r="AG130" s="134"/>
-      <c r="AH130" s="134"/>
-      <c r="AI130" s="134"/>
-      <c r="AJ130" s="135"/>
-      <c r="AK130" s="102"/>
+      <c r="K130" s="141"/>
+      <c r="L130" s="320" t="s">
+        <v>51</v>
+      </c>
+      <c r="M130" s="321"/>
+      <c r="N130" s="321"/>
+      <c r="O130" s="322"/>
+      <c r="P130" s="320" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q130" s="321"/>
+      <c r="R130" s="321"/>
+      <c r="S130" s="321"/>
+      <c r="T130" s="322"/>
+      <c r="U130" s="320" t="s">
+        <v>53</v>
+      </c>
+      <c r="V130" s="321"/>
+      <c r="W130" s="321"/>
+      <c r="X130" s="321"/>
+      <c r="Y130" s="321"/>
+      <c r="Z130" s="321"/>
+      <c r="AA130" s="322"/>
+      <c r="AB130" s="136"/>
+      <c r="AC130" s="137"/>
+      <c r="AD130" s="137"/>
+      <c r="AE130" s="137"/>
+      <c r="AF130" s="137"/>
+      <c r="AG130" s="137"/>
+      <c r="AH130" s="137"/>
+      <c r="AI130" s="138"/>
+      <c r="AJ130" s="103"/>
+      <c r="AK130" s="31"/>
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A131" s="33"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="292"/>
-      <c r="E131" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="F131" s="140"/>
-      <c r="G131" s="140"/>
-      <c r="H131" s="140"/>
-      <c r="I131" s="140"/>
-      <c r="J131" s="140"/>
-      <c r="K131" s="140"/>
-      <c r="L131" s="141"/>
-      <c r="M131" s="320" t="s">
-        <v>51</v>
-      </c>
-      <c r="N131" s="321"/>
-      <c r="O131" s="321"/>
-      <c r="P131" s="322"/>
-      <c r="Q131" s="320" t="s">
-        <v>52</v>
-      </c>
-      <c r="R131" s="321"/>
-      <c r="S131" s="321"/>
-      <c r="T131" s="321"/>
-      <c r="U131" s="322"/>
-      <c r="V131" s="320" t="s">
-        <v>53</v>
-      </c>
-      <c r="W131" s="321"/>
-      <c r="X131" s="321"/>
-      <c r="Y131" s="321"/>
-      <c r="Z131" s="321"/>
-      <c r="AA131" s="321"/>
-      <c r="AB131" s="322"/>
-      <c r="AC131" s="136"/>
-      <c r="AD131" s="137"/>
-      <c r="AE131" s="137"/>
-      <c r="AF131" s="137"/>
-      <c r="AG131" s="137"/>
-      <c r="AH131" s="137"/>
-      <c r="AI131" s="137"/>
-      <c r="AJ131" s="138"/>
-      <c r="AK131" s="103"/>
-      <c r="AL131" s="31"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="146"/>
+      <c r="E131" s="146"/>
+      <c r="F131" s="146"/>
+      <c r="G131" s="146"/>
+      <c r="H131" s="146"/>
+      <c r="I131" s="146"/>
+      <c r="J131" s="146"/>
+      <c r="K131" s="146"/>
+      <c r="L131" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="M131" s="146"/>
+      <c r="N131" s="146"/>
+      <c r="O131" s="146"/>
+      <c r="P131" s="146"/>
+      <c r="Q131" s="146"/>
+      <c r="R131" s="146"/>
+      <c r="S131" s="146"/>
+      <c r="T131" s="146"/>
+      <c r="U131" s="146"/>
+      <c r="V131" s="146"/>
+      <c r="W131" s="146"/>
+      <c r="X131" s="146"/>
+      <c r="Y131" s="146"/>
+      <c r="Z131" s="146"/>
+      <c r="AA131" s="146"/>
+      <c r="AB131" s="146"/>
+      <c r="AC131" s="146"/>
+      <c r="AD131" s="146"/>
+      <c r="AE131" s="146"/>
+      <c r="AF131" s="146"/>
+      <c r="AG131" s="146"/>
+      <c r="AH131" s="146"/>
+      <c r="AI131" s="147"/>
+      <c r="AJ131" s="104"/>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="144"/>
-      <c r="H132" s="144"/>
-      <c r="I132" s="144"/>
-      <c r="J132" s="144"/>
-      <c r="K132" s="144"/>
-      <c r="L132" s="144"/>
-      <c r="M132" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="N132" s="144"/>
-      <c r="O132" s="144"/>
-      <c r="P132" s="144"/>
-      <c r="Q132" s="144"/>
-      <c r="R132" s="144"/>
-      <c r="S132" s="144"/>
-      <c r="T132" s="144"/>
-      <c r="U132" s="144"/>
-      <c r="V132" s="144"/>
-      <c r="W132" s="144"/>
-      <c r="X132" s="144"/>
-      <c r="Y132" s="144"/>
-      <c r="Z132" s="144"/>
-      <c r="AA132" s="144"/>
-      <c r="AB132" s="144"/>
-      <c r="AC132" s="144"/>
-      <c r="AD132" s="144"/>
-      <c r="AE132" s="144"/>
-      <c r="AF132" s="144"/>
-      <c r="AG132" s="144"/>
-      <c r="AH132" s="144"/>
-      <c r="AI132" s="144"/>
-      <c r="AJ132" s="145"/>
-      <c r="AK132" s="104"/>
+      <c r="C132" s="105">
+        <v>1</v>
+      </c>
+      <c r="D132" s="163"/>
+      <c r="E132" s="164"/>
+      <c r="F132" s="164"/>
+      <c r="G132" s="164"/>
+      <c r="H132" s="164"/>
+      <c r="I132" s="164"/>
+      <c r="J132" s="164"/>
+      <c r="K132" s="165"/>
+      <c r="L132" s="299"/>
+      <c r="M132" s="300"/>
+      <c r="N132" s="300"/>
+      <c r="O132" s="301"/>
+      <c r="P132" s="283"/>
+      <c r="Q132" s="284"/>
+      <c r="R132" s="284"/>
+      <c r="S132" s="284"/>
+      <c r="T132" s="285"/>
+      <c r="U132" s="163"/>
+      <c r="V132" s="164"/>
+      <c r="W132" s="164"/>
+      <c r="X132" s="164"/>
+      <c r="Y132" s="164"/>
+      <c r="Z132" s="164"/>
+      <c r="AA132" s="165"/>
+      <c r="AB132" s="130"/>
+      <c r="AC132" s="131"/>
+      <c r="AD132" s="131"/>
+      <c r="AE132" s="131"/>
+      <c r="AF132" s="131"/>
+      <c r="AG132" s="131"/>
+      <c r="AH132" s="131"/>
+      <c r="AI132" s="132"/>
+      <c r="AJ132" s="89"/>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="105">
-        <v>1</v>
-      </c>
-      <c r="E133" s="130"/>
-      <c r="F133" s="131"/>
-      <c r="G133" s="131"/>
-      <c r="H133" s="131"/>
-      <c r="I133" s="131"/>
-      <c r="J133" s="131"/>
-      <c r="K133" s="131"/>
-      <c r="L133" s="132"/>
-      <c r="M133" s="299"/>
-      <c r="N133" s="300"/>
-      <c r="O133" s="300"/>
-      <c r="P133" s="301"/>
-      <c r="Q133" s="283"/>
-      <c r="R133" s="284"/>
-      <c r="S133" s="284"/>
-      <c r="T133" s="284"/>
-      <c r="U133" s="285"/>
-      <c r="V133" s="163"/>
-      <c r="W133" s="164"/>
-      <c r="X133" s="164"/>
-      <c r="Y133" s="164"/>
-      <c r="Z133" s="164"/>
-      <c r="AA133" s="164"/>
-      <c r="AB133" s="165"/>
-      <c r="AC133" s="130"/>
-      <c r="AD133" s="131"/>
-      <c r="AE133" s="131"/>
-      <c r="AF133" s="131"/>
-      <c r="AG133" s="131"/>
-      <c r="AH133" s="131"/>
-      <c r="AI133" s="131"/>
-      <c r="AJ133" s="132"/>
-      <c r="AK133" s="89"/>
+      <c r="C133" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" s="146"/>
+      <c r="E133" s="146"/>
+      <c r="F133" s="146"/>
+      <c r="G133" s="146"/>
+      <c r="H133" s="146"/>
+      <c r="I133" s="146"/>
+      <c r="J133" s="146"/>
+      <c r="K133" s="146"/>
+      <c r="L133" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="M133" s="146"/>
+      <c r="N133" s="146"/>
+      <c r="O133" s="146"/>
+      <c r="P133" s="146"/>
+      <c r="Q133" s="146"/>
+      <c r="R133" s="146"/>
+      <c r="S133" s="146"/>
+      <c r="T133" s="146"/>
+      <c r="U133" s="146"/>
+      <c r="V133" s="146"/>
+      <c r="W133" s="146"/>
+      <c r="X133" s="146"/>
+      <c r="Y133" s="146"/>
+      <c r="Z133" s="146"/>
+      <c r="AA133" s="146"/>
+      <c r="AB133" s="146"/>
+      <c r="AC133" s="146"/>
+      <c r="AD133" s="146"/>
+      <c r="AE133" s="146"/>
+      <c r="AF133" s="146"/>
+      <c r="AG133" s="146"/>
+      <c r="AH133" s="146"/>
+      <c r="AI133" s="147"/>
+      <c r="AJ133" s="104"/>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" s="144"/>
-      <c r="F134" s="144"/>
-      <c r="G134" s="144"/>
-      <c r="H134" s="144"/>
-      <c r="I134" s="144"/>
-      <c r="J134" s="144"/>
-      <c r="K134" s="144"/>
-      <c r="L134" s="144"/>
-      <c r="M134" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="N134" s="144"/>
-      <c r="O134" s="144"/>
-      <c r="P134" s="144"/>
-      <c r="Q134" s="144"/>
-      <c r="R134" s="144"/>
-      <c r="S134" s="144"/>
-      <c r="T134" s="144"/>
-      <c r="U134" s="144"/>
-      <c r="V134" s="144"/>
-      <c r="W134" s="144"/>
-      <c r="X134" s="144"/>
-      <c r="Y134" s="144"/>
-      <c r="Z134" s="144"/>
-      <c r="AA134" s="144"/>
-      <c r="AB134" s="144"/>
-      <c r="AC134" s="144"/>
-      <c r="AD134" s="144"/>
-      <c r="AE134" s="144"/>
-      <c r="AF134" s="144"/>
-      <c r="AG134" s="144"/>
-      <c r="AH134" s="144"/>
-      <c r="AI134" s="144"/>
-      <c r="AJ134" s="145"/>
-      <c r="AK134" s="104"/>
+      <c r="C134" s="105">
+        <v>2</v>
+      </c>
+      <c r="D134" s="163"/>
+      <c r="E134" s="164"/>
+      <c r="F134" s="164"/>
+      <c r="G134" s="164"/>
+      <c r="H134" s="164"/>
+      <c r="I134" s="164"/>
+      <c r="J134" s="164"/>
+      <c r="K134" s="165"/>
+      <c r="L134" s="299"/>
+      <c r="M134" s="300"/>
+      <c r="N134" s="300"/>
+      <c r="O134" s="301"/>
+      <c r="P134" s="283"/>
+      <c r="Q134" s="284"/>
+      <c r="R134" s="284"/>
+      <c r="S134" s="284"/>
+      <c r="T134" s="285"/>
+      <c r="U134" s="163"/>
+      <c r="V134" s="164"/>
+      <c r="W134" s="164"/>
+      <c r="X134" s="164"/>
+      <c r="Y134" s="164"/>
+      <c r="Z134" s="164"/>
+      <c r="AA134" s="165"/>
+      <c r="AB134" s="130"/>
+      <c r="AC134" s="131"/>
+      <c r="AD134" s="131"/>
+      <c r="AE134" s="131"/>
+      <c r="AF134" s="131"/>
+      <c r="AG134" s="131"/>
+      <c r="AH134" s="131"/>
+      <c r="AI134" s="132"/>
+      <c r="AJ134" s="89"/>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
-      <c r="D135" s="105">
-        <v>2</v>
-      </c>
-      <c r="E135" s="130"/>
-      <c r="F135" s="131"/>
-      <c r="G135" s="131"/>
-      <c r="H135" s="131"/>
-      <c r="I135" s="131"/>
-      <c r="J135" s="131"/>
-      <c r="K135" s="131"/>
-      <c r="L135" s="132"/>
-      <c r="M135" s="299"/>
-      <c r="N135" s="300"/>
-      <c r="O135" s="300"/>
-      <c r="P135" s="301"/>
-      <c r="Q135" s="283"/>
-      <c r="R135" s="284"/>
-      <c r="S135" s="284"/>
-      <c r="T135" s="284"/>
-      <c r="U135" s="285"/>
-      <c r="V135" s="163"/>
-      <c r="W135" s="164"/>
-      <c r="X135" s="164"/>
-      <c r="Y135" s="164"/>
-      <c r="Z135" s="164"/>
-      <c r="AA135" s="164"/>
-      <c r="AB135" s="165"/>
-      <c r="AC135" s="130"/>
-      <c r="AD135" s="131"/>
-      <c r="AE135" s="131"/>
-      <c r="AF135" s="131"/>
-      <c r="AG135" s="131"/>
-      <c r="AH135" s="131"/>
-      <c r="AI135" s="131"/>
-      <c r="AJ135" s="132"/>
-      <c r="AK135" s="89"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="33"/>
+      <c r="Y135" s="33"/>
+      <c r="Z135" s="33"/>
+      <c r="AA135" s="33"/>
+      <c r="AB135" s="33"/>
+      <c r="AC135" s="33"/>
+      <c r="AD135" s="33"/>
+      <c r="AE135" s="33"/>
+      <c r="AF135" s="33"/>
+      <c r="AG135" s="33"/>
+      <c r="AH135" s="33"/>
+      <c r="AI135" s="33"/>
+      <c r="AJ135" s="33"/>
+      <c r="AK135" s="33"/>
+      <c r="AL135" s="33"/>
+      <c r="AM135" s="33"/>
+      <c r="AN135" s="33"/>
+      <c r="AO135" s="33"/>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A136" s="33"/>
@@ -12512,41 +12499,6 @@
       <c r="AO137" s="33"/>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="33"/>
-      <c r="K138" s="33"/>
-      <c r="L138" s="33"/>
-      <c r="M138" s="33"/>
-      <c r="N138" s="33"/>
-      <c r="O138" s="33"/>
-      <c r="P138" s="33"/>
-      <c r="Q138" s="33"/>
-      <c r="R138" s="33"/>
-      <c r="S138" s="33"/>
-      <c r="T138" s="33"/>
-      <c r="U138" s="33"/>
-      <c r="V138" s="33"/>
-      <c r="W138" s="33"/>
-      <c r="X138" s="33"/>
-      <c r="Y138" s="33"/>
-      <c r="Z138" s="33"/>
-      <c r="AA138" s="33"/>
-      <c r="AB138" s="33"/>
-      <c r="AC138" s="33"/>
-      <c r="AD138" s="33"/>
-      <c r="AE138" s="33"/>
-      <c r="AF138" s="33"/>
-      <c r="AG138" s="33"/>
-      <c r="AH138" s="33"/>
-      <c r="AI138" s="33"/>
       <c r="AJ138" s="33"/>
       <c r="AK138" s="33"/>
       <c r="AL138" s="33"/>
@@ -12554,16 +12506,6 @@
       <c r="AN138" s="33"/>
       <c r="AO138" s="33"/>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="AJ139" s="33"/>
-      <c r="AK139" s="33"/>
-      <c r="AL139" s="33"/>
-      <c r="AM139" s="33"/>
-      <c r="AN139" s="33"/>
-      <c r="AO139" s="33"/>
-    </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A140" s="33"/>
     </row>
@@ -12571,22 +12513,22 @@
       <c r="A141" s="33"/>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A142" s="33"/>
+      <c r="A142" s="63"/>
+      <c r="B142" s="31"/>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A143" s="63"/>
-      <c r="B143" s="31"/>
-    </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="33"/>
     </row>
-    <row r="145" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="33"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="33"/>
     </row>
-    <row r="147" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="33"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -12602,31 +12544,34 @@
       <c r="A151" s="33"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="33"/>
+      <c r="A152" s="63"/>
+      <c r="B152" s="31"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="63"/>
-      <c r="B153" s="31"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+    </row>
+    <row r="154" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
     </row>
-    <row r="155" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
     </row>
-    <row r="157" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -12704,22 +12649,8 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-    </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="P73:U73"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V60:Z60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="V63:Z63"/>
-    <mergeCell ref="V58:Z58"/>
+  <mergeCells count="162">
     <mergeCell ref="AE58:AH58"/>
     <mergeCell ref="AE59:AH59"/>
     <mergeCell ref="AE60:AH60"/>
@@ -12736,16 +12667,17 @@
     <mergeCell ref="AA62:AC62"/>
     <mergeCell ref="V64:Z64"/>
     <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="R82:Y82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="V133:AB133"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="V73:AH74"/>
-    <mergeCell ref="V76:AH76"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="V75:AH75"/>
+    <mergeCell ref="P73:U73"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="V63:Z63"/>
     <mergeCell ref="V77:AH77"/>
     <mergeCell ref="T77:U77"/>
     <mergeCell ref="T76:U76"/>
@@ -12756,25 +12688,11 @@
     <mergeCell ref="AE83:AH83"/>
     <mergeCell ref="Z84:AD84"/>
     <mergeCell ref="AE84:AH84"/>
-    <mergeCell ref="M131:P131"/>
-    <mergeCell ref="Q131:U131"/>
-    <mergeCell ref="V131:AB131"/>
-    <mergeCell ref="V75:AH75"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="N63:U63"/>
-    <mergeCell ref="N64:U64"/>
-    <mergeCell ref="V135:AB135"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:J74"/>
     <mergeCell ref="K73:N74"/>
     <mergeCell ref="E75:J75"/>
     <mergeCell ref="K75:N75"/>
-    <mergeCell ref="M133:P133"/>
-    <mergeCell ref="Q133:U133"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:T132"/>
     <mergeCell ref="E83:J83"/>
     <mergeCell ref="E84:J84"/>
     <mergeCell ref="E85:J85"/>
@@ -12784,15 +12702,22 @@
     <mergeCell ref="R83:Y83"/>
     <mergeCell ref="R84:Y84"/>
     <mergeCell ref="R85:Y85"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="V73:AH74"/>
+    <mergeCell ref="V76:AH76"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="Q135:U135"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="P134:T134"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="E2:N2"/>
@@ -12808,6 +12733,9 @@
     <mergeCell ref="J63:M63"/>
     <mergeCell ref="J64:M64"/>
     <mergeCell ref="J65:M65"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="N63:U63"/>
+    <mergeCell ref="N64:U64"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="V45:AC45"/>
     <mergeCell ref="V46:AC46"/>
@@ -12841,8 +12769,6 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="N61:U61"/>
     <mergeCell ref="E45:M45"/>
     <mergeCell ref="E47:M47"/>
     <mergeCell ref="J59:M59"/>
@@ -12861,6 +12787,10 @@
     <mergeCell ref="AA59:AC59"/>
     <mergeCell ref="N58:U58"/>
     <mergeCell ref="N59:U59"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D134:K134"/>
     <mergeCell ref="AL56:AO56"/>
     <mergeCell ref="AL57:AO57"/>
     <mergeCell ref="AL55:AO55"/>
@@ -12872,6 +12802,17 @@
     <mergeCell ref="AD53:AD54"/>
     <mergeCell ref="N56:U56"/>
     <mergeCell ref="N57:U57"/>
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="N61:U61"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="U134:AA134"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:J74"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12905,7 +12846,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>データ!$E$2:$E$4</xm:f>
@@ -12916,13 +12857,7 @@
           <x14:formula1>
             <xm:f>データ!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M135:P135</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>データ!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>M133:P133</xm:sqref>
+          <xm:sqref>L134:O134 L132:O132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12969,7 +12904,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="98"/>
       <c r="B2" s="98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="110" t="s">
@@ -12984,7 +12919,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="98" t="s">
         <v>30</v>
@@ -13001,7 +12936,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="98" t="s">
         <v>31</v>
@@ -13018,7 +12953,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="98" t="s">
         <v>32</v>

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
@@ -192,10 +192,10 @@
           </rPr>
           <t>当画面で発生しうるイベントについて記述する。
 例）
-初期表示
-ボタン押下時
-アンカーリンク押下時
-JavaScriptによる制御</t>
+・初期表示
+・ボタン押下時の同時処理(更新処理など)
+・アンカーリンク押下時の処理(詳細画面遷移など)
+・特定のキー押下時の処理</t>
         </r>
       </text>
     </comment>
@@ -210,7 +210,7 @@
             <charset val="128"/>
           </rPr>
           <t>どのような処理が実行され、どの画面に遷移するのかといった処理の概要を記述する。
-イベントの処理内容の詳細は、ここには書かず、「2.5.画面イベント詳細」に記述する。</t>
+イベントの処理内容の詳細は、ここには書かず、「2.6.画面イベント詳細」に記述する。</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>イベントに対する、サーバ通信を有無を選択する。
+          <t>イベントに対する、サーバ通信の有無を選択する。
 それぞれの選択肢は以下のようなことを表す。
 あり(同期)：画面遷移を伴う通信
 あり(非同期)：Ajaxによる通信
@@ -1131,7 +1131,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2112,6 +2112,150 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2154,149 +2298,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2325,15 +2334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2382,6 +2382,99 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2391,6 +2484,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2400,6 +2538,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2466,199 +2655,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3455,42 +3455,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3501,7 +3501,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3510,7 +3510,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3522,7 +3522,7 @@
       <c r="K25" s="148"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3531,7 +3531,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3540,7 +3540,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3549,7 +3549,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3557,7 +3557,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3566,7 +3566,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3575,7 +3575,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3586,7 +3586,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3598,7 +3598,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3615,515 +3615,515 @@
       <c r="R34" s="126"/>
       <c r="S34" s="126"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="126"/>
       <c r="R35" s="126"/>
       <c r="S35" s="126"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="127"/>
       <c r="P36" s="126"/>
       <c r="Q36" s="127"/>
       <c r="R36" s="126"/>
       <c r="S36" s="124"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="128"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="128"/>
       <c r="R37" s="129"/>
       <c r="S37" s="128"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="129"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="129"/>
       <c r="R38" s="129"/>
       <c r="S38" s="129"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="129"/>
       <c r="P39" s="129"/>
       <c r="Q39" s="129"/>
       <c r="R39" s="129"/>
       <c r="S39" s="129"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4148,162 +4148,162 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="152" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="149" t="s">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="155" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="149" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="149" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="193" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="155" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="149" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="190"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="16" customFormat="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4345,7 +4345,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4389,7 +4389,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4431,1020 +4431,1020 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="175" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="175" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="175" t="s">
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177"/>
-      <c r="AE7" s="176"/>
-      <c r="AF7" s="175" t="s">
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="176"/>
-    </row>
-    <row r="8" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="166"/>
+    </row>
+    <row r="8" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="144"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188"/>
-      <c r="AE8" s="189"/>
-      <c r="AF8" s="199"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="201"/>
-    </row>
-    <row r="9" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="178"/>
+    </row>
+    <row r="9" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="164"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="166"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="168"/>
-    </row>
-    <row r="10" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="161"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="174"/>
+      <c r="AI9" s="175"/>
+    </row>
+    <row r="10" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="56"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="168"/>
-    </row>
-    <row r="11" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="161"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="174"/>
+      <c r="AI10" s="175"/>
+    </row>
+    <row r="11" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="168"/>
-    </row>
-    <row r="12" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="161"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="171"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="175"/>
+    </row>
+    <row r="12" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="166"/>
-      <c r="AG12" s="167"/>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="168"/>
-    </row>
-    <row r="13" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="161"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="171"/>
+      <c r="AA12" s="171"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="174"/>
+      <c r="AH12" s="174"/>
+      <c r="AI12" s="175"/>
+    </row>
+    <row r="13" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="164"/>
-      <c r="AB13" s="164"/>
-      <c r="AC13" s="164"/>
-      <c r="AD13" s="164"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="168"/>
-    </row>
-    <row r="14" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="161"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="175"/>
+    </row>
+    <row r="14" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="56"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="164"/>
-      <c r="AB14" s="164"/>
-      <c r="AC14" s="164"/>
-      <c r="AD14" s="164"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="166"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="168"/>
-    </row>
-    <row r="15" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="161"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="175"/>
+    </row>
+    <row r="15" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="164"/>
-      <c r="AB15" s="164"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="166"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="168"/>
-    </row>
-    <row r="16" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="161"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="174"/>
+      <c r="AH15" s="174"/>
+      <c r="AI15" s="175"/>
+    </row>
+    <row r="16" spans="1:40" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="168"/>
-    </row>
-    <row r="17" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="161"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="171"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="174"/>
+      <c r="AI16" s="175"/>
+    </row>
+    <row r="17" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="56"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="166"/>
-      <c r="AG17" s="167"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="168"/>
-    </row>
-    <row r="18" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="161"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="174"/>
+      <c r="AI17" s="175"/>
+    </row>
+    <row r="18" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="56"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="166"/>
-      <c r="AG18" s="167"/>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="168"/>
-    </row>
-    <row r="19" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="161"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="175"/>
+    </row>
+    <row r="19" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="168"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="166"/>
-      <c r="AG19" s="167"/>
-      <c r="AH19" s="167"/>
-      <c r="AI19" s="168"/>
-    </row>
-    <row r="20" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="161"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="171"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="174"/>
+      <c r="AH19" s="174"/>
+      <c r="AI19" s="175"/>
+    </row>
+    <row r="20" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="164"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="166"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="167"/>
-      <c r="AI20" s="168"/>
-    </row>
-    <row r="21" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="161"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="174"/>
+      <c r="AH20" s="174"/>
+      <c r="AI20" s="175"/>
+    </row>
+    <row r="21" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="168"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="164"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="166"/>
-      <c r="AG21" s="167"/>
-      <c r="AH21" s="167"/>
-      <c r="AI21" s="168"/>
-    </row>
-    <row r="22" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="161"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="174"/>
+      <c r="AH21" s="174"/>
+      <c r="AI21" s="175"/>
+    </row>
+    <row r="22" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="167"/>
-      <c r="P22" s="168"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="167"/>
-      <c r="AH22" s="167"/>
-      <c r="AI22" s="168"/>
-    </row>
-    <row r="23" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="161"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="171"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="171"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="171"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="174"/>
+      <c r="AH22" s="174"/>
+      <c r="AI22" s="175"/>
+    </row>
+    <row r="23" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="166"/>
-      <c r="AG23" s="167"/>
-      <c r="AH23" s="167"/>
-      <c r="AI23" s="168"/>
-    </row>
-    <row r="24" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="161"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="171"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="171"/>
+      <c r="AB23" s="171"/>
+      <c r="AC23" s="171"/>
+      <c r="AD23" s="171"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="174"/>
+      <c r="AH23" s="174"/>
+      <c r="AI23" s="175"/>
+    </row>
+    <row r="24" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="167"/>
-      <c r="P24" s="168"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="166"/>
-      <c r="AG24" s="167"/>
-      <c r="AH24" s="167"/>
-      <c r="AI24" s="168"/>
-    </row>
-    <row r="25" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="161"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="174"/>
+      <c r="AH24" s="174"/>
+      <c r="AI24" s="175"/>
+    </row>
+    <row r="25" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="167"/>
-      <c r="P25" s="168"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
-      <c r="X25" s="164"/>
-      <c r="Y25" s="164"/>
-      <c r="Z25" s="164"/>
-      <c r="AA25" s="164"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="166"/>
-      <c r="AG25" s="167"/>
-      <c r="AH25" s="167"/>
-      <c r="AI25" s="168"/>
-    </row>
-    <row r="26" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="161"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="174"/>
+      <c r="AH25" s="174"/>
+      <c r="AI25" s="175"/>
+    </row>
+    <row r="26" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="56"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="167"/>
-      <c r="AH26" s="167"/>
-      <c r="AI26" s="168"/>
-    </row>
-    <row r="27" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="161"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="171"/>
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="171"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="174"/>
+      <c r="AI26" s="175"/>
+    </row>
+    <row r="27" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="164"/>
-      <c r="T27" s="164"/>
-      <c r="U27" s="164"/>
-      <c r="V27" s="164"/>
-      <c r="W27" s="164"/>
-      <c r="X27" s="164"/>
-      <c r="Y27" s="164"/>
-      <c r="Z27" s="164"/>
-      <c r="AA27" s="164"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="164"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="166"/>
-      <c r="AG27" s="167"/>
-      <c r="AH27" s="167"/>
-      <c r="AI27" s="168"/>
-    </row>
-    <row r="28" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="161"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="171"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="171"/>
+      <c r="W27" s="171"/>
+      <c r="X27" s="171"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="171"/>
+      <c r="AA27" s="171"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="171"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="174"/>
+      <c r="AH27" s="174"/>
+      <c r="AI27" s="175"/>
+    </row>
+    <row r="28" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164"/>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="167"/>
-      <c r="AH28" s="167"/>
-      <c r="AI28" s="168"/>
-    </row>
-    <row r="29" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="161"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="174"/>
+      <c r="AH28" s="174"/>
+      <c r="AI28" s="175"/>
+    </row>
+    <row r="29" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="164"/>
-      <c r="S29" s="164"/>
-      <c r="T29" s="164"/>
-      <c r="U29" s="164"/>
-      <c r="V29" s="164"/>
-      <c r="W29" s="164"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="164"/>
-      <c r="Z29" s="164"/>
-      <c r="AA29" s="164"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="164"/>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="167"/>
-      <c r="AH29" s="167"/>
-      <c r="AI29" s="168"/>
-    </row>
-    <row r="30" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="161"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="171"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="174"/>
+      <c r="AH29" s="174"/>
+      <c r="AI29" s="175"/>
+    </row>
+    <row r="30" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
-      <c r="T30" s="164"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="166"/>
-      <c r="AG30" s="167"/>
-      <c r="AH30" s="167"/>
-      <c r="AI30" s="168"/>
-    </row>
-    <row r="31" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="161"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="172"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="174"/>
+      <c r="AH30" s="174"/>
+      <c r="AI30" s="175"/>
+    </row>
+    <row r="31" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="56"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="168"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="164"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="164"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="164"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="164"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="164"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="165"/>
-      <c r="AF31" s="166"/>
-      <c r="AG31" s="167"/>
-      <c r="AH31" s="167"/>
-      <c r="AI31" s="168"/>
-    </row>
-    <row r="32" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="161"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="174"/>
+      <c r="AH31" s="174"/>
+      <c r="AI31" s="175"/>
+    </row>
+    <row r="32" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="56"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="167"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="164"/>
-      <c r="S32" s="164"/>
-      <c r="T32" s="164"/>
-      <c r="U32" s="164"/>
-      <c r="V32" s="164"/>
-      <c r="W32" s="164"/>
-      <c r="X32" s="164"/>
-      <c r="Y32" s="164"/>
-      <c r="Z32" s="164"/>
-      <c r="AA32" s="164"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="164"/>
-      <c r="AD32" s="164"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="166"/>
-      <c r="AG32" s="167"/>
-      <c r="AH32" s="167"/>
-      <c r="AI32" s="168"/>
-    </row>
-    <row r="33" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="161"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="174"/>
+      <c r="AH32" s="174"/>
+      <c r="AI32" s="175"/>
+    </row>
+    <row r="33" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="56"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
-      <c r="AF33" s="166"/>
-      <c r="AG33" s="167"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="168"/>
-    </row>
-    <row r="34" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="161"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="174"/>
+      <c r="AH33" s="174"/>
+      <c r="AI33" s="175"/>
+    </row>
+    <row r="34" spans="1:35" s="62" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -5483,161 +5483,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5662,6 +5507,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5682,7 +5682,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="68" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="49" customWidth="1"/>
@@ -5817,160 +5817,160 @@
     <col min="16163" max="16384" width="4.83203125" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="196" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="152" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="211" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="149" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="220" t="str">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="149" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="196" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="149" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="149" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="196" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6007,7 +6007,7 @@
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
     </row>
-    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6046,7 +6046,7 @@
       <c r="AH5" s="29"/>
       <c r="AI5" s="29"/>
     </row>
-    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -6083,7 +6083,7 @@
       <c r="AH6" s="63"/>
       <c r="AI6" s="63"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
         <v>54</v>
@@ -6122,7 +6122,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="67"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
@@ -6161,7 +6161,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="67"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="60"/>
       <c r="C9" s="37"/>
@@ -6198,7 +6198,7 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
         <v>102</v>
@@ -6237,7 +6237,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="67"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="60"/>
       <c r="C11" s="41" t="s">
@@ -6276,7 +6276,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="67"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="31"/>
       <c r="B12" s="60"/>
       <c r="C12" s="31" t="s">
@@ -6310,7 +6310,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="67"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="31"/>
       <c r="B13" s="67"/>
       <c r="C13" s="28" t="s">
@@ -6349,7 +6349,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="67"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="31"/>
       <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
@@ -6388,7 +6388,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="67"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="31"/>
       <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
@@ -6423,7 +6423,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="67"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="31"/>
       <c r="B16" s="63"/>
       <c r="C16" s="31" t="s">
@@ -6462,7 +6462,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="67"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="63"/>
       <c r="C17" s="33"/>
@@ -6498,7 +6498,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="67"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="31"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
@@ -6528,7 +6528,7 @@
       <c r="AH18" s="38"/>
       <c r="AI18" s="67"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="31"/>
       <c r="B19" s="63"/>
       <c r="C19" s="31"/>
@@ -6565,7 +6565,7 @@
       <c r="AH19" s="38"/>
       <c r="AI19" s="67"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="31"/>
       <c r="B20" s="63"/>
       <c r="C20" s="31"/>
@@ -6602,7 +6602,7 @@
       <c r="AH20" s="38"/>
       <c r="AI20" s="67"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="31"/>
       <c r="B21" s="63"/>
       <c r="C21" s="31"/>
@@ -6639,7 +6639,7 @@
       <c r="AH21" s="38"/>
       <c r="AI21" s="67"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="31"/>
       <c r="B22" s="63"/>
       <c r="C22" s="31"/>
@@ -6676,7 +6676,7 @@
       <c r="AH22" s="38"/>
       <c r="AI22" s="67"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="31"/>
       <c r="B23" s="70"/>
       <c r="C23" s="60"/>
@@ -6713,7 +6713,7 @@
       <c r="AH23" s="38"/>
       <c r="AI23" s="67"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="31"/>
       <c r="B24" s="63"/>
       <c r="C24" s="31"/>
@@ -6750,7 +6750,7 @@
       <c r="AH24" s="38"/>
       <c r="AI24" s="67"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="63"/>
       <c r="C25" s="31"/>
@@ -6787,7 +6787,7 @@
       <c r="AH25" s="38"/>
       <c r="AI25" s="67"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="31"/>
       <c r="B26" s="63"/>
       <c r="C26" s="31"/>
@@ -6824,7 +6824,7 @@
       <c r="AH26" s="38"/>
       <c r="AI26" s="67"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="31"/>
       <c r="B27" s="63"/>
       <c r="C27" s="31"/>
@@ -6861,7 +6861,7 @@
       <c r="AH27" s="38"/>
       <c r="AI27" s="67"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="31"/>
       <c r="B28" s="63"/>
       <c r="C28" s="31"/>
@@ -6898,7 +6898,7 @@
       <c r="AH28" s="38"/>
       <c r="AI28" s="67"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="31"/>
       <c r="B29" s="63"/>
       <c r="C29" s="31"/>
@@ -6935,7 +6935,7 @@
       <c r="AH29" s="38"/>
       <c r="AI29" s="67"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
@@ -6972,7 +6972,7 @@
       <c r="AH30" s="42"/>
       <c r="AI30" s="73"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
@@ -7009,7 +7009,7 @@
       <c r="AH31" s="42"/>
       <c r="AI31" s="73"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="74"/>
       <c r="C32" s="31"/>
@@ -7046,7 +7046,7 @@
       <c r="AH32" s="42"/>
       <c r="AI32" s="73"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="74"/>
       <c r="C33" s="31"/>
@@ -7083,7 +7083,7 @@
       <c r="AH33" s="42"/>
       <c r="AI33" s="73"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="74"/>
       <c r="C34" s="31"/>
@@ -7120,7 +7120,7 @@
       <c r="AH34" s="42"/>
       <c r="AI34" s="73"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="74"/>
       <c r="C35" s="31"/>
@@ -7157,7 +7157,7 @@
       <c r="AH35" s="42"/>
       <c r="AI35" s="73"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -7194,7 +7194,7 @@
       <c r="AH36" s="47"/>
       <c r="AI36" s="26"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="76"/>
       <c r="E37" s="76"/>
       <c r="F37" s="76"/>
@@ -7226,7 +7226,7 @@
       <c r="AH37" s="50"/>
       <c r="AI37" s="77"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="77"/>
       <c r="T38" s="77"/>
       <c r="U38" s="78"/>
@@ -7245,7 +7245,7 @@
       <c r="AH38" s="52"/>
       <c r="AI38" s="77"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="53"/>
       <c r="S39" s="77"/>
       <c r="T39" s="78"/>
@@ -7265,7 +7265,7 @@
       <c r="AH39" s="52"/>
       <c r="AI39" s="77"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="77"/>
       <c r="T40" s="77"/>
       <c r="U40" s="77"/>
@@ -7284,7 +7284,7 @@
       <c r="AH40" s="52"/>
       <c r="AI40" s="77"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="76"/>
       <c r="K41" s="76"/>
       <c r="L41" s="76"/>
@@ -7298,37 +7298,37 @@
       <c r="AH41" s="52"/>
       <c r="AI41" s="77"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="77"/>
       <c r="AF42" s="81"/>
       <c r="AG42" s="51"/>
       <c r="AH42" s="52"/>
       <c r="AI42" s="77"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="77"/>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="77"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="76"/>
       <c r="AF44" s="82"/>
       <c r="AG44" s="82"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="76"/>
       <c r="AG45" s="82"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="82"/>
       <c r="AG46" s="82"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="82"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="76"/>
       <c r="T48" s="76"/>
       <c r="V48" s="76"/>
@@ -7341,7 +7341,7 @@
       <c r="AC48" s="76"/>
       <c r="AD48" s="76"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
       <c r="T49" s="76"/>
@@ -7356,10 +7356,10 @@
       <c r="AD49" s="76"/>
       <c r="AG49" s="82"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="76"/>
     </row>
-    <row r="51" spans="1:34" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="76" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -7392,7 +7392,7 @@
       <c r="AD51" s="68"/>
       <c r="AH51" s="53"/>
     </row>
-    <row r="52" spans="1:34" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="76" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
@@ -7427,14 +7427,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7444,6 +7436,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7464,177 +7464,177 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="196" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="152" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="211" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="149" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="220" t="str">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
-    </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="149" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="196" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="149" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-    </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="149" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="196" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
-    </row>
-    <row r="4" spans="1:35" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" s="17" customFormat="1" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B5" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="C6" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1"/>
+    <row r="8" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="83"/>
       <c r="C8" s="233" t="s">
         <v>58</v>
@@ -7642,11 +7642,11 @@
       <c r="D8" s="234"/>
       <c r="E8" s="234"/>
       <c r="F8" s="235"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
       <c r="L8" s="234"/>
       <c r="M8" s="234"/>
       <c r="N8" s="234"/>
@@ -7670,7 +7670,7 @@
       <c r="AF8" s="234"/>
       <c r="AG8" s="235"/>
     </row>
-    <row r="9" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B9" s="83"/>
       <c r="C9" s="236" t="s">
         <v>59</v>
@@ -7678,7 +7678,7 @@
       <c r="D9" s="237"/>
       <c r="E9" s="237"/>
       <c r="F9" s="238"/>
-      <c r="G9" s="166"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="234"/>
       <c r="I9" s="234"/>
       <c r="J9" s="234"/>
@@ -7706,7 +7706,7 @@
       <c r="AF9" s="234"/>
       <c r="AG9" s="235"/>
     </row>
-    <row r="10" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="83"/>
       <c r="C10" s="224" t="s">
         <v>60</v>
@@ -7742,7 +7742,7 @@
       <c r="AF10" s="112"/>
       <c r="AG10" s="113"/>
     </row>
-    <row r="11" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="83"/>
       <c r="C11" s="227"/>
       <c r="D11" s="228"/>
@@ -7776,7 +7776,7 @@
       <c r="AF11" s="27"/>
       <c r="AG11" s="115"/>
     </row>
-    <row r="12" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B12" s="83"/>
       <c r="C12" s="227"/>
       <c r="D12" s="228"/>
@@ -7810,7 +7810,7 @@
       <c r="AF12" s="27"/>
       <c r="AG12" s="115"/>
     </row>
-    <row r="13" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="83"/>
       <c r="C13" s="227"/>
       <c r="D13" s="228"/>
@@ -7844,7 +7844,7 @@
       <c r="AF13" s="27"/>
       <c r="AG13" s="115"/>
     </row>
-    <row r="14" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B14" s="83"/>
       <c r="C14" s="227"/>
       <c r="D14" s="228"/>
@@ -7878,7 +7878,7 @@
       <c r="AF14" s="27"/>
       <c r="AG14" s="115"/>
     </row>
-    <row r="15" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B15" s="83"/>
       <c r="C15" s="227"/>
       <c r="D15" s="228"/>
@@ -7912,7 +7912,7 @@
       <c r="AF15" s="27"/>
       <c r="AG15" s="115"/>
     </row>
-    <row r="16" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B16" s="83"/>
       <c r="C16" s="227"/>
       <c r="D16" s="228"/>
@@ -7946,7 +7946,7 @@
       <c r="AF16" s="27"/>
       <c r="AG16" s="115"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B17" s="83"/>
       <c r="C17" s="227"/>
       <c r="D17" s="228"/>
@@ -7980,7 +7980,7 @@
       <c r="AF17" s="27"/>
       <c r="AG17" s="115"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B18" s="83"/>
       <c r="C18" s="227"/>
       <c r="D18" s="228"/>
@@ -8014,7 +8014,7 @@
       <c r="AF18" s="27"/>
       <c r="AG18" s="115"/>
     </row>
-    <row r="19" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B19" s="83"/>
       <c r="C19" s="227"/>
       <c r="D19" s="228"/>
@@ -8048,7 +8048,7 @@
       <c r="AF19" s="27"/>
       <c r="AG19" s="115"/>
     </row>
-    <row r="20" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B20" s="83"/>
       <c r="C20" s="227"/>
       <c r="D20" s="228"/>
@@ -8082,7 +8082,7 @@
       <c r="AF20" s="27"/>
       <c r="AG20" s="115"/>
     </row>
-    <row r="21" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B21" s="83"/>
       <c r="C21" s="227"/>
       <c r="D21" s="228"/>
@@ -8116,7 +8116,7 @@
       <c r="AF21" s="27"/>
       <c r="AG21" s="115"/>
     </row>
-    <row r="22" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B22" s="83"/>
       <c r="C22" s="227"/>
       <c r="D22" s="228"/>
@@ -8150,7 +8150,7 @@
       <c r="AF22" s="27"/>
       <c r="AG22" s="115"/>
     </row>
-    <row r="23" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B23" s="83"/>
       <c r="C23" s="227"/>
       <c r="D23" s="228"/>
@@ -8184,7 +8184,7 @@
       <c r="AF23" s="27"/>
       <c r="AG23" s="115"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B24" s="83"/>
       <c r="C24" s="227"/>
       <c r="D24" s="228"/>
@@ -8218,7 +8218,7 @@
       <c r="AF24" s="27"/>
       <c r="AG24" s="115"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B25" s="83"/>
       <c r="C25" s="227"/>
       <c r="D25" s="228"/>
@@ -8252,7 +8252,7 @@
       <c r="AF25" s="27"/>
       <c r="AG25" s="115"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B26" s="83"/>
       <c r="C26" s="227"/>
       <c r="D26" s="228"/>
@@ -8286,7 +8286,7 @@
       <c r="AF26" s="27"/>
       <c r="AG26" s="115"/>
     </row>
-    <row r="27" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B27" s="83"/>
       <c r="C27" s="227"/>
       <c r="D27" s="228"/>
@@ -8320,7 +8320,7 @@
       <c r="AF27" s="27"/>
       <c r="AG27" s="115"/>
     </row>
-    <row r="28" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B28" s="83"/>
       <c r="C28" s="227"/>
       <c r="D28" s="228"/>
@@ -8354,7 +8354,7 @@
       <c r="AF28" s="27"/>
       <c r="AG28" s="115"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B29" s="83"/>
       <c r="C29" s="230"/>
       <c r="D29" s="231"/>
@@ -8388,7 +8388,7 @@
       <c r="AF29" s="117"/>
       <c r="AG29" s="118"/>
     </row>
-    <row r="30" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B30" s="83"/>
       <c r="C30" s="223" t="s">
         <v>69</v>
@@ -8424,7 +8424,7 @@
       <c r="AF30" s="112"/>
       <c r="AG30" s="113"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B31" s="83"/>
       <c r="C31" s="223"/>
       <c r="D31" s="223"/>
@@ -8458,7 +8458,7 @@
       <c r="AF31" s="27"/>
       <c r="AG31" s="115"/>
     </row>
-    <row r="32" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B32" s="83"/>
       <c r="C32" s="223"/>
       <c r="D32" s="223"/>
@@ -8492,7 +8492,7 @@
       <c r="AF32" s="27"/>
       <c r="AG32" s="115"/>
     </row>
-    <row r="33" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B33" s="83"/>
       <c r="C33" s="223"/>
       <c r="D33" s="223"/>
@@ -8526,7 +8526,7 @@
       <c r="AF33" s="27"/>
       <c r="AG33" s="115"/>
     </row>
-    <row r="34" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B34" s="83"/>
       <c r="C34" s="223"/>
       <c r="D34" s="223"/>
@@ -8560,58 +8560,46 @@
       <c r="AF34" s="117"/>
       <c r="AG34" s="118"/>
     </row>
-    <row r="35" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:33" ht="12" customHeight="1"/>
+    <row r="36" spans="2:33" ht="12" customHeight="1"/>
+    <row r="37" spans="2:33" ht="12" customHeight="1"/>
+    <row r="38" spans="2:33" ht="12" customHeight="1"/>
+    <row r="39" spans="2:33" ht="12" customHeight="1"/>
+    <row r="40" spans="2:33" ht="12" customHeight="1"/>
+    <row r="41" spans="2:33" ht="12" customHeight="1"/>
+    <row r="42" spans="2:33" ht="12" customHeight="1"/>
+    <row r="43" spans="2:33" ht="12" customHeight="1"/>
+    <row r="44" spans="2:33" ht="12" customHeight="1"/>
+    <row r="45" spans="2:33" ht="12" customHeight="1"/>
+    <row r="46" spans="2:33" ht="12" customHeight="1"/>
+    <row r="47" spans="2:33" ht="12" customHeight="1"/>
+    <row r="48" spans="2:33" ht="12" customHeight="1"/>
+    <row r="49" ht="12" customHeight="1"/>
+    <row r="50" ht="12" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1"/>
+    <row r="53" ht="12" customHeight="1"/>
+    <row r="54" ht="12" customHeight="1"/>
+    <row r="55" ht="12" customHeight="1"/>
+    <row r="56" ht="12" customHeight="1"/>
+    <row r="57" ht="12" customHeight="1"/>
+    <row r="58" ht="12" customHeight="1"/>
+    <row r="59" ht="12" customHeight="1"/>
+    <row r="60" ht="12" customHeight="1"/>
+    <row r="61" ht="12" customHeight="1"/>
+    <row r="62" ht="12" customHeight="1"/>
+    <row r="63" ht="12" customHeight="1"/>
+    <row r="64" ht="12" customHeight="1"/>
+    <row r="65" ht="12" customHeight="1"/>
+    <row r="66" ht="12" customHeight="1"/>
+    <row r="67" ht="12" customHeight="1"/>
+    <row r="68" ht="12" customHeight="1"/>
+    <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C30:F34"/>
-    <mergeCell ref="C10:F29"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8623,6 +8611,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C30:F34"/>
+    <mergeCell ref="C10:F29"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8645,216 +8645,216 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="28"/>
     <col min="8" max="8" width="4.83203125" style="28" customWidth="1"/>
     <col min="9" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="296" t="s">
+    <row r="1" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="196" t="str">
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="152" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="211" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="149" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="286" t="str">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="287"/>
-      <c r="AI1" s="288"/>
+      <c r="AH1" s="303"/>
+      <c r="AI1" s="304"/>
       <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="296" t="s">
+    <row r="2" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="196" t="str">
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="149" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="286" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="287"/>
-      <c r="AI2" s="288"/>
+      <c r="AH2" s="303"/>
+      <c r="AI2" s="304"/>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="296" t="s">
+    <row r="3" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="196" t="str">
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="286" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="287"/>
-      <c r="AI3" s="288"/>
+      <c r="AH3" s="303"/>
+      <c r="AI3" s="304"/>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:36" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="17" customFormat="1" ht="12" customHeight="1"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1">
       <c r="B5" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" ht="12" customHeight="1">
       <c r="C6" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" ht="12" customHeight="1"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
+    <row r="28" ht="12" customHeight="1"/>
+    <row r="29" ht="12" customHeight="1"/>
+    <row r="30" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
+    <row r="32" ht="12" customHeight="1"/>
+    <row r="33" spans="3:40" ht="12" customHeight="1"/>
+    <row r="34" spans="3:40" ht="12" customHeight="1"/>
+    <row r="35" spans="3:40" ht="12" customHeight="1"/>
+    <row r="36" spans="3:40" ht="12" customHeight="1"/>
+    <row r="37" spans="3:40" ht="12" customHeight="1"/>
+    <row r="38" spans="3:40" ht="12" customHeight="1"/>
+    <row r="39" spans="3:40" ht="12" customHeight="1"/>
+    <row r="40" spans="3:40" ht="12" customHeight="1"/>
+    <row r="41" spans="3:40" ht="12" customHeight="1"/>
+    <row r="42" spans="3:40" ht="12" customHeight="1">
       <c r="D42" s="84"/>
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
@@ -8887,7 +8887,7 @@
       <c r="AG42" s="84"/>
       <c r="AH42" s="84"/>
     </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:40">
       <c r="C43" s="27" t="s">
         <v>70</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="AG43" s="84"/>
       <c r="AH43" s="84"/>
     </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:40">
       <c r="C44" s="27"/>
       <c r="D44" s="84"/>
       <c r="E44" s="84"/>
@@ -8955,112 +8955,112 @@
       <c r="AG44" s="84"/>
       <c r="AH44" s="84"/>
     </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:40">
       <c r="D45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="268" t="s">
+      <c r="E45" s="287" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="268"/>
-      <c r="G45" s="268"/>
-      <c r="H45" s="268"/>
-      <c r="I45" s="268"/>
-      <c r="J45" s="268"/>
-      <c r="K45" s="268"/>
-      <c r="L45" s="268"/>
-      <c r="M45" s="268"/>
-      <c r="N45" s="268" t="s">
+      <c r="F45" s="287"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="287"/>
+      <c r="J45" s="287"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
+      <c r="N45" s="287" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="268"/>
-      <c r="P45" s="268"/>
-      <c r="Q45" s="268" t="s">
+      <c r="O45" s="287"/>
+      <c r="P45" s="287"/>
+      <c r="Q45" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="268"/>
-      <c r="S45" s="268"/>
-      <c r="T45" s="268"/>
-      <c r="U45" s="268"/>
-      <c r="V45" s="268" t="s">
+      <c r="R45" s="287"/>
+      <c r="S45" s="287"/>
+      <c r="T45" s="287"/>
+      <c r="U45" s="287"/>
+      <c r="V45" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="268"/>
-      <c r="X45" s="268"/>
-      <c r="Y45" s="268"/>
-      <c r="Z45" s="268"/>
-      <c r="AA45" s="268"/>
-      <c r="AB45" s="268"/>
-      <c r="AC45" s="268"/>
+      <c r="W45" s="287"/>
+      <c r="X45" s="287"/>
+      <c r="Y45" s="287"/>
+      <c r="Z45" s="287"/>
+      <c r="AA45" s="287"/>
+      <c r="AB45" s="287"/>
+      <c r="AC45" s="287"/>
       <c r="AD45" s="84"/>
       <c r="AE45" s="84"/>
       <c r="AF45" s="84"/>
       <c r="AG45" s="84"/>
       <c r="AH45" s="84"/>
     </row>
-    <row r="46" spans="3:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:40" ht="11.25" customHeight="1">
       <c r="D46" s="55">
         <v>1</v>
       </c>
-      <c r="E46" s="269"/>
-      <c r="F46" s="269"/>
-      <c r="G46" s="269"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
-      <c r="J46" s="269"/>
-      <c r="K46" s="269"/>
-      <c r="L46" s="269"/>
-      <c r="M46" s="269"/>
-      <c r="N46" s="269"/>
-      <c r="O46" s="269"/>
-      <c r="P46" s="269"/>
-      <c r="Q46" s="269"/>
-      <c r="R46" s="269"/>
-      <c r="S46" s="269"/>
-      <c r="T46" s="269"/>
-      <c r="U46" s="269"/>
-      <c r="V46" s="269"/>
-      <c r="W46" s="269"/>
-      <c r="X46" s="269"/>
-      <c r="Y46" s="269"/>
-      <c r="Z46" s="269"/>
-      <c r="AA46" s="269"/>
-      <c r="AB46" s="269"/>
-      <c r="AC46" s="269"/>
+      <c r="E46" s="284"/>
+      <c r="F46" s="284"/>
+      <c r="G46" s="284"/>
+      <c r="H46" s="284"/>
+      <c r="I46" s="284"/>
+      <c r="J46" s="284"/>
+      <c r="K46" s="284"/>
+      <c r="L46" s="284"/>
+      <c r="M46" s="284"/>
+      <c r="N46" s="284"/>
+      <c r="O46" s="284"/>
+      <c r="P46" s="284"/>
+      <c r="Q46" s="284"/>
+      <c r="R46" s="284"/>
+      <c r="S46" s="284"/>
+      <c r="T46" s="284"/>
+      <c r="U46" s="284"/>
+      <c r="V46" s="284"/>
+      <c r="W46" s="284"/>
+      <c r="X46" s="284"/>
+      <c r="Y46" s="284"/>
+      <c r="Z46" s="284"/>
+      <c r="AA46" s="284"/>
+      <c r="AB46" s="284"/>
+      <c r="AC46" s="284"/>
       <c r="AM46" s="27"/>
     </row>
-    <row r="47" spans="3:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:40" ht="11.25" customHeight="1">
       <c r="D47" s="55">
         <v>2</v>
       </c>
-      <c r="E47" s="269"/>
-      <c r="F47" s="269"/>
-      <c r="G47" s="269"/>
-      <c r="H47" s="269"/>
-      <c r="I47" s="269"/>
-      <c r="J47" s="269"/>
-      <c r="K47" s="269"/>
-      <c r="L47" s="269"/>
-      <c r="M47" s="269"/>
-      <c r="N47" s="269"/>
-      <c r="O47" s="269"/>
-      <c r="P47" s="269"/>
-      <c r="Q47" s="269"/>
-      <c r="R47" s="269"/>
-      <c r="S47" s="269"/>
-      <c r="T47" s="269"/>
-      <c r="U47" s="269"/>
-      <c r="V47" s="269"/>
-      <c r="W47" s="269"/>
-      <c r="X47" s="269"/>
-      <c r="Y47" s="269"/>
-      <c r="Z47" s="269"/>
-      <c r="AA47" s="269"/>
-      <c r="AB47" s="269"/>
-      <c r="AC47" s="269"/>
+      <c r="E47" s="284"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284"/>
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="284"/>
+      <c r="S47" s="284"/>
+      <c r="T47" s="284"/>
+      <c r="U47" s="284"/>
+      <c r="V47" s="284"/>
+      <c r="W47" s="284"/>
+      <c r="X47" s="284"/>
+      <c r="Y47" s="284"/>
+      <c r="Z47" s="284"/>
+      <c r="AA47" s="284"/>
+      <c r="AB47" s="284"/>
+      <c r="AC47" s="284"/>
       <c r="AN47" s="27"/>
     </row>
-    <row r="48" spans="3:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:40" ht="11.25" customHeight="1">
       <c r="D48" s="84"/>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
@@ -9089,8 +9089,8 @@
       <c r="AC48" s="84"/>
       <c r="AN48" s="27"/>
     </row>
-    <row r="49" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="3:47" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:47" ht="11.25" customHeight="1"/>
+    <row r="50" spans="3:47">
       <c r="C50" s="28" t="s">
         <v>104</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="AO50" s="83"/>
       <c r="AP50" s="83"/>
     </row>
-    <row r="51" spans="3:47" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:47">
       <c r="AK51" s="28" t="s">
         <v>108</v>
       </c>
@@ -9110,73 +9110,73 @@
       <c r="AO51" s="83"/>
       <c r="AP51" s="83"/>
     </row>
-    <row r="52" spans="3:47" x14ac:dyDescent="0.15">
-      <c r="E52" s="290" t="s">
+    <row r="52" spans="3:47">
+      <c r="E52" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="274" t="s">
+      <c r="F52" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="275"/>
-      <c r="H52" s="275"/>
-      <c r="I52" s="275"/>
-      <c r="J52" s="275"/>
-      <c r="K52" s="275"/>
-      <c r="L52" s="275"/>
-      <c r="M52" s="275"/>
-      <c r="N52" s="275"/>
-      <c r="O52" s="275"/>
-      <c r="P52" s="275"/>
-      <c r="Q52" s="275"/>
-      <c r="R52" s="275"/>
-      <c r="S52" s="275"/>
-      <c r="T52" s="275"/>
-      <c r="U52" s="275"/>
-      <c r="V52" s="275"/>
-      <c r="W52" s="275"/>
-      <c r="X52" s="275"/>
-      <c r="Y52" s="275"/>
-      <c r="Z52" s="275"/>
-      <c r="AA52" s="275"/>
-      <c r="AB52" s="275"/>
-      <c r="AC52" s="275"/>
-      <c r="AD52" s="276"/>
-      <c r="AE52" s="277" t="s">
+      <c r="G52" s="306"/>
+      <c r="H52" s="306"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="306"/>
+      <c r="K52" s="306"/>
+      <c r="L52" s="306"/>
+      <c r="M52" s="306"/>
+      <c r="N52" s="306"/>
+      <c r="O52" s="306"/>
+      <c r="P52" s="306"/>
+      <c r="Q52" s="306"/>
+      <c r="R52" s="306"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="306"/>
+      <c r="V52" s="306"/>
+      <c r="W52" s="306"/>
+      <c r="X52" s="306"/>
+      <c r="Y52" s="306"/>
+      <c r="Z52" s="306"/>
+      <c r="AA52" s="306"/>
+      <c r="AB52" s="306"/>
+      <c r="AC52" s="306"/>
+      <c r="AD52" s="307"/>
+      <c r="AE52" s="293" t="s">
         <v>39</v>
       </c>
-      <c r="AF52" s="278"/>
-      <c r="AG52" s="278"/>
-      <c r="AH52" s="279"/>
+      <c r="AF52" s="294"/>
+      <c r="AG52" s="294"/>
+      <c r="AH52" s="295"/>
       <c r="AL52" s="83"/>
       <c r="AM52" s="83"/>
       <c r="AN52" s="83"/>
       <c r="AO52" s="83"/>
       <c r="AP52" s="83"/>
     </row>
-    <row r="53" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="291"/>
-      <c r="F53" s="277" t="s">
+    <row r="53" spans="3:47" ht="18" customHeight="1">
+      <c r="E53" s="292"/>
+      <c r="F53" s="293" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="278"/>
-      <c r="H53" s="278"/>
-      <c r="I53" s="279"/>
-      <c r="J53" s="254" t="s">
+      <c r="G53" s="294"/>
+      <c r="H53" s="294"/>
+      <c r="I53" s="295"/>
+      <c r="J53" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="260"/>
-      <c r="L53" s="260"/>
-      <c r="M53" s="261"/>
-      <c r="N53" s="254" t="s">
+      <c r="K53" s="323"/>
+      <c r="L53" s="323"/>
+      <c r="M53" s="324"/>
+      <c r="N53" s="317" t="s">
         <v>106</v>
       </c>
-      <c r="O53" s="255"/>
-      <c r="P53" s="255"/>
-      <c r="Q53" s="255"/>
-      <c r="R53" s="255"/>
-      <c r="S53" s="255"/>
-      <c r="T53" s="255"/>
-      <c r="U53" s="256"/>
+      <c r="O53" s="318"/>
+      <c r="P53" s="318"/>
+      <c r="Q53" s="318"/>
+      <c r="R53" s="318"/>
+      <c r="S53" s="318"/>
+      <c r="T53" s="318"/>
+      <c r="U53" s="319"/>
       <c r="V53" s="224" t="s">
         <v>38</v>
       </c>
@@ -9189,39 +9189,39 @@
       </c>
       <c r="AB53" s="225"/>
       <c r="AC53" s="226"/>
-      <c r="AD53" s="265" t="s">
+      <c r="AD53" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="AE53" s="293"/>
-      <c r="AF53" s="294"/>
-      <c r="AG53" s="294"/>
-      <c r="AH53" s="295"/>
-      <c r="AL53" s="248" t="s">
+      <c r="AE53" s="296"/>
+      <c r="AF53" s="297"/>
+      <c r="AG53" s="297"/>
+      <c r="AH53" s="298"/>
+      <c r="AL53" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="AM53" s="249"/>
-      <c r="AN53" s="249"/>
-      <c r="AO53" s="250"/>
+      <c r="AM53" s="312"/>
+      <c r="AN53" s="312"/>
+      <c r="AO53" s="313"/>
       <c r="AP53" s="83"/>
     </row>
-    <row r="54" spans="3:47" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="292"/>
-      <c r="F54" s="280"/>
-      <c r="G54" s="281"/>
-      <c r="H54" s="281"/>
-      <c r="I54" s="282"/>
-      <c r="J54" s="262"/>
-      <c r="K54" s="263"/>
-      <c r="L54" s="263"/>
-      <c r="M54" s="264"/>
-      <c r="N54" s="257"/>
-      <c r="O54" s="258"/>
-      <c r="P54" s="258"/>
-      <c r="Q54" s="258"/>
-      <c r="R54" s="258"/>
-      <c r="S54" s="258"/>
-      <c r="T54" s="258"/>
-      <c r="U54" s="259"/>
+    <row r="54" spans="3:47" s="26" customFormat="1">
+      <c r="E54" s="286"/>
+      <c r="F54" s="299"/>
+      <c r="G54" s="300"/>
+      <c r="H54" s="300"/>
+      <c r="I54" s="301"/>
+      <c r="J54" s="325"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="327"/>
+      <c r="N54" s="320"/>
+      <c r="O54" s="321"/>
+      <c r="P54" s="321"/>
+      <c r="Q54" s="321"/>
+      <c r="R54" s="321"/>
+      <c r="S54" s="321"/>
+      <c r="T54" s="321"/>
+      <c r="U54" s="322"/>
       <c r="V54" s="230"/>
       <c r="W54" s="231"/>
       <c r="X54" s="231"/>
@@ -9230,478 +9230,478 @@
       <c r="AA54" s="230"/>
       <c r="AB54" s="231"/>
       <c r="AC54" s="232"/>
-      <c r="AD54" s="266"/>
-      <c r="AE54" s="280"/>
-      <c r="AF54" s="281"/>
-      <c r="AG54" s="281"/>
-      <c r="AH54" s="282"/>
+      <c r="AD54" s="329"/>
+      <c r="AE54" s="299"/>
+      <c r="AF54" s="300"/>
+      <c r="AG54" s="300"/>
+      <c r="AH54" s="301"/>
       <c r="AI54" s="68"/>
       <c r="AJ54" s="68"/>
       <c r="AK54" s="68"/>
-      <c r="AL54" s="251"/>
-      <c r="AM54" s="252"/>
-      <c r="AN54" s="252"/>
-      <c r="AO54" s="253"/>
+      <c r="AL54" s="314"/>
+      <c r="AM54" s="315"/>
+      <c r="AN54" s="315"/>
+      <c r="AO54" s="316"/>
       <c r="AP54" s="68"/>
     </row>
-    <row r="55" spans="3:47" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="289" t="s">
+    <row r="55" spans="3:47" s="83" customFormat="1" ht="11.25" customHeight="1">
+      <c r="E55" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="289"/>
-      <c r="G55" s="289"/>
-      <c r="H55" s="289"/>
-      <c r="I55" s="289"/>
-      <c r="J55" s="289"/>
-      <c r="K55" s="289"/>
-      <c r="L55" s="289"/>
-      <c r="M55" s="289"/>
-      <c r="N55" s="289"/>
-      <c r="O55" s="289"/>
-      <c r="P55" s="289"/>
-      <c r="Q55" s="289"/>
-      <c r="R55" s="289"/>
-      <c r="S55" s="289"/>
-      <c r="T55" s="289"/>
-      <c r="U55" s="289"/>
-      <c r="V55" s="289"/>
-      <c r="W55" s="289"/>
-      <c r="X55" s="289"/>
-      <c r="Y55" s="289"/>
-      <c r="Z55" s="289"/>
-      <c r="AA55" s="289"/>
-      <c r="AB55" s="289"/>
-      <c r="AC55" s="289"/>
-      <c r="AD55" s="289"/>
-      <c r="AE55" s="289"/>
-      <c r="AF55" s="289"/>
-      <c r="AG55" s="289"/>
-      <c r="AH55" s="289"/>
+      <c r="F55" s="291"/>
+      <c r="G55" s="291"/>
+      <c r="H55" s="291"/>
+      <c r="I55" s="291"/>
+      <c r="J55" s="291"/>
+      <c r="K55" s="291"/>
+      <c r="L55" s="291"/>
+      <c r="M55" s="291"/>
+      <c r="N55" s="291"/>
+      <c r="O55" s="291"/>
+      <c r="P55" s="291"/>
+      <c r="Q55" s="291"/>
+      <c r="R55" s="291"/>
+      <c r="S55" s="291"/>
+      <c r="T55" s="291"/>
+      <c r="U55" s="291"/>
+      <c r="V55" s="291"/>
+      <c r="W55" s="291"/>
+      <c r="X55" s="291"/>
+      <c r="Y55" s="291"/>
+      <c r="Z55" s="291"/>
+      <c r="AA55" s="291"/>
+      <c r="AB55" s="291"/>
+      <c r="AC55" s="291"/>
+      <c r="AD55" s="291"/>
+      <c r="AE55" s="291"/>
+      <c r="AF55" s="291"/>
+      <c r="AG55" s="291"/>
+      <c r="AH55" s="291"/>
       <c r="AI55" s="119"/>
       <c r="AJ55" s="119"/>
       <c r="AK55" s="119"/>
-      <c r="AL55" s="245" t="s">
+      <c r="AL55" s="308" t="s">
         <v>107</v>
       </c>
-      <c r="AM55" s="246"/>
-      <c r="AN55" s="246"/>
-      <c r="AO55" s="247"/>
+      <c r="AM55" s="309"/>
+      <c r="AN55" s="309"/>
+      <c r="AO55" s="310"/>
       <c r="AQ55" s="68"/>
       <c r="AR55" s="68"/>
     </row>
-    <row r="56" spans="3:47" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:47" s="83" customFormat="1" ht="11.25" customHeight="1">
       <c r="E56" s="56">
         <v>1</v>
       </c>
-      <c r="F56" s="271"/>
-      <c r="G56" s="272"/>
-      <c r="H56" s="272"/>
-      <c r="I56" s="273"/>
-      <c r="J56" s="270"/>
-      <c r="K56" s="270"/>
-      <c r="L56" s="270"/>
-      <c r="M56" s="270"/>
-      <c r="N56" s="267"/>
-      <c r="O56" s="267"/>
-      <c r="P56" s="267"/>
-      <c r="Q56" s="267"/>
-      <c r="R56" s="267"/>
-      <c r="S56" s="267"/>
-      <c r="T56" s="267"/>
-      <c r="U56" s="267"/>
-      <c r="V56" s="283"/>
-      <c r="W56" s="284"/>
-      <c r="X56" s="284"/>
-      <c r="Y56" s="284"/>
-      <c r="Z56" s="285"/>
-      <c r="AA56" s="271"/>
-      <c r="AB56" s="272"/>
-      <c r="AC56" s="273"/>
+      <c r="F56" s="239"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="241"/>
+      <c r="J56" s="252"/>
+      <c r="K56" s="252"/>
+      <c r="L56" s="252"/>
+      <c r="M56" s="252"/>
+      <c r="N56" s="242"/>
+      <c r="O56" s="242"/>
+      <c r="P56" s="242"/>
+      <c r="Q56" s="242"/>
+      <c r="R56" s="242"/>
+      <c r="S56" s="242"/>
+      <c r="T56" s="242"/>
+      <c r="U56" s="242"/>
+      <c r="V56" s="243"/>
+      <c r="W56" s="244"/>
+      <c r="X56" s="244"/>
+      <c r="Y56" s="244"/>
+      <c r="Z56" s="245"/>
+      <c r="AA56" s="239"/>
+      <c r="AB56" s="240"/>
+      <c r="AC56" s="241"/>
       <c r="AD56" s="59"/>
-      <c r="AE56" s="271"/>
-      <c r="AF56" s="272"/>
-      <c r="AG56" s="272"/>
-      <c r="AH56" s="273"/>
+      <c r="AE56" s="239"/>
+      <c r="AF56" s="240"/>
+      <c r="AG56" s="240"/>
+      <c r="AH56" s="241"/>
       <c r="AI56" s="119"/>
       <c r="AJ56" s="119"/>
       <c r="AK56" s="119"/>
-      <c r="AL56" s="239"/>
-      <c r="AM56" s="240"/>
-      <c r="AN56" s="240"/>
-      <c r="AO56" s="241"/>
+      <c r="AL56" s="270"/>
+      <c r="AM56" s="271"/>
+      <c r="AN56" s="271"/>
+      <c r="AO56" s="272"/>
       <c r="AQ56" s="68"/>
       <c r="AR56" s="68"/>
     </row>
-    <row r="57" spans="3:47" s="83" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:47" s="83" customFormat="1">
       <c r="E57" s="56">
         <v>2</v>
       </c>
-      <c r="F57" s="271"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="272"/>
-      <c r="I57" s="273"/>
-      <c r="J57" s="270"/>
-      <c r="K57" s="270"/>
-      <c r="L57" s="270"/>
-      <c r="M57" s="270"/>
-      <c r="N57" s="267"/>
-      <c r="O57" s="267"/>
-      <c r="P57" s="267"/>
-      <c r="Q57" s="267"/>
-      <c r="R57" s="267"/>
-      <c r="S57" s="267"/>
-      <c r="T57" s="267"/>
-      <c r="U57" s="267"/>
-      <c r="V57" s="283"/>
-      <c r="W57" s="284"/>
-      <c r="X57" s="284"/>
-      <c r="Y57" s="284"/>
-      <c r="Z57" s="285"/>
-      <c r="AA57" s="271"/>
-      <c r="AB57" s="272"/>
-      <c r="AC57" s="273"/>
+      <c r="F57" s="239"/>
+      <c r="G57" s="240"/>
+      <c r="H57" s="240"/>
+      <c r="I57" s="241"/>
+      <c r="J57" s="252"/>
+      <c r="K57" s="252"/>
+      <c r="L57" s="252"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="242"/>
+      <c r="O57" s="242"/>
+      <c r="P57" s="242"/>
+      <c r="Q57" s="242"/>
+      <c r="R57" s="242"/>
+      <c r="S57" s="242"/>
+      <c r="T57" s="242"/>
+      <c r="U57" s="242"/>
+      <c r="V57" s="243"/>
+      <c r="W57" s="244"/>
+      <c r="X57" s="244"/>
+      <c r="Y57" s="244"/>
+      <c r="Z57" s="245"/>
+      <c r="AA57" s="239"/>
+      <c r="AB57" s="240"/>
+      <c r="AC57" s="241"/>
       <c r="AD57" s="142"/>
-      <c r="AE57" s="271"/>
-      <c r="AF57" s="272"/>
-      <c r="AG57" s="272"/>
-      <c r="AH57" s="273"/>
+      <c r="AE57" s="239"/>
+      <c r="AF57" s="240"/>
+      <c r="AG57" s="240"/>
+      <c r="AH57" s="241"/>
       <c r="AI57" s="119"/>
       <c r="AJ57" s="119"/>
       <c r="AK57" s="119"/>
-      <c r="AL57" s="242"/>
-      <c r="AM57" s="243"/>
-      <c r="AN57" s="243"/>
-      <c r="AO57" s="244"/>
+      <c r="AL57" s="288"/>
+      <c r="AM57" s="289"/>
+      <c r="AN57" s="289"/>
+      <c r="AO57" s="290"/>
       <c r="AQ57" s="68"/>
       <c r="AR57" s="68"/>
     </row>
-    <row r="58" spans="3:47" s="83" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:47" s="83" customFormat="1">
       <c r="E58" s="56">
         <v>3</v>
       </c>
-      <c r="F58" s="271"/>
-      <c r="G58" s="272"/>
-      <c r="H58" s="272"/>
-      <c r="I58" s="273"/>
-      <c r="J58" s="270"/>
-      <c r="K58" s="270"/>
-      <c r="L58" s="270"/>
-      <c r="M58" s="270"/>
-      <c r="N58" s="267"/>
-      <c r="O58" s="267"/>
-      <c r="P58" s="267"/>
-      <c r="Q58" s="267"/>
-      <c r="R58" s="267"/>
-      <c r="S58" s="267"/>
-      <c r="T58" s="267"/>
-      <c r="U58" s="267"/>
-      <c r="V58" s="283"/>
-      <c r="W58" s="284"/>
-      <c r="X58" s="284"/>
-      <c r="Y58" s="284"/>
-      <c r="Z58" s="285"/>
-      <c r="AA58" s="271"/>
-      <c r="AB58" s="272"/>
-      <c r="AC58" s="273"/>
+      <c r="F58" s="239"/>
+      <c r="G58" s="240"/>
+      <c r="H58" s="240"/>
+      <c r="I58" s="241"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="252"/>
+      <c r="L58" s="252"/>
+      <c r="M58" s="252"/>
+      <c r="N58" s="242"/>
+      <c r="O58" s="242"/>
+      <c r="P58" s="242"/>
+      <c r="Q58" s="242"/>
+      <c r="R58" s="242"/>
+      <c r="S58" s="242"/>
+      <c r="T58" s="242"/>
+      <c r="U58" s="242"/>
+      <c r="V58" s="243"/>
+      <c r="W58" s="244"/>
+      <c r="X58" s="244"/>
+      <c r="Y58" s="244"/>
+      <c r="Z58" s="245"/>
+      <c r="AA58" s="239"/>
+      <c r="AB58" s="240"/>
+      <c r="AC58" s="241"/>
       <c r="AD58" s="142"/>
-      <c r="AE58" s="271"/>
-      <c r="AF58" s="272"/>
-      <c r="AG58" s="272"/>
-      <c r="AH58" s="273"/>
+      <c r="AE58" s="239"/>
+      <c r="AF58" s="240"/>
+      <c r="AG58" s="240"/>
+      <c r="AH58" s="241"/>
       <c r="AI58" s="93"/>
       <c r="AJ58" s="93"/>
       <c r="AK58" s="93"/>
-      <c r="AL58" s="242"/>
-      <c r="AM58" s="243"/>
-      <c r="AN58" s="243"/>
-      <c r="AO58" s="244"/>
+      <c r="AL58" s="288"/>
+      <c r="AM58" s="289"/>
+      <c r="AN58" s="289"/>
+      <c r="AO58" s="290"/>
       <c r="AQ58" s="68"/>
       <c r="AR58" s="68"/>
       <c r="AS58" s="68"/>
       <c r="AT58" s="68"/>
       <c r="AU58" s="68"/>
     </row>
-    <row r="59" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:47" ht="11.25" customHeight="1">
       <c r="E59" s="56">
         <v>4</v>
       </c>
-      <c r="F59" s="271"/>
-      <c r="G59" s="272"/>
-      <c r="H59" s="272"/>
-      <c r="I59" s="273"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="270"/>
-      <c r="L59" s="270"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="267"/>
-      <c r="O59" s="267"/>
-      <c r="P59" s="267"/>
-      <c r="Q59" s="267"/>
-      <c r="R59" s="267"/>
-      <c r="S59" s="267"/>
-      <c r="T59" s="267"/>
-      <c r="U59" s="267"/>
-      <c r="V59" s="283"/>
-      <c r="W59" s="284"/>
-      <c r="X59" s="284"/>
-      <c r="Y59" s="284"/>
-      <c r="Z59" s="285"/>
-      <c r="AA59" s="271"/>
-      <c r="AB59" s="272"/>
-      <c r="AC59" s="273"/>
+      <c r="F59" s="239"/>
+      <c r="G59" s="240"/>
+      <c r="H59" s="240"/>
+      <c r="I59" s="241"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="252"/>
+      <c r="L59" s="252"/>
+      <c r="M59" s="252"/>
+      <c r="N59" s="242"/>
+      <c r="O59" s="242"/>
+      <c r="P59" s="242"/>
+      <c r="Q59" s="242"/>
+      <c r="R59" s="242"/>
+      <c r="S59" s="242"/>
+      <c r="T59" s="242"/>
+      <c r="U59" s="242"/>
+      <c r="V59" s="243"/>
+      <c r="W59" s="244"/>
+      <c r="X59" s="244"/>
+      <c r="Y59" s="244"/>
+      <c r="Z59" s="245"/>
+      <c r="AA59" s="239"/>
+      <c r="AB59" s="240"/>
+      <c r="AC59" s="241"/>
       <c r="AD59" s="142"/>
-      <c r="AE59" s="271"/>
-      <c r="AF59" s="272"/>
-      <c r="AG59" s="272"/>
-      <c r="AH59" s="273"/>
+      <c r="AE59" s="239"/>
+      <c r="AF59" s="240"/>
+      <c r="AG59" s="240"/>
+      <c r="AH59" s="241"/>
       <c r="AI59" s="120"/>
       <c r="AJ59" s="120"/>
-      <c r="AL59" s="242"/>
-      <c r="AM59" s="243"/>
-      <c r="AN59" s="243"/>
-      <c r="AO59" s="244"/>
-    </row>
-    <row r="60" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL59" s="288"/>
+      <c r="AM59" s="289"/>
+      <c r="AN59" s="289"/>
+      <c r="AO59" s="290"/>
+    </row>
+    <row r="60" spans="3:47" ht="11.25" customHeight="1">
       <c r="E60" s="56">
         <v>5</v>
       </c>
-      <c r="F60" s="271"/>
-      <c r="G60" s="272"/>
-      <c r="H60" s="272"/>
-      <c r="I60" s="273"/>
-      <c r="J60" s="270"/>
-      <c r="K60" s="270"/>
-      <c r="L60" s="270"/>
-      <c r="M60" s="270"/>
-      <c r="N60" s="267"/>
-      <c r="O60" s="267"/>
-      <c r="P60" s="267"/>
-      <c r="Q60" s="267"/>
-      <c r="R60" s="267"/>
-      <c r="S60" s="267"/>
-      <c r="T60" s="267"/>
-      <c r="U60" s="267"/>
-      <c r="V60" s="283"/>
-      <c r="W60" s="284"/>
-      <c r="X60" s="284"/>
-      <c r="Y60" s="284"/>
-      <c r="Z60" s="285"/>
-      <c r="AA60" s="271"/>
-      <c r="AB60" s="272"/>
-      <c r="AC60" s="273"/>
+      <c r="F60" s="239"/>
+      <c r="G60" s="240"/>
+      <c r="H60" s="240"/>
+      <c r="I60" s="241"/>
+      <c r="J60" s="252"/>
+      <c r="K60" s="252"/>
+      <c r="L60" s="252"/>
+      <c r="M60" s="252"/>
+      <c r="N60" s="242"/>
+      <c r="O60" s="242"/>
+      <c r="P60" s="242"/>
+      <c r="Q60" s="242"/>
+      <c r="R60" s="242"/>
+      <c r="S60" s="242"/>
+      <c r="T60" s="242"/>
+      <c r="U60" s="242"/>
+      <c r="V60" s="243"/>
+      <c r="W60" s="244"/>
+      <c r="X60" s="244"/>
+      <c r="Y60" s="244"/>
+      <c r="Z60" s="245"/>
+      <c r="AA60" s="239"/>
+      <c r="AB60" s="240"/>
+      <c r="AC60" s="241"/>
       <c r="AD60" s="142"/>
-      <c r="AE60" s="271"/>
-      <c r="AF60" s="272"/>
-      <c r="AG60" s="272"/>
-      <c r="AH60" s="273"/>
+      <c r="AE60" s="239"/>
+      <c r="AF60" s="240"/>
+      <c r="AG60" s="240"/>
+      <c r="AH60" s="241"/>
       <c r="AI60" s="120"/>
       <c r="AJ60" s="120"/>
-      <c r="AL60" s="242"/>
-      <c r="AM60" s="243"/>
-      <c r="AN60" s="243"/>
-      <c r="AO60" s="244"/>
-    </row>
-    <row r="61" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL60" s="288"/>
+      <c r="AM60" s="289"/>
+      <c r="AN60" s="289"/>
+      <c r="AO60" s="290"/>
+    </row>
+    <row r="61" spans="3:47" ht="11.25" customHeight="1">
       <c r="E61" s="56">
         <v>6</v>
       </c>
-      <c r="F61" s="271"/>
-      <c r="G61" s="272"/>
-      <c r="H61" s="272"/>
-      <c r="I61" s="273"/>
-      <c r="J61" s="270"/>
-      <c r="K61" s="270"/>
-      <c r="L61" s="270"/>
-      <c r="M61" s="270"/>
-      <c r="N61" s="267"/>
-      <c r="O61" s="267"/>
-      <c r="P61" s="267"/>
-      <c r="Q61" s="267"/>
-      <c r="R61" s="267"/>
-      <c r="S61" s="267"/>
-      <c r="T61" s="267"/>
-      <c r="U61" s="267"/>
-      <c r="V61" s="283"/>
-      <c r="W61" s="284"/>
-      <c r="X61" s="284"/>
-      <c r="Y61" s="284"/>
-      <c r="Z61" s="285"/>
-      <c r="AA61" s="271"/>
-      <c r="AB61" s="272"/>
-      <c r="AC61" s="273"/>
+      <c r="F61" s="239"/>
+      <c r="G61" s="240"/>
+      <c r="H61" s="240"/>
+      <c r="I61" s="241"/>
+      <c r="J61" s="252"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="242"/>
+      <c r="O61" s="242"/>
+      <c r="P61" s="242"/>
+      <c r="Q61" s="242"/>
+      <c r="R61" s="242"/>
+      <c r="S61" s="242"/>
+      <c r="T61" s="242"/>
+      <c r="U61" s="242"/>
+      <c r="V61" s="243"/>
+      <c r="W61" s="244"/>
+      <c r="X61" s="244"/>
+      <c r="Y61" s="244"/>
+      <c r="Z61" s="245"/>
+      <c r="AA61" s="239"/>
+      <c r="AB61" s="240"/>
+      <c r="AC61" s="241"/>
       <c r="AD61" s="142"/>
-      <c r="AE61" s="271"/>
-      <c r="AF61" s="272"/>
-      <c r="AG61" s="272"/>
-      <c r="AH61" s="273"/>
+      <c r="AE61" s="239"/>
+      <c r="AF61" s="240"/>
+      <c r="AG61" s="240"/>
+      <c r="AH61" s="241"/>
       <c r="AI61" s="120"/>
       <c r="AJ61" s="120"/>
-      <c r="AL61" s="242"/>
-      <c r="AM61" s="243"/>
-      <c r="AN61" s="243"/>
-      <c r="AO61" s="244"/>
-    </row>
-    <row r="62" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL61" s="288"/>
+      <c r="AM61" s="289"/>
+      <c r="AN61" s="289"/>
+      <c r="AO61" s="290"/>
+    </row>
+    <row r="62" spans="3:47" ht="11.25" customHeight="1">
       <c r="E62" s="56">
         <v>7</v>
       </c>
-      <c r="F62" s="271"/>
-      <c r="G62" s="272"/>
-      <c r="H62" s="272"/>
-      <c r="I62" s="273"/>
-      <c r="J62" s="270"/>
-      <c r="K62" s="270"/>
-      <c r="L62" s="270"/>
-      <c r="M62" s="270"/>
-      <c r="N62" s="267"/>
-      <c r="O62" s="267"/>
-      <c r="P62" s="267"/>
-      <c r="Q62" s="267"/>
-      <c r="R62" s="267"/>
-      <c r="S62" s="267"/>
-      <c r="T62" s="267"/>
-      <c r="U62" s="267"/>
-      <c r="V62" s="283"/>
-      <c r="W62" s="284"/>
-      <c r="X62" s="284"/>
-      <c r="Y62" s="284"/>
-      <c r="Z62" s="285"/>
-      <c r="AA62" s="271"/>
-      <c r="AB62" s="272"/>
-      <c r="AC62" s="273"/>
+      <c r="F62" s="239"/>
+      <c r="G62" s="240"/>
+      <c r="H62" s="240"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="252"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="242"/>
+      <c r="O62" s="242"/>
+      <c r="P62" s="242"/>
+      <c r="Q62" s="242"/>
+      <c r="R62" s="242"/>
+      <c r="S62" s="242"/>
+      <c r="T62" s="242"/>
+      <c r="U62" s="242"/>
+      <c r="V62" s="243"/>
+      <c r="W62" s="244"/>
+      <c r="X62" s="244"/>
+      <c r="Y62" s="244"/>
+      <c r="Z62" s="245"/>
+      <c r="AA62" s="239"/>
+      <c r="AB62" s="240"/>
+      <c r="AC62" s="241"/>
       <c r="AD62" s="142"/>
-      <c r="AE62" s="271"/>
-      <c r="AF62" s="272"/>
-      <c r="AG62" s="272"/>
-      <c r="AH62" s="273"/>
+      <c r="AE62" s="239"/>
+      <c r="AF62" s="240"/>
+      <c r="AG62" s="240"/>
+      <c r="AH62" s="241"/>
       <c r="AI62" s="120"/>
       <c r="AJ62" s="120"/>
-      <c r="AL62" s="242"/>
-      <c r="AM62" s="243"/>
-      <c r="AN62" s="243"/>
-      <c r="AO62" s="244"/>
-    </row>
-    <row r="63" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL62" s="288"/>
+      <c r="AM62" s="289"/>
+      <c r="AN62" s="289"/>
+      <c r="AO62" s="290"/>
+    </row>
+    <row r="63" spans="3:47" ht="11.25" customHeight="1">
       <c r="E63" s="56">
         <v>8</v>
       </c>
-      <c r="F63" s="271"/>
-      <c r="G63" s="272"/>
-      <c r="H63" s="272"/>
-      <c r="I63" s="273"/>
-      <c r="J63" s="270"/>
-      <c r="K63" s="270"/>
-      <c r="L63" s="270"/>
-      <c r="M63" s="270"/>
-      <c r="N63" s="267"/>
-      <c r="O63" s="267"/>
-      <c r="P63" s="267"/>
-      <c r="Q63" s="267"/>
-      <c r="R63" s="267"/>
-      <c r="S63" s="267"/>
-      <c r="T63" s="267"/>
-      <c r="U63" s="267"/>
-      <c r="V63" s="283"/>
-      <c r="W63" s="284"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="284"/>
-      <c r="Z63" s="285"/>
-      <c r="AA63" s="271"/>
-      <c r="AB63" s="272"/>
-      <c r="AC63" s="273"/>
+      <c r="F63" s="239"/>
+      <c r="G63" s="240"/>
+      <c r="H63" s="240"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="252"/>
+      <c r="K63" s="252"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
+      <c r="N63" s="242"/>
+      <c r="O63" s="242"/>
+      <c r="P63" s="242"/>
+      <c r="Q63" s="242"/>
+      <c r="R63" s="242"/>
+      <c r="S63" s="242"/>
+      <c r="T63" s="242"/>
+      <c r="U63" s="242"/>
+      <c r="V63" s="243"/>
+      <c r="W63" s="244"/>
+      <c r="X63" s="244"/>
+      <c r="Y63" s="244"/>
+      <c r="Z63" s="245"/>
+      <c r="AA63" s="239"/>
+      <c r="AB63" s="240"/>
+      <c r="AC63" s="241"/>
       <c r="AD63" s="142"/>
-      <c r="AE63" s="271"/>
-      <c r="AF63" s="272"/>
-      <c r="AG63" s="272"/>
-      <c r="AH63" s="273"/>
+      <c r="AE63" s="239"/>
+      <c r="AF63" s="240"/>
+      <c r="AG63" s="240"/>
+      <c r="AH63" s="241"/>
       <c r="AI63" s="120"/>
       <c r="AJ63" s="120"/>
-      <c r="AL63" s="242"/>
-      <c r="AM63" s="243"/>
-      <c r="AN63" s="243"/>
-      <c r="AO63" s="244"/>
-    </row>
-    <row r="64" spans="3:47" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL63" s="288"/>
+      <c r="AM63" s="289"/>
+      <c r="AN63" s="289"/>
+      <c r="AO63" s="290"/>
+    </row>
+    <row r="64" spans="3:47" ht="11.25" customHeight="1">
       <c r="E64" s="56">
         <v>9</v>
       </c>
-      <c r="F64" s="271"/>
-      <c r="G64" s="272"/>
-      <c r="H64" s="272"/>
-      <c r="I64" s="273"/>
-      <c r="J64" s="270"/>
-      <c r="K64" s="270"/>
-      <c r="L64" s="270"/>
-      <c r="M64" s="270"/>
-      <c r="N64" s="267"/>
-      <c r="O64" s="267"/>
-      <c r="P64" s="267"/>
-      <c r="Q64" s="267"/>
-      <c r="R64" s="267"/>
-      <c r="S64" s="267"/>
-      <c r="T64" s="267"/>
-      <c r="U64" s="267"/>
-      <c r="V64" s="283"/>
-      <c r="W64" s="284"/>
-      <c r="X64" s="284"/>
-      <c r="Y64" s="284"/>
-      <c r="Z64" s="285"/>
-      <c r="AA64" s="271"/>
-      <c r="AB64" s="272"/>
-      <c r="AC64" s="273"/>
+      <c r="F64" s="239"/>
+      <c r="G64" s="240"/>
+      <c r="H64" s="240"/>
+      <c r="I64" s="241"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="252"/>
+      <c r="N64" s="242"/>
+      <c r="O64" s="242"/>
+      <c r="P64" s="242"/>
+      <c r="Q64" s="242"/>
+      <c r="R64" s="242"/>
+      <c r="S64" s="242"/>
+      <c r="T64" s="242"/>
+      <c r="U64" s="242"/>
+      <c r="V64" s="243"/>
+      <c r="W64" s="244"/>
+      <c r="X64" s="244"/>
+      <c r="Y64" s="244"/>
+      <c r="Z64" s="245"/>
+      <c r="AA64" s="239"/>
+      <c r="AB64" s="240"/>
+      <c r="AC64" s="241"/>
       <c r="AD64" s="142"/>
-      <c r="AE64" s="271"/>
-      <c r="AF64" s="272"/>
-      <c r="AG64" s="272"/>
-      <c r="AH64" s="273"/>
+      <c r="AE64" s="239"/>
+      <c r="AF64" s="240"/>
+      <c r="AG64" s="240"/>
+      <c r="AH64" s="241"/>
       <c r="AI64" s="120"/>
       <c r="AJ64" s="120"/>
-      <c r="AL64" s="242"/>
-      <c r="AM64" s="243"/>
-      <c r="AN64" s="243"/>
-      <c r="AO64" s="244"/>
-    </row>
-    <row r="65" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL64" s="288"/>
+      <c r="AM64" s="289"/>
+      <c r="AN64" s="289"/>
+      <c r="AO64" s="290"/>
+    </row>
+    <row r="65" spans="3:53" ht="11.25" customHeight="1">
       <c r="E65" s="56">
         <v>10</v>
       </c>
-      <c r="F65" s="271"/>
-      <c r="G65" s="272"/>
-      <c r="H65" s="272"/>
-      <c r="I65" s="273"/>
-      <c r="J65" s="270"/>
-      <c r="K65" s="270"/>
-      <c r="L65" s="270"/>
-      <c r="M65" s="270"/>
-      <c r="N65" s="267"/>
-      <c r="O65" s="267"/>
-      <c r="P65" s="267"/>
-      <c r="Q65" s="267"/>
-      <c r="R65" s="267"/>
-      <c r="S65" s="267"/>
-      <c r="T65" s="267"/>
-      <c r="U65" s="267"/>
-      <c r="V65" s="283"/>
-      <c r="W65" s="284"/>
-      <c r="X65" s="284"/>
-      <c r="Y65" s="284"/>
-      <c r="Z65" s="285"/>
-      <c r="AA65" s="271"/>
-      <c r="AB65" s="272"/>
-      <c r="AC65" s="273"/>
+      <c r="F65" s="239"/>
+      <c r="G65" s="240"/>
+      <c r="H65" s="240"/>
+      <c r="I65" s="241"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="252"/>
+      <c r="N65" s="242"/>
+      <c r="O65" s="242"/>
+      <c r="P65" s="242"/>
+      <c r="Q65" s="242"/>
+      <c r="R65" s="242"/>
+      <c r="S65" s="242"/>
+      <c r="T65" s="242"/>
+      <c r="U65" s="242"/>
+      <c r="V65" s="243"/>
+      <c r="W65" s="244"/>
+      <c r="X65" s="244"/>
+      <c r="Y65" s="244"/>
+      <c r="Z65" s="245"/>
+      <c r="AA65" s="239"/>
+      <c r="AB65" s="240"/>
+      <c r="AC65" s="241"/>
       <c r="AD65" s="142"/>
-      <c r="AE65" s="271"/>
-      <c r="AF65" s="272"/>
-      <c r="AG65" s="272"/>
-      <c r="AH65" s="273"/>
+      <c r="AE65" s="239"/>
+      <c r="AF65" s="240"/>
+      <c r="AG65" s="240"/>
+      <c r="AH65" s="241"/>
       <c r="AI65" s="120"/>
       <c r="AJ65" s="120"/>
-      <c r="AL65" s="242"/>
-      <c r="AM65" s="243"/>
-      <c r="AN65" s="243"/>
-      <c r="AO65" s="244"/>
-    </row>
-    <row r="66" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL65" s="288"/>
+      <c r="AM65" s="289"/>
+      <c r="AN65" s="289"/>
+      <c r="AO65" s="290"/>
+    </row>
+    <row r="66" spans="3:53" ht="11.25" customHeight="1">
       <c r="E66" s="85"/>
       <c r="F66" s="86"/>
       <c r="G66" s="86"/>
@@ -9734,7 +9734,7 @@
       <c r="AI66" s="120"/>
       <c r="AJ66" s="120"/>
     </row>
-    <row r="67" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:53" ht="11.25" customHeight="1">
       <c r="E67" s="85"/>
       <c r="F67" s="86"/>
       <c r="G67" s="86"/>
@@ -9767,7 +9767,7 @@
       <c r="AI67" s="120"/>
       <c r="AJ67" s="120"/>
     </row>
-    <row r="68" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:53" ht="11.25" customHeight="1">
       <c r="E68" s="85"/>
       <c r="F68" s="86"/>
       <c r="G68" s="86"/>
@@ -9800,7 +9800,7 @@
       <c r="AI68" s="120"/>
       <c r="AJ68" s="120"/>
     </row>
-    <row r="69" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:53" ht="11.25" customHeight="1">
       <c r="E69" s="85"/>
       <c r="F69" s="86"/>
       <c r="G69" s="86"/>
@@ -9832,7 +9832,7 @@
       <c r="AH69" s="91"/>
       <c r="AI69" s="92"/>
     </row>
-    <row r="70" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:53">
       <c r="D70" s="93"/>
       <c r="E70" s="94"/>
       <c r="F70" s="89"/>
@@ -9873,7 +9873,7 @@
       <c r="AQ70" s="31"/>
       <c r="AR70" s="31"/>
     </row>
-    <row r="71" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:53">
       <c r="C71" s="28" t="s">
         <v>83</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="AQ71" s="31"/>
       <c r="AR71" s="31"/>
     </row>
-    <row r="72" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:53" ht="11.25" customHeight="1">
       <c r="AI72" s="89"/>
       <c r="AJ72" s="89"/>
       <c r="AM72" s="31"/>
@@ -9932,50 +9932,50 @@
       <c r="AV72" s="31"/>
       <c r="AW72" s="31"/>
     </row>
-    <row r="73" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D73" s="302" t="s">
+    <row r="73" spans="3:53">
+      <c r="D73" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="304" t="s">
+      <c r="E73" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="305"/>
-      <c r="G73" s="305"/>
-      <c r="H73" s="305"/>
-      <c r="I73" s="305"/>
-      <c r="J73" s="306"/>
-      <c r="K73" s="304" t="s">
+      <c r="F73" s="262"/>
+      <c r="G73" s="262"/>
+      <c r="H73" s="262"/>
+      <c r="I73" s="262"/>
+      <c r="J73" s="263"/>
+      <c r="K73" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="L73" s="305"/>
-      <c r="M73" s="305"/>
-      <c r="N73" s="306"/>
-      <c r="O73" s="314" t="s">
+      <c r="L73" s="262"/>
+      <c r="M73" s="262"/>
+      <c r="N73" s="263"/>
+      <c r="O73" s="277" t="s">
         <v>64</v>
       </c>
-      <c r="P73" s="329" t="s">
+      <c r="P73" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="Q73" s="330"/>
-      <c r="R73" s="330"/>
-      <c r="S73" s="330"/>
-      <c r="T73" s="330"/>
-      <c r="U73" s="331"/>
-      <c r="V73" s="304" t="s">
+      <c r="Q73" s="250"/>
+      <c r="R73" s="250"/>
+      <c r="S73" s="250"/>
+      <c r="T73" s="250"/>
+      <c r="U73" s="251"/>
+      <c r="V73" s="261" t="s">
         <v>36</v>
       </c>
-      <c r="W73" s="305"/>
-      <c r="X73" s="305"/>
-      <c r="Y73" s="305"/>
-      <c r="Z73" s="305"/>
-      <c r="AA73" s="305"/>
-      <c r="AB73" s="305"/>
-      <c r="AC73" s="305"/>
-      <c r="AD73" s="305"/>
-      <c r="AE73" s="305"/>
-      <c r="AF73" s="305"/>
-      <c r="AG73" s="305"/>
-      <c r="AH73" s="306"/>
+      <c r="W73" s="262"/>
+      <c r="X73" s="262"/>
+      <c r="Y73" s="262"/>
+      <c r="Z73" s="262"/>
+      <c r="AA73" s="262"/>
+      <c r="AB73" s="262"/>
+      <c r="AC73" s="262"/>
+      <c r="AD73" s="262"/>
+      <c r="AE73" s="262"/>
+      <c r="AF73" s="262"/>
+      <c r="AG73" s="262"/>
+      <c r="AH73" s="263"/>
       <c r="AK73" s="31"/>
       <c r="AL73" s="31"/>
       <c r="AM73" s="31"/>
@@ -9990,19 +9990,19 @@
       <c r="AV73" s="31"/>
       <c r="AW73" s="31"/>
     </row>
-    <row r="74" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D74" s="303"/>
-      <c r="E74" s="307"/>
-      <c r="F74" s="308"/>
-      <c r="G74" s="308"/>
-      <c r="H74" s="308"/>
-      <c r="I74" s="308"/>
-      <c r="J74" s="309"/>
-      <c r="K74" s="307"/>
-      <c r="L74" s="308"/>
-      <c r="M74" s="308"/>
-      <c r="N74" s="309"/>
-      <c r="O74" s="315"/>
+    <row r="74" spans="3:53">
+      <c r="D74" s="331"/>
+      <c r="E74" s="264"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="266"/>
+      <c r="K74" s="264"/>
+      <c r="L74" s="265"/>
+      <c r="M74" s="265"/>
+      <c r="N74" s="266"/>
+      <c r="O74" s="278"/>
       <c r="P74" s="95" t="s">
         <v>65</v>
       </c>
@@ -10015,23 +10015,23 @@
       <c r="S74" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="316" t="s">
+      <c r="T74" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="U74" s="317"/>
-      <c r="V74" s="307"/>
-      <c r="W74" s="308"/>
-      <c r="X74" s="308"/>
-      <c r="Y74" s="308"/>
-      <c r="Z74" s="308"/>
-      <c r="AA74" s="308"/>
-      <c r="AB74" s="308"/>
-      <c r="AC74" s="308"/>
-      <c r="AD74" s="308"/>
-      <c r="AE74" s="308"/>
-      <c r="AF74" s="308"/>
-      <c r="AG74" s="308"/>
-      <c r="AH74" s="309"/>
+      <c r="U74" s="280"/>
+      <c r="V74" s="264"/>
+      <c r="W74" s="265"/>
+      <c r="X74" s="265"/>
+      <c r="Y74" s="265"/>
+      <c r="Z74" s="265"/>
+      <c r="AA74" s="265"/>
+      <c r="AB74" s="265"/>
+      <c r="AC74" s="265"/>
+      <c r="AD74" s="265"/>
+      <c r="AE74" s="265"/>
+      <c r="AF74" s="265"/>
+      <c r="AG74" s="265"/>
+      <c r="AH74" s="266"/>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
       <c r="AM74" s="31"/>
@@ -10046,40 +10046,40 @@
       <c r="AV74" s="31"/>
       <c r="AW74" s="31"/>
     </row>
-    <row r="75" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:53">
       <c r="D75" s="96">
         <v>1</v>
       </c>
-      <c r="E75" s="163"/>
-      <c r="F75" s="164"/>
-      <c r="G75" s="164"/>
-      <c r="H75" s="164"/>
-      <c r="I75" s="164"/>
-      <c r="J75" s="165"/>
-      <c r="K75" s="163"/>
-      <c r="L75" s="164"/>
-      <c r="M75" s="164"/>
-      <c r="N75" s="165"/>
+      <c r="E75" s="170"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="172"/>
+      <c r="K75" s="170"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="172"/>
       <c r="O75" s="97"/>
       <c r="P75" s="143"/>
       <c r="Q75" s="143"/>
       <c r="R75" s="143"/>
       <c r="S75" s="143"/>
-      <c r="T75" s="318"/>
-      <c r="U75" s="319"/>
-      <c r="V75" s="163"/>
-      <c r="W75" s="164"/>
-      <c r="X75" s="164"/>
-      <c r="Y75" s="164"/>
-      <c r="Z75" s="164"/>
-      <c r="AA75" s="164"/>
-      <c r="AB75" s="164"/>
-      <c r="AC75" s="164"/>
-      <c r="AD75" s="164"/>
-      <c r="AE75" s="164"/>
-      <c r="AF75" s="164"/>
-      <c r="AG75" s="164"/>
-      <c r="AH75" s="165"/>
+      <c r="T75" s="253"/>
+      <c r="U75" s="254"/>
+      <c r="V75" s="170"/>
+      <c r="W75" s="171"/>
+      <c r="X75" s="171"/>
+      <c r="Y75" s="171"/>
+      <c r="Z75" s="171"/>
+      <c r="AA75" s="171"/>
+      <c r="AB75" s="171"/>
+      <c r="AC75" s="171"/>
+      <c r="AD75" s="171"/>
+      <c r="AE75" s="171"/>
+      <c r="AF75" s="171"/>
+      <c r="AG75" s="171"/>
+      <c r="AH75" s="172"/>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
       <c r="AM75" s="31"/>
@@ -10094,40 +10094,40 @@
       <c r="AV75" s="31"/>
       <c r="AW75" s="31"/>
     </row>
-    <row r="76" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:53">
       <c r="D76" s="96">
         <v>2</v>
       </c>
-      <c r="E76" s="163"/>
-      <c r="F76" s="164"/>
-      <c r="G76" s="164"/>
-      <c r="H76" s="164"/>
-      <c r="I76" s="164"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="164"/>
-      <c r="M76" s="164"/>
-      <c r="N76" s="165"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="170"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="172"/>
       <c r="O76" s="98"/>
       <c r="P76" s="143"/>
       <c r="Q76" s="143"/>
       <c r="R76" s="143"/>
       <c r="S76" s="143"/>
-      <c r="T76" s="318"/>
-      <c r="U76" s="319"/>
-      <c r="V76" s="163"/>
-      <c r="W76" s="164"/>
-      <c r="X76" s="164"/>
-      <c r="Y76" s="164"/>
-      <c r="Z76" s="164"/>
-      <c r="AA76" s="164"/>
-      <c r="AB76" s="164"/>
-      <c r="AC76" s="164"/>
-      <c r="AD76" s="164"/>
-      <c r="AE76" s="164"/>
-      <c r="AF76" s="164"/>
-      <c r="AG76" s="164"/>
-      <c r="AH76" s="165"/>
+      <c r="T76" s="253"/>
+      <c r="U76" s="254"/>
+      <c r="V76" s="170"/>
+      <c r="W76" s="171"/>
+      <c r="X76" s="171"/>
+      <c r="Y76" s="171"/>
+      <c r="Z76" s="171"/>
+      <c r="AA76" s="171"/>
+      <c r="AB76" s="171"/>
+      <c r="AC76" s="171"/>
+      <c r="AD76" s="171"/>
+      <c r="AE76" s="171"/>
+      <c r="AF76" s="171"/>
+      <c r="AG76" s="171"/>
+      <c r="AH76" s="172"/>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
       <c r="AM76" s="31"/>
@@ -10142,40 +10142,40 @@
       <c r="AV76" s="31"/>
       <c r="AW76" s="31"/>
     </row>
-    <row r="77" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:53">
       <c r="D77" s="96">
         <v>3</v>
       </c>
-      <c r="E77" s="163"/>
-      <c r="F77" s="164"/>
-      <c r="G77" s="164"/>
-      <c r="H77" s="164"/>
-      <c r="I77" s="164"/>
-      <c r="J77" s="165"/>
-      <c r="K77" s="163"/>
-      <c r="L77" s="164"/>
-      <c r="M77" s="164"/>
-      <c r="N77" s="165"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="170"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="172"/>
       <c r="O77" s="98"/>
       <c r="P77" s="143"/>
       <c r="Q77" s="143"/>
       <c r="R77" s="143"/>
       <c r="S77" s="143"/>
-      <c r="T77" s="318"/>
-      <c r="U77" s="319"/>
-      <c r="V77" s="163"/>
-      <c r="W77" s="164"/>
-      <c r="X77" s="164"/>
-      <c r="Y77" s="164"/>
-      <c r="Z77" s="164"/>
-      <c r="AA77" s="164"/>
-      <c r="AB77" s="164"/>
-      <c r="AC77" s="164"/>
-      <c r="AD77" s="164"/>
-      <c r="AE77" s="164"/>
-      <c r="AF77" s="164"/>
-      <c r="AG77" s="164"/>
-      <c r="AH77" s="165"/>
+      <c r="T77" s="253"/>
+      <c r="U77" s="254"/>
+      <c r="V77" s="170"/>
+      <c r="W77" s="171"/>
+      <c r="X77" s="171"/>
+      <c r="Y77" s="171"/>
+      <c r="Z77" s="171"/>
+      <c r="AA77" s="171"/>
+      <c r="AB77" s="171"/>
+      <c r="AC77" s="171"/>
+      <c r="AD77" s="171"/>
+      <c r="AE77" s="171"/>
+      <c r="AF77" s="171"/>
+      <c r="AG77" s="171"/>
+      <c r="AH77" s="172"/>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
       <c r="AM77" s="31"/>
@@ -10194,7 +10194,7 @@
       <c r="AZ77" s="31"/>
       <c r="BA77" s="31"/>
     </row>
-    <row r="78" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:53">
       <c r="D78" s="121"/>
       <c r="E78" s="122"/>
       <c r="F78" s="122"/>
@@ -10244,7 +10244,7 @@
       <c r="AZ78" s="31"/>
       <c r="BA78" s="31"/>
     </row>
-    <row r="79" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:53">
       <c r="D79" s="93"/>
       <c r="E79" s="94"/>
       <c r="F79" s="89"/>
@@ -10294,7 +10294,7 @@
       <c r="AZ79" s="31"/>
       <c r="BA79" s="31"/>
     </row>
-    <row r="80" spans="3:53" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:53">
       <c r="C80" s="28" t="s">
         <v>84</v>
       </c>
@@ -10308,158 +10308,158 @@
       <c r="AZ80" s="31"/>
       <c r="BA80" s="31"/>
     </row>
-    <row r="82" spans="1:54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:54" ht="11.25" customHeight="1">
       <c r="C82" s="99"/>
       <c r="D82" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="312" t="s">
+      <c r="E82" s="275" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="310"/>
-      <c r="G82" s="310"/>
-      <c r="H82" s="310"/>
-      <c r="I82" s="310"/>
-      <c r="J82" s="313"/>
-      <c r="K82" s="312" t="s">
+      <c r="F82" s="273"/>
+      <c r="G82" s="273"/>
+      <c r="H82" s="273"/>
+      <c r="I82" s="273"/>
+      <c r="J82" s="276"/>
+      <c r="K82" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="L82" s="310"/>
-      <c r="M82" s="310"/>
-      <c r="N82" s="310"/>
-      <c r="O82" s="310"/>
-      <c r="P82" s="310"/>
-      <c r="Q82" s="311"/>
+      <c r="L82" s="273"/>
+      <c r="M82" s="273"/>
+      <c r="N82" s="273"/>
+      <c r="O82" s="273"/>
+      <c r="P82" s="273"/>
+      <c r="Q82" s="274"/>
       <c r="R82" s="233" t="s">
         <v>89</v>
       </c>
-      <c r="S82" s="310"/>
-      <c r="T82" s="310"/>
-      <c r="U82" s="310"/>
-      <c r="V82" s="310"/>
-      <c r="W82" s="310"/>
-      <c r="X82" s="310"/>
-      <c r="Y82" s="311"/>
-      <c r="Z82" s="320" t="s">
+      <c r="S82" s="273"/>
+      <c r="T82" s="273"/>
+      <c r="U82" s="273"/>
+      <c r="V82" s="273"/>
+      <c r="W82" s="273"/>
+      <c r="X82" s="273"/>
+      <c r="Y82" s="274"/>
+      <c r="Z82" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="AA82" s="321"/>
-      <c r="AB82" s="321"/>
-      <c r="AC82" s="321"/>
-      <c r="AD82" s="322"/>
-      <c r="AE82" s="326" t="s">
+      <c r="AA82" s="247"/>
+      <c r="AB82" s="247"/>
+      <c r="AC82" s="247"/>
+      <c r="AD82" s="248"/>
+      <c r="AE82" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="AF82" s="327"/>
-      <c r="AG82" s="327"/>
-      <c r="AH82" s="328"/>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="AF82" s="259"/>
+      <c r="AG82" s="259"/>
+      <c r="AH82" s="260"/>
+    </row>
+    <row r="83" spans="1:54">
       <c r="D83" s="58">
         <v>1</v>
       </c>
-      <c r="E83" s="239"/>
-      <c r="F83" s="240"/>
-      <c r="G83" s="240"/>
-      <c r="H83" s="240"/>
-      <c r="I83" s="240"/>
-      <c r="J83" s="241"/>
-      <c r="K83" s="163"/>
-      <c r="L83" s="164"/>
-      <c r="M83" s="164"/>
-      <c r="N83" s="164"/>
-      <c r="O83" s="164"/>
-      <c r="P83" s="164"/>
-      <c r="Q83" s="165"/>
-      <c r="R83" s="163"/>
-      <c r="S83" s="164"/>
-      <c r="T83" s="164"/>
-      <c r="U83" s="164"/>
-      <c r="V83" s="164"/>
-      <c r="W83" s="164"/>
-      <c r="X83" s="164"/>
-      <c r="Y83" s="165"/>
-      <c r="Z83" s="163"/>
-      <c r="AA83" s="164"/>
-      <c r="AB83" s="164"/>
-      <c r="AC83" s="164"/>
-      <c r="AD83" s="165"/>
-      <c r="AE83" s="323"/>
-      <c r="AF83" s="324"/>
-      <c r="AG83" s="324"/>
-      <c r="AH83" s="325"/>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="E83" s="270"/>
+      <c r="F83" s="271"/>
+      <c r="G83" s="271"/>
+      <c r="H83" s="271"/>
+      <c r="I83" s="271"/>
+      <c r="J83" s="272"/>
+      <c r="K83" s="170"/>
+      <c r="L83" s="171"/>
+      <c r="M83" s="171"/>
+      <c r="N83" s="171"/>
+      <c r="O83" s="171"/>
+      <c r="P83" s="171"/>
+      <c r="Q83" s="172"/>
+      <c r="R83" s="170"/>
+      <c r="S83" s="171"/>
+      <c r="T83" s="171"/>
+      <c r="U83" s="171"/>
+      <c r="V83" s="171"/>
+      <c r="W83" s="171"/>
+      <c r="X83" s="171"/>
+      <c r="Y83" s="172"/>
+      <c r="Z83" s="170"/>
+      <c r="AA83" s="171"/>
+      <c r="AB83" s="171"/>
+      <c r="AC83" s="171"/>
+      <c r="AD83" s="172"/>
+      <c r="AE83" s="255"/>
+      <c r="AF83" s="256"/>
+      <c r="AG83" s="256"/>
+      <c r="AH83" s="257"/>
+    </row>
+    <row r="84" spans="1:54">
       <c r="D84" s="58">
         <v>2</v>
       </c>
-      <c r="E84" s="239"/>
-      <c r="F84" s="240"/>
-      <c r="G84" s="240"/>
-      <c r="H84" s="240"/>
-      <c r="I84" s="240"/>
-      <c r="J84" s="241"/>
-      <c r="K84" s="163"/>
-      <c r="L84" s="164"/>
-      <c r="M84" s="164"/>
-      <c r="N84" s="164"/>
-      <c r="O84" s="164"/>
-      <c r="P84" s="164"/>
-      <c r="Q84" s="165"/>
-      <c r="R84" s="163"/>
-      <c r="S84" s="164"/>
-      <c r="T84" s="164"/>
-      <c r="U84" s="164"/>
-      <c r="V84" s="164"/>
-      <c r="W84" s="164"/>
-      <c r="X84" s="164"/>
-      <c r="Y84" s="165"/>
-      <c r="Z84" s="163"/>
-      <c r="AA84" s="164"/>
-      <c r="AB84" s="164"/>
-      <c r="AC84" s="164"/>
-      <c r="AD84" s="165"/>
-      <c r="AE84" s="323"/>
-      <c r="AF84" s="324"/>
-      <c r="AG84" s="324"/>
-      <c r="AH84" s="325"/>
-    </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="E84" s="270"/>
+      <c r="F84" s="271"/>
+      <c r="G84" s="271"/>
+      <c r="H84" s="271"/>
+      <c r="I84" s="271"/>
+      <c r="J84" s="272"/>
+      <c r="K84" s="170"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="171"/>
+      <c r="N84" s="171"/>
+      <c r="O84" s="171"/>
+      <c r="P84" s="171"/>
+      <c r="Q84" s="172"/>
+      <c r="R84" s="170"/>
+      <c r="S84" s="171"/>
+      <c r="T84" s="171"/>
+      <c r="U84" s="171"/>
+      <c r="V84" s="171"/>
+      <c r="W84" s="171"/>
+      <c r="X84" s="171"/>
+      <c r="Y84" s="172"/>
+      <c r="Z84" s="170"/>
+      <c r="AA84" s="171"/>
+      <c r="AB84" s="171"/>
+      <c r="AC84" s="171"/>
+      <c r="AD84" s="172"/>
+      <c r="AE84" s="255"/>
+      <c r="AF84" s="256"/>
+      <c r="AG84" s="256"/>
+      <c r="AH84" s="257"/>
+    </row>
+    <row r="85" spans="1:54">
       <c r="D85" s="58">
         <v>3</v>
       </c>
-      <c r="E85" s="239"/>
-      <c r="F85" s="240"/>
-      <c r="G85" s="240"/>
-      <c r="H85" s="240"/>
-      <c r="I85" s="240"/>
-      <c r="J85" s="241"/>
-      <c r="K85" s="163"/>
-      <c r="L85" s="164"/>
-      <c r="M85" s="164"/>
-      <c r="N85" s="164"/>
-      <c r="O85" s="164"/>
-      <c r="P85" s="164"/>
-      <c r="Q85" s="165"/>
-      <c r="R85" s="163"/>
-      <c r="S85" s="164"/>
-      <c r="T85" s="164"/>
-      <c r="U85" s="164"/>
-      <c r="V85" s="164"/>
-      <c r="W85" s="164"/>
-      <c r="X85" s="164"/>
-      <c r="Y85" s="165"/>
-      <c r="Z85" s="163"/>
-      <c r="AA85" s="164"/>
-      <c r="AB85" s="164"/>
-      <c r="AC85" s="164"/>
-      <c r="AD85" s="165"/>
-      <c r="AE85" s="323"/>
-      <c r="AF85" s="324"/>
-      <c r="AG85" s="324"/>
-      <c r="AH85" s="325"/>
-    </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="E85" s="270"/>
+      <c r="F85" s="271"/>
+      <c r="G85" s="271"/>
+      <c r="H85" s="271"/>
+      <c r="I85" s="271"/>
+      <c r="J85" s="272"/>
+      <c r="K85" s="170"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="171"/>
+      <c r="N85" s="171"/>
+      <c r="O85" s="171"/>
+      <c r="P85" s="171"/>
+      <c r="Q85" s="172"/>
+      <c r="R85" s="170"/>
+      <c r="S85" s="171"/>
+      <c r="T85" s="171"/>
+      <c r="U85" s="171"/>
+      <c r="V85" s="171"/>
+      <c r="W85" s="171"/>
+      <c r="X85" s="171"/>
+      <c r="Y85" s="172"/>
+      <c r="Z85" s="170"/>
+      <c r="AA85" s="171"/>
+      <c r="AB85" s="171"/>
+      <c r="AC85" s="171"/>
+      <c r="AD85" s="172"/>
+      <c r="AE85" s="255"/>
+      <c r="AF85" s="256"/>
+      <c r="AG85" s="256"/>
+      <c r="AH85" s="257"/>
+    </row>
+    <row r="86" spans="1:54">
       <c r="AN86" s="31"/>
       <c r="AO86" s="31"/>
       <c r="AP86" s="31"/>
@@ -10476,7 +10476,7 @@
       <c r="BA86" s="31"/>
       <c r="BB86" s="31"/>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:54">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -10528,7 +10528,7 @@
       <c r="BA87" s="31"/>
       <c r="BB87" s="31"/>
     </row>
-    <row r="88" spans="1:54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:54" ht="11.25" customHeight="1">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31" t="s">
@@ -10582,7 +10582,7 @@
       <c r="BA88" s="31"/>
       <c r="BB88" s="31"/>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:54">
       <c r="A89" s="63"/>
       <c r="B89" s="60"/>
       <c r="C89" s="31"/>
@@ -10622,7 +10622,7 @@
       <c r="AI89" s="101"/>
       <c r="AJ89" s="94"/>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:54">
       <c r="A90" s="63"/>
       <c r="B90" s="60"/>
       <c r="C90" s="63"/>
@@ -10660,7 +10660,7 @@
       <c r="AI90" s="101"/>
       <c r="AJ90" s="94"/>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:54">
       <c r="A91" s="63"/>
       <c r="B91" s="60"/>
       <c r="C91" s="63"/>
@@ -10698,7 +10698,7 @@
       <c r="AI91" s="101"/>
       <c r="AJ91" s="94"/>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:54">
       <c r="A92" s="63"/>
       <c r="B92" s="60"/>
       <c r="C92" s="63"/>
@@ -10736,7 +10736,7 @@
       <c r="AI92" s="101"/>
       <c r="AJ92" s="94"/>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:54">
       <c r="A93" s="63"/>
       <c r="B93" s="60"/>
       <c r="C93" s="63"/>
@@ -10774,7 +10774,7 @@
       <c r="AI93" s="101"/>
       <c r="AJ93" s="94"/>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:54">
       <c r="A94" s="63"/>
       <c r="B94" s="60"/>
       <c r="C94" s="63"/>
@@ -10812,7 +10812,7 @@
       <c r="AI94" s="101"/>
       <c r="AJ94" s="94"/>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:54">
       <c r="A95" s="63"/>
       <c r="B95" s="60"/>
       <c r="C95" s="63"/>
@@ -10850,7 +10850,7 @@
       <c r="AI95" s="101"/>
       <c r="AJ95" s="94"/>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:54">
       <c r="A96" s="63"/>
       <c r="B96" s="60"/>
       <c r="C96" s="63"/>
@@ -10888,7 +10888,7 @@
       <c r="AI96" s="101"/>
       <c r="AJ96" s="94"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:36">
       <c r="A97" s="63"/>
       <c r="B97" s="60"/>
       <c r="C97" s="63"/>
@@ -10926,7 +10926,7 @@
       <c r="AI97" s="101"/>
       <c r="AJ97" s="94"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:36">
       <c r="A98" s="63"/>
       <c r="B98" s="60"/>
       <c r="C98" s="63"/>
@@ -10964,7 +10964,7 @@
       <c r="AI98" s="101"/>
       <c r="AJ98" s="94"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:36">
       <c r="A99" s="63"/>
       <c r="B99" s="60"/>
       <c r="C99" s="63"/>
@@ -11002,7 +11002,7 @@
       <c r="AI99" s="101"/>
       <c r="AJ99" s="94"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:36">
       <c r="A100" s="63"/>
       <c r="B100" s="60"/>
       <c r="C100" s="63"/>
@@ -11040,7 +11040,7 @@
       <c r="AI100" s="101"/>
       <c r="AJ100" s="94"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:36">
       <c r="A101" s="63"/>
       <c r="B101" s="60"/>
       <c r="C101" s="63"/>
@@ -11078,7 +11078,7 @@
       <c r="AI101" s="101"/>
       <c r="AJ101" s="94"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:36">
       <c r="A102" s="63"/>
       <c r="B102" s="60"/>
       <c r="C102" s="63"/>
@@ -11116,7 +11116,7 @@
       <c r="AI102" s="101"/>
       <c r="AJ102" s="94"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:36">
       <c r="A103" s="63"/>
       <c r="B103" s="60"/>
       <c r="C103" s="63"/>
@@ -11154,7 +11154,7 @@
       <c r="AI103" s="101"/>
       <c r="AJ103" s="94"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:36">
       <c r="A104" s="63"/>
       <c r="B104" s="60"/>
       <c r="C104" s="63"/>
@@ -11192,7 +11192,7 @@
       <c r="AI104" s="101"/>
       <c r="AJ104" s="94"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:36">
       <c r="A105" s="63"/>
       <c r="B105" s="60"/>
       <c r="C105" s="63"/>
@@ -11230,7 +11230,7 @@
       <c r="AI105" s="101"/>
       <c r="AJ105" s="94"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:36">
       <c r="A106" s="63"/>
       <c r="B106" s="60"/>
       <c r="C106" s="63"/>
@@ -11268,7 +11268,7 @@
       <c r="AI106" s="101"/>
       <c r="AJ106" s="94"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:36">
       <c r="A107" s="63"/>
       <c r="B107" s="60"/>
       <c r="C107" s="63"/>
@@ -11306,7 +11306,7 @@
       <c r="AI107" s="101"/>
       <c r="AJ107" s="94"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:36">
       <c r="A108" s="63"/>
       <c r="B108" s="60"/>
       <c r="C108" s="63"/>
@@ -11344,7 +11344,7 @@
       <c r="AI108" s="101"/>
       <c r="AJ108" s="94"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:36">
       <c r="A109" s="63"/>
       <c r="B109" s="60"/>
       <c r="C109" s="63"/>
@@ -11382,7 +11382,7 @@
       <c r="AI109" s="101"/>
       <c r="AJ109" s="94"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:36">
       <c r="A110" s="63"/>
       <c r="B110" s="60"/>
       <c r="C110" s="63"/>
@@ -11420,7 +11420,7 @@
       <c r="AI110" s="101"/>
       <c r="AJ110" s="94"/>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:36">
       <c r="A111" s="63"/>
       <c r="B111" s="60"/>
       <c r="C111" s="63"/>
@@ -11458,7 +11458,7 @@
       <c r="AI111" s="101"/>
       <c r="AJ111" s="94"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:36">
       <c r="A112" s="63"/>
       <c r="B112" s="60"/>
       <c r="C112" s="63"/>
@@ -11496,7 +11496,7 @@
       <c r="AI112" s="101"/>
       <c r="AJ112" s="94"/>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:39">
       <c r="A113" s="63"/>
       <c r="B113" s="60"/>
       <c r="C113" s="63"/>
@@ -11534,7 +11534,7 @@
       <c r="AI113" s="101"/>
       <c r="AJ113" s="94"/>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:39">
       <c r="A114" s="63"/>
       <c r="B114" s="60"/>
       <c r="C114" s="63"/>
@@ -11572,7 +11572,7 @@
       <c r="AI114" s="101"/>
       <c r="AJ114" s="94"/>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:39">
       <c r="A115" s="63"/>
       <c r="B115" s="60"/>
       <c r="C115" s="63"/>
@@ -11610,7 +11610,7 @@
       <c r="AI115" s="101"/>
       <c r="AJ115" s="94"/>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39">
       <c r="A116" s="63"/>
       <c r="B116" s="60"/>
       <c r="C116" s="63"/>
@@ -11648,7 +11648,7 @@
       <c r="AI116" s="101"/>
       <c r="AJ116" s="94"/>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:39">
       <c r="A117" s="63"/>
       <c r="B117" s="60"/>
       <c r="C117" s="63"/>
@@ -11686,7 +11686,7 @@
       <c r="AI117" s="101"/>
       <c r="AJ117" s="94"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39">
       <c r="A118" s="63"/>
       <c r="B118" s="60"/>
       <c r="C118" s="63"/>
@@ -11724,7 +11724,7 @@
       <c r="AI118" s="101"/>
       <c r="AJ118" s="94"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:39">
       <c r="A119" s="63"/>
       <c r="B119" s="60"/>
       <c r="C119" s="63"/>
@@ -11762,7 +11762,7 @@
       <c r="AI119" s="101"/>
       <c r="AJ119" s="94"/>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39">
       <c r="A120" s="63"/>
       <c r="B120" s="60"/>
       <c r="C120" s="63"/>
@@ -11800,7 +11800,7 @@
       <c r="AI120" s="101"/>
       <c r="AJ120" s="94"/>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39">
       <c r="A121" s="63"/>
       <c r="B121" s="60"/>
       <c r="C121" s="63"/>
@@ -11838,7 +11838,7 @@
       <c r="AI121" s="101"/>
       <c r="AJ121" s="94"/>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39">
       <c r="A122" s="63"/>
       <c r="B122" s="60"/>
       <c r="C122" s="63"/>
@@ -11876,7 +11876,7 @@
       <c r="AI122" s="101"/>
       <c r="AJ122" s="94"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39">
       <c r="A123" s="63"/>
       <c r="B123" s="60"/>
       <c r="C123" s="63"/>
@@ -11914,7 +11914,7 @@
       <c r="AI123" s="101"/>
       <c r="AJ123" s="94"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39">
       <c r="A124" s="63"/>
       <c r="B124" s="60"/>
       <c r="C124" s="63"/>
@@ -11952,7 +11952,7 @@
       <c r="AI124" s="101"/>
       <c r="AJ124" s="94"/>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39">
       <c r="A125" s="63"/>
       <c r="B125" s="60"/>
       <c r="C125" s="63"/>
@@ -11990,7 +11990,7 @@
       <c r="AI125" s="101"/>
       <c r="AJ125" s="94"/>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39">
       <c r="A126" s="28" t="s">
         <v>114</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="AI126" s="101"/>
       <c r="AJ126" s="94"/>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:39">
       <c r="A127" s="17"/>
       <c r="B127" s="74" t="s">
         <v>115</v>
@@ -12073,7 +12073,7 @@
       <c r="AL127" s="33"/>
       <c r="AM127" s="33"/>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="74"/>
@@ -12114,10 +12114,10 @@
       <c r="AL128" s="33"/>
       <c r="AM128" s="33"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:41">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
-      <c r="C129" s="290" t="s">
+      <c r="C129" s="285" t="s">
         <v>48</v>
       </c>
       <c r="D129" s="139" t="s">
@@ -12158,10 +12158,10 @@
       <c r="AI129" s="135"/>
       <c r="AJ129" s="102"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:41">
       <c r="A130" s="33"/>
       <c r="B130" s="63"/>
-      <c r="C130" s="292"/>
+      <c r="C130" s="286"/>
       <c r="D130" s="139" t="s">
         <v>50</v>
       </c>
@@ -12172,28 +12172,28 @@
       <c r="I130" s="140"/>
       <c r="J130" s="140"/>
       <c r="K130" s="141"/>
-      <c r="L130" s="320" t="s">
+      <c r="L130" s="246" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="321"/>
-      <c r="N130" s="321"/>
-      <c r="O130" s="322"/>
-      <c r="P130" s="320" t="s">
+      <c r="M130" s="247"/>
+      <c r="N130" s="247"/>
+      <c r="O130" s="248"/>
+      <c r="P130" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="Q130" s="321"/>
-      <c r="R130" s="321"/>
-      <c r="S130" s="321"/>
-      <c r="T130" s="322"/>
-      <c r="U130" s="320" t="s">
+      <c r="Q130" s="247"/>
+      <c r="R130" s="247"/>
+      <c r="S130" s="247"/>
+      <c r="T130" s="248"/>
+      <c r="U130" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="V130" s="321"/>
-      <c r="W130" s="321"/>
-      <c r="X130" s="321"/>
-      <c r="Y130" s="321"/>
-      <c r="Z130" s="321"/>
-      <c r="AA130" s="322"/>
+      <c r="V130" s="247"/>
+      <c r="W130" s="247"/>
+      <c r="X130" s="247"/>
+      <c r="Y130" s="247"/>
+      <c r="Z130" s="247"/>
+      <c r="AA130" s="248"/>
       <c r="AB130" s="136"/>
       <c r="AC130" s="137"/>
       <c r="AD130" s="137"/>
@@ -12205,7 +12205,7 @@
       <c r="AJ130" s="103"/>
       <c r="AK130" s="31"/>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:41">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="145" t="s">
@@ -12247,36 +12247,36 @@
       <c r="AI131" s="147"/>
       <c r="AJ131" s="104"/>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:41">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="105">
         <v>1</v>
       </c>
-      <c r="D132" s="163"/>
-      <c r="E132" s="164"/>
-      <c r="F132" s="164"/>
-      <c r="G132" s="164"/>
-      <c r="H132" s="164"/>
-      <c r="I132" s="164"/>
-      <c r="J132" s="164"/>
-      <c r="K132" s="165"/>
-      <c r="L132" s="299"/>
-      <c r="M132" s="300"/>
-      <c r="N132" s="300"/>
-      <c r="O132" s="301"/>
-      <c r="P132" s="283"/>
-      <c r="Q132" s="284"/>
-      <c r="R132" s="284"/>
-      <c r="S132" s="284"/>
-      <c r="T132" s="285"/>
-      <c r="U132" s="163"/>
-      <c r="V132" s="164"/>
-      <c r="W132" s="164"/>
-      <c r="X132" s="164"/>
-      <c r="Y132" s="164"/>
-      <c r="Z132" s="164"/>
-      <c r="AA132" s="165"/>
+      <c r="D132" s="170"/>
+      <c r="E132" s="171"/>
+      <c r="F132" s="171"/>
+      <c r="G132" s="171"/>
+      <c r="H132" s="171"/>
+      <c r="I132" s="171"/>
+      <c r="J132" s="171"/>
+      <c r="K132" s="172"/>
+      <c r="L132" s="267"/>
+      <c r="M132" s="268"/>
+      <c r="N132" s="268"/>
+      <c r="O132" s="269"/>
+      <c r="P132" s="243"/>
+      <c r="Q132" s="244"/>
+      <c r="R132" s="244"/>
+      <c r="S132" s="244"/>
+      <c r="T132" s="245"/>
+      <c r="U132" s="170"/>
+      <c r="V132" s="171"/>
+      <c r="W132" s="171"/>
+      <c r="X132" s="171"/>
+      <c r="Y132" s="171"/>
+      <c r="Z132" s="171"/>
+      <c r="AA132" s="172"/>
       <c r="AB132" s="130"/>
       <c r="AC132" s="131"/>
       <c r="AD132" s="131"/>
@@ -12287,7 +12287,7 @@
       <c r="AI132" s="132"/>
       <c r="AJ132" s="89"/>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:41">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="145" t="s">
@@ -12329,36 +12329,36 @@
       <c r="AI133" s="147"/>
       <c r="AJ133" s="104"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:41">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="105">
         <v>2</v>
       </c>
-      <c r="D134" s="163"/>
-      <c r="E134" s="164"/>
-      <c r="F134" s="164"/>
-      <c r="G134" s="164"/>
-      <c r="H134" s="164"/>
-      <c r="I134" s="164"/>
-      <c r="J134" s="164"/>
-      <c r="K134" s="165"/>
-      <c r="L134" s="299"/>
-      <c r="M134" s="300"/>
-      <c r="N134" s="300"/>
-      <c r="O134" s="301"/>
-      <c r="P134" s="283"/>
-      <c r="Q134" s="284"/>
-      <c r="R134" s="284"/>
-      <c r="S134" s="284"/>
-      <c r="T134" s="285"/>
-      <c r="U134" s="163"/>
-      <c r="V134" s="164"/>
-      <c r="W134" s="164"/>
-      <c r="X134" s="164"/>
-      <c r="Y134" s="164"/>
-      <c r="Z134" s="164"/>
-      <c r="AA134" s="165"/>
+      <c r="D134" s="170"/>
+      <c r="E134" s="171"/>
+      <c r="F134" s="171"/>
+      <c r="G134" s="171"/>
+      <c r="H134" s="171"/>
+      <c r="I134" s="171"/>
+      <c r="J134" s="171"/>
+      <c r="K134" s="172"/>
+      <c r="L134" s="267"/>
+      <c r="M134" s="268"/>
+      <c r="N134" s="268"/>
+      <c r="O134" s="269"/>
+      <c r="P134" s="243"/>
+      <c r="Q134" s="244"/>
+      <c r="R134" s="244"/>
+      <c r="S134" s="244"/>
+      <c r="T134" s="245"/>
+      <c r="U134" s="170"/>
+      <c r="V134" s="171"/>
+      <c r="W134" s="171"/>
+      <c r="X134" s="171"/>
+      <c r="Y134" s="171"/>
+      <c r="Z134" s="171"/>
+      <c r="AA134" s="172"/>
       <c r="AB134" s="130"/>
       <c r="AC134" s="131"/>
       <c r="AD134" s="131"/>
@@ -12369,7 +12369,7 @@
       <c r="AI134" s="132"/>
       <c r="AJ134" s="89"/>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:41">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
@@ -12412,7 +12412,7 @@
       <c r="AN135" s="33"/>
       <c r="AO135" s="33"/>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:41">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -12455,7 +12455,7 @@
       <c r="AN136" s="33"/>
       <c r="AO136" s="33"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:41">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
@@ -12498,7 +12498,7 @@
       <c r="AN137" s="33"/>
       <c r="AO137" s="33"/>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:41">
       <c r="AJ138" s="33"/>
       <c r="AK138" s="33"/>
       <c r="AL138" s="33"/>
@@ -12506,144 +12506,144 @@
       <c r="AN138" s="33"/>
       <c r="AO138" s="33"/>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:41">
       <c r="A140" s="33"/>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:41">
       <c r="A141" s="33"/>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:41">
       <c r="A142" s="63"/>
       <c r="B142" s="31"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:41">
       <c r="A143" s="33"/>
     </row>
-    <row r="144" spans="1:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:41" ht="11.25" customHeight="1">
       <c r="A144" s="33"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4">
       <c r="A145" s="33"/>
     </row>
-    <row r="146" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="11.25" customHeight="1">
       <c r="A146" s="33"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4">
       <c r="A147" s="33"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4">
       <c r="A148" s="33"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4">
       <c r="A149" s="33"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4">
       <c r="A150" s="33"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4">
       <c r="A151" s="33"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4">
       <c r="A152" s="63"/>
       <c r="B152" s="31"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4">
       <c r="A153" s="33"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
     </row>
-    <row r="154" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="11.25" customHeight="1">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
     </row>
-    <row r="156" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="11.25" customHeight="1">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -12651,22 +12651,128 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AH59"/>
-    <mergeCell ref="AE60:AH60"/>
-    <mergeCell ref="AE61:AH61"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="N65:U65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="V61:Z61"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="V64:Z64"/>
-    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="AL53:AO54"/>
+    <mergeCell ref="N53:U54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="J53:M54"/>
+    <mergeCell ref="AA53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="N56:U56"/>
+    <mergeCell ref="N57:U57"/>
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="N61:U61"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="U134:AA134"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:J74"/>
+    <mergeCell ref="E45:M45"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="F52:AD52"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="N58:U58"/>
+    <mergeCell ref="N59:U59"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V45:AC45"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="V47:AC47"/>
+    <mergeCell ref="AL58:AO58"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="E55:AH55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AE56:AH56"/>
+    <mergeCell ref="AE57:AH57"/>
+    <mergeCell ref="V62:Z62"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="V56:Z56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="AE52:AH54"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="N63:U63"/>
+    <mergeCell ref="N64:U64"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="V73:AH74"/>
+    <mergeCell ref="V76:AH76"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="R83:Y83"/>
+    <mergeCell ref="R84:Y84"/>
+    <mergeCell ref="R85:Y85"/>
     <mergeCell ref="L130:O130"/>
     <mergeCell ref="P130:T130"/>
     <mergeCell ref="U130:AA130"/>
@@ -12691,128 +12797,22 @@
     <mergeCell ref="K73:N74"/>
     <mergeCell ref="E75:J75"/>
     <mergeCell ref="K75:N75"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="R83:Y83"/>
-    <mergeCell ref="R84:Y84"/>
-    <mergeCell ref="R85:Y85"/>
-    <mergeCell ref="R82:Y82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="U132:AA132"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="V73:AH74"/>
-    <mergeCell ref="V76:AH76"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="N63:U63"/>
-    <mergeCell ref="N64:U64"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V45:AC45"/>
-    <mergeCell ref="V46:AC46"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="V47:AC47"/>
-    <mergeCell ref="AL58:AO58"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="E55:AH55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AE56:AH56"/>
-    <mergeCell ref="AE57:AH57"/>
-    <mergeCell ref="V62:Z62"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="V56:Z56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="AE52:AH54"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="F52:AD52"/>
-    <mergeCell ref="F53:I54"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="N58:U58"/>
-    <mergeCell ref="N59:U59"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="AL53:AO54"/>
-    <mergeCell ref="N53:U54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="J53:M54"/>
-    <mergeCell ref="AA53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="N56:U56"/>
-    <mergeCell ref="N57:U57"/>
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="N61:U61"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="N62:U62"/>
-    <mergeCell ref="U134:AA134"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:J74"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AH59"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="N65:U65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="V61:Z61"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="V64:Z64"/>
+    <mergeCell ref="AA58:AC58"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12874,7 +12874,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="28" bestFit="1" customWidth="1"/>
@@ -12884,7 +12884,7 @@
     <col min="6" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="106" t="s">
         <v>12</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="98"/>
       <c r="B2" s="98" t="s">
         <v>110</v>
@@ -12914,7 +12914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="98" t="s">
         <v>17</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="98" t="s">
         <v>18</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="98" t="s">
         <v>19</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="98" t="s">
         <v>20</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="98" t="s">
         <v>21</v>
       </c>
@@ -12978,27 +12978,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="98" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="98" t="s">
         <v>26</v>
       </c>

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>PJ名</t>
   </si>
@@ -911,16 +911,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>サーバー通信有無</t>
-    <rPh sb="4" eb="6">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウム</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2065,9 +2055,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2110,149 +2247,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2281,15 +2283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2338,6 +2331,162 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2347,6 +2496,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2356,6 +2526,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2422,245 +2643,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3515,12 +3505,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="132" t="str">
+      <c r="I25" s="133" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -4155,53 +4145,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="133" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="174" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="140" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4209,51 +4199,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="133" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="177" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="140" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4261,43 +4251,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4436,1014 +4426,1014 @@
       <c r="A7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="151"/>
     </row>
     <row r="8" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="131"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="183"/>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="163"/>
     </row>
     <row r="9" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="160"/>
     </row>
     <row r="10" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="56"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="152"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="160"/>
     </row>
     <row r="11" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="152"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="159"/>
+      <c r="AH11" s="159"/>
+      <c r="AI11" s="160"/>
     </row>
     <row r="12" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="152"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="160"/>
     </row>
     <row r="13" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="152"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="160"/>
     </row>
     <row r="14" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="56"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="160"/>
     </row>
     <row r="15" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="157"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="160"/>
     </row>
     <row r="16" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="152"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="160"/>
     </row>
     <row r="17" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="56"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="159"/>
+      <c r="AH17" s="159"/>
+      <c r="AI17" s="160"/>
     </row>
     <row r="18" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="56"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="160"/>
     </row>
     <row r="19" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
     </row>
     <row r="20" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160"/>
     </row>
     <row r="21" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
     </row>
     <row r="22" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="160"/>
     </row>
     <row r="23" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="152"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="160"/>
     </row>
     <row r="24" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="152"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="160"/>
     </row>
     <row r="25" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="152"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="160"/>
     </row>
     <row r="26" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="56"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
     </row>
     <row r="27" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="152"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="160"/>
     </row>
     <row r="28" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="152"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="160"/>
     </row>
     <row r="29" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="152"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="159"/>
+      <c r="AH29" s="159"/>
+      <c r="AI29" s="160"/>
     </row>
     <row r="30" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="156"/>
+      <c r="W30" s="156"/>
+      <c r="X30" s="156"/>
+      <c r="Y30" s="156"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="159"/>
+      <c r="AI30" s="160"/>
     </row>
     <row r="31" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="56"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="152"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="156"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="159"/>
+      <c r="AH31" s="159"/>
+      <c r="AI31" s="160"/>
     </row>
     <row r="32" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="56"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="152"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="160"/>
     </row>
     <row r="33" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="56"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="152"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="160"/>
     </row>
     <row r="34" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="28"/>
@@ -5484,161 +5474,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5663,6 +5498,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5819,157 +5809,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="204" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="204" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="204" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="206"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="29"/>
@@ -6202,7 +6192,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="31"/>
@@ -6315,7 +6305,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="66"/>
       <c r="C13" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -7428,14 +7418,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7445,6 +7427,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7471,157 +7461,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="204" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="204" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="204" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="206"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
     </row>
     <row r="4" spans="1:35" s="17" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
@@ -7637,84 +7627,84 @@
     <row r="7" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1"/>
     <row r="8" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="82"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="218"/>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="218"/>
-      <c r="AG8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="219"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="219"/>
+      <c r="AG8" s="220"/>
     </row>
     <row r="9" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B9" s="82"/>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="218"/>
-      <c r="AA9" s="218"/>
-      <c r="AB9" s="218"/>
-      <c r="AC9" s="218"/>
-      <c r="AD9" s="218"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="218"/>
-      <c r="AG9" s="219"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="219"/>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="219"/>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="219"/>
+      <c r="AA9" s="219"/>
+      <c r="AB9" s="219"/>
+      <c r="AC9" s="219"/>
+      <c r="AD9" s="219"/>
+      <c r="AE9" s="219"/>
+      <c r="AF9" s="219"/>
+      <c r="AG9" s="220"/>
     </row>
     <row r="10" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="82"/>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
       <c r="G10" s="110"/>
       <c r="H10" s="111"/>
       <c r="I10" s="111"/>
@@ -7745,10 +7735,10 @@
     </row>
     <row r="11" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="82"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="213"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
       <c r="G11" s="113"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -7779,10 +7769,10 @@
     </row>
     <row r="12" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B12" s="82"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
       <c r="G12" s="113"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -7813,10 +7803,10 @@
     </row>
     <row r="13" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="82"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="213"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
       <c r="G13" s="113"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -7847,10 +7837,10 @@
     </row>
     <row r="14" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B14" s="82"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
       <c r="G14" s="113"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -7881,10 +7871,10 @@
     </row>
     <row r="15" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B15" s="82"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="213"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="113"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -7915,10 +7905,10 @@
     </row>
     <row r="16" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B16" s="82"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="213"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
       <c r="G16" s="113"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -7949,10 +7939,10 @@
     </row>
     <row r="17" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B17" s="82"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="213"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
       <c r="G17" s="113"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -7983,10 +7973,10 @@
     </row>
     <row r="18" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B18" s="82"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="213"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
       <c r="G18" s="113"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -8017,10 +8007,10 @@
     </row>
     <row r="19" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B19" s="82"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="213"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
       <c r="G19" s="113"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -8051,10 +8041,10 @@
     </row>
     <row r="20" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B20" s="82"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="213"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="113"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -8085,10 +8075,10 @@
     </row>
     <row r="21" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B21" s="82"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
       <c r="G21" s="113"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -8119,10 +8109,10 @@
     </row>
     <row r="22" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B22" s="82"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="213"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
       <c r="G22" s="113"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -8153,10 +8143,10 @@
     </row>
     <row r="23" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B23" s="82"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
       <c r="G23" s="113"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -8187,10 +8177,10 @@
     </row>
     <row r="24" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B24" s="82"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="213"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="113"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -8221,10 +8211,10 @@
     </row>
     <row r="25" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B25" s="82"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="213"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
       <c r="G25" s="113"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -8255,10 +8245,10 @@
     </row>
     <row r="26" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B26" s="82"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
       <c r="G26" s="113"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -8289,10 +8279,10 @@
     </row>
     <row r="27" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B27" s="82"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="213"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
       <c r="G27" s="113"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -8323,10 +8313,10 @@
     </row>
     <row r="28" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B28" s="82"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
       <c r="G28" s="113"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -8357,10 +8347,10 @@
     </row>
     <row r="29" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B29" s="82"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="115"/>
       <c r="H29" s="116"/>
       <c r="I29" s="116"/>
@@ -8391,12 +8381,12 @@
     </row>
     <row r="30" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B30" s="82"/>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
       <c r="G30" s="110"/>
       <c r="H30" s="111"/>
       <c r="I30" s="111"/>
@@ -8427,10 +8417,10 @@
     </row>
     <row r="31" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B31" s="82"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
       <c r="G31" s="113"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -8461,10 +8451,10 @@
     </row>
     <row r="32" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B32" s="82"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
       <c r="G32" s="113"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -8495,10 +8485,10 @@
     </row>
     <row r="33" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B33" s="82"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
       <c r="G33" s="113"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -8529,10 +8519,10 @@
     </row>
     <row r="34" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="B34" s="82"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
       <c r="G34" s="115"/>
       <c r="H34" s="116"/>
       <c r="I34" s="116"/>
@@ -8601,18 +8591,6 @@
     <row r="72" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C30:F34"/>
-    <mergeCell ref="C10:F29"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8624,6 +8602,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C30:F34"/>
+    <mergeCell ref="C10:F29"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8654,170 +8644,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="180" t="str">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="278" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="279"/>
-      <c r="AI1" s="280"/>
+      <c r="AH1" s="301"/>
+      <c r="AI1" s="302"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="180" t="str">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="278" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="279"/>
-      <c r="AI2" s="280"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="302"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="180" t="str">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="278" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="300" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="280"/>
+      <c r="AH3" s="301"/>
+      <c r="AI3" s="302"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" s="17" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:36" ht="12" customHeight="1">
       <c r="B5" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1">
       <c r="C6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1"/>
@@ -8960,39 +8950,39 @@
       <c r="D45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="263" t="s">
+      <c r="E45" s="285" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="263"/>
-      <c r="G45" s="263"/>
-      <c r="H45" s="263"/>
-      <c r="I45" s="263"/>
-      <c r="J45" s="263"/>
-      <c r="K45" s="263"/>
-      <c r="L45" s="263"/>
-      <c r="M45" s="263"/>
-      <c r="N45" s="263" t="s">
+      <c r="F45" s="285"/>
+      <c r="G45" s="285"/>
+      <c r="H45" s="285"/>
+      <c r="I45" s="285"/>
+      <c r="J45" s="285"/>
+      <c r="K45" s="285"/>
+      <c r="L45" s="285"/>
+      <c r="M45" s="285"/>
+      <c r="N45" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="263"/>
-      <c r="P45" s="263"/>
-      <c r="Q45" s="263" t="s">
+      <c r="O45" s="285"/>
+      <c r="P45" s="285"/>
+      <c r="Q45" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="263"/>
-      <c r="S45" s="263"/>
-      <c r="T45" s="263"/>
-      <c r="U45" s="263"/>
-      <c r="V45" s="263" t="s">
+      <c r="R45" s="285"/>
+      <c r="S45" s="285"/>
+      <c r="T45" s="285"/>
+      <c r="U45" s="285"/>
+      <c r="V45" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="263"/>
-      <c r="X45" s="263"/>
-      <c r="Y45" s="263"/>
-      <c r="Z45" s="263"/>
-      <c r="AA45" s="263"/>
-      <c r="AB45" s="263"/>
-      <c r="AC45" s="263"/>
+      <c r="W45" s="285"/>
+      <c r="X45" s="285"/>
+      <c r="Y45" s="285"/>
+      <c r="Z45" s="285"/>
+      <c r="AA45" s="285"/>
+      <c r="AB45" s="285"/>
+      <c r="AC45" s="285"/>
       <c r="AD45" s="83"/>
       <c r="AE45" s="83"/>
       <c r="AF45" s="83"/>
@@ -9003,62 +8993,62 @@
       <c r="D46" s="55">
         <v>1</v>
       </c>
-      <c r="E46" s="264"/>
-      <c r="F46" s="264"/>
-      <c r="G46" s="264"/>
-      <c r="H46" s="264"/>
-      <c r="I46" s="264"/>
-      <c r="J46" s="264"/>
-      <c r="K46" s="264"/>
-      <c r="L46" s="264"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="264"/>
-      <c r="O46" s="264"/>
-      <c r="P46" s="264"/>
-      <c r="Q46" s="264"/>
-      <c r="R46" s="264"/>
-      <c r="S46" s="264"/>
-      <c r="T46" s="264"/>
-      <c r="U46" s="264"/>
-      <c r="V46" s="264"/>
-      <c r="W46" s="264"/>
-      <c r="X46" s="264"/>
-      <c r="Y46" s="264"/>
-      <c r="Z46" s="264"/>
-      <c r="AA46" s="264"/>
-      <c r="AB46" s="264"/>
-      <c r="AC46" s="264"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="282"/>
+      <c r="G46" s="282"/>
+      <c r="H46" s="282"/>
+      <c r="I46" s="282"/>
+      <c r="J46" s="282"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="282"/>
+      <c r="M46" s="282"/>
+      <c r="N46" s="282"/>
+      <c r="O46" s="282"/>
+      <c r="P46" s="282"/>
+      <c r="Q46" s="282"/>
+      <c r="R46" s="282"/>
+      <c r="S46" s="282"/>
+      <c r="T46" s="282"/>
+      <c r="U46" s="282"/>
+      <c r="V46" s="282"/>
+      <c r="W46" s="282"/>
+      <c r="X46" s="282"/>
+      <c r="Y46" s="282"/>
+      <c r="Z46" s="282"/>
+      <c r="AA46" s="282"/>
+      <c r="AB46" s="282"/>
+      <c r="AC46" s="282"/>
       <c r="AM46" s="27"/>
     </row>
     <row r="47" spans="3:40" ht="11.25" customHeight="1">
       <c r="D47" s="55">
         <v>2</v>
       </c>
-      <c r="E47" s="264"/>
-      <c r="F47" s="264"/>
-      <c r="G47" s="264"/>
-      <c r="H47" s="264"/>
-      <c r="I47" s="264"/>
-      <c r="J47" s="264"/>
-      <c r="K47" s="264"/>
-      <c r="L47" s="264"/>
-      <c r="M47" s="264"/>
-      <c r="N47" s="264"/>
-      <c r="O47" s="264"/>
-      <c r="P47" s="264"/>
-      <c r="Q47" s="264"/>
-      <c r="R47" s="264"/>
-      <c r="S47" s="264"/>
-      <c r="T47" s="264"/>
-      <c r="U47" s="264"/>
-      <c r="V47" s="264"/>
-      <c r="W47" s="264"/>
-      <c r="X47" s="264"/>
-      <c r="Y47" s="264"/>
-      <c r="Z47" s="264"/>
-      <c r="AA47" s="264"/>
-      <c r="AB47" s="264"/>
-      <c r="AC47" s="264"/>
+      <c r="E47" s="282"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="282"/>
+      <c r="H47" s="282"/>
+      <c r="I47" s="282"/>
+      <c r="J47" s="282"/>
+      <c r="K47" s="282"/>
+      <c r="L47" s="282"/>
+      <c r="M47" s="282"/>
+      <c r="N47" s="282"/>
+      <c r="O47" s="282"/>
+      <c r="P47" s="282"/>
+      <c r="Q47" s="282"/>
+      <c r="R47" s="282"/>
+      <c r="S47" s="282"/>
+      <c r="T47" s="282"/>
+      <c r="U47" s="282"/>
+      <c r="V47" s="282"/>
+      <c r="W47" s="282"/>
+      <c r="X47" s="282"/>
+      <c r="Y47" s="282"/>
+      <c r="Z47" s="282"/>
+      <c r="AA47" s="282"/>
+      <c r="AB47" s="282"/>
+      <c r="AC47" s="282"/>
       <c r="AN47" s="27"/>
     </row>
     <row r="48" spans="3:40" ht="11.25" customHeight="1">
@@ -9093,7 +9083,7 @@
     <row r="49" spans="3:47" ht="11.25" customHeight="1"/>
     <row r="50" spans="3:47">
       <c r="C50" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL50" s="82"/>
       <c r="AM50" s="82"/>
@@ -9103,7 +9093,7 @@
     </row>
     <row r="51" spans="3:47">
       <c r="AK51" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL51" s="82"/>
       <c r="AM51" s="82"/>
@@ -9112,42 +9102,42 @@
       <c r="AP51" s="82"/>
     </row>
     <row r="52" spans="3:47">
-      <c r="E52" s="282" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="266" t="s">
+      <c r="E52" s="283" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="303" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="267"/>
-      <c r="H52" s="267"/>
-      <c r="I52" s="267"/>
-      <c r="J52" s="267"/>
-      <c r="K52" s="267"/>
-      <c r="L52" s="267"/>
-      <c r="M52" s="267"/>
-      <c r="N52" s="267"/>
-      <c r="O52" s="267"/>
-      <c r="P52" s="267"/>
-      <c r="Q52" s="267"/>
-      <c r="R52" s="267"/>
-      <c r="S52" s="267"/>
-      <c r="T52" s="267"/>
-      <c r="U52" s="267"/>
-      <c r="V52" s="267"/>
-      <c r="W52" s="267"/>
-      <c r="X52" s="267"/>
-      <c r="Y52" s="267"/>
-      <c r="Z52" s="267"/>
-      <c r="AA52" s="267"/>
-      <c r="AB52" s="267"/>
-      <c r="AC52" s="267"/>
-      <c r="AD52" s="268"/>
-      <c r="AE52" s="269" t="s">
+      <c r="G52" s="304"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="304"/>
+      <c r="O52" s="304"/>
+      <c r="P52" s="304"/>
+      <c r="Q52" s="304"/>
+      <c r="R52" s="304"/>
+      <c r="S52" s="304"/>
+      <c r="T52" s="304"/>
+      <c r="U52" s="304"/>
+      <c r="V52" s="304"/>
+      <c r="W52" s="304"/>
+      <c r="X52" s="304"/>
+      <c r="Y52" s="304"/>
+      <c r="Z52" s="304"/>
+      <c r="AA52" s="304"/>
+      <c r="AB52" s="304"/>
+      <c r="AC52" s="304"/>
+      <c r="AD52" s="305"/>
+      <c r="AE52" s="291" t="s">
         <v>39</v>
       </c>
-      <c r="AF52" s="270"/>
-      <c r="AG52" s="270"/>
-      <c r="AH52" s="271"/>
+      <c r="AF52" s="292"/>
+      <c r="AG52" s="292"/>
+      <c r="AH52" s="293"/>
       <c r="AL52" s="82"/>
       <c r="AM52" s="82"/>
       <c r="AN52" s="82"/>
@@ -9155,138 +9145,138 @@
       <c r="AP52" s="82"/>
     </row>
     <row r="53" spans="3:47" ht="18" customHeight="1">
-      <c r="E53" s="283"/>
-      <c r="F53" s="269" t="s">
+      <c r="E53" s="290"/>
+      <c r="F53" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="270"/>
-      <c r="H53" s="270"/>
-      <c r="I53" s="271"/>
-      <c r="J53" s="238" t="s">
+      <c r="G53" s="292"/>
+      <c r="H53" s="292"/>
+      <c r="I53" s="293"/>
+      <c r="J53" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="245"/>
-      <c r="N53" s="238" t="s">
-        <v>106</v>
-      </c>
-      <c r="O53" s="239"/>
-      <c r="P53" s="239"/>
-      <c r="Q53" s="239"/>
-      <c r="R53" s="239"/>
-      <c r="S53" s="239"/>
-      <c r="T53" s="239"/>
-      <c r="U53" s="240"/>
-      <c r="V53" s="208" t="s">
+      <c r="K53" s="321"/>
+      <c r="L53" s="321"/>
+      <c r="M53" s="322"/>
+      <c r="N53" s="315" t="s">
+        <v>105</v>
+      </c>
+      <c r="O53" s="316"/>
+      <c r="P53" s="316"/>
+      <c r="Q53" s="316"/>
+      <c r="R53" s="316"/>
+      <c r="S53" s="316"/>
+      <c r="T53" s="316"/>
+      <c r="U53" s="317"/>
+      <c r="V53" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="W53" s="209"/>
-      <c r="X53" s="209"/>
-      <c r="Y53" s="209"/>
-      <c r="Z53" s="210"/>
-      <c r="AA53" s="208" t="s">
+      <c r="W53" s="210"/>
+      <c r="X53" s="210"/>
+      <c r="Y53" s="210"/>
+      <c r="Z53" s="211"/>
+      <c r="AA53" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="AB53" s="209"/>
-      <c r="AC53" s="210"/>
-      <c r="AD53" s="249" t="s">
+      <c r="AB53" s="210"/>
+      <c r="AC53" s="211"/>
+      <c r="AD53" s="326" t="s">
         <v>56</v>
       </c>
-      <c r="AE53" s="285"/>
-      <c r="AF53" s="286"/>
-      <c r="AG53" s="286"/>
-      <c r="AH53" s="287"/>
-      <c r="AL53" s="232" t="s">
+      <c r="AE53" s="294"/>
+      <c r="AF53" s="295"/>
+      <c r="AG53" s="295"/>
+      <c r="AH53" s="296"/>
+      <c r="AL53" s="309" t="s">
         <v>47</v>
       </c>
-      <c r="AM53" s="233"/>
-      <c r="AN53" s="233"/>
-      <c r="AO53" s="234"/>
+      <c r="AM53" s="310"/>
+      <c r="AN53" s="310"/>
+      <c r="AO53" s="311"/>
       <c r="AP53" s="82"/>
     </row>
     <row r="54" spans="3:47" s="26" customFormat="1">
       <c r="E54" s="284"/>
-      <c r="F54" s="272"/>
-      <c r="G54" s="273"/>
-      <c r="H54" s="273"/>
-      <c r="I54" s="274"/>
-      <c r="J54" s="246"/>
-      <c r="K54" s="247"/>
-      <c r="L54" s="247"/>
-      <c r="M54" s="248"/>
-      <c r="N54" s="241"/>
-      <c r="O54" s="242"/>
-      <c r="P54" s="242"/>
-      <c r="Q54" s="242"/>
-      <c r="R54" s="242"/>
-      <c r="S54" s="242"/>
-      <c r="T54" s="242"/>
-      <c r="U54" s="243"/>
-      <c r="V54" s="214"/>
-      <c r="W54" s="215"/>
-      <c r="X54" s="215"/>
-      <c r="Y54" s="215"/>
-      <c r="Z54" s="216"/>
-      <c r="AA54" s="214"/>
-      <c r="AB54" s="215"/>
-      <c r="AC54" s="216"/>
-      <c r="AD54" s="250"/>
-      <c r="AE54" s="272"/>
-      <c r="AF54" s="273"/>
-      <c r="AG54" s="273"/>
-      <c r="AH54" s="274"/>
+      <c r="F54" s="297"/>
+      <c r="G54" s="298"/>
+      <c r="H54" s="298"/>
+      <c r="I54" s="299"/>
+      <c r="J54" s="323"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="325"/>
+      <c r="N54" s="318"/>
+      <c r="O54" s="319"/>
+      <c r="P54" s="319"/>
+      <c r="Q54" s="319"/>
+      <c r="R54" s="319"/>
+      <c r="S54" s="319"/>
+      <c r="T54" s="319"/>
+      <c r="U54" s="320"/>
+      <c r="V54" s="215"/>
+      <c r="W54" s="216"/>
+      <c r="X54" s="216"/>
+      <c r="Y54" s="216"/>
+      <c r="Z54" s="217"/>
+      <c r="AA54" s="215"/>
+      <c r="AB54" s="216"/>
+      <c r="AC54" s="217"/>
+      <c r="AD54" s="327"/>
+      <c r="AE54" s="297"/>
+      <c r="AF54" s="298"/>
+      <c r="AG54" s="298"/>
+      <c r="AH54" s="299"/>
       <c r="AI54" s="67"/>
       <c r="AJ54" s="67"/>
       <c r="AK54" s="67"/>
-      <c r="AL54" s="235"/>
-      <c r="AM54" s="236"/>
-      <c r="AN54" s="236"/>
-      <c r="AO54" s="237"/>
+      <c r="AL54" s="312"/>
+      <c r="AM54" s="313"/>
+      <c r="AN54" s="313"/>
+      <c r="AO54" s="314"/>
       <c r="AP54" s="67"/>
     </row>
     <row r="55" spans="3:47" s="82" customFormat="1" ht="11.25" customHeight="1">
-      <c r="E55" s="281" t="s">
+      <c r="E55" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="281"/>
-      <c r="G55" s="281"/>
-      <c r="H55" s="281"/>
-      <c r="I55" s="281"/>
-      <c r="J55" s="281"/>
-      <c r="K55" s="281"/>
-      <c r="L55" s="281"/>
-      <c r="M55" s="281"/>
-      <c r="N55" s="281"/>
-      <c r="O55" s="281"/>
-      <c r="P55" s="281"/>
-      <c r="Q55" s="281"/>
-      <c r="R55" s="281"/>
-      <c r="S55" s="281"/>
-      <c r="T55" s="281"/>
-      <c r="U55" s="281"/>
-      <c r="V55" s="281"/>
-      <c r="W55" s="281"/>
-      <c r="X55" s="281"/>
-      <c r="Y55" s="281"/>
-      <c r="Z55" s="281"/>
-      <c r="AA55" s="281"/>
-      <c r="AB55" s="281"/>
-      <c r="AC55" s="281"/>
-      <c r="AD55" s="281"/>
-      <c r="AE55" s="281"/>
-      <c r="AF55" s="281"/>
-      <c r="AG55" s="281"/>
-      <c r="AH55" s="281"/>
+      <c r="F55" s="289"/>
+      <c r="G55" s="289"/>
+      <c r="H55" s="289"/>
+      <c r="I55" s="289"/>
+      <c r="J55" s="289"/>
+      <c r="K55" s="289"/>
+      <c r="L55" s="289"/>
+      <c r="M55" s="289"/>
+      <c r="N55" s="289"/>
+      <c r="O55" s="289"/>
+      <c r="P55" s="289"/>
+      <c r="Q55" s="289"/>
+      <c r="R55" s="289"/>
+      <c r="S55" s="289"/>
+      <c r="T55" s="289"/>
+      <c r="U55" s="289"/>
+      <c r="V55" s="289"/>
+      <c r="W55" s="289"/>
+      <c r="X55" s="289"/>
+      <c r="Y55" s="289"/>
+      <c r="Z55" s="289"/>
+      <c r="AA55" s="289"/>
+      <c r="AB55" s="289"/>
+      <c r="AC55" s="289"/>
+      <c r="AD55" s="289"/>
+      <c r="AE55" s="289"/>
+      <c r="AF55" s="289"/>
+      <c r="AG55" s="289"/>
+      <c r="AH55" s="289"/>
       <c r="AI55" s="118"/>
       <c r="AJ55" s="118"/>
       <c r="AK55" s="118"/>
-      <c r="AL55" s="229" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM55" s="230"/>
-      <c r="AN55" s="230"/>
-      <c r="AO55" s="231"/>
+      <c r="AL55" s="306" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM55" s="307"/>
+      <c r="AN55" s="307"/>
+      <c r="AO55" s="308"/>
       <c r="AQ55" s="67"/>
       <c r="AR55" s="67"/>
     </row>
@@ -9294,42 +9284,42 @@
       <c r="E56" s="56">
         <v>1</v>
       </c>
-      <c r="F56" s="252"/>
-      <c r="G56" s="253"/>
-      <c r="H56" s="253"/>
-      <c r="I56" s="254"/>
-      <c r="J56" s="265"/>
-      <c r="K56" s="265"/>
-      <c r="L56" s="265"/>
-      <c r="M56" s="265"/>
-      <c r="N56" s="251"/>
-      <c r="O56" s="251"/>
-      <c r="P56" s="251"/>
-      <c r="Q56" s="251"/>
-      <c r="R56" s="251"/>
-      <c r="S56" s="251"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="251"/>
-      <c r="V56" s="275"/>
-      <c r="W56" s="276"/>
-      <c r="X56" s="276"/>
-      <c r="Y56" s="276"/>
-      <c r="Z56" s="277"/>
-      <c r="AA56" s="252"/>
-      <c r="AB56" s="253"/>
-      <c r="AC56" s="254"/>
+      <c r="F56" s="237"/>
+      <c r="G56" s="238"/>
+      <c r="H56" s="238"/>
+      <c r="I56" s="239"/>
+      <c r="J56" s="259"/>
+      <c r="K56" s="259"/>
+      <c r="L56" s="259"/>
+      <c r="M56" s="259"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="240"/>
+      <c r="P56" s="240"/>
+      <c r="Q56" s="240"/>
+      <c r="R56" s="240"/>
+      <c r="S56" s="240"/>
+      <c r="T56" s="240"/>
+      <c r="U56" s="240"/>
+      <c r="V56" s="241"/>
+      <c r="W56" s="242"/>
+      <c r="X56" s="242"/>
+      <c r="Y56" s="242"/>
+      <c r="Z56" s="243"/>
+      <c r="AA56" s="237"/>
+      <c r="AB56" s="238"/>
+      <c r="AC56" s="239"/>
       <c r="AD56" s="58"/>
-      <c r="AE56" s="252"/>
-      <c r="AF56" s="253"/>
-      <c r="AG56" s="253"/>
-      <c r="AH56" s="254"/>
+      <c r="AE56" s="237"/>
+      <c r="AF56" s="238"/>
+      <c r="AG56" s="238"/>
+      <c r="AH56" s="239"/>
       <c r="AI56" s="118"/>
       <c r="AJ56" s="118"/>
       <c r="AK56" s="118"/>
-      <c r="AL56" s="223"/>
-      <c r="AM56" s="224"/>
-      <c r="AN56" s="224"/>
-      <c r="AO56" s="225"/>
+      <c r="AL56" s="276"/>
+      <c r="AM56" s="277"/>
+      <c r="AN56" s="277"/>
+      <c r="AO56" s="278"/>
       <c r="AQ56" s="67"/>
       <c r="AR56" s="67"/>
     </row>
@@ -9337,42 +9327,42 @@
       <c r="E57" s="56">
         <v>2</v>
       </c>
-      <c r="F57" s="252"/>
-      <c r="G57" s="253"/>
-      <c r="H57" s="253"/>
-      <c r="I57" s="254"/>
-      <c r="J57" s="265"/>
-      <c r="K57" s="265"/>
-      <c r="L57" s="265"/>
-      <c r="M57" s="265"/>
-      <c r="N57" s="251"/>
-      <c r="O57" s="251"/>
-      <c r="P57" s="251"/>
-      <c r="Q57" s="251"/>
-      <c r="R57" s="251"/>
-      <c r="S57" s="251"/>
-      <c r="T57" s="251"/>
-      <c r="U57" s="251"/>
-      <c r="V57" s="275"/>
-      <c r="W57" s="276"/>
-      <c r="X57" s="276"/>
-      <c r="Y57" s="276"/>
-      <c r="Z57" s="277"/>
-      <c r="AA57" s="252"/>
-      <c r="AB57" s="253"/>
-      <c r="AC57" s="254"/>
+      <c r="F57" s="237"/>
+      <c r="G57" s="238"/>
+      <c r="H57" s="238"/>
+      <c r="I57" s="239"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="259"/>
+      <c r="L57" s="259"/>
+      <c r="M57" s="259"/>
+      <c r="N57" s="240"/>
+      <c r="O57" s="240"/>
+      <c r="P57" s="240"/>
+      <c r="Q57" s="240"/>
+      <c r="R57" s="240"/>
+      <c r="S57" s="240"/>
+      <c r="T57" s="240"/>
+      <c r="U57" s="240"/>
+      <c r="V57" s="241"/>
+      <c r="W57" s="242"/>
+      <c r="X57" s="242"/>
+      <c r="Y57" s="242"/>
+      <c r="Z57" s="243"/>
+      <c r="AA57" s="237"/>
+      <c r="AB57" s="238"/>
+      <c r="AC57" s="239"/>
       <c r="AD57" s="129"/>
-      <c r="AE57" s="252"/>
-      <c r="AF57" s="253"/>
-      <c r="AG57" s="253"/>
-      <c r="AH57" s="254"/>
+      <c r="AE57" s="237"/>
+      <c r="AF57" s="238"/>
+      <c r="AG57" s="238"/>
+      <c r="AH57" s="239"/>
       <c r="AI57" s="118"/>
       <c r="AJ57" s="118"/>
       <c r="AK57" s="118"/>
-      <c r="AL57" s="226"/>
-      <c r="AM57" s="227"/>
-      <c r="AN57" s="227"/>
-      <c r="AO57" s="228"/>
+      <c r="AL57" s="286"/>
+      <c r="AM57" s="287"/>
+      <c r="AN57" s="287"/>
+      <c r="AO57" s="288"/>
       <c r="AQ57" s="67"/>
       <c r="AR57" s="67"/>
     </row>
@@ -9380,42 +9370,42 @@
       <c r="E58" s="56">
         <v>3</v>
       </c>
-      <c r="F58" s="252"/>
-      <c r="G58" s="253"/>
-      <c r="H58" s="253"/>
-      <c r="I58" s="254"/>
-      <c r="J58" s="265"/>
-      <c r="K58" s="265"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="251"/>
-      <c r="O58" s="251"/>
-      <c r="P58" s="251"/>
-      <c r="Q58" s="251"/>
-      <c r="R58" s="251"/>
-      <c r="S58" s="251"/>
-      <c r="T58" s="251"/>
-      <c r="U58" s="251"/>
-      <c r="V58" s="275"/>
-      <c r="W58" s="276"/>
-      <c r="X58" s="276"/>
-      <c r="Y58" s="276"/>
-      <c r="Z58" s="277"/>
-      <c r="AA58" s="252"/>
-      <c r="AB58" s="253"/>
-      <c r="AC58" s="254"/>
+      <c r="F58" s="237"/>
+      <c r="G58" s="238"/>
+      <c r="H58" s="238"/>
+      <c r="I58" s="239"/>
+      <c r="J58" s="259"/>
+      <c r="K58" s="259"/>
+      <c r="L58" s="259"/>
+      <c r="M58" s="259"/>
+      <c r="N58" s="240"/>
+      <c r="O58" s="240"/>
+      <c r="P58" s="240"/>
+      <c r="Q58" s="240"/>
+      <c r="R58" s="240"/>
+      <c r="S58" s="240"/>
+      <c r="T58" s="240"/>
+      <c r="U58" s="240"/>
+      <c r="V58" s="241"/>
+      <c r="W58" s="242"/>
+      <c r="X58" s="242"/>
+      <c r="Y58" s="242"/>
+      <c r="Z58" s="243"/>
+      <c r="AA58" s="237"/>
+      <c r="AB58" s="238"/>
+      <c r="AC58" s="239"/>
       <c r="AD58" s="129"/>
-      <c r="AE58" s="252"/>
-      <c r="AF58" s="253"/>
-      <c r="AG58" s="253"/>
-      <c r="AH58" s="254"/>
+      <c r="AE58" s="237"/>
+      <c r="AF58" s="238"/>
+      <c r="AG58" s="238"/>
+      <c r="AH58" s="239"/>
       <c r="AI58" s="92"/>
       <c r="AJ58" s="92"/>
       <c r="AK58" s="92"/>
-      <c r="AL58" s="226"/>
-      <c r="AM58" s="227"/>
-      <c r="AN58" s="227"/>
-      <c r="AO58" s="228"/>
+      <c r="AL58" s="286"/>
+      <c r="AM58" s="287"/>
+      <c r="AN58" s="287"/>
+      <c r="AO58" s="288"/>
       <c r="AQ58" s="67"/>
       <c r="AR58" s="67"/>
       <c r="AS58" s="67"/>
@@ -9426,281 +9416,281 @@
       <c r="E59" s="56">
         <v>4</v>
       </c>
-      <c r="F59" s="252"/>
-      <c r="G59" s="253"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="265"/>
-      <c r="K59" s="265"/>
-      <c r="L59" s="265"/>
-      <c r="M59" s="265"/>
-      <c r="N59" s="251"/>
-      <c r="O59" s="251"/>
-      <c r="P59" s="251"/>
-      <c r="Q59" s="251"/>
-      <c r="R59" s="251"/>
-      <c r="S59" s="251"/>
-      <c r="T59" s="251"/>
-      <c r="U59" s="251"/>
-      <c r="V59" s="275"/>
-      <c r="W59" s="276"/>
-      <c r="X59" s="276"/>
-      <c r="Y59" s="276"/>
-      <c r="Z59" s="277"/>
-      <c r="AA59" s="252"/>
-      <c r="AB59" s="253"/>
-      <c r="AC59" s="254"/>
+      <c r="F59" s="237"/>
+      <c r="G59" s="238"/>
+      <c r="H59" s="238"/>
+      <c r="I59" s="239"/>
+      <c r="J59" s="259"/>
+      <c r="K59" s="259"/>
+      <c r="L59" s="259"/>
+      <c r="M59" s="259"/>
+      <c r="N59" s="240"/>
+      <c r="O59" s="240"/>
+      <c r="P59" s="240"/>
+      <c r="Q59" s="240"/>
+      <c r="R59" s="240"/>
+      <c r="S59" s="240"/>
+      <c r="T59" s="240"/>
+      <c r="U59" s="240"/>
+      <c r="V59" s="241"/>
+      <c r="W59" s="242"/>
+      <c r="X59" s="242"/>
+      <c r="Y59" s="242"/>
+      <c r="Z59" s="243"/>
+      <c r="AA59" s="237"/>
+      <c r="AB59" s="238"/>
+      <c r="AC59" s="239"/>
       <c r="AD59" s="129"/>
-      <c r="AE59" s="252"/>
-      <c r="AF59" s="253"/>
-      <c r="AG59" s="253"/>
-      <c r="AH59" s="254"/>
+      <c r="AE59" s="237"/>
+      <c r="AF59" s="238"/>
+      <c r="AG59" s="238"/>
+      <c r="AH59" s="239"/>
       <c r="AI59" s="119"/>
       <c r="AJ59" s="119"/>
-      <c r="AL59" s="226"/>
-      <c r="AM59" s="227"/>
-      <c r="AN59" s="227"/>
-      <c r="AO59" s="228"/>
+      <c r="AL59" s="286"/>
+      <c r="AM59" s="287"/>
+      <c r="AN59" s="287"/>
+      <c r="AO59" s="288"/>
     </row>
     <row r="60" spans="3:47" ht="11.25" customHeight="1">
       <c r="E60" s="56">
         <v>5</v>
       </c>
-      <c r="F60" s="252"/>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="265"/>
-      <c r="K60" s="265"/>
-      <c r="L60" s="265"/>
-      <c r="M60" s="265"/>
-      <c r="N60" s="251"/>
-      <c r="O60" s="251"/>
-      <c r="P60" s="251"/>
-      <c r="Q60" s="251"/>
-      <c r="R60" s="251"/>
-      <c r="S60" s="251"/>
-      <c r="T60" s="251"/>
-      <c r="U60" s="251"/>
-      <c r="V60" s="275"/>
-      <c r="W60" s="276"/>
-      <c r="X60" s="276"/>
-      <c r="Y60" s="276"/>
-      <c r="Z60" s="277"/>
-      <c r="AA60" s="252"/>
-      <c r="AB60" s="253"/>
-      <c r="AC60" s="254"/>
+      <c r="F60" s="237"/>
+      <c r="G60" s="238"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="239"/>
+      <c r="J60" s="259"/>
+      <c r="K60" s="259"/>
+      <c r="L60" s="259"/>
+      <c r="M60" s="259"/>
+      <c r="N60" s="240"/>
+      <c r="O60" s="240"/>
+      <c r="P60" s="240"/>
+      <c r="Q60" s="240"/>
+      <c r="R60" s="240"/>
+      <c r="S60" s="240"/>
+      <c r="T60" s="240"/>
+      <c r="U60" s="240"/>
+      <c r="V60" s="241"/>
+      <c r="W60" s="242"/>
+      <c r="X60" s="242"/>
+      <c r="Y60" s="242"/>
+      <c r="Z60" s="243"/>
+      <c r="AA60" s="237"/>
+      <c r="AB60" s="238"/>
+      <c r="AC60" s="239"/>
       <c r="AD60" s="129"/>
-      <c r="AE60" s="252"/>
-      <c r="AF60" s="253"/>
-      <c r="AG60" s="253"/>
-      <c r="AH60" s="254"/>
+      <c r="AE60" s="237"/>
+      <c r="AF60" s="238"/>
+      <c r="AG60" s="238"/>
+      <c r="AH60" s="239"/>
       <c r="AI60" s="119"/>
       <c r="AJ60" s="119"/>
-      <c r="AL60" s="226"/>
-      <c r="AM60" s="227"/>
-      <c r="AN60" s="227"/>
-      <c r="AO60" s="228"/>
+      <c r="AL60" s="286"/>
+      <c r="AM60" s="287"/>
+      <c r="AN60" s="287"/>
+      <c r="AO60" s="288"/>
     </row>
     <row r="61" spans="3:47" ht="11.25" customHeight="1">
       <c r="E61" s="56">
         <v>6</v>
       </c>
-      <c r="F61" s="252"/>
-      <c r="G61" s="253"/>
-      <c r="H61" s="253"/>
-      <c r="I61" s="254"/>
-      <c r="J61" s="265"/>
-      <c r="K61" s="265"/>
-      <c r="L61" s="265"/>
-      <c r="M61" s="265"/>
-      <c r="N61" s="251"/>
-      <c r="O61" s="251"/>
-      <c r="P61" s="251"/>
-      <c r="Q61" s="251"/>
-      <c r="R61" s="251"/>
-      <c r="S61" s="251"/>
-      <c r="T61" s="251"/>
-      <c r="U61" s="251"/>
-      <c r="V61" s="275"/>
-      <c r="W61" s="276"/>
-      <c r="X61" s="276"/>
-      <c r="Y61" s="276"/>
-      <c r="Z61" s="277"/>
-      <c r="AA61" s="252"/>
-      <c r="AB61" s="253"/>
-      <c r="AC61" s="254"/>
+      <c r="F61" s="237"/>
+      <c r="G61" s="238"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="239"/>
+      <c r="J61" s="259"/>
+      <c r="K61" s="259"/>
+      <c r="L61" s="259"/>
+      <c r="M61" s="259"/>
+      <c r="N61" s="240"/>
+      <c r="O61" s="240"/>
+      <c r="P61" s="240"/>
+      <c r="Q61" s="240"/>
+      <c r="R61" s="240"/>
+      <c r="S61" s="240"/>
+      <c r="T61" s="240"/>
+      <c r="U61" s="240"/>
+      <c r="V61" s="241"/>
+      <c r="W61" s="242"/>
+      <c r="X61" s="242"/>
+      <c r="Y61" s="242"/>
+      <c r="Z61" s="243"/>
+      <c r="AA61" s="237"/>
+      <c r="AB61" s="238"/>
+      <c r="AC61" s="239"/>
       <c r="AD61" s="129"/>
-      <c r="AE61" s="252"/>
-      <c r="AF61" s="253"/>
-      <c r="AG61" s="253"/>
-      <c r="AH61" s="254"/>
+      <c r="AE61" s="237"/>
+      <c r="AF61" s="238"/>
+      <c r="AG61" s="238"/>
+      <c r="AH61" s="239"/>
       <c r="AI61" s="119"/>
       <c r="AJ61" s="119"/>
-      <c r="AL61" s="226"/>
-      <c r="AM61" s="227"/>
-      <c r="AN61" s="227"/>
-      <c r="AO61" s="228"/>
+      <c r="AL61" s="286"/>
+      <c r="AM61" s="287"/>
+      <c r="AN61" s="287"/>
+      <c r="AO61" s="288"/>
     </row>
     <row r="62" spans="3:47" ht="11.25" customHeight="1">
       <c r="E62" s="56">
         <v>7</v>
       </c>
-      <c r="F62" s="252"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="265"/>
-      <c r="K62" s="265"/>
-      <c r="L62" s="265"/>
-      <c r="M62" s="265"/>
-      <c r="N62" s="251"/>
-      <c r="O62" s="251"/>
-      <c r="P62" s="251"/>
-      <c r="Q62" s="251"/>
-      <c r="R62" s="251"/>
-      <c r="S62" s="251"/>
-      <c r="T62" s="251"/>
-      <c r="U62" s="251"/>
-      <c r="V62" s="275"/>
-      <c r="W62" s="276"/>
-      <c r="X62" s="276"/>
-      <c r="Y62" s="276"/>
-      <c r="Z62" s="277"/>
-      <c r="AA62" s="252"/>
-      <c r="AB62" s="253"/>
-      <c r="AC62" s="254"/>
+      <c r="F62" s="237"/>
+      <c r="G62" s="238"/>
+      <c r="H62" s="238"/>
+      <c r="I62" s="239"/>
+      <c r="J62" s="259"/>
+      <c r="K62" s="259"/>
+      <c r="L62" s="259"/>
+      <c r="M62" s="259"/>
+      <c r="N62" s="240"/>
+      <c r="O62" s="240"/>
+      <c r="P62" s="240"/>
+      <c r="Q62" s="240"/>
+      <c r="R62" s="240"/>
+      <c r="S62" s="240"/>
+      <c r="T62" s="240"/>
+      <c r="U62" s="240"/>
+      <c r="V62" s="241"/>
+      <c r="W62" s="242"/>
+      <c r="X62" s="242"/>
+      <c r="Y62" s="242"/>
+      <c r="Z62" s="243"/>
+      <c r="AA62" s="237"/>
+      <c r="AB62" s="238"/>
+      <c r="AC62" s="239"/>
       <c r="AD62" s="129"/>
-      <c r="AE62" s="252"/>
-      <c r="AF62" s="253"/>
-      <c r="AG62" s="253"/>
-      <c r="AH62" s="254"/>
+      <c r="AE62" s="237"/>
+      <c r="AF62" s="238"/>
+      <c r="AG62" s="238"/>
+      <c r="AH62" s="239"/>
       <c r="AI62" s="119"/>
       <c r="AJ62" s="119"/>
-      <c r="AL62" s="226"/>
-      <c r="AM62" s="227"/>
-      <c r="AN62" s="227"/>
-      <c r="AO62" s="228"/>
+      <c r="AL62" s="286"/>
+      <c r="AM62" s="287"/>
+      <c r="AN62" s="287"/>
+      <c r="AO62" s="288"/>
     </row>
     <row r="63" spans="3:47" ht="11.25" customHeight="1">
       <c r="E63" s="56">
         <v>8</v>
       </c>
-      <c r="F63" s="252"/>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253"/>
-      <c r="I63" s="254"/>
-      <c r="J63" s="265"/>
-      <c r="K63" s="265"/>
-      <c r="L63" s="265"/>
-      <c r="M63" s="265"/>
-      <c r="N63" s="251"/>
-      <c r="O63" s="251"/>
-      <c r="P63" s="251"/>
-      <c r="Q63" s="251"/>
-      <c r="R63" s="251"/>
-      <c r="S63" s="251"/>
-      <c r="T63" s="251"/>
-      <c r="U63" s="251"/>
-      <c r="V63" s="275"/>
-      <c r="W63" s="276"/>
-      <c r="X63" s="276"/>
-      <c r="Y63" s="276"/>
-      <c r="Z63" s="277"/>
-      <c r="AA63" s="252"/>
-      <c r="AB63" s="253"/>
-      <c r="AC63" s="254"/>
+      <c r="F63" s="237"/>
+      <c r="G63" s="238"/>
+      <c r="H63" s="238"/>
+      <c r="I63" s="239"/>
+      <c r="J63" s="259"/>
+      <c r="K63" s="259"/>
+      <c r="L63" s="259"/>
+      <c r="M63" s="259"/>
+      <c r="N63" s="240"/>
+      <c r="O63" s="240"/>
+      <c r="P63" s="240"/>
+      <c r="Q63" s="240"/>
+      <c r="R63" s="240"/>
+      <c r="S63" s="240"/>
+      <c r="T63" s="240"/>
+      <c r="U63" s="240"/>
+      <c r="V63" s="241"/>
+      <c r="W63" s="242"/>
+      <c r="X63" s="242"/>
+      <c r="Y63" s="242"/>
+      <c r="Z63" s="243"/>
+      <c r="AA63" s="237"/>
+      <c r="AB63" s="238"/>
+      <c r="AC63" s="239"/>
       <c r="AD63" s="129"/>
-      <c r="AE63" s="252"/>
-      <c r="AF63" s="253"/>
-      <c r="AG63" s="253"/>
-      <c r="AH63" s="254"/>
+      <c r="AE63" s="237"/>
+      <c r="AF63" s="238"/>
+      <c r="AG63" s="238"/>
+      <c r="AH63" s="239"/>
       <c r="AI63" s="119"/>
       <c r="AJ63" s="119"/>
-      <c r="AL63" s="226"/>
-      <c r="AM63" s="227"/>
-      <c r="AN63" s="227"/>
-      <c r="AO63" s="228"/>
+      <c r="AL63" s="286"/>
+      <c r="AM63" s="287"/>
+      <c r="AN63" s="287"/>
+      <c r="AO63" s="288"/>
     </row>
     <row r="64" spans="3:47" ht="11.25" customHeight="1">
       <c r="E64" s="56">
         <v>9</v>
       </c>
-      <c r="F64" s="252"/>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253"/>
-      <c r="I64" s="254"/>
-      <c r="J64" s="265"/>
-      <c r="K64" s="265"/>
-      <c r="L64" s="265"/>
-      <c r="M64" s="265"/>
-      <c r="N64" s="251"/>
-      <c r="O64" s="251"/>
-      <c r="P64" s="251"/>
-      <c r="Q64" s="251"/>
-      <c r="R64" s="251"/>
-      <c r="S64" s="251"/>
-      <c r="T64" s="251"/>
-      <c r="U64" s="251"/>
-      <c r="V64" s="275"/>
-      <c r="W64" s="276"/>
-      <c r="X64" s="276"/>
-      <c r="Y64" s="276"/>
-      <c r="Z64" s="277"/>
-      <c r="AA64" s="252"/>
-      <c r="AB64" s="253"/>
-      <c r="AC64" s="254"/>
+      <c r="F64" s="237"/>
+      <c r="G64" s="238"/>
+      <c r="H64" s="238"/>
+      <c r="I64" s="239"/>
+      <c r="J64" s="259"/>
+      <c r="K64" s="259"/>
+      <c r="L64" s="259"/>
+      <c r="M64" s="259"/>
+      <c r="N64" s="240"/>
+      <c r="O64" s="240"/>
+      <c r="P64" s="240"/>
+      <c r="Q64" s="240"/>
+      <c r="R64" s="240"/>
+      <c r="S64" s="240"/>
+      <c r="T64" s="240"/>
+      <c r="U64" s="240"/>
+      <c r="V64" s="241"/>
+      <c r="W64" s="242"/>
+      <c r="X64" s="242"/>
+      <c r="Y64" s="242"/>
+      <c r="Z64" s="243"/>
+      <c r="AA64" s="237"/>
+      <c r="AB64" s="238"/>
+      <c r="AC64" s="239"/>
       <c r="AD64" s="129"/>
-      <c r="AE64" s="252"/>
-      <c r="AF64" s="253"/>
-      <c r="AG64" s="253"/>
-      <c r="AH64" s="254"/>
+      <c r="AE64" s="237"/>
+      <c r="AF64" s="238"/>
+      <c r="AG64" s="238"/>
+      <c r="AH64" s="239"/>
       <c r="AI64" s="119"/>
       <c r="AJ64" s="119"/>
-      <c r="AL64" s="226"/>
-      <c r="AM64" s="227"/>
-      <c r="AN64" s="227"/>
-      <c r="AO64" s="228"/>
+      <c r="AL64" s="286"/>
+      <c r="AM64" s="287"/>
+      <c r="AN64" s="287"/>
+      <c r="AO64" s="288"/>
     </row>
     <row r="65" spans="3:53" ht="11.25" customHeight="1">
       <c r="E65" s="56">
         <v>10</v>
       </c>
-      <c r="F65" s="252"/>
-      <c r="G65" s="253"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="254"/>
-      <c r="J65" s="265"/>
-      <c r="K65" s="265"/>
-      <c r="L65" s="265"/>
-      <c r="M65" s="265"/>
-      <c r="N65" s="251"/>
-      <c r="O65" s="251"/>
-      <c r="P65" s="251"/>
-      <c r="Q65" s="251"/>
-      <c r="R65" s="251"/>
-      <c r="S65" s="251"/>
-      <c r="T65" s="251"/>
-      <c r="U65" s="251"/>
-      <c r="V65" s="275"/>
-      <c r="W65" s="276"/>
-      <c r="X65" s="276"/>
-      <c r="Y65" s="276"/>
-      <c r="Z65" s="277"/>
-      <c r="AA65" s="252"/>
-      <c r="AB65" s="253"/>
-      <c r="AC65" s="254"/>
+      <c r="F65" s="237"/>
+      <c r="G65" s="238"/>
+      <c r="H65" s="238"/>
+      <c r="I65" s="239"/>
+      <c r="J65" s="259"/>
+      <c r="K65" s="259"/>
+      <c r="L65" s="259"/>
+      <c r="M65" s="259"/>
+      <c r="N65" s="240"/>
+      <c r="O65" s="240"/>
+      <c r="P65" s="240"/>
+      <c r="Q65" s="240"/>
+      <c r="R65" s="240"/>
+      <c r="S65" s="240"/>
+      <c r="T65" s="240"/>
+      <c r="U65" s="240"/>
+      <c r="V65" s="241"/>
+      <c r="W65" s="242"/>
+      <c r="X65" s="242"/>
+      <c r="Y65" s="242"/>
+      <c r="Z65" s="243"/>
+      <c r="AA65" s="237"/>
+      <c r="AB65" s="238"/>
+      <c r="AC65" s="239"/>
       <c r="AD65" s="129"/>
-      <c r="AE65" s="252"/>
-      <c r="AF65" s="253"/>
-      <c r="AG65" s="253"/>
-      <c r="AH65" s="254"/>
+      <c r="AE65" s="237"/>
+      <c r="AF65" s="238"/>
+      <c r="AG65" s="238"/>
+      <c r="AH65" s="239"/>
       <c r="AI65" s="119"/>
       <c r="AJ65" s="119"/>
-      <c r="AL65" s="226"/>
-      <c r="AM65" s="227"/>
-      <c r="AN65" s="227"/>
-      <c r="AO65" s="228"/>
+      <c r="AL65" s="286"/>
+      <c r="AM65" s="287"/>
+      <c r="AN65" s="287"/>
+      <c r="AO65" s="288"/>
     </row>
     <row r="66" spans="3:53" ht="11.25" customHeight="1">
       <c r="E66" s="84"/>
@@ -9934,49 +9924,49 @@
       <c r="AW72" s="31"/>
     </row>
     <row r="73" spans="3:53">
-      <c r="D73" s="255" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="257" t="s">
+      <c r="D73" s="328" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="250" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="258"/>
-      <c r="G73" s="258"/>
-      <c r="H73" s="258"/>
-      <c r="I73" s="258"/>
-      <c r="J73" s="259"/>
-      <c r="K73" s="257" t="s">
+      <c r="F73" s="251"/>
+      <c r="G73" s="251"/>
+      <c r="H73" s="251"/>
+      <c r="I73" s="251"/>
+      <c r="J73" s="252"/>
+      <c r="K73" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="L73" s="258"/>
-      <c r="M73" s="258"/>
-      <c r="N73" s="259"/>
-      <c r="O73" s="294" t="s">
+      <c r="L73" s="251"/>
+      <c r="M73" s="251"/>
+      <c r="N73" s="252"/>
+      <c r="O73" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="P73" s="303" t="s">
+      <c r="P73" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="Q73" s="304"/>
-      <c r="R73" s="304"/>
-      <c r="S73" s="304"/>
-      <c r="T73" s="304"/>
-      <c r="U73" s="305"/>
-      <c r="V73" s="257" t="s">
+      <c r="Q73" s="257"/>
+      <c r="R73" s="257"/>
+      <c r="S73" s="257"/>
+      <c r="T73" s="257"/>
+      <c r="U73" s="258"/>
+      <c r="V73" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="W73" s="258"/>
-      <c r="X73" s="258"/>
-      <c r="Y73" s="258"/>
-      <c r="Z73" s="258"/>
-      <c r="AA73" s="258"/>
-      <c r="AB73" s="258"/>
-      <c r="AC73" s="258"/>
-      <c r="AD73" s="258"/>
-      <c r="AE73" s="258"/>
-      <c r="AF73" s="258"/>
-      <c r="AG73" s="258"/>
-      <c r="AH73" s="259"/>
+      <c r="W73" s="251"/>
+      <c r="X73" s="251"/>
+      <c r="Y73" s="251"/>
+      <c r="Z73" s="251"/>
+      <c r="AA73" s="251"/>
+      <c r="AB73" s="251"/>
+      <c r="AC73" s="251"/>
+      <c r="AD73" s="251"/>
+      <c r="AE73" s="251"/>
+      <c r="AF73" s="251"/>
+      <c r="AG73" s="251"/>
+      <c r="AH73" s="252"/>
       <c r="AK73" s="31"/>
       <c r="AL73" s="31"/>
       <c r="AM73" s="31"/>
@@ -9992,18 +9982,18 @@
       <c r="AW73" s="31"/>
     </row>
     <row r="74" spans="3:53">
-      <c r="D74" s="256"/>
-      <c r="E74" s="260"/>
-      <c r="F74" s="261"/>
-      <c r="G74" s="261"/>
-      <c r="H74" s="261"/>
-      <c r="I74" s="261"/>
-      <c r="J74" s="262"/>
-      <c r="K74" s="260"/>
-      <c r="L74" s="261"/>
-      <c r="M74" s="261"/>
-      <c r="N74" s="262"/>
-      <c r="O74" s="295"/>
+      <c r="D74" s="329"/>
+      <c r="E74" s="253"/>
+      <c r="F74" s="254"/>
+      <c r="G74" s="254"/>
+      <c r="H74" s="254"/>
+      <c r="I74" s="254"/>
+      <c r="J74" s="255"/>
+      <c r="K74" s="253"/>
+      <c r="L74" s="254"/>
+      <c r="M74" s="254"/>
+      <c r="N74" s="255"/>
+      <c r="O74" s="267"/>
       <c r="P74" s="94" t="s">
         <v>65</v>
       </c>
@@ -10016,23 +10006,23 @@
       <c r="S74" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="296" t="s">
+      <c r="T74" s="268" t="s">
         <v>72</v>
       </c>
-      <c r="U74" s="297"/>
-      <c r="V74" s="260"/>
-      <c r="W74" s="261"/>
-      <c r="X74" s="261"/>
-      <c r="Y74" s="261"/>
-      <c r="Z74" s="261"/>
-      <c r="AA74" s="261"/>
-      <c r="AB74" s="261"/>
-      <c r="AC74" s="261"/>
-      <c r="AD74" s="261"/>
-      <c r="AE74" s="261"/>
-      <c r="AF74" s="261"/>
-      <c r="AG74" s="261"/>
-      <c r="AH74" s="262"/>
+      <c r="U74" s="269"/>
+      <c r="V74" s="253"/>
+      <c r="W74" s="254"/>
+      <c r="X74" s="254"/>
+      <c r="Y74" s="254"/>
+      <c r="Z74" s="254"/>
+      <c r="AA74" s="254"/>
+      <c r="AB74" s="254"/>
+      <c r="AC74" s="254"/>
+      <c r="AD74" s="254"/>
+      <c r="AE74" s="254"/>
+      <c r="AF74" s="254"/>
+      <c r="AG74" s="254"/>
+      <c r="AH74" s="255"/>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
       <c r="AM74" s="31"/>
@@ -10051,36 +10041,36 @@
       <c r="D75" s="95">
         <v>1</v>
       </c>
-      <c r="E75" s="147"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="147"/>
-      <c r="L75" s="148"/>
-      <c r="M75" s="148"/>
-      <c r="N75" s="149"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="156"/>
+      <c r="N75" s="157"/>
       <c r="O75" s="96"/>
       <c r="P75" s="130"/>
       <c r="Q75" s="130"/>
       <c r="R75" s="130"/>
       <c r="S75" s="130"/>
-      <c r="T75" s="298"/>
-      <c r="U75" s="299"/>
-      <c r="V75" s="147"/>
-      <c r="W75" s="148"/>
-      <c r="X75" s="148"/>
-      <c r="Y75" s="148"/>
-      <c r="Z75" s="148"/>
-      <c r="AA75" s="148"/>
-      <c r="AB75" s="148"/>
-      <c r="AC75" s="148"/>
-      <c r="AD75" s="148"/>
-      <c r="AE75" s="148"/>
-      <c r="AF75" s="148"/>
-      <c r="AG75" s="148"/>
-      <c r="AH75" s="149"/>
+      <c r="T75" s="260"/>
+      <c r="U75" s="261"/>
+      <c r="V75" s="155"/>
+      <c r="W75" s="156"/>
+      <c r="X75" s="156"/>
+      <c r="Y75" s="156"/>
+      <c r="Z75" s="156"/>
+      <c r="AA75" s="156"/>
+      <c r="AB75" s="156"/>
+      <c r="AC75" s="156"/>
+      <c r="AD75" s="156"/>
+      <c r="AE75" s="156"/>
+      <c r="AF75" s="156"/>
+      <c r="AG75" s="156"/>
+      <c r="AH75" s="157"/>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
       <c r="AM75" s="31"/>
@@ -10099,36 +10089,36 @@
       <c r="D76" s="95">
         <v>2</v>
       </c>
-      <c r="E76" s="147"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="149"/>
-      <c r="K76" s="147"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="148"/>
-      <c r="N76" s="149"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="155"/>
+      <c r="L76" s="156"/>
+      <c r="M76" s="156"/>
+      <c r="N76" s="157"/>
       <c r="O76" s="97"/>
       <c r="P76" s="130"/>
       <c r="Q76" s="130"/>
       <c r="R76" s="130"/>
       <c r="S76" s="130"/>
-      <c r="T76" s="298"/>
-      <c r="U76" s="299"/>
-      <c r="V76" s="147"/>
-      <c r="W76" s="148"/>
-      <c r="X76" s="148"/>
-      <c r="Y76" s="148"/>
-      <c r="Z76" s="148"/>
-      <c r="AA76" s="148"/>
-      <c r="AB76" s="148"/>
-      <c r="AC76" s="148"/>
-      <c r="AD76" s="148"/>
-      <c r="AE76" s="148"/>
-      <c r="AF76" s="148"/>
-      <c r="AG76" s="148"/>
-      <c r="AH76" s="149"/>
+      <c r="T76" s="260"/>
+      <c r="U76" s="261"/>
+      <c r="V76" s="155"/>
+      <c r="W76" s="156"/>
+      <c r="X76" s="156"/>
+      <c r="Y76" s="156"/>
+      <c r="Z76" s="156"/>
+      <c r="AA76" s="156"/>
+      <c r="AB76" s="156"/>
+      <c r="AC76" s="156"/>
+      <c r="AD76" s="156"/>
+      <c r="AE76" s="156"/>
+      <c r="AF76" s="156"/>
+      <c r="AG76" s="156"/>
+      <c r="AH76" s="157"/>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
       <c r="AM76" s="31"/>
@@ -10147,36 +10137,36 @@
       <c r="D77" s="95">
         <v>3</v>
       </c>
-      <c r="E77" s="147"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="149"/>
-      <c r="K77" s="147"/>
-      <c r="L77" s="148"/>
-      <c r="M77" s="148"/>
-      <c r="N77" s="149"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="156"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="157"/>
       <c r="O77" s="97"/>
       <c r="P77" s="130"/>
       <c r="Q77" s="130"/>
       <c r="R77" s="130"/>
       <c r="S77" s="130"/>
-      <c r="T77" s="298"/>
-      <c r="U77" s="299"/>
-      <c r="V77" s="147"/>
-      <c r="W77" s="148"/>
-      <c r="X77" s="148"/>
-      <c r="Y77" s="148"/>
-      <c r="Z77" s="148"/>
-      <c r="AA77" s="148"/>
-      <c r="AB77" s="148"/>
-      <c r="AC77" s="148"/>
-      <c r="AD77" s="148"/>
-      <c r="AE77" s="148"/>
-      <c r="AF77" s="148"/>
-      <c r="AG77" s="148"/>
-      <c r="AH77" s="149"/>
+      <c r="T77" s="260"/>
+      <c r="U77" s="261"/>
+      <c r="V77" s="155"/>
+      <c r="W77" s="156"/>
+      <c r="X77" s="156"/>
+      <c r="Y77" s="156"/>
+      <c r="Z77" s="156"/>
+      <c r="AA77" s="156"/>
+      <c r="AB77" s="156"/>
+      <c r="AC77" s="156"/>
+      <c r="AD77" s="156"/>
+      <c r="AE77" s="156"/>
+      <c r="AF77" s="156"/>
+      <c r="AG77" s="156"/>
+      <c r="AH77" s="157"/>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
       <c r="AM77" s="31"/>
@@ -10311,154 +10301,154 @@
     </row>
     <row r="82" spans="1:54" ht="11.25" customHeight="1">
       <c r="C82" s="98"/>
-      <c r="D82" s="325" t="s">
+      <c r="D82" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="323" t="s">
+      <c r="E82" s="262" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="263"/>
+      <c r="G82" s="263"/>
+      <c r="H82" s="263"/>
+      <c r="I82" s="263"/>
+      <c r="J82" s="265"/>
+      <c r="K82" s="262" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" s="263"/>
+      <c r="M82" s="263"/>
+      <c r="N82" s="263"/>
+      <c r="O82" s="263"/>
+      <c r="P82" s="263"/>
+      <c r="Q82" s="264"/>
+      <c r="R82" s="330" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="321"/>
-      <c r="G82" s="321"/>
-      <c r="H82" s="321"/>
-      <c r="I82" s="321"/>
-      <c r="J82" s="324"/>
-      <c r="K82" s="323" t="s">
-        <v>45</v>
-      </c>
-      <c r="L82" s="321"/>
-      <c r="M82" s="321"/>
-      <c r="N82" s="321"/>
-      <c r="O82" s="321"/>
-      <c r="P82" s="321"/>
-      <c r="Q82" s="322"/>
-      <c r="R82" s="320" t="s">
-        <v>89</v>
-      </c>
-      <c r="S82" s="321"/>
-      <c r="T82" s="321"/>
-      <c r="U82" s="321"/>
-      <c r="V82" s="321"/>
-      <c r="W82" s="321"/>
-      <c r="X82" s="321"/>
-      <c r="Y82" s="322"/>
-      <c r="Z82" s="317" t="s">
+      <c r="S82" s="263"/>
+      <c r="T82" s="263"/>
+      <c r="U82" s="263"/>
+      <c r="V82" s="263"/>
+      <c r="W82" s="263"/>
+      <c r="X82" s="263"/>
+      <c r="Y82" s="264"/>
+      <c r="Z82" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="AA82" s="318"/>
-      <c r="AB82" s="318"/>
-      <c r="AC82" s="318"/>
-      <c r="AD82" s="319"/>
-      <c r="AE82" s="309" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF82" s="310"/>
-      <c r="AG82" s="310"/>
-      <c r="AH82" s="311"/>
+      <c r="AA82" s="271"/>
+      <c r="AB82" s="271"/>
+      <c r="AC82" s="271"/>
+      <c r="AD82" s="272"/>
+      <c r="AE82" s="247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF82" s="248"/>
+      <c r="AG82" s="248"/>
+      <c r="AH82" s="249"/>
     </row>
     <row r="83" spans="1:54">
       <c r="D83" s="57">
         <v>1</v>
       </c>
-      <c r="E83" s="223"/>
-      <c r="F83" s="224"/>
-      <c r="G83" s="224"/>
-      <c r="H83" s="224"/>
-      <c r="I83" s="224"/>
-      <c r="J83" s="225"/>
-      <c r="K83" s="147"/>
-      <c r="L83" s="148"/>
-      <c r="M83" s="148"/>
-      <c r="N83" s="148"/>
-      <c r="O83" s="148"/>
-      <c r="P83" s="148"/>
-      <c r="Q83" s="149"/>
-      <c r="R83" s="147"/>
-      <c r="S83" s="148"/>
-      <c r="T83" s="148"/>
-      <c r="U83" s="148"/>
-      <c r="V83" s="148"/>
-      <c r="W83" s="148"/>
-      <c r="X83" s="148"/>
-      <c r="Y83" s="149"/>
-      <c r="Z83" s="147"/>
-      <c r="AA83" s="148"/>
-      <c r="AB83" s="148"/>
-      <c r="AC83" s="148"/>
-      <c r="AD83" s="149"/>
-      <c r="AE83" s="306"/>
-      <c r="AF83" s="307"/>
-      <c r="AG83" s="307"/>
-      <c r="AH83" s="308"/>
+      <c r="E83" s="276"/>
+      <c r="F83" s="277"/>
+      <c r="G83" s="277"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="278"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="156"/>
+      <c r="M83" s="156"/>
+      <c r="N83" s="156"/>
+      <c r="O83" s="156"/>
+      <c r="P83" s="156"/>
+      <c r="Q83" s="157"/>
+      <c r="R83" s="155"/>
+      <c r="S83" s="156"/>
+      <c r="T83" s="156"/>
+      <c r="U83" s="156"/>
+      <c r="V83" s="156"/>
+      <c r="W83" s="156"/>
+      <c r="X83" s="156"/>
+      <c r="Y83" s="157"/>
+      <c r="Z83" s="155"/>
+      <c r="AA83" s="156"/>
+      <c r="AB83" s="156"/>
+      <c r="AC83" s="156"/>
+      <c r="AD83" s="157"/>
+      <c r="AE83" s="244"/>
+      <c r="AF83" s="245"/>
+      <c r="AG83" s="245"/>
+      <c r="AH83" s="246"/>
     </row>
     <row r="84" spans="1:54">
       <c r="D84" s="57">
         <v>2</v>
       </c>
-      <c r="E84" s="223"/>
-      <c r="F84" s="224"/>
-      <c r="G84" s="224"/>
-      <c r="H84" s="224"/>
-      <c r="I84" s="224"/>
-      <c r="J84" s="225"/>
-      <c r="K84" s="147"/>
-      <c r="L84" s="148"/>
-      <c r="M84" s="148"/>
-      <c r="N84" s="148"/>
-      <c r="O84" s="148"/>
-      <c r="P84" s="148"/>
-      <c r="Q84" s="149"/>
-      <c r="R84" s="147"/>
-      <c r="S84" s="148"/>
-      <c r="T84" s="148"/>
-      <c r="U84" s="148"/>
-      <c r="V84" s="148"/>
-      <c r="W84" s="148"/>
-      <c r="X84" s="148"/>
-      <c r="Y84" s="149"/>
-      <c r="Z84" s="147"/>
-      <c r="AA84" s="148"/>
-      <c r="AB84" s="148"/>
-      <c r="AC84" s="148"/>
-      <c r="AD84" s="149"/>
-      <c r="AE84" s="306"/>
-      <c r="AF84" s="307"/>
-      <c r="AG84" s="307"/>
-      <c r="AH84" s="308"/>
+      <c r="E84" s="276"/>
+      <c r="F84" s="277"/>
+      <c r="G84" s="277"/>
+      <c r="H84" s="277"/>
+      <c r="I84" s="277"/>
+      <c r="J84" s="278"/>
+      <c r="K84" s="155"/>
+      <c r="L84" s="156"/>
+      <c r="M84" s="156"/>
+      <c r="N84" s="156"/>
+      <c r="O84" s="156"/>
+      <c r="P84" s="156"/>
+      <c r="Q84" s="157"/>
+      <c r="R84" s="155"/>
+      <c r="S84" s="156"/>
+      <c r="T84" s="156"/>
+      <c r="U84" s="156"/>
+      <c r="V84" s="156"/>
+      <c r="W84" s="156"/>
+      <c r="X84" s="156"/>
+      <c r="Y84" s="157"/>
+      <c r="Z84" s="155"/>
+      <c r="AA84" s="156"/>
+      <c r="AB84" s="156"/>
+      <c r="AC84" s="156"/>
+      <c r="AD84" s="157"/>
+      <c r="AE84" s="244"/>
+      <c r="AF84" s="245"/>
+      <c r="AG84" s="245"/>
+      <c r="AH84" s="246"/>
     </row>
     <row r="85" spans="1:54">
       <c r="D85" s="57">
         <v>3</v>
       </c>
-      <c r="E85" s="223"/>
-      <c r="F85" s="224"/>
-      <c r="G85" s="224"/>
-      <c r="H85" s="224"/>
-      <c r="I85" s="224"/>
-      <c r="J85" s="225"/>
-      <c r="K85" s="147"/>
-      <c r="L85" s="148"/>
-      <c r="M85" s="148"/>
-      <c r="N85" s="148"/>
-      <c r="O85" s="148"/>
-      <c r="P85" s="148"/>
-      <c r="Q85" s="149"/>
-      <c r="R85" s="147"/>
-      <c r="S85" s="148"/>
-      <c r="T85" s="148"/>
-      <c r="U85" s="148"/>
-      <c r="V85" s="148"/>
-      <c r="W85" s="148"/>
-      <c r="X85" s="148"/>
-      <c r="Y85" s="149"/>
-      <c r="Z85" s="147"/>
-      <c r="AA85" s="148"/>
-      <c r="AB85" s="148"/>
-      <c r="AC85" s="148"/>
-      <c r="AD85" s="149"/>
-      <c r="AE85" s="306"/>
-      <c r="AF85" s="307"/>
-      <c r="AG85" s="307"/>
-      <c r="AH85" s="308"/>
+      <c r="E85" s="276"/>
+      <c r="F85" s="277"/>
+      <c r="G85" s="277"/>
+      <c r="H85" s="277"/>
+      <c r="I85" s="277"/>
+      <c r="J85" s="278"/>
+      <c r="K85" s="155"/>
+      <c r="L85" s="156"/>
+      <c r="M85" s="156"/>
+      <c r="N85" s="156"/>
+      <c r="O85" s="156"/>
+      <c r="P85" s="156"/>
+      <c r="Q85" s="157"/>
+      <c r="R85" s="155"/>
+      <c r="S85" s="156"/>
+      <c r="T85" s="156"/>
+      <c r="U85" s="156"/>
+      <c r="V85" s="156"/>
+      <c r="W85" s="156"/>
+      <c r="X85" s="156"/>
+      <c r="Y85" s="157"/>
+      <c r="Z85" s="155"/>
+      <c r="AA85" s="156"/>
+      <c r="AB85" s="156"/>
+      <c r="AC85" s="156"/>
+      <c r="AD85" s="157"/>
+      <c r="AE85" s="244"/>
+      <c r="AF85" s="245"/>
+      <c r="AG85" s="245"/>
+      <c r="AH85" s="246"/>
     </row>
     <row r="86" spans="1:54">
       <c r="AN86" s="31"/>
@@ -11993,7 +11983,7 @@
     </row>
     <row r="126" spans="1:39">
       <c r="A126" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="62"/>
@@ -12034,7 +12024,7 @@
     <row r="127" spans="1:39">
       <c r="A127" s="17"/>
       <c r="B127" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="73"/>
       <c r="D127" s="73"/>
@@ -12118,134 +12108,134 @@
     <row r="129" spans="1:41">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
-      <c r="C129" s="282" t="s">
+      <c r="C129" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="300" t="s">
+      <c r="D129" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="314"/>
-      <c r="F129" s="314"/>
-      <c r="G129" s="314"/>
-      <c r="H129" s="314"/>
-      <c r="I129" s="314"/>
-      <c r="J129" s="314"/>
-      <c r="K129" s="314"/>
-      <c r="L129" s="314"/>
-      <c r="M129" s="314"/>
-      <c r="N129" s="314"/>
-      <c r="O129" s="314"/>
-      <c r="P129" s="314"/>
-      <c r="Q129" s="314"/>
-      <c r="R129" s="314"/>
-      <c r="S129" s="314"/>
-      <c r="T129" s="314"/>
-      <c r="U129" s="314"/>
-      <c r="V129" s="314"/>
-      <c r="W129" s="314"/>
-      <c r="X129" s="314"/>
-      <c r="Y129" s="314"/>
-      <c r="Z129" s="314"/>
-      <c r="AA129" s="316"/>
-      <c r="AB129" s="208" t="s">
+      <c r="E129" s="226"/>
+      <c r="F129" s="226"/>
+      <c r="G129" s="226"/>
+      <c r="H129" s="226"/>
+      <c r="I129" s="226"/>
+      <c r="J129" s="226"/>
+      <c r="K129" s="226"/>
+      <c r="L129" s="226"/>
+      <c r="M129" s="226"/>
+      <c r="N129" s="226"/>
+      <c r="O129" s="226"/>
+      <c r="P129" s="226"/>
+      <c r="Q129" s="226"/>
+      <c r="R129" s="226"/>
+      <c r="S129" s="226"/>
+      <c r="T129" s="226"/>
+      <c r="U129" s="226"/>
+      <c r="V129" s="226"/>
+      <c r="W129" s="226"/>
+      <c r="X129" s="226"/>
+      <c r="Y129" s="226"/>
+      <c r="Z129" s="226"/>
+      <c r="AA129" s="228"/>
+      <c r="AB129" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="AC129" s="326"/>
-      <c r="AD129" s="326"/>
-      <c r="AE129" s="326"/>
-      <c r="AF129" s="326"/>
-      <c r="AG129" s="326"/>
-      <c r="AH129" s="326"/>
-      <c r="AI129" s="327"/>
+      <c r="AC129" s="232"/>
+      <c r="AD129" s="232"/>
+      <c r="AE129" s="232"/>
+      <c r="AF129" s="232"/>
+      <c r="AG129" s="232"/>
+      <c r="AH129" s="232"/>
+      <c r="AI129" s="233"/>
       <c r="AJ129" s="101"/>
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="33"/>
       <c r="B130" s="62"/>
       <c r="C130" s="284"/>
-      <c r="D130" s="300" t="s">
+      <c r="D130" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="301"/>
-      <c r="F130" s="301"/>
-      <c r="G130" s="301"/>
-      <c r="H130" s="301"/>
-      <c r="I130" s="301"/>
-      <c r="J130" s="301"/>
-      <c r="K130" s="302"/>
-      <c r="L130" s="300" t="s">
+      <c r="E130" s="230"/>
+      <c r="F130" s="230"/>
+      <c r="G130" s="230"/>
+      <c r="H130" s="230"/>
+      <c r="I130" s="230"/>
+      <c r="J130" s="230"/>
+      <c r="K130" s="231"/>
+      <c r="L130" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="301"/>
-      <c r="N130" s="301"/>
-      <c r="O130" s="302"/>
-      <c r="P130" s="300" t="s">
+      <c r="M130" s="230"/>
+      <c r="N130" s="230"/>
+      <c r="O130" s="231"/>
+      <c r="P130" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="Q130" s="301"/>
-      <c r="R130" s="301"/>
-      <c r="S130" s="301"/>
-      <c r="T130" s="302"/>
-      <c r="U130" s="300" t="s">
+      <c r="Q130" s="230"/>
+      <c r="R130" s="230"/>
+      <c r="S130" s="230"/>
+      <c r="T130" s="231"/>
+      <c r="U130" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="V130" s="301"/>
-      <c r="W130" s="301"/>
-      <c r="X130" s="301"/>
-      <c r="Y130" s="301"/>
-      <c r="Z130" s="301"/>
-      <c r="AA130" s="302"/>
-      <c r="AB130" s="328"/>
-      <c r="AC130" s="329"/>
-      <c r="AD130" s="329"/>
-      <c r="AE130" s="329"/>
-      <c r="AF130" s="329"/>
-      <c r="AG130" s="329"/>
-      <c r="AH130" s="329"/>
-      <c r="AI130" s="330"/>
+      <c r="V130" s="230"/>
+      <c r="W130" s="230"/>
+      <c r="X130" s="230"/>
+      <c r="Y130" s="230"/>
+      <c r="Z130" s="230"/>
+      <c r="AA130" s="231"/>
+      <c r="AB130" s="234"/>
+      <c r="AC130" s="235"/>
+      <c r="AD130" s="235"/>
+      <c r="AE130" s="235"/>
+      <c r="AF130" s="235"/>
+      <c r="AG130" s="235"/>
+      <c r="AH130" s="235"/>
+      <c r="AI130" s="236"/>
       <c r="AJ130" s="102"/>
       <c r="AK130" s="31"/>
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
-      <c r="C131" s="312" t="s">
+      <c r="C131" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="D131" s="313"/>
-      <c r="E131" s="313"/>
-      <c r="F131" s="313"/>
-      <c r="G131" s="313"/>
-      <c r="H131" s="313"/>
-      <c r="I131" s="313"/>
-      <c r="J131" s="313"/>
-      <c r="K131" s="313"/>
-      <c r="L131" s="313" t="s">
+      <c r="D131" s="225"/>
+      <c r="E131" s="225"/>
+      <c r="F131" s="225"/>
+      <c r="G131" s="225"/>
+      <c r="H131" s="225"/>
+      <c r="I131" s="225"/>
+      <c r="J131" s="225"/>
+      <c r="K131" s="225"/>
+      <c r="L131" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="M131" s="313"/>
-      <c r="N131" s="313"/>
-      <c r="O131" s="313"/>
-      <c r="P131" s="313"/>
-      <c r="Q131" s="313"/>
-      <c r="R131" s="313"/>
-      <c r="S131" s="313"/>
-      <c r="T131" s="313"/>
-      <c r="U131" s="313"/>
-      <c r="V131" s="313"/>
-      <c r="W131" s="313"/>
-      <c r="X131" s="313"/>
-      <c r="Y131" s="313"/>
-      <c r="Z131" s="313"/>
-      <c r="AA131" s="313"/>
-      <c r="AB131" s="313"/>
-      <c r="AC131" s="313"/>
-      <c r="AD131" s="313"/>
-      <c r="AE131" s="313"/>
-      <c r="AF131" s="313"/>
-      <c r="AG131" s="313"/>
-      <c r="AH131" s="313"/>
-      <c r="AI131" s="315"/>
+      <c r="M131" s="225"/>
+      <c r="N131" s="225"/>
+      <c r="O131" s="225"/>
+      <c r="P131" s="225"/>
+      <c r="Q131" s="225"/>
+      <c r="R131" s="225"/>
+      <c r="S131" s="225"/>
+      <c r="T131" s="225"/>
+      <c r="U131" s="225"/>
+      <c r="V131" s="225"/>
+      <c r="W131" s="225"/>
+      <c r="X131" s="225"/>
+      <c r="Y131" s="225"/>
+      <c r="Z131" s="225"/>
+      <c r="AA131" s="225"/>
+      <c r="AB131" s="225"/>
+      <c r="AC131" s="225"/>
+      <c r="AD131" s="225"/>
+      <c r="AE131" s="225"/>
+      <c r="AF131" s="225"/>
+      <c r="AG131" s="225"/>
+      <c r="AH131" s="225"/>
+      <c r="AI131" s="227"/>
       <c r="AJ131" s="103"/>
     </row>
     <row r="132" spans="1:41">
@@ -12254,80 +12244,80 @@
       <c r="C132" s="104">
         <v>1</v>
       </c>
-      <c r="D132" s="147"/>
-      <c r="E132" s="148"/>
-      <c r="F132" s="148"/>
-      <c r="G132" s="148"/>
-      <c r="H132" s="148"/>
-      <c r="I132" s="148"/>
-      <c r="J132" s="148"/>
-      <c r="K132" s="149"/>
-      <c r="L132" s="291"/>
-      <c r="M132" s="292"/>
-      <c r="N132" s="292"/>
-      <c r="O132" s="293"/>
-      <c r="P132" s="275"/>
-      <c r="Q132" s="276"/>
-      <c r="R132" s="276"/>
-      <c r="S132" s="276"/>
-      <c r="T132" s="277"/>
-      <c r="U132" s="147"/>
-      <c r="V132" s="148"/>
-      <c r="W132" s="148"/>
-      <c r="X132" s="148"/>
-      <c r="Y132" s="148"/>
-      <c r="Z132" s="148"/>
-      <c r="AA132" s="149"/>
-      <c r="AB132" s="150"/>
-      <c r="AC132" s="314"/>
-      <c r="AD132" s="314"/>
-      <c r="AE132" s="314"/>
-      <c r="AF132" s="314"/>
-      <c r="AG132" s="314"/>
-      <c r="AH132" s="314"/>
-      <c r="AI132" s="316"/>
+      <c r="D132" s="155"/>
+      <c r="E132" s="156"/>
+      <c r="F132" s="156"/>
+      <c r="G132" s="156"/>
+      <c r="H132" s="156"/>
+      <c r="I132" s="156"/>
+      <c r="J132" s="156"/>
+      <c r="K132" s="157"/>
+      <c r="L132" s="273"/>
+      <c r="M132" s="274"/>
+      <c r="N132" s="274"/>
+      <c r="O132" s="275"/>
+      <c r="P132" s="241"/>
+      <c r="Q132" s="242"/>
+      <c r="R132" s="242"/>
+      <c r="S132" s="242"/>
+      <c r="T132" s="243"/>
+      <c r="U132" s="155"/>
+      <c r="V132" s="156"/>
+      <c r="W132" s="156"/>
+      <c r="X132" s="156"/>
+      <c r="Y132" s="156"/>
+      <c r="Z132" s="156"/>
+      <c r="AA132" s="157"/>
+      <c r="AB132" s="158"/>
+      <c r="AC132" s="226"/>
+      <c r="AD132" s="226"/>
+      <c r="AE132" s="226"/>
+      <c r="AF132" s="226"/>
+      <c r="AG132" s="226"/>
+      <c r="AH132" s="226"/>
+      <c r="AI132" s="228"/>
       <c r="AJ132" s="88"/>
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
-      <c r="C133" s="312" t="s">
+      <c r="C133" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="D133" s="314"/>
-      <c r="E133" s="314"/>
-      <c r="F133" s="314"/>
-      <c r="G133" s="314"/>
-      <c r="H133" s="314"/>
-      <c r="I133" s="314"/>
-      <c r="J133" s="314"/>
-      <c r="K133" s="314"/>
-      <c r="L133" s="313" t="s">
+      <c r="D133" s="226"/>
+      <c r="E133" s="226"/>
+      <c r="F133" s="226"/>
+      <c r="G133" s="226"/>
+      <c r="H133" s="226"/>
+      <c r="I133" s="226"/>
+      <c r="J133" s="226"/>
+      <c r="K133" s="226"/>
+      <c r="L133" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="M133" s="314"/>
-      <c r="N133" s="314"/>
-      <c r="O133" s="314"/>
-      <c r="P133" s="314"/>
-      <c r="Q133" s="314"/>
-      <c r="R133" s="314"/>
-      <c r="S133" s="314"/>
-      <c r="T133" s="314"/>
-      <c r="U133" s="314"/>
-      <c r="V133" s="314"/>
-      <c r="W133" s="314"/>
-      <c r="X133" s="314"/>
-      <c r="Y133" s="314"/>
-      <c r="Z133" s="314"/>
-      <c r="AA133" s="314"/>
-      <c r="AB133" s="314"/>
-      <c r="AC133" s="314"/>
-      <c r="AD133" s="314"/>
-      <c r="AE133" s="314"/>
-      <c r="AF133" s="314"/>
-      <c r="AG133" s="314"/>
-      <c r="AH133" s="314"/>
-      <c r="AI133" s="316"/>
+      <c r="M133" s="226"/>
+      <c r="N133" s="226"/>
+      <c r="O133" s="226"/>
+      <c r="P133" s="226"/>
+      <c r="Q133" s="226"/>
+      <c r="R133" s="226"/>
+      <c r="S133" s="226"/>
+      <c r="T133" s="226"/>
+      <c r="U133" s="226"/>
+      <c r="V133" s="226"/>
+      <c r="W133" s="226"/>
+      <c r="X133" s="226"/>
+      <c r="Y133" s="226"/>
+      <c r="Z133" s="226"/>
+      <c r="AA133" s="226"/>
+      <c r="AB133" s="226"/>
+      <c r="AC133" s="226"/>
+      <c r="AD133" s="226"/>
+      <c r="AE133" s="226"/>
+      <c r="AF133" s="226"/>
+      <c r="AG133" s="226"/>
+      <c r="AH133" s="226"/>
+      <c r="AI133" s="228"/>
       <c r="AJ133" s="103"/>
     </row>
     <row r="134" spans="1:41">
@@ -12336,38 +12326,38 @@
       <c r="C134" s="104">
         <v>2</v>
       </c>
-      <c r="D134" s="147"/>
-      <c r="E134" s="148"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="148"/>
-      <c r="H134" s="148"/>
-      <c r="I134" s="148"/>
-      <c r="J134" s="148"/>
-      <c r="K134" s="149"/>
-      <c r="L134" s="291"/>
-      <c r="M134" s="292"/>
-      <c r="N134" s="292"/>
-      <c r="O134" s="293"/>
-      <c r="P134" s="275"/>
-      <c r="Q134" s="276"/>
-      <c r="R134" s="276"/>
-      <c r="S134" s="276"/>
-      <c r="T134" s="277"/>
-      <c r="U134" s="147"/>
-      <c r="V134" s="148"/>
-      <c r="W134" s="148"/>
-      <c r="X134" s="148"/>
-      <c r="Y134" s="148"/>
-      <c r="Z134" s="148"/>
-      <c r="AA134" s="149"/>
-      <c r="AB134" s="150"/>
-      <c r="AC134" s="314"/>
-      <c r="AD134" s="314"/>
-      <c r="AE134" s="314"/>
-      <c r="AF134" s="314"/>
-      <c r="AG134" s="314"/>
-      <c r="AH134" s="314"/>
-      <c r="AI134" s="316"/>
+      <c r="D134" s="155"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="156"/>
+      <c r="G134" s="156"/>
+      <c r="H134" s="156"/>
+      <c r="I134" s="156"/>
+      <c r="J134" s="156"/>
+      <c r="K134" s="157"/>
+      <c r="L134" s="273"/>
+      <c r="M134" s="274"/>
+      <c r="N134" s="274"/>
+      <c r="O134" s="275"/>
+      <c r="P134" s="241"/>
+      <c r="Q134" s="242"/>
+      <c r="R134" s="242"/>
+      <c r="S134" s="242"/>
+      <c r="T134" s="243"/>
+      <c r="U134" s="155"/>
+      <c r="V134" s="156"/>
+      <c r="W134" s="156"/>
+      <c r="X134" s="156"/>
+      <c r="Y134" s="156"/>
+      <c r="Z134" s="156"/>
+      <c r="AA134" s="157"/>
+      <c r="AB134" s="158"/>
+      <c r="AC134" s="226"/>
+      <c r="AD134" s="226"/>
+      <c r="AE134" s="226"/>
+      <c r="AF134" s="226"/>
+      <c r="AG134" s="226"/>
+      <c r="AH134" s="226"/>
+      <c r="AI134" s="228"/>
       <c r="AJ134" s="88"/>
     </row>
     <row r="135" spans="1:41">
@@ -12652,76 +12642,73 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C133:K133"/>
-    <mergeCell ref="L131:AI131"/>
-    <mergeCell ref="L133:AI133"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="D129:AA129"/>
-    <mergeCell ref="AB129:AI130"/>
-    <mergeCell ref="AB134:AI134"/>
-    <mergeCell ref="AB132:AI132"/>
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AH59"/>
-    <mergeCell ref="AE60:AH60"/>
-    <mergeCell ref="AE61:AH61"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="N65:U65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="V61:Z61"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="V64:Z64"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="Z85:AD85"/>
-    <mergeCell ref="AE85:AH85"/>
-    <mergeCell ref="AE82:AH82"/>
-    <mergeCell ref="Z83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
-    <mergeCell ref="Z84:AD84"/>
-    <mergeCell ref="AE84:AH84"/>
-    <mergeCell ref="K73:N74"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="V75:AH75"/>
-    <mergeCell ref="P73:U73"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V60:Z60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="V63:Z63"/>
-    <mergeCell ref="V77:AH77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="U132:AA132"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="V73:AH74"/>
-    <mergeCell ref="V76:AH76"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="R83:Y83"/>
-    <mergeCell ref="R84:Y84"/>
-    <mergeCell ref="R85:Y85"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:J74"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="AL53:AO54"/>
+    <mergeCell ref="N53:U54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="J53:M54"/>
+    <mergeCell ref="AA53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="N56:U56"/>
+    <mergeCell ref="N57:U57"/>
+    <mergeCell ref="E45:M45"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="F52:AD52"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="N58:U58"/>
+    <mergeCell ref="N59:U59"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V45:AC45"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="V47:AC47"/>
+    <mergeCell ref="AL58:AO58"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="E55:AH55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AE56:AH56"/>
+    <mergeCell ref="AE57:AH57"/>
+    <mergeCell ref="V62:Z62"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="V56:Z56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="AE52:AH54"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AL64:AO64"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -12746,83 +12733,86 @@
     <mergeCell ref="C129:C130"/>
     <mergeCell ref="N63:U63"/>
     <mergeCell ref="N64:U64"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V45:AC45"/>
-    <mergeCell ref="V46:AC46"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="V47:AC47"/>
-    <mergeCell ref="AL58:AO58"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="E55:AH55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AE56:AH56"/>
-    <mergeCell ref="AE57:AH57"/>
-    <mergeCell ref="V62:Z62"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="V56:Z56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="AE52:AH54"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="F52:AD52"/>
-    <mergeCell ref="F53:I54"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="N58:U58"/>
-    <mergeCell ref="N59:U59"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="AL53:AO54"/>
-    <mergeCell ref="N53:U54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="J53:M54"/>
-    <mergeCell ref="AA53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="N56:U56"/>
-    <mergeCell ref="N57:U57"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="V63:Z63"/>
+    <mergeCell ref="V77:AH77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="V73:AH74"/>
+    <mergeCell ref="V76:AH76"/>
     <mergeCell ref="N60:U60"/>
     <mergeCell ref="N61:U61"/>
     <mergeCell ref="AE63:AH63"/>
     <mergeCell ref="N62:U62"/>
-    <mergeCell ref="U134:AA134"/>
     <mergeCell ref="E76:J76"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="E77:J77"/>
     <mergeCell ref="K77:N77"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:J74"/>
-    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="Z85:AD85"/>
+    <mergeCell ref="AE85:AH85"/>
+    <mergeCell ref="AE82:AH82"/>
+    <mergeCell ref="Z83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="Z84:AD84"/>
+    <mergeCell ref="AE84:AH84"/>
+    <mergeCell ref="K73:N74"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="V75:AH75"/>
+    <mergeCell ref="P73:U73"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="R83:Y83"/>
+    <mergeCell ref="R84:Y84"/>
+    <mergeCell ref="R85:Y85"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AH59"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="N65:U65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="V61:Z61"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="V64:Z64"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="L131:AI131"/>
+    <mergeCell ref="L133:AI133"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="D129:AA129"/>
+    <mergeCell ref="AB129:AI130"/>
+    <mergeCell ref="AB134:AI134"/>
+    <mergeCell ref="AB132:AI132"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="U134:AA134"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12905,27 +12895,27 @@
         <v>33</v>
       </c>
       <c r="D1" s="107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="108" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12933,16 +12923,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12950,16 +12940,16 @@
         <v>18</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="97" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12967,13 +12957,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="97" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12981,7 +12971,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12989,7 +12979,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
@@ -193,7 +193,7 @@
           <t>当画面で発生しうるイベントについて記述する。
 例）
 ・初期表示
-・ボタン押下時の同時処理(更新処理など)
+・ボタン押下時の処理(更新処理など)
 ・アンカーリンク押下時の処理(詳細画面遷移など)
 ・特定のキー押下時の処理</t>
         </r>
@@ -2061,6 +2061,111 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2097,24 +2202,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2124,24 +2211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2178,74 +2247,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2256,33 +2283,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2331,6 +2331,288 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2369,288 +2651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4145,53 +4145,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="182" t="s">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="169" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="140" t="str">
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="175" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4199,51 +4199,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="182" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="140" t="str">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="175" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4251,43 +4251,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="140"/>
-      <c r="AH3" s="141"/>
-      <c r="AI3" s="142"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4426,1014 +4426,1014 @@
       <c r="A7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="149" t="s">
+      <c r="C7" s="161"/>
+      <c r="D7" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="149" t="s">
+      <c r="H7" s="162"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="149" t="s">
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="149" t="s">
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="151"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="161"/>
     </row>
     <row r="8" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="131"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185"/>
+      <c r="AI8" s="186"/>
     </row>
     <row r="9" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="157"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="160"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="153"/>
     </row>
     <row r="10" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="56"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="157"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="153"/>
     </row>
     <row r="11" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="157"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="160"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="152"/>
+      <c r="AH11" s="152"/>
+      <c r="AI11" s="153"/>
     </row>
     <row r="12" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="160"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="153"/>
     </row>
     <row r="13" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="159"/>
-      <c r="AI13" s="160"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="153"/>
     </row>
     <row r="14" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="56"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="160"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="150"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="153"/>
     </row>
     <row r="15" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="160"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="152"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="153"/>
     </row>
     <row r="16" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="160"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="153"/>
     </row>
     <row r="17" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="56"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="160"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="150"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="153"/>
     </row>
     <row r="18" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="56"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="160"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="153"/>
     </row>
     <row r="19" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="153"/>
     </row>
     <row r="20" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="160"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="150"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="153"/>
     </row>
     <row r="21" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="160"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="153"/>
     </row>
     <row r="22" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="160"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="153"/>
     </row>
     <row r="23" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="160"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="153"/>
     </row>
     <row r="24" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="160"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="153"/>
     </row>
     <row r="25" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="159"/>
-      <c r="AH25" s="159"/>
-      <c r="AI25" s="160"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="153"/>
     </row>
     <row r="26" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="56"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="153"/>
     </row>
     <row r="27" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="156"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="156"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="160"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="150"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="153"/>
     </row>
     <row r="28" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="160"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="153"/>
     </row>
     <row r="29" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="159"/>
-      <c r="AH29" s="159"/>
-      <c r="AI29" s="160"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="150"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="152"/>
+      <c r="AH29" s="152"/>
+      <c r="AI29" s="153"/>
     </row>
     <row r="30" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="160"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="152"/>
+      <c r="AI30" s="153"/>
     </row>
     <row r="31" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="56"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="160"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="152"/>
+      <c r="AH31" s="152"/>
+      <c r="AI31" s="153"/>
     </row>
     <row r="32" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="56"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="160"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="152"/>
+      <c r="AI32" s="153"/>
     </row>
     <row r="33" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="56"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="160"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="153"/>
     </row>
     <row r="34" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="28"/>
@@ -5474,6 +5474,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5498,161 +5653,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5809,157 +5809,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="199" t="str">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="196" t="str">
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="196" t="str">
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="29"/>
@@ -7418,6 +7418,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7427,14 +7435,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7461,157 +7461,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="199" t="str">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="196" t="str">
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="196" t="str">
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" s="17" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
@@ -7633,11 +7633,11 @@
       <c r="D8" s="219"/>
       <c r="E8" s="219"/>
       <c r="F8" s="220"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="219"/>
       <c r="M8" s="219"/>
       <c r="N8" s="219"/>
@@ -7669,7 +7669,7 @@
       <c r="D9" s="222"/>
       <c r="E9" s="222"/>
       <c r="F9" s="223"/>
-      <c r="G9" s="158"/>
+      <c r="G9" s="151"/>
       <c r="H9" s="219"/>
       <c r="I9" s="219"/>
       <c r="J9" s="219"/>
@@ -8591,6 +8591,18 @@
     <row r="72" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C30:F34"/>
+    <mergeCell ref="C10:F29"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8602,18 +8614,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C30:F34"/>
-    <mergeCell ref="C10:F29"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8644,159 +8644,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="298" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="152" t="str">
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="199" t="str">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="300" t="str">
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="288" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="301"/>
-      <c r="AI1" s="302"/>
+      <c r="AH1" s="289"/>
+      <c r="AI1" s="290"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="298" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="152" t="str">
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="300" t="str">
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="288" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="301"/>
-      <c r="AI2" s="302"/>
+      <c r="AH2" s="289"/>
+      <c r="AI2" s="290"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="152" t="str">
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="169" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="300" t="str">
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="288" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="301"/>
-      <c r="AI3" s="302"/>
+      <c r="AH3" s="289"/>
+      <c r="AI3" s="290"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" s="17" customFormat="1" ht="12" customHeight="1"/>
@@ -8950,39 +8950,39 @@
       <c r="D45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="285" t="s">
+      <c r="E45" s="274" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="285"/>
-      <c r="G45" s="285"/>
-      <c r="H45" s="285"/>
-      <c r="I45" s="285"/>
-      <c r="J45" s="285"/>
-      <c r="K45" s="285"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="285"/>
-      <c r="N45" s="285" t="s">
+      <c r="F45" s="274"/>
+      <c r="G45" s="274"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="274"/>
+      <c r="J45" s="274"/>
+      <c r="K45" s="274"/>
+      <c r="L45" s="274"/>
+      <c r="M45" s="274"/>
+      <c r="N45" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="285"/>
-      <c r="P45" s="285"/>
-      <c r="Q45" s="285" t="s">
+      <c r="O45" s="274"/>
+      <c r="P45" s="274"/>
+      <c r="Q45" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="285"/>
-      <c r="S45" s="285"/>
-      <c r="T45" s="285"/>
-      <c r="U45" s="285"/>
-      <c r="V45" s="285" t="s">
+      <c r="R45" s="274"/>
+      <c r="S45" s="274"/>
+      <c r="T45" s="274"/>
+      <c r="U45" s="274"/>
+      <c r="V45" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="285"/>
-      <c r="X45" s="285"/>
-      <c r="Y45" s="285"/>
-      <c r="Z45" s="285"/>
-      <c r="AA45" s="285"/>
-      <c r="AB45" s="285"/>
-      <c r="AC45" s="285"/>
+      <c r="W45" s="274"/>
+      <c r="X45" s="274"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="274"/>
+      <c r="AA45" s="274"/>
+      <c r="AB45" s="274"/>
+      <c r="AC45" s="274"/>
       <c r="AD45" s="83"/>
       <c r="AE45" s="83"/>
       <c r="AF45" s="83"/>
@@ -8993,62 +8993,62 @@
       <c r="D46" s="55">
         <v>1</v>
       </c>
-      <c r="E46" s="282"/>
-      <c r="F46" s="282"/>
-      <c r="G46" s="282"/>
-      <c r="H46" s="282"/>
-      <c r="I46" s="282"/>
-      <c r="J46" s="282"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="282"/>
-      <c r="M46" s="282"/>
-      <c r="N46" s="282"/>
-      <c r="O46" s="282"/>
-      <c r="P46" s="282"/>
-      <c r="Q46" s="282"/>
-      <c r="R46" s="282"/>
-      <c r="S46" s="282"/>
-      <c r="T46" s="282"/>
-      <c r="U46" s="282"/>
-      <c r="V46" s="282"/>
-      <c r="W46" s="282"/>
-      <c r="X46" s="282"/>
-      <c r="Y46" s="282"/>
-      <c r="Z46" s="282"/>
-      <c r="AA46" s="282"/>
-      <c r="AB46" s="282"/>
-      <c r="AC46" s="282"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="275"/>
+      <c r="G46" s="275"/>
+      <c r="H46" s="275"/>
+      <c r="I46" s="275"/>
+      <c r="J46" s="275"/>
+      <c r="K46" s="275"/>
+      <c r="L46" s="275"/>
+      <c r="M46" s="275"/>
+      <c r="N46" s="275"/>
+      <c r="O46" s="275"/>
+      <c r="P46" s="275"/>
+      <c r="Q46" s="275"/>
+      <c r="R46" s="275"/>
+      <c r="S46" s="275"/>
+      <c r="T46" s="275"/>
+      <c r="U46" s="275"/>
+      <c r="V46" s="275"/>
+      <c r="W46" s="275"/>
+      <c r="X46" s="275"/>
+      <c r="Y46" s="275"/>
+      <c r="Z46" s="275"/>
+      <c r="AA46" s="275"/>
+      <c r="AB46" s="275"/>
+      <c r="AC46" s="275"/>
       <c r="AM46" s="27"/>
     </row>
     <row r="47" spans="3:40" ht="11.25" customHeight="1">
       <c r="D47" s="55">
         <v>2</v>
       </c>
-      <c r="E47" s="282"/>
-      <c r="F47" s="282"/>
-      <c r="G47" s="282"/>
-      <c r="H47" s="282"/>
-      <c r="I47" s="282"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
-      <c r="L47" s="282"/>
-      <c r="M47" s="282"/>
-      <c r="N47" s="282"/>
-      <c r="O47" s="282"/>
-      <c r="P47" s="282"/>
-      <c r="Q47" s="282"/>
-      <c r="R47" s="282"/>
-      <c r="S47" s="282"/>
-      <c r="T47" s="282"/>
-      <c r="U47" s="282"/>
-      <c r="V47" s="282"/>
-      <c r="W47" s="282"/>
-      <c r="X47" s="282"/>
-      <c r="Y47" s="282"/>
-      <c r="Z47" s="282"/>
-      <c r="AA47" s="282"/>
-      <c r="AB47" s="282"/>
-      <c r="AC47" s="282"/>
+      <c r="E47" s="275"/>
+      <c r="F47" s="275"/>
+      <c r="G47" s="275"/>
+      <c r="H47" s="275"/>
+      <c r="I47" s="275"/>
+      <c r="J47" s="275"/>
+      <c r="K47" s="275"/>
+      <c r="L47" s="275"/>
+      <c r="M47" s="275"/>
+      <c r="N47" s="275"/>
+      <c r="O47" s="275"/>
+      <c r="P47" s="275"/>
+      <c r="Q47" s="275"/>
+      <c r="R47" s="275"/>
+      <c r="S47" s="275"/>
+      <c r="T47" s="275"/>
+      <c r="U47" s="275"/>
+      <c r="V47" s="275"/>
+      <c r="W47" s="275"/>
+      <c r="X47" s="275"/>
+      <c r="Y47" s="275"/>
+      <c r="Z47" s="275"/>
+      <c r="AA47" s="275"/>
+      <c r="AB47" s="275"/>
+      <c r="AC47" s="275"/>
       <c r="AN47" s="27"/>
     </row>
     <row r="48" spans="3:40" ht="11.25" customHeight="1">
@@ -9102,42 +9102,42 @@
       <c r="AP51" s="82"/>
     </row>
     <row r="52" spans="3:47">
-      <c r="E52" s="283" t="s">
+      <c r="E52" s="292" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="303" t="s">
+      <c r="F52" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="304"/>
-      <c r="H52" s="304"/>
-      <c r="I52" s="304"/>
-      <c r="J52" s="304"/>
-      <c r="K52" s="304"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="304"/>
-      <c r="N52" s="304"/>
-      <c r="O52" s="304"/>
-      <c r="P52" s="304"/>
-      <c r="Q52" s="304"/>
-      <c r="R52" s="304"/>
-      <c r="S52" s="304"/>
-      <c r="T52" s="304"/>
-      <c r="U52" s="304"/>
-      <c r="V52" s="304"/>
-      <c r="W52" s="304"/>
-      <c r="X52" s="304"/>
-      <c r="Y52" s="304"/>
-      <c r="Z52" s="304"/>
-      <c r="AA52" s="304"/>
-      <c r="AB52" s="304"/>
-      <c r="AC52" s="304"/>
-      <c r="AD52" s="305"/>
-      <c r="AE52" s="291" t="s">
+      <c r="G52" s="280"/>
+      <c r="H52" s="280"/>
+      <c r="I52" s="280"/>
+      <c r="J52" s="280"/>
+      <c r="K52" s="280"/>
+      <c r="L52" s="280"/>
+      <c r="M52" s="280"/>
+      <c r="N52" s="280"/>
+      <c r="O52" s="280"/>
+      <c r="P52" s="280"/>
+      <c r="Q52" s="280"/>
+      <c r="R52" s="280"/>
+      <c r="S52" s="280"/>
+      <c r="T52" s="280"/>
+      <c r="U52" s="280"/>
+      <c r="V52" s="280"/>
+      <c r="W52" s="280"/>
+      <c r="X52" s="280"/>
+      <c r="Y52" s="280"/>
+      <c r="Z52" s="280"/>
+      <c r="AA52" s="280"/>
+      <c r="AB52" s="280"/>
+      <c r="AC52" s="280"/>
+      <c r="AD52" s="281"/>
+      <c r="AE52" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="AF52" s="292"/>
-      <c r="AG52" s="292"/>
-      <c r="AH52" s="293"/>
+      <c r="AF52" s="283"/>
+      <c r="AG52" s="283"/>
+      <c r="AH52" s="284"/>
       <c r="AL52" s="82"/>
       <c r="AM52" s="82"/>
       <c r="AN52" s="82"/>
@@ -9145,29 +9145,29 @@
       <c r="AP52" s="82"/>
     </row>
     <row r="53" spans="3:47" ht="18" customHeight="1">
-      <c r="E53" s="290"/>
-      <c r="F53" s="291" t="s">
+      <c r="E53" s="293"/>
+      <c r="F53" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="292"/>
-      <c r="H53" s="292"/>
-      <c r="I53" s="293"/>
-      <c r="J53" s="315" t="s">
+      <c r="G53" s="283"/>
+      <c r="H53" s="283"/>
+      <c r="I53" s="284"/>
+      <c r="J53" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="321"/>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322"/>
-      <c r="N53" s="315" t="s">
+      <c r="K53" s="256"/>
+      <c r="L53" s="256"/>
+      <c r="M53" s="257"/>
+      <c r="N53" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="O53" s="316"/>
-      <c r="P53" s="316"/>
-      <c r="Q53" s="316"/>
-      <c r="R53" s="316"/>
-      <c r="S53" s="316"/>
-      <c r="T53" s="316"/>
-      <c r="U53" s="317"/>
+      <c r="O53" s="251"/>
+      <c r="P53" s="251"/>
+      <c r="Q53" s="251"/>
+      <c r="R53" s="251"/>
+      <c r="S53" s="251"/>
+      <c r="T53" s="251"/>
+      <c r="U53" s="252"/>
       <c r="V53" s="209" t="s">
         <v>38</v>
       </c>
@@ -9180,39 +9180,39 @@
       </c>
       <c r="AB53" s="210"/>
       <c r="AC53" s="211"/>
-      <c r="AD53" s="326" t="s">
+      <c r="AD53" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="AE53" s="294"/>
-      <c r="AF53" s="295"/>
-      <c r="AG53" s="295"/>
-      <c r="AH53" s="296"/>
-      <c r="AL53" s="309" t="s">
+      <c r="AE53" s="295"/>
+      <c r="AF53" s="296"/>
+      <c r="AG53" s="296"/>
+      <c r="AH53" s="297"/>
+      <c r="AL53" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="AM53" s="310"/>
-      <c r="AN53" s="310"/>
-      <c r="AO53" s="311"/>
+      <c r="AM53" s="245"/>
+      <c r="AN53" s="245"/>
+      <c r="AO53" s="246"/>
       <c r="AP53" s="82"/>
     </row>
     <row r="54" spans="3:47" s="26" customFormat="1">
-      <c r="E54" s="284"/>
-      <c r="F54" s="297"/>
-      <c r="G54" s="298"/>
-      <c r="H54" s="298"/>
-      <c r="I54" s="299"/>
-      <c r="J54" s="323"/>
-      <c r="K54" s="324"/>
-      <c r="L54" s="324"/>
-      <c r="M54" s="325"/>
-      <c r="N54" s="318"/>
-      <c r="O54" s="319"/>
-      <c r="P54" s="319"/>
-      <c r="Q54" s="319"/>
-      <c r="R54" s="319"/>
-      <c r="S54" s="319"/>
-      <c r="T54" s="319"/>
-      <c r="U54" s="320"/>
+      <c r="E54" s="294"/>
+      <c r="F54" s="285"/>
+      <c r="G54" s="286"/>
+      <c r="H54" s="286"/>
+      <c r="I54" s="287"/>
+      <c r="J54" s="258"/>
+      <c r="K54" s="259"/>
+      <c r="L54" s="259"/>
+      <c r="M54" s="260"/>
+      <c r="N54" s="253"/>
+      <c r="O54" s="254"/>
+      <c r="P54" s="254"/>
+      <c r="Q54" s="254"/>
+      <c r="R54" s="254"/>
+      <c r="S54" s="254"/>
+      <c r="T54" s="254"/>
+      <c r="U54" s="255"/>
       <c r="V54" s="215"/>
       <c r="W54" s="216"/>
       <c r="X54" s="216"/>
@@ -9221,62 +9221,62 @@
       <c r="AA54" s="215"/>
       <c r="AB54" s="216"/>
       <c r="AC54" s="217"/>
-      <c r="AD54" s="327"/>
-      <c r="AE54" s="297"/>
-      <c r="AF54" s="298"/>
-      <c r="AG54" s="298"/>
-      <c r="AH54" s="299"/>
+      <c r="AD54" s="262"/>
+      <c r="AE54" s="285"/>
+      <c r="AF54" s="286"/>
+      <c r="AG54" s="286"/>
+      <c r="AH54" s="287"/>
       <c r="AI54" s="67"/>
       <c r="AJ54" s="67"/>
       <c r="AK54" s="67"/>
-      <c r="AL54" s="312"/>
-      <c r="AM54" s="313"/>
-      <c r="AN54" s="313"/>
-      <c r="AO54" s="314"/>
+      <c r="AL54" s="247"/>
+      <c r="AM54" s="248"/>
+      <c r="AN54" s="248"/>
+      <c r="AO54" s="249"/>
       <c r="AP54" s="67"/>
     </row>
     <row r="55" spans="3:47" s="82" customFormat="1" ht="11.25" customHeight="1">
-      <c r="E55" s="289" t="s">
+      <c r="E55" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="289"/>
-      <c r="G55" s="289"/>
-      <c r="H55" s="289"/>
-      <c r="I55" s="289"/>
-      <c r="J55" s="289"/>
-      <c r="K55" s="289"/>
-      <c r="L55" s="289"/>
-      <c r="M55" s="289"/>
-      <c r="N55" s="289"/>
-      <c r="O55" s="289"/>
-      <c r="P55" s="289"/>
-      <c r="Q55" s="289"/>
-      <c r="R55" s="289"/>
-      <c r="S55" s="289"/>
-      <c r="T55" s="289"/>
-      <c r="U55" s="289"/>
-      <c r="V55" s="289"/>
-      <c r="W55" s="289"/>
-      <c r="X55" s="289"/>
-      <c r="Y55" s="289"/>
-      <c r="Z55" s="289"/>
-      <c r="AA55" s="289"/>
-      <c r="AB55" s="289"/>
-      <c r="AC55" s="289"/>
-      <c r="AD55" s="289"/>
-      <c r="AE55" s="289"/>
-      <c r="AF55" s="289"/>
-      <c r="AG55" s="289"/>
-      <c r="AH55" s="289"/>
+      <c r="F55" s="291"/>
+      <c r="G55" s="291"/>
+      <c r="H55" s="291"/>
+      <c r="I55" s="291"/>
+      <c r="J55" s="291"/>
+      <c r="K55" s="291"/>
+      <c r="L55" s="291"/>
+      <c r="M55" s="291"/>
+      <c r="N55" s="291"/>
+      <c r="O55" s="291"/>
+      <c r="P55" s="291"/>
+      <c r="Q55" s="291"/>
+      <c r="R55" s="291"/>
+      <c r="S55" s="291"/>
+      <c r="T55" s="291"/>
+      <c r="U55" s="291"/>
+      <c r="V55" s="291"/>
+      <c r="W55" s="291"/>
+      <c r="X55" s="291"/>
+      <c r="Y55" s="291"/>
+      <c r="Z55" s="291"/>
+      <c r="AA55" s="291"/>
+      <c r="AB55" s="291"/>
+      <c r="AC55" s="291"/>
+      <c r="AD55" s="291"/>
+      <c r="AE55" s="291"/>
+      <c r="AF55" s="291"/>
+      <c r="AG55" s="291"/>
+      <c r="AH55" s="291"/>
       <c r="AI55" s="118"/>
       <c r="AJ55" s="118"/>
       <c r="AK55" s="118"/>
-      <c r="AL55" s="306" t="s">
+      <c r="AL55" s="241" t="s">
         <v>106</v>
       </c>
-      <c r="AM55" s="307"/>
-      <c r="AN55" s="307"/>
-      <c r="AO55" s="308"/>
+      <c r="AM55" s="242"/>
+      <c r="AN55" s="242"/>
+      <c r="AO55" s="243"/>
       <c r="AQ55" s="67"/>
       <c r="AR55" s="67"/>
     </row>
@@ -9284,42 +9284,42 @@
       <c r="E56" s="56">
         <v>1</v>
       </c>
-      <c r="F56" s="237"/>
-      <c r="G56" s="238"/>
-      <c r="H56" s="238"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="259"/>
-      <c r="K56" s="259"/>
-      <c r="L56" s="259"/>
-      <c r="M56" s="259"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="240"/>
-      <c r="P56" s="240"/>
-      <c r="Q56" s="240"/>
-      <c r="R56" s="240"/>
-      <c r="S56" s="240"/>
-      <c r="T56" s="240"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="241"/>
-      <c r="W56" s="242"/>
-      <c r="X56" s="242"/>
-      <c r="Y56" s="242"/>
-      <c r="Z56" s="243"/>
-      <c r="AA56" s="237"/>
-      <c r="AB56" s="238"/>
-      <c r="AC56" s="239"/>
+      <c r="F56" s="276"/>
+      <c r="G56" s="277"/>
+      <c r="H56" s="277"/>
+      <c r="I56" s="278"/>
+      <c r="J56" s="264"/>
+      <c r="K56" s="264"/>
+      <c r="L56" s="264"/>
+      <c r="M56" s="264"/>
+      <c r="N56" s="263"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="263"/>
+      <c r="Q56" s="263"/>
+      <c r="R56" s="263"/>
+      <c r="S56" s="263"/>
+      <c r="T56" s="263"/>
+      <c r="U56" s="263"/>
+      <c r="V56" s="265"/>
+      <c r="W56" s="266"/>
+      <c r="X56" s="266"/>
+      <c r="Y56" s="266"/>
+      <c r="Z56" s="267"/>
+      <c r="AA56" s="276"/>
+      <c r="AB56" s="277"/>
+      <c r="AC56" s="278"/>
       <c r="AD56" s="58"/>
-      <c r="AE56" s="237"/>
-      <c r="AF56" s="238"/>
-      <c r="AG56" s="238"/>
-      <c r="AH56" s="239"/>
+      <c r="AE56" s="276"/>
+      <c r="AF56" s="277"/>
+      <c r="AG56" s="277"/>
+      <c r="AH56" s="278"/>
       <c r="AI56" s="118"/>
       <c r="AJ56" s="118"/>
       <c r="AK56" s="118"/>
-      <c r="AL56" s="276"/>
-      <c r="AM56" s="277"/>
-      <c r="AN56" s="277"/>
-      <c r="AO56" s="278"/>
+      <c r="AL56" s="235"/>
+      <c r="AM56" s="236"/>
+      <c r="AN56" s="236"/>
+      <c r="AO56" s="237"/>
       <c r="AQ56" s="67"/>
       <c r="AR56" s="67"/>
     </row>
@@ -9327,42 +9327,42 @@
       <c r="E57" s="56">
         <v>2</v>
       </c>
-      <c r="F57" s="237"/>
-      <c r="G57" s="238"/>
-      <c r="H57" s="238"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="259"/>
-      <c r="L57" s="259"/>
-      <c r="M57" s="259"/>
-      <c r="N57" s="240"/>
-      <c r="O57" s="240"/>
-      <c r="P57" s="240"/>
-      <c r="Q57" s="240"/>
-      <c r="R57" s="240"/>
-      <c r="S57" s="240"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="240"/>
-      <c r="V57" s="241"/>
-      <c r="W57" s="242"/>
-      <c r="X57" s="242"/>
-      <c r="Y57" s="242"/>
-      <c r="Z57" s="243"/>
-      <c r="AA57" s="237"/>
-      <c r="AB57" s="238"/>
-      <c r="AC57" s="239"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="277"/>
+      <c r="H57" s="277"/>
+      <c r="I57" s="278"/>
+      <c r="J57" s="264"/>
+      <c r="K57" s="264"/>
+      <c r="L57" s="264"/>
+      <c r="M57" s="264"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="263"/>
+      <c r="P57" s="263"/>
+      <c r="Q57" s="263"/>
+      <c r="R57" s="263"/>
+      <c r="S57" s="263"/>
+      <c r="T57" s="263"/>
+      <c r="U57" s="263"/>
+      <c r="V57" s="265"/>
+      <c r="W57" s="266"/>
+      <c r="X57" s="266"/>
+      <c r="Y57" s="266"/>
+      <c r="Z57" s="267"/>
+      <c r="AA57" s="276"/>
+      <c r="AB57" s="277"/>
+      <c r="AC57" s="278"/>
       <c r="AD57" s="129"/>
-      <c r="AE57" s="237"/>
-      <c r="AF57" s="238"/>
-      <c r="AG57" s="238"/>
-      <c r="AH57" s="239"/>
+      <c r="AE57" s="276"/>
+      <c r="AF57" s="277"/>
+      <c r="AG57" s="277"/>
+      <c r="AH57" s="278"/>
       <c r="AI57" s="118"/>
       <c r="AJ57" s="118"/>
       <c r="AK57" s="118"/>
-      <c r="AL57" s="286"/>
-      <c r="AM57" s="287"/>
-      <c r="AN57" s="287"/>
-      <c r="AO57" s="288"/>
+      <c r="AL57" s="238"/>
+      <c r="AM57" s="239"/>
+      <c r="AN57" s="239"/>
+      <c r="AO57" s="240"/>
       <c r="AQ57" s="67"/>
       <c r="AR57" s="67"/>
     </row>
@@ -9370,42 +9370,42 @@
       <c r="E58" s="56">
         <v>3</v>
       </c>
-      <c r="F58" s="237"/>
-      <c r="G58" s="238"/>
-      <c r="H58" s="238"/>
-      <c r="I58" s="239"/>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="259"/>
-      <c r="M58" s="259"/>
-      <c r="N58" s="240"/>
-      <c r="O58" s="240"/>
-      <c r="P58" s="240"/>
-      <c r="Q58" s="240"/>
-      <c r="R58" s="240"/>
-      <c r="S58" s="240"/>
-      <c r="T58" s="240"/>
-      <c r="U58" s="240"/>
-      <c r="V58" s="241"/>
-      <c r="W58" s="242"/>
-      <c r="X58" s="242"/>
-      <c r="Y58" s="242"/>
-      <c r="Z58" s="243"/>
-      <c r="AA58" s="237"/>
-      <c r="AB58" s="238"/>
-      <c r="AC58" s="239"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="277"/>
+      <c r="H58" s="277"/>
+      <c r="I58" s="278"/>
+      <c r="J58" s="264"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="264"/>
+      <c r="M58" s="264"/>
+      <c r="N58" s="263"/>
+      <c r="O58" s="263"/>
+      <c r="P58" s="263"/>
+      <c r="Q58" s="263"/>
+      <c r="R58" s="263"/>
+      <c r="S58" s="263"/>
+      <c r="T58" s="263"/>
+      <c r="U58" s="263"/>
+      <c r="V58" s="265"/>
+      <c r="W58" s="266"/>
+      <c r="X58" s="266"/>
+      <c r="Y58" s="266"/>
+      <c r="Z58" s="267"/>
+      <c r="AA58" s="276"/>
+      <c r="AB58" s="277"/>
+      <c r="AC58" s="278"/>
       <c r="AD58" s="129"/>
-      <c r="AE58" s="237"/>
-      <c r="AF58" s="238"/>
-      <c r="AG58" s="238"/>
-      <c r="AH58" s="239"/>
+      <c r="AE58" s="276"/>
+      <c r="AF58" s="277"/>
+      <c r="AG58" s="277"/>
+      <c r="AH58" s="278"/>
       <c r="AI58" s="92"/>
       <c r="AJ58" s="92"/>
       <c r="AK58" s="92"/>
-      <c r="AL58" s="286"/>
-      <c r="AM58" s="287"/>
-      <c r="AN58" s="287"/>
-      <c r="AO58" s="288"/>
+      <c r="AL58" s="238"/>
+      <c r="AM58" s="239"/>
+      <c r="AN58" s="239"/>
+      <c r="AO58" s="240"/>
       <c r="AQ58" s="67"/>
       <c r="AR58" s="67"/>
       <c r="AS58" s="67"/>
@@ -9416,281 +9416,281 @@
       <c r="E59" s="56">
         <v>4</v>
       </c>
-      <c r="F59" s="237"/>
-      <c r="G59" s="238"/>
-      <c r="H59" s="238"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="259"/>
-      <c r="M59" s="259"/>
-      <c r="N59" s="240"/>
-      <c r="O59" s="240"/>
-      <c r="P59" s="240"/>
-      <c r="Q59" s="240"/>
-      <c r="R59" s="240"/>
-      <c r="S59" s="240"/>
-      <c r="T59" s="240"/>
-      <c r="U59" s="240"/>
-      <c r="V59" s="241"/>
-      <c r="W59" s="242"/>
-      <c r="X59" s="242"/>
-      <c r="Y59" s="242"/>
-      <c r="Z59" s="243"/>
-      <c r="AA59" s="237"/>
-      <c r="AB59" s="238"/>
-      <c r="AC59" s="239"/>
+      <c r="F59" s="276"/>
+      <c r="G59" s="277"/>
+      <c r="H59" s="277"/>
+      <c r="I59" s="278"/>
+      <c r="J59" s="264"/>
+      <c r="K59" s="264"/>
+      <c r="L59" s="264"/>
+      <c r="M59" s="264"/>
+      <c r="N59" s="263"/>
+      <c r="O59" s="263"/>
+      <c r="P59" s="263"/>
+      <c r="Q59" s="263"/>
+      <c r="R59" s="263"/>
+      <c r="S59" s="263"/>
+      <c r="T59" s="263"/>
+      <c r="U59" s="263"/>
+      <c r="V59" s="265"/>
+      <c r="W59" s="266"/>
+      <c r="X59" s="266"/>
+      <c r="Y59" s="266"/>
+      <c r="Z59" s="267"/>
+      <c r="AA59" s="276"/>
+      <c r="AB59" s="277"/>
+      <c r="AC59" s="278"/>
       <c r="AD59" s="129"/>
-      <c r="AE59" s="237"/>
-      <c r="AF59" s="238"/>
-      <c r="AG59" s="238"/>
-      <c r="AH59" s="239"/>
+      <c r="AE59" s="276"/>
+      <c r="AF59" s="277"/>
+      <c r="AG59" s="277"/>
+      <c r="AH59" s="278"/>
       <c r="AI59" s="119"/>
       <c r="AJ59" s="119"/>
-      <c r="AL59" s="286"/>
-      <c r="AM59" s="287"/>
-      <c r="AN59" s="287"/>
-      <c r="AO59" s="288"/>
+      <c r="AL59" s="238"/>
+      <c r="AM59" s="239"/>
+      <c r="AN59" s="239"/>
+      <c r="AO59" s="240"/>
     </row>
     <row r="60" spans="3:47" ht="11.25" customHeight="1">
       <c r="E60" s="56">
         <v>5</v>
       </c>
-      <c r="F60" s="237"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="239"/>
-      <c r="J60" s="259"/>
-      <c r="K60" s="259"/>
-      <c r="L60" s="259"/>
-      <c r="M60" s="259"/>
-      <c r="N60" s="240"/>
-      <c r="O60" s="240"/>
-      <c r="P60" s="240"/>
-      <c r="Q60" s="240"/>
-      <c r="R60" s="240"/>
-      <c r="S60" s="240"/>
-      <c r="T60" s="240"/>
-      <c r="U60" s="240"/>
-      <c r="V60" s="241"/>
-      <c r="W60" s="242"/>
-      <c r="X60" s="242"/>
-      <c r="Y60" s="242"/>
-      <c r="Z60" s="243"/>
-      <c r="AA60" s="237"/>
-      <c r="AB60" s="238"/>
-      <c r="AC60" s="239"/>
+      <c r="F60" s="276"/>
+      <c r="G60" s="277"/>
+      <c r="H60" s="277"/>
+      <c r="I60" s="278"/>
+      <c r="J60" s="264"/>
+      <c r="K60" s="264"/>
+      <c r="L60" s="264"/>
+      <c r="M60" s="264"/>
+      <c r="N60" s="263"/>
+      <c r="O60" s="263"/>
+      <c r="P60" s="263"/>
+      <c r="Q60" s="263"/>
+      <c r="R60" s="263"/>
+      <c r="S60" s="263"/>
+      <c r="T60" s="263"/>
+      <c r="U60" s="263"/>
+      <c r="V60" s="265"/>
+      <c r="W60" s="266"/>
+      <c r="X60" s="266"/>
+      <c r="Y60" s="266"/>
+      <c r="Z60" s="267"/>
+      <c r="AA60" s="276"/>
+      <c r="AB60" s="277"/>
+      <c r="AC60" s="278"/>
       <c r="AD60" s="129"/>
-      <c r="AE60" s="237"/>
-      <c r="AF60" s="238"/>
-      <c r="AG60" s="238"/>
-      <c r="AH60" s="239"/>
+      <c r="AE60" s="276"/>
+      <c r="AF60" s="277"/>
+      <c r="AG60" s="277"/>
+      <c r="AH60" s="278"/>
       <c r="AI60" s="119"/>
       <c r="AJ60" s="119"/>
-      <c r="AL60" s="286"/>
-      <c r="AM60" s="287"/>
-      <c r="AN60" s="287"/>
-      <c r="AO60" s="288"/>
+      <c r="AL60" s="238"/>
+      <c r="AM60" s="239"/>
+      <c r="AN60" s="239"/>
+      <c r="AO60" s="240"/>
     </row>
     <row r="61" spans="3:47" ht="11.25" customHeight="1">
       <c r="E61" s="56">
         <v>6</v>
       </c>
-      <c r="F61" s="237"/>
-      <c r="G61" s="238"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="239"/>
-      <c r="J61" s="259"/>
-      <c r="K61" s="259"/>
-      <c r="L61" s="259"/>
-      <c r="M61" s="259"/>
-      <c r="N61" s="240"/>
-      <c r="O61" s="240"/>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="240"/>
-      <c r="R61" s="240"/>
-      <c r="S61" s="240"/>
-      <c r="T61" s="240"/>
-      <c r="U61" s="240"/>
-      <c r="V61" s="241"/>
-      <c r="W61" s="242"/>
-      <c r="X61" s="242"/>
-      <c r="Y61" s="242"/>
-      <c r="Z61" s="243"/>
-      <c r="AA61" s="237"/>
-      <c r="AB61" s="238"/>
-      <c r="AC61" s="239"/>
+      <c r="F61" s="276"/>
+      <c r="G61" s="277"/>
+      <c r="H61" s="277"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="264"/>
+      <c r="K61" s="264"/>
+      <c r="L61" s="264"/>
+      <c r="M61" s="264"/>
+      <c r="N61" s="263"/>
+      <c r="O61" s="263"/>
+      <c r="P61" s="263"/>
+      <c r="Q61" s="263"/>
+      <c r="R61" s="263"/>
+      <c r="S61" s="263"/>
+      <c r="T61" s="263"/>
+      <c r="U61" s="263"/>
+      <c r="V61" s="265"/>
+      <c r="W61" s="266"/>
+      <c r="X61" s="266"/>
+      <c r="Y61" s="266"/>
+      <c r="Z61" s="267"/>
+      <c r="AA61" s="276"/>
+      <c r="AB61" s="277"/>
+      <c r="AC61" s="278"/>
       <c r="AD61" s="129"/>
-      <c r="AE61" s="237"/>
-      <c r="AF61" s="238"/>
-      <c r="AG61" s="238"/>
-      <c r="AH61" s="239"/>
+      <c r="AE61" s="276"/>
+      <c r="AF61" s="277"/>
+      <c r="AG61" s="277"/>
+      <c r="AH61" s="278"/>
       <c r="AI61" s="119"/>
       <c r="AJ61" s="119"/>
-      <c r="AL61" s="286"/>
-      <c r="AM61" s="287"/>
-      <c r="AN61" s="287"/>
-      <c r="AO61" s="288"/>
+      <c r="AL61" s="238"/>
+      <c r="AM61" s="239"/>
+      <c r="AN61" s="239"/>
+      <c r="AO61" s="240"/>
     </row>
     <row r="62" spans="3:47" ht="11.25" customHeight="1">
       <c r="E62" s="56">
         <v>7</v>
       </c>
-      <c r="F62" s="237"/>
-      <c r="G62" s="238"/>
-      <c r="H62" s="238"/>
-      <c r="I62" s="239"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="259"/>
-      <c r="L62" s="259"/>
-      <c r="M62" s="259"/>
-      <c r="N62" s="240"/>
-      <c r="O62" s="240"/>
-      <c r="P62" s="240"/>
-      <c r="Q62" s="240"/>
-      <c r="R62" s="240"/>
-      <c r="S62" s="240"/>
-      <c r="T62" s="240"/>
-      <c r="U62" s="240"/>
-      <c r="V62" s="241"/>
-      <c r="W62" s="242"/>
-      <c r="X62" s="242"/>
-      <c r="Y62" s="242"/>
-      <c r="Z62" s="243"/>
-      <c r="AA62" s="237"/>
-      <c r="AB62" s="238"/>
-      <c r="AC62" s="239"/>
+      <c r="F62" s="276"/>
+      <c r="G62" s="277"/>
+      <c r="H62" s="277"/>
+      <c r="I62" s="278"/>
+      <c r="J62" s="264"/>
+      <c r="K62" s="264"/>
+      <c r="L62" s="264"/>
+      <c r="M62" s="264"/>
+      <c r="N62" s="263"/>
+      <c r="O62" s="263"/>
+      <c r="P62" s="263"/>
+      <c r="Q62" s="263"/>
+      <c r="R62" s="263"/>
+      <c r="S62" s="263"/>
+      <c r="T62" s="263"/>
+      <c r="U62" s="263"/>
+      <c r="V62" s="265"/>
+      <c r="W62" s="266"/>
+      <c r="X62" s="266"/>
+      <c r="Y62" s="266"/>
+      <c r="Z62" s="267"/>
+      <c r="AA62" s="276"/>
+      <c r="AB62" s="277"/>
+      <c r="AC62" s="278"/>
       <c r="AD62" s="129"/>
-      <c r="AE62" s="237"/>
-      <c r="AF62" s="238"/>
-      <c r="AG62" s="238"/>
-      <c r="AH62" s="239"/>
+      <c r="AE62" s="276"/>
+      <c r="AF62" s="277"/>
+      <c r="AG62" s="277"/>
+      <c r="AH62" s="278"/>
       <c r="AI62" s="119"/>
       <c r="AJ62" s="119"/>
-      <c r="AL62" s="286"/>
-      <c r="AM62" s="287"/>
-      <c r="AN62" s="287"/>
-      <c r="AO62" s="288"/>
+      <c r="AL62" s="238"/>
+      <c r="AM62" s="239"/>
+      <c r="AN62" s="239"/>
+      <c r="AO62" s="240"/>
     </row>
     <row r="63" spans="3:47" ht="11.25" customHeight="1">
       <c r="E63" s="56">
         <v>8</v>
       </c>
-      <c r="F63" s="237"/>
-      <c r="G63" s="238"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="239"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="259"/>
-      <c r="L63" s="259"/>
-      <c r="M63" s="259"/>
-      <c r="N63" s="240"/>
-      <c r="O63" s="240"/>
-      <c r="P63" s="240"/>
-      <c r="Q63" s="240"/>
-      <c r="R63" s="240"/>
-      <c r="S63" s="240"/>
-      <c r="T63" s="240"/>
-      <c r="U63" s="240"/>
-      <c r="V63" s="241"/>
-      <c r="W63" s="242"/>
-      <c r="X63" s="242"/>
-      <c r="Y63" s="242"/>
-      <c r="Z63" s="243"/>
-      <c r="AA63" s="237"/>
-      <c r="AB63" s="238"/>
-      <c r="AC63" s="239"/>
+      <c r="F63" s="276"/>
+      <c r="G63" s="277"/>
+      <c r="H63" s="277"/>
+      <c r="I63" s="278"/>
+      <c r="J63" s="264"/>
+      <c r="K63" s="264"/>
+      <c r="L63" s="264"/>
+      <c r="M63" s="264"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="263"/>
+      <c r="P63" s="263"/>
+      <c r="Q63" s="263"/>
+      <c r="R63" s="263"/>
+      <c r="S63" s="263"/>
+      <c r="T63" s="263"/>
+      <c r="U63" s="263"/>
+      <c r="V63" s="265"/>
+      <c r="W63" s="266"/>
+      <c r="X63" s="266"/>
+      <c r="Y63" s="266"/>
+      <c r="Z63" s="267"/>
+      <c r="AA63" s="276"/>
+      <c r="AB63" s="277"/>
+      <c r="AC63" s="278"/>
       <c r="AD63" s="129"/>
-      <c r="AE63" s="237"/>
-      <c r="AF63" s="238"/>
-      <c r="AG63" s="238"/>
-      <c r="AH63" s="239"/>
+      <c r="AE63" s="276"/>
+      <c r="AF63" s="277"/>
+      <c r="AG63" s="277"/>
+      <c r="AH63" s="278"/>
       <c r="AI63" s="119"/>
       <c r="AJ63" s="119"/>
-      <c r="AL63" s="286"/>
-      <c r="AM63" s="287"/>
-      <c r="AN63" s="287"/>
-      <c r="AO63" s="288"/>
+      <c r="AL63" s="238"/>
+      <c r="AM63" s="239"/>
+      <c r="AN63" s="239"/>
+      <c r="AO63" s="240"/>
     </row>
     <row r="64" spans="3:47" ht="11.25" customHeight="1">
       <c r="E64" s="56">
         <v>9</v>
       </c>
-      <c r="F64" s="237"/>
-      <c r="G64" s="238"/>
-      <c r="H64" s="238"/>
-      <c r="I64" s="239"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="259"/>
-      <c r="L64" s="259"/>
-      <c r="M64" s="259"/>
-      <c r="N64" s="240"/>
-      <c r="O64" s="240"/>
-      <c r="P64" s="240"/>
-      <c r="Q64" s="240"/>
-      <c r="R64" s="240"/>
-      <c r="S64" s="240"/>
-      <c r="T64" s="240"/>
-      <c r="U64" s="240"/>
-      <c r="V64" s="241"/>
-      <c r="W64" s="242"/>
-      <c r="X64" s="242"/>
-      <c r="Y64" s="242"/>
-      <c r="Z64" s="243"/>
-      <c r="AA64" s="237"/>
-      <c r="AB64" s="238"/>
-      <c r="AC64" s="239"/>
+      <c r="F64" s="276"/>
+      <c r="G64" s="277"/>
+      <c r="H64" s="277"/>
+      <c r="I64" s="278"/>
+      <c r="J64" s="264"/>
+      <c r="K64" s="264"/>
+      <c r="L64" s="264"/>
+      <c r="M64" s="264"/>
+      <c r="N64" s="263"/>
+      <c r="O64" s="263"/>
+      <c r="P64" s="263"/>
+      <c r="Q64" s="263"/>
+      <c r="R64" s="263"/>
+      <c r="S64" s="263"/>
+      <c r="T64" s="263"/>
+      <c r="U64" s="263"/>
+      <c r="V64" s="265"/>
+      <c r="W64" s="266"/>
+      <c r="X64" s="266"/>
+      <c r="Y64" s="266"/>
+      <c r="Z64" s="267"/>
+      <c r="AA64" s="276"/>
+      <c r="AB64" s="277"/>
+      <c r="AC64" s="278"/>
       <c r="AD64" s="129"/>
-      <c r="AE64" s="237"/>
-      <c r="AF64" s="238"/>
-      <c r="AG64" s="238"/>
-      <c r="AH64" s="239"/>
+      <c r="AE64" s="276"/>
+      <c r="AF64" s="277"/>
+      <c r="AG64" s="277"/>
+      <c r="AH64" s="278"/>
       <c r="AI64" s="119"/>
       <c r="AJ64" s="119"/>
-      <c r="AL64" s="286"/>
-      <c r="AM64" s="287"/>
-      <c r="AN64" s="287"/>
-      <c r="AO64" s="288"/>
+      <c r="AL64" s="238"/>
+      <c r="AM64" s="239"/>
+      <c r="AN64" s="239"/>
+      <c r="AO64" s="240"/>
     </row>
     <row r="65" spans="3:53" ht="11.25" customHeight="1">
       <c r="E65" s="56">
         <v>10</v>
       </c>
-      <c r="F65" s="237"/>
-      <c r="G65" s="238"/>
-      <c r="H65" s="238"/>
-      <c r="I65" s="239"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="259"/>
-      <c r="L65" s="259"/>
-      <c r="M65" s="259"/>
-      <c r="N65" s="240"/>
-      <c r="O65" s="240"/>
-      <c r="P65" s="240"/>
-      <c r="Q65" s="240"/>
-      <c r="R65" s="240"/>
-      <c r="S65" s="240"/>
-      <c r="T65" s="240"/>
-      <c r="U65" s="240"/>
-      <c r="V65" s="241"/>
-      <c r="W65" s="242"/>
-      <c r="X65" s="242"/>
-      <c r="Y65" s="242"/>
-      <c r="Z65" s="243"/>
-      <c r="AA65" s="237"/>
-      <c r="AB65" s="238"/>
-      <c r="AC65" s="239"/>
+      <c r="F65" s="276"/>
+      <c r="G65" s="277"/>
+      <c r="H65" s="277"/>
+      <c r="I65" s="278"/>
+      <c r="J65" s="264"/>
+      <c r="K65" s="264"/>
+      <c r="L65" s="264"/>
+      <c r="M65" s="264"/>
+      <c r="N65" s="263"/>
+      <c r="O65" s="263"/>
+      <c r="P65" s="263"/>
+      <c r="Q65" s="263"/>
+      <c r="R65" s="263"/>
+      <c r="S65" s="263"/>
+      <c r="T65" s="263"/>
+      <c r="U65" s="263"/>
+      <c r="V65" s="265"/>
+      <c r="W65" s="266"/>
+      <c r="X65" s="266"/>
+      <c r="Y65" s="266"/>
+      <c r="Z65" s="267"/>
+      <c r="AA65" s="276"/>
+      <c r="AB65" s="277"/>
+      <c r="AC65" s="278"/>
       <c r="AD65" s="129"/>
-      <c r="AE65" s="237"/>
-      <c r="AF65" s="238"/>
-      <c r="AG65" s="238"/>
-      <c r="AH65" s="239"/>
+      <c r="AE65" s="276"/>
+      <c r="AF65" s="277"/>
+      <c r="AG65" s="277"/>
+      <c r="AH65" s="278"/>
       <c r="AI65" s="119"/>
       <c r="AJ65" s="119"/>
-      <c r="AL65" s="286"/>
-      <c r="AM65" s="287"/>
-      <c r="AN65" s="287"/>
-      <c r="AO65" s="288"/>
+      <c r="AL65" s="238"/>
+      <c r="AM65" s="239"/>
+      <c r="AN65" s="239"/>
+      <c r="AO65" s="240"/>
     </row>
     <row r="66" spans="3:53" ht="11.25" customHeight="1">
       <c r="E66" s="84"/>
@@ -9924,49 +9924,49 @@
       <c r="AW72" s="31"/>
     </row>
     <row r="73" spans="3:53">
-      <c r="D73" s="328" t="s">
+      <c r="D73" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="250" t="s">
+      <c r="E73" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="251"/>
-      <c r="G73" s="251"/>
-      <c r="H73" s="251"/>
-      <c r="I73" s="251"/>
-      <c r="J73" s="252"/>
-      <c r="K73" s="250" t="s">
+      <c r="F73" s="227"/>
+      <c r="G73" s="227"/>
+      <c r="H73" s="227"/>
+      <c r="I73" s="227"/>
+      <c r="J73" s="228"/>
+      <c r="K73" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="L73" s="251"/>
-      <c r="M73" s="251"/>
-      <c r="N73" s="252"/>
-      <c r="O73" s="266" t="s">
+      <c r="L73" s="227"/>
+      <c r="M73" s="227"/>
+      <c r="N73" s="228"/>
+      <c r="O73" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="P73" s="256" t="s">
+      <c r="P73" s="309" t="s">
         <v>71</v>
       </c>
-      <c r="Q73" s="257"/>
-      <c r="R73" s="257"/>
-      <c r="S73" s="257"/>
-      <c r="T73" s="257"/>
-      <c r="U73" s="258"/>
-      <c r="V73" s="250" t="s">
+      <c r="Q73" s="310"/>
+      <c r="R73" s="310"/>
+      <c r="S73" s="310"/>
+      <c r="T73" s="310"/>
+      <c r="U73" s="311"/>
+      <c r="V73" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="W73" s="251"/>
-      <c r="X73" s="251"/>
-      <c r="Y73" s="251"/>
-      <c r="Z73" s="251"/>
-      <c r="AA73" s="251"/>
-      <c r="AB73" s="251"/>
-      <c r="AC73" s="251"/>
-      <c r="AD73" s="251"/>
-      <c r="AE73" s="251"/>
-      <c r="AF73" s="251"/>
-      <c r="AG73" s="251"/>
-      <c r="AH73" s="252"/>
+      <c r="W73" s="227"/>
+      <c r="X73" s="227"/>
+      <c r="Y73" s="227"/>
+      <c r="Z73" s="227"/>
+      <c r="AA73" s="227"/>
+      <c r="AB73" s="227"/>
+      <c r="AC73" s="227"/>
+      <c r="AD73" s="227"/>
+      <c r="AE73" s="227"/>
+      <c r="AF73" s="227"/>
+      <c r="AG73" s="227"/>
+      <c r="AH73" s="228"/>
       <c r="AK73" s="31"/>
       <c r="AL73" s="31"/>
       <c r="AM73" s="31"/>
@@ -9982,18 +9982,18 @@
       <c r="AW73" s="31"/>
     </row>
     <row r="74" spans="3:53">
-      <c r="D74" s="329"/>
-      <c r="E74" s="253"/>
-      <c r="F74" s="254"/>
-      <c r="G74" s="254"/>
-      <c r="H74" s="254"/>
-      <c r="I74" s="254"/>
-      <c r="J74" s="255"/>
-      <c r="K74" s="253"/>
-      <c r="L74" s="254"/>
-      <c r="M74" s="254"/>
-      <c r="N74" s="255"/>
-      <c r="O74" s="267"/>
+      <c r="D74" s="225"/>
+      <c r="E74" s="229"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230"/>
+      <c r="I74" s="230"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="229"/>
+      <c r="L74" s="230"/>
+      <c r="M74" s="230"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="273"/>
       <c r="P74" s="94" t="s">
         <v>65</v>
       </c>
@@ -10006,23 +10006,23 @@
       <c r="S74" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="268" t="s">
+      <c r="T74" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="U74" s="269"/>
-      <c r="V74" s="253"/>
-      <c r="W74" s="254"/>
-      <c r="X74" s="254"/>
-      <c r="Y74" s="254"/>
-      <c r="Z74" s="254"/>
-      <c r="AA74" s="254"/>
-      <c r="AB74" s="254"/>
-      <c r="AC74" s="254"/>
-      <c r="AD74" s="254"/>
-      <c r="AE74" s="254"/>
-      <c r="AF74" s="254"/>
-      <c r="AG74" s="254"/>
-      <c r="AH74" s="255"/>
+      <c r="U74" s="305"/>
+      <c r="V74" s="229"/>
+      <c r="W74" s="230"/>
+      <c r="X74" s="230"/>
+      <c r="Y74" s="230"/>
+      <c r="Z74" s="230"/>
+      <c r="AA74" s="230"/>
+      <c r="AB74" s="230"/>
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="230"/>
+      <c r="AE74" s="230"/>
+      <c r="AF74" s="230"/>
+      <c r="AG74" s="230"/>
+      <c r="AH74" s="231"/>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
       <c r="AM74" s="31"/>
@@ -10041,36 +10041,36 @@
       <c r="D75" s="95">
         <v>1</v>
       </c>
-      <c r="E75" s="155"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="156"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="155"/>
-      <c r="L75" s="156"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="157"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="149"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="149"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="149"/>
+      <c r="M75" s="149"/>
+      <c r="N75" s="150"/>
       <c r="O75" s="96"/>
       <c r="P75" s="130"/>
       <c r="Q75" s="130"/>
       <c r="R75" s="130"/>
       <c r="S75" s="130"/>
-      <c r="T75" s="260"/>
-      <c r="U75" s="261"/>
-      <c r="V75" s="155"/>
-      <c r="W75" s="156"/>
-      <c r="X75" s="156"/>
-      <c r="Y75" s="156"/>
-      <c r="Z75" s="156"/>
-      <c r="AA75" s="156"/>
-      <c r="AB75" s="156"/>
-      <c r="AC75" s="156"/>
-      <c r="AD75" s="156"/>
-      <c r="AE75" s="156"/>
-      <c r="AF75" s="156"/>
-      <c r="AG75" s="156"/>
-      <c r="AH75" s="157"/>
+      <c r="T75" s="268"/>
+      <c r="U75" s="269"/>
+      <c r="V75" s="148"/>
+      <c r="W75" s="149"/>
+      <c r="X75" s="149"/>
+      <c r="Y75" s="149"/>
+      <c r="Z75" s="149"/>
+      <c r="AA75" s="149"/>
+      <c r="AB75" s="149"/>
+      <c r="AC75" s="149"/>
+      <c r="AD75" s="149"/>
+      <c r="AE75" s="149"/>
+      <c r="AF75" s="149"/>
+      <c r="AG75" s="149"/>
+      <c r="AH75" s="150"/>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
       <c r="AM75" s="31"/>
@@ -10089,36 +10089,36 @@
       <c r="D76" s="95">
         <v>2</v>
       </c>
-      <c r="E76" s="155"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="155"/>
-      <c r="L76" s="156"/>
-      <c r="M76" s="156"/>
-      <c r="N76" s="157"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="149"/>
+      <c r="M76" s="149"/>
+      <c r="N76" s="150"/>
       <c r="O76" s="97"/>
       <c r="P76" s="130"/>
       <c r="Q76" s="130"/>
       <c r="R76" s="130"/>
       <c r="S76" s="130"/>
-      <c r="T76" s="260"/>
-      <c r="U76" s="261"/>
-      <c r="V76" s="155"/>
-      <c r="W76" s="156"/>
-      <c r="X76" s="156"/>
-      <c r="Y76" s="156"/>
-      <c r="Z76" s="156"/>
-      <c r="AA76" s="156"/>
-      <c r="AB76" s="156"/>
-      <c r="AC76" s="156"/>
-      <c r="AD76" s="156"/>
-      <c r="AE76" s="156"/>
-      <c r="AF76" s="156"/>
-      <c r="AG76" s="156"/>
-      <c r="AH76" s="157"/>
+      <c r="T76" s="268"/>
+      <c r="U76" s="269"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="149"/>
+      <c r="X76" s="149"/>
+      <c r="Y76" s="149"/>
+      <c r="Z76" s="149"/>
+      <c r="AA76" s="149"/>
+      <c r="AB76" s="149"/>
+      <c r="AC76" s="149"/>
+      <c r="AD76" s="149"/>
+      <c r="AE76" s="149"/>
+      <c r="AF76" s="149"/>
+      <c r="AG76" s="149"/>
+      <c r="AH76" s="150"/>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
       <c r="AM76" s="31"/>
@@ -10137,36 +10137,36 @@
       <c r="D77" s="95">
         <v>3</v>
       </c>
-      <c r="E77" s="155"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="155"/>
-      <c r="L77" s="156"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="157"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="149"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="149"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="149"/>
+      <c r="M77" s="149"/>
+      <c r="N77" s="150"/>
       <c r="O77" s="97"/>
       <c r="P77" s="130"/>
       <c r="Q77" s="130"/>
       <c r="R77" s="130"/>
       <c r="S77" s="130"/>
-      <c r="T77" s="260"/>
-      <c r="U77" s="261"/>
-      <c r="V77" s="155"/>
-      <c r="W77" s="156"/>
-      <c r="X77" s="156"/>
-      <c r="Y77" s="156"/>
-      <c r="Z77" s="156"/>
-      <c r="AA77" s="156"/>
-      <c r="AB77" s="156"/>
-      <c r="AC77" s="156"/>
-      <c r="AD77" s="156"/>
-      <c r="AE77" s="156"/>
-      <c r="AF77" s="156"/>
-      <c r="AG77" s="156"/>
-      <c r="AH77" s="157"/>
+      <c r="T77" s="268"/>
+      <c r="U77" s="269"/>
+      <c r="V77" s="148"/>
+      <c r="W77" s="149"/>
+      <c r="X77" s="149"/>
+      <c r="Y77" s="149"/>
+      <c r="Z77" s="149"/>
+      <c r="AA77" s="149"/>
+      <c r="AB77" s="149"/>
+      <c r="AC77" s="149"/>
+      <c r="AD77" s="149"/>
+      <c r="AE77" s="149"/>
+      <c r="AF77" s="149"/>
+      <c r="AG77" s="149"/>
+      <c r="AH77" s="150"/>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
       <c r="AM77" s="31"/>
@@ -10304,151 +10304,151 @@
       <c r="D82" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="262" t="s">
+      <c r="E82" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="263"/>
-      <c r="G82" s="263"/>
-      <c r="H82" s="263"/>
-      <c r="I82" s="263"/>
-      <c r="J82" s="265"/>
-      <c r="K82" s="262" t="s">
+      <c r="F82" s="233"/>
+      <c r="G82" s="233"/>
+      <c r="H82" s="233"/>
+      <c r="I82" s="233"/>
+      <c r="J82" s="271"/>
+      <c r="K82" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="L82" s="263"/>
-      <c r="M82" s="263"/>
-      <c r="N82" s="263"/>
-      <c r="O82" s="263"/>
-      <c r="P82" s="263"/>
-      <c r="Q82" s="264"/>
-      <c r="R82" s="330" t="s">
+      <c r="L82" s="233"/>
+      <c r="M82" s="233"/>
+      <c r="N82" s="233"/>
+      <c r="O82" s="233"/>
+      <c r="P82" s="233"/>
+      <c r="Q82" s="234"/>
+      <c r="R82" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="S82" s="263"/>
-      <c r="T82" s="263"/>
-      <c r="U82" s="263"/>
-      <c r="V82" s="263"/>
-      <c r="W82" s="263"/>
-      <c r="X82" s="263"/>
-      <c r="Y82" s="264"/>
-      <c r="Z82" s="270" t="s">
+      <c r="S82" s="233"/>
+      <c r="T82" s="233"/>
+      <c r="U82" s="233"/>
+      <c r="V82" s="233"/>
+      <c r="W82" s="233"/>
+      <c r="X82" s="233"/>
+      <c r="Y82" s="234"/>
+      <c r="Z82" s="306" t="s">
         <v>28</v>
       </c>
-      <c r="AA82" s="271"/>
-      <c r="AB82" s="271"/>
-      <c r="AC82" s="271"/>
-      <c r="AD82" s="272"/>
-      <c r="AE82" s="247" t="s">
+      <c r="AA82" s="307"/>
+      <c r="AB82" s="307"/>
+      <c r="AC82" s="307"/>
+      <c r="AD82" s="308"/>
+      <c r="AE82" s="315" t="s">
         <v>108</v>
       </c>
-      <c r="AF82" s="248"/>
-      <c r="AG82" s="248"/>
-      <c r="AH82" s="249"/>
+      <c r="AF82" s="316"/>
+      <c r="AG82" s="316"/>
+      <c r="AH82" s="317"/>
     </row>
     <row r="83" spans="1:54">
       <c r="D83" s="57">
         <v>1</v>
       </c>
-      <c r="E83" s="276"/>
-      <c r="F83" s="277"/>
-      <c r="G83" s="277"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="278"/>
-      <c r="K83" s="155"/>
-      <c r="L83" s="156"/>
-      <c r="M83" s="156"/>
-      <c r="N83" s="156"/>
-      <c r="O83" s="156"/>
-      <c r="P83" s="156"/>
-      <c r="Q83" s="157"/>
-      <c r="R83" s="155"/>
-      <c r="S83" s="156"/>
-      <c r="T83" s="156"/>
-      <c r="U83" s="156"/>
-      <c r="V83" s="156"/>
-      <c r="W83" s="156"/>
-      <c r="X83" s="156"/>
-      <c r="Y83" s="157"/>
-      <c r="Z83" s="155"/>
-      <c r="AA83" s="156"/>
-      <c r="AB83" s="156"/>
-      <c r="AC83" s="156"/>
-      <c r="AD83" s="157"/>
-      <c r="AE83" s="244"/>
-      <c r="AF83" s="245"/>
-      <c r="AG83" s="245"/>
-      <c r="AH83" s="246"/>
+      <c r="E83" s="235"/>
+      <c r="F83" s="236"/>
+      <c r="G83" s="236"/>
+      <c r="H83" s="236"/>
+      <c r="I83" s="236"/>
+      <c r="J83" s="237"/>
+      <c r="K83" s="148"/>
+      <c r="L83" s="149"/>
+      <c r="M83" s="149"/>
+      <c r="N83" s="149"/>
+      <c r="O83" s="149"/>
+      <c r="P83" s="149"/>
+      <c r="Q83" s="150"/>
+      <c r="R83" s="148"/>
+      <c r="S83" s="149"/>
+      <c r="T83" s="149"/>
+      <c r="U83" s="149"/>
+      <c r="V83" s="149"/>
+      <c r="W83" s="149"/>
+      <c r="X83" s="149"/>
+      <c r="Y83" s="150"/>
+      <c r="Z83" s="148"/>
+      <c r="AA83" s="149"/>
+      <c r="AB83" s="149"/>
+      <c r="AC83" s="149"/>
+      <c r="AD83" s="150"/>
+      <c r="AE83" s="312"/>
+      <c r="AF83" s="313"/>
+      <c r="AG83" s="313"/>
+      <c r="AH83" s="314"/>
     </row>
     <row r="84" spans="1:54">
       <c r="D84" s="57">
         <v>2</v>
       </c>
-      <c r="E84" s="276"/>
-      <c r="F84" s="277"/>
-      <c r="G84" s="277"/>
-      <c r="H84" s="277"/>
-      <c r="I84" s="277"/>
-      <c r="J84" s="278"/>
-      <c r="K84" s="155"/>
-      <c r="L84" s="156"/>
-      <c r="M84" s="156"/>
-      <c r="N84" s="156"/>
-      <c r="O84" s="156"/>
-      <c r="P84" s="156"/>
-      <c r="Q84" s="157"/>
-      <c r="R84" s="155"/>
-      <c r="S84" s="156"/>
-      <c r="T84" s="156"/>
-      <c r="U84" s="156"/>
-      <c r="V84" s="156"/>
-      <c r="W84" s="156"/>
-      <c r="X84" s="156"/>
-      <c r="Y84" s="157"/>
-      <c r="Z84" s="155"/>
-      <c r="AA84" s="156"/>
-      <c r="AB84" s="156"/>
-      <c r="AC84" s="156"/>
-      <c r="AD84" s="157"/>
-      <c r="AE84" s="244"/>
-      <c r="AF84" s="245"/>
-      <c r="AG84" s="245"/>
-      <c r="AH84" s="246"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="236"/>
+      <c r="G84" s="236"/>
+      <c r="H84" s="236"/>
+      <c r="I84" s="236"/>
+      <c r="J84" s="237"/>
+      <c r="K84" s="148"/>
+      <c r="L84" s="149"/>
+      <c r="M84" s="149"/>
+      <c r="N84" s="149"/>
+      <c r="O84" s="149"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="150"/>
+      <c r="R84" s="148"/>
+      <c r="S84" s="149"/>
+      <c r="T84" s="149"/>
+      <c r="U84" s="149"/>
+      <c r="V84" s="149"/>
+      <c r="W84" s="149"/>
+      <c r="X84" s="149"/>
+      <c r="Y84" s="150"/>
+      <c r="Z84" s="148"/>
+      <c r="AA84" s="149"/>
+      <c r="AB84" s="149"/>
+      <c r="AC84" s="149"/>
+      <c r="AD84" s="150"/>
+      <c r="AE84" s="312"/>
+      <c r="AF84" s="313"/>
+      <c r="AG84" s="313"/>
+      <c r="AH84" s="314"/>
     </row>
     <row r="85" spans="1:54">
       <c r="D85" s="57">
         <v>3</v>
       </c>
-      <c r="E85" s="276"/>
-      <c r="F85" s="277"/>
-      <c r="G85" s="277"/>
-      <c r="H85" s="277"/>
-      <c r="I85" s="277"/>
-      <c r="J85" s="278"/>
-      <c r="K85" s="155"/>
-      <c r="L85" s="156"/>
-      <c r="M85" s="156"/>
-      <c r="N85" s="156"/>
-      <c r="O85" s="156"/>
-      <c r="P85" s="156"/>
-      <c r="Q85" s="157"/>
-      <c r="R85" s="155"/>
-      <c r="S85" s="156"/>
-      <c r="T85" s="156"/>
-      <c r="U85" s="156"/>
-      <c r="V85" s="156"/>
-      <c r="W85" s="156"/>
-      <c r="X85" s="156"/>
-      <c r="Y85" s="157"/>
-      <c r="Z85" s="155"/>
-      <c r="AA85" s="156"/>
-      <c r="AB85" s="156"/>
-      <c r="AC85" s="156"/>
-      <c r="AD85" s="157"/>
-      <c r="AE85" s="244"/>
-      <c r="AF85" s="245"/>
-      <c r="AG85" s="245"/>
-      <c r="AH85" s="246"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="236"/>
+      <c r="G85" s="236"/>
+      <c r="H85" s="236"/>
+      <c r="I85" s="236"/>
+      <c r="J85" s="237"/>
+      <c r="K85" s="148"/>
+      <c r="L85" s="149"/>
+      <c r="M85" s="149"/>
+      <c r="N85" s="149"/>
+      <c r="O85" s="149"/>
+      <c r="P85" s="149"/>
+      <c r="Q85" s="150"/>
+      <c r="R85" s="148"/>
+      <c r="S85" s="149"/>
+      <c r="T85" s="149"/>
+      <c r="U85" s="149"/>
+      <c r="V85" s="149"/>
+      <c r="W85" s="149"/>
+      <c r="X85" s="149"/>
+      <c r="Y85" s="150"/>
+      <c r="Z85" s="148"/>
+      <c r="AA85" s="149"/>
+      <c r="AB85" s="149"/>
+      <c r="AC85" s="149"/>
+      <c r="AD85" s="150"/>
+      <c r="AE85" s="312"/>
+      <c r="AF85" s="313"/>
+      <c r="AG85" s="313"/>
+      <c r="AH85" s="314"/>
     </row>
     <row r="86" spans="1:54">
       <c r="AN86" s="31"/>
@@ -12108,134 +12108,134 @@
     <row r="129" spans="1:41">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
-      <c r="C129" s="283" t="s">
+      <c r="C129" s="292" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="229" t="s">
+      <c r="D129" s="323" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="226"/>
-      <c r="F129" s="226"/>
-      <c r="G129" s="226"/>
-      <c r="H129" s="226"/>
-      <c r="I129" s="226"/>
-      <c r="J129" s="226"/>
-      <c r="K129" s="226"/>
-      <c r="L129" s="226"/>
-      <c r="M129" s="226"/>
-      <c r="N129" s="226"/>
-      <c r="O129" s="226"/>
-      <c r="P129" s="226"/>
-      <c r="Q129" s="226"/>
-      <c r="R129" s="226"/>
-      <c r="S129" s="226"/>
-      <c r="T129" s="226"/>
-      <c r="U129" s="226"/>
-      <c r="V129" s="226"/>
-      <c r="W129" s="226"/>
-      <c r="X129" s="226"/>
-      <c r="Y129" s="226"/>
-      <c r="Z129" s="226"/>
-      <c r="AA129" s="228"/>
+      <c r="E129" s="320"/>
+      <c r="F129" s="320"/>
+      <c r="G129" s="320"/>
+      <c r="H129" s="320"/>
+      <c r="I129" s="320"/>
+      <c r="J129" s="320"/>
+      <c r="K129" s="320"/>
+      <c r="L129" s="320"/>
+      <c r="M129" s="320"/>
+      <c r="N129" s="320"/>
+      <c r="O129" s="320"/>
+      <c r="P129" s="320"/>
+      <c r="Q129" s="320"/>
+      <c r="R129" s="320"/>
+      <c r="S129" s="320"/>
+      <c r="T129" s="320"/>
+      <c r="U129" s="320"/>
+      <c r="V129" s="320"/>
+      <c r="W129" s="320"/>
+      <c r="X129" s="320"/>
+      <c r="Y129" s="320"/>
+      <c r="Z129" s="320"/>
+      <c r="AA129" s="322"/>
       <c r="AB129" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="AC129" s="232"/>
-      <c r="AD129" s="232"/>
-      <c r="AE129" s="232"/>
-      <c r="AF129" s="232"/>
-      <c r="AG129" s="232"/>
-      <c r="AH129" s="232"/>
-      <c r="AI129" s="233"/>
+      <c r="AC129" s="326"/>
+      <c r="AD129" s="326"/>
+      <c r="AE129" s="326"/>
+      <c r="AF129" s="326"/>
+      <c r="AG129" s="326"/>
+      <c r="AH129" s="326"/>
+      <c r="AI129" s="327"/>
       <c r="AJ129" s="101"/>
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="33"/>
       <c r="B130" s="62"/>
-      <c r="C130" s="284"/>
-      <c r="D130" s="229" t="s">
+      <c r="C130" s="294"/>
+      <c r="D130" s="323" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="230"/>
-      <c r="F130" s="230"/>
-      <c r="G130" s="230"/>
-      <c r="H130" s="230"/>
-      <c r="I130" s="230"/>
-      <c r="J130" s="230"/>
-      <c r="K130" s="231"/>
-      <c r="L130" s="229" t="s">
+      <c r="E130" s="324"/>
+      <c r="F130" s="324"/>
+      <c r="G130" s="324"/>
+      <c r="H130" s="324"/>
+      <c r="I130" s="324"/>
+      <c r="J130" s="324"/>
+      <c r="K130" s="325"/>
+      <c r="L130" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="230"/>
-      <c r="N130" s="230"/>
-      <c r="O130" s="231"/>
-      <c r="P130" s="229" t="s">
+      <c r="M130" s="324"/>
+      <c r="N130" s="324"/>
+      <c r="O130" s="325"/>
+      <c r="P130" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="Q130" s="230"/>
-      <c r="R130" s="230"/>
-      <c r="S130" s="230"/>
-      <c r="T130" s="231"/>
-      <c r="U130" s="229" t="s">
+      <c r="Q130" s="324"/>
+      <c r="R130" s="324"/>
+      <c r="S130" s="324"/>
+      <c r="T130" s="325"/>
+      <c r="U130" s="323" t="s">
         <v>53</v>
       </c>
-      <c r="V130" s="230"/>
-      <c r="W130" s="230"/>
-      <c r="X130" s="230"/>
-      <c r="Y130" s="230"/>
-      <c r="Z130" s="230"/>
-      <c r="AA130" s="231"/>
-      <c r="AB130" s="234"/>
-      <c r="AC130" s="235"/>
-      <c r="AD130" s="235"/>
-      <c r="AE130" s="235"/>
-      <c r="AF130" s="235"/>
-      <c r="AG130" s="235"/>
-      <c r="AH130" s="235"/>
-      <c r="AI130" s="236"/>
+      <c r="V130" s="324"/>
+      <c r="W130" s="324"/>
+      <c r="X130" s="324"/>
+      <c r="Y130" s="324"/>
+      <c r="Z130" s="324"/>
+      <c r="AA130" s="325"/>
+      <c r="AB130" s="328"/>
+      <c r="AC130" s="329"/>
+      <c r="AD130" s="329"/>
+      <c r="AE130" s="329"/>
+      <c r="AF130" s="329"/>
+      <c r="AG130" s="329"/>
+      <c r="AH130" s="329"/>
+      <c r="AI130" s="330"/>
       <c r="AJ130" s="102"/>
       <c r="AK130" s="31"/>
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
-      <c r="C131" s="224" t="s">
+      <c r="C131" s="318" t="s">
         <v>73</v>
       </c>
-      <c r="D131" s="225"/>
-      <c r="E131" s="225"/>
-      <c r="F131" s="225"/>
-      <c r="G131" s="225"/>
-      <c r="H131" s="225"/>
-      <c r="I131" s="225"/>
-      <c r="J131" s="225"/>
-      <c r="K131" s="225"/>
-      <c r="L131" s="225" t="s">
+      <c r="D131" s="319"/>
+      <c r="E131" s="319"/>
+      <c r="F131" s="319"/>
+      <c r="G131" s="319"/>
+      <c r="H131" s="319"/>
+      <c r="I131" s="319"/>
+      <c r="J131" s="319"/>
+      <c r="K131" s="319"/>
+      <c r="L131" s="319" t="s">
         <v>74</v>
       </c>
-      <c r="M131" s="225"/>
-      <c r="N131" s="225"/>
-      <c r="O131" s="225"/>
-      <c r="P131" s="225"/>
-      <c r="Q131" s="225"/>
-      <c r="R131" s="225"/>
-      <c r="S131" s="225"/>
-      <c r="T131" s="225"/>
-      <c r="U131" s="225"/>
-      <c r="V131" s="225"/>
-      <c r="W131" s="225"/>
-      <c r="X131" s="225"/>
-      <c r="Y131" s="225"/>
-      <c r="Z131" s="225"/>
-      <c r="AA131" s="225"/>
-      <c r="AB131" s="225"/>
-      <c r="AC131" s="225"/>
-      <c r="AD131" s="225"/>
-      <c r="AE131" s="225"/>
-      <c r="AF131" s="225"/>
-      <c r="AG131" s="225"/>
-      <c r="AH131" s="225"/>
-      <c r="AI131" s="227"/>
+      <c r="M131" s="319"/>
+      <c r="N131" s="319"/>
+      <c r="O131" s="319"/>
+      <c r="P131" s="319"/>
+      <c r="Q131" s="319"/>
+      <c r="R131" s="319"/>
+      <c r="S131" s="319"/>
+      <c r="T131" s="319"/>
+      <c r="U131" s="319"/>
+      <c r="V131" s="319"/>
+      <c r="W131" s="319"/>
+      <c r="X131" s="319"/>
+      <c r="Y131" s="319"/>
+      <c r="Z131" s="319"/>
+      <c r="AA131" s="319"/>
+      <c r="AB131" s="319"/>
+      <c r="AC131" s="319"/>
+      <c r="AD131" s="319"/>
+      <c r="AE131" s="319"/>
+      <c r="AF131" s="319"/>
+      <c r="AG131" s="319"/>
+      <c r="AH131" s="319"/>
+      <c r="AI131" s="321"/>
       <c r="AJ131" s="103"/>
     </row>
     <row r="132" spans="1:41">
@@ -12244,80 +12244,80 @@
       <c r="C132" s="104">
         <v>1</v>
       </c>
-      <c r="D132" s="155"/>
-      <c r="E132" s="156"/>
-      <c r="F132" s="156"/>
-      <c r="G132" s="156"/>
-      <c r="H132" s="156"/>
-      <c r="I132" s="156"/>
-      <c r="J132" s="156"/>
-      <c r="K132" s="157"/>
-      <c r="L132" s="273"/>
-      <c r="M132" s="274"/>
-      <c r="N132" s="274"/>
-      <c r="O132" s="275"/>
-      <c r="P132" s="241"/>
-      <c r="Q132" s="242"/>
-      <c r="R132" s="242"/>
-      <c r="S132" s="242"/>
-      <c r="T132" s="243"/>
-      <c r="U132" s="155"/>
-      <c r="V132" s="156"/>
-      <c r="W132" s="156"/>
-      <c r="X132" s="156"/>
-      <c r="Y132" s="156"/>
-      <c r="Z132" s="156"/>
-      <c r="AA132" s="157"/>
-      <c r="AB132" s="158"/>
-      <c r="AC132" s="226"/>
-      <c r="AD132" s="226"/>
-      <c r="AE132" s="226"/>
-      <c r="AF132" s="226"/>
-      <c r="AG132" s="226"/>
-      <c r="AH132" s="226"/>
-      <c r="AI132" s="228"/>
+      <c r="D132" s="148"/>
+      <c r="E132" s="149"/>
+      <c r="F132" s="149"/>
+      <c r="G132" s="149"/>
+      <c r="H132" s="149"/>
+      <c r="I132" s="149"/>
+      <c r="J132" s="149"/>
+      <c r="K132" s="150"/>
+      <c r="L132" s="301"/>
+      <c r="M132" s="302"/>
+      <c r="N132" s="302"/>
+      <c r="O132" s="303"/>
+      <c r="P132" s="265"/>
+      <c r="Q132" s="266"/>
+      <c r="R132" s="266"/>
+      <c r="S132" s="266"/>
+      <c r="T132" s="267"/>
+      <c r="U132" s="148"/>
+      <c r="V132" s="149"/>
+      <c r="W132" s="149"/>
+      <c r="X132" s="149"/>
+      <c r="Y132" s="149"/>
+      <c r="Z132" s="149"/>
+      <c r="AA132" s="150"/>
+      <c r="AB132" s="151"/>
+      <c r="AC132" s="320"/>
+      <c r="AD132" s="320"/>
+      <c r="AE132" s="320"/>
+      <c r="AF132" s="320"/>
+      <c r="AG132" s="320"/>
+      <c r="AH132" s="320"/>
+      <c r="AI132" s="322"/>
       <c r="AJ132" s="88"/>
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
-      <c r="C133" s="224" t="s">
+      <c r="C133" s="318" t="s">
         <v>75</v>
       </c>
-      <c r="D133" s="226"/>
-      <c r="E133" s="226"/>
-      <c r="F133" s="226"/>
-      <c r="G133" s="226"/>
-      <c r="H133" s="226"/>
-      <c r="I133" s="226"/>
-      <c r="J133" s="226"/>
-      <c r="K133" s="226"/>
-      <c r="L133" s="225" t="s">
+      <c r="D133" s="320"/>
+      <c r="E133" s="320"/>
+      <c r="F133" s="320"/>
+      <c r="G133" s="320"/>
+      <c r="H133" s="320"/>
+      <c r="I133" s="320"/>
+      <c r="J133" s="320"/>
+      <c r="K133" s="320"/>
+      <c r="L133" s="319" t="s">
         <v>74</v>
       </c>
-      <c r="M133" s="226"/>
-      <c r="N133" s="226"/>
-      <c r="O133" s="226"/>
-      <c r="P133" s="226"/>
-      <c r="Q133" s="226"/>
-      <c r="R133" s="226"/>
-      <c r="S133" s="226"/>
-      <c r="T133" s="226"/>
-      <c r="U133" s="226"/>
-      <c r="V133" s="226"/>
-      <c r="W133" s="226"/>
-      <c r="X133" s="226"/>
-      <c r="Y133" s="226"/>
-      <c r="Z133" s="226"/>
-      <c r="AA133" s="226"/>
-      <c r="AB133" s="226"/>
-      <c r="AC133" s="226"/>
-      <c r="AD133" s="226"/>
-      <c r="AE133" s="226"/>
-      <c r="AF133" s="226"/>
-      <c r="AG133" s="226"/>
-      <c r="AH133" s="226"/>
-      <c r="AI133" s="228"/>
+      <c r="M133" s="320"/>
+      <c r="N133" s="320"/>
+      <c r="O133" s="320"/>
+      <c r="P133" s="320"/>
+      <c r="Q133" s="320"/>
+      <c r="R133" s="320"/>
+      <c r="S133" s="320"/>
+      <c r="T133" s="320"/>
+      <c r="U133" s="320"/>
+      <c r="V133" s="320"/>
+      <c r="W133" s="320"/>
+      <c r="X133" s="320"/>
+      <c r="Y133" s="320"/>
+      <c r="Z133" s="320"/>
+      <c r="AA133" s="320"/>
+      <c r="AB133" s="320"/>
+      <c r="AC133" s="320"/>
+      <c r="AD133" s="320"/>
+      <c r="AE133" s="320"/>
+      <c r="AF133" s="320"/>
+      <c r="AG133" s="320"/>
+      <c r="AH133" s="320"/>
+      <c r="AI133" s="322"/>
       <c r="AJ133" s="103"/>
     </row>
     <row r="134" spans="1:41">
@@ -12326,38 +12326,38 @@
       <c r="C134" s="104">
         <v>2</v>
       </c>
-      <c r="D134" s="155"/>
-      <c r="E134" s="156"/>
-      <c r="F134" s="156"/>
-      <c r="G134" s="156"/>
-      <c r="H134" s="156"/>
-      <c r="I134" s="156"/>
-      <c r="J134" s="156"/>
-      <c r="K134" s="157"/>
-      <c r="L134" s="273"/>
-      <c r="M134" s="274"/>
-      <c r="N134" s="274"/>
-      <c r="O134" s="275"/>
-      <c r="P134" s="241"/>
-      <c r="Q134" s="242"/>
-      <c r="R134" s="242"/>
-      <c r="S134" s="242"/>
-      <c r="T134" s="243"/>
-      <c r="U134" s="155"/>
-      <c r="V134" s="156"/>
-      <c r="W134" s="156"/>
-      <c r="X134" s="156"/>
-      <c r="Y134" s="156"/>
-      <c r="Z134" s="156"/>
-      <c r="AA134" s="157"/>
-      <c r="AB134" s="158"/>
-      <c r="AC134" s="226"/>
-      <c r="AD134" s="226"/>
-      <c r="AE134" s="226"/>
-      <c r="AF134" s="226"/>
-      <c r="AG134" s="226"/>
-      <c r="AH134" s="226"/>
-      <c r="AI134" s="228"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="149"/>
+      <c r="F134" s="149"/>
+      <c r="G134" s="149"/>
+      <c r="H134" s="149"/>
+      <c r="I134" s="149"/>
+      <c r="J134" s="149"/>
+      <c r="K134" s="150"/>
+      <c r="L134" s="301"/>
+      <c r="M134" s="302"/>
+      <c r="N134" s="302"/>
+      <c r="O134" s="303"/>
+      <c r="P134" s="265"/>
+      <c r="Q134" s="266"/>
+      <c r="R134" s="266"/>
+      <c r="S134" s="266"/>
+      <c r="T134" s="267"/>
+      <c r="U134" s="148"/>
+      <c r="V134" s="149"/>
+      <c r="W134" s="149"/>
+      <c r="X134" s="149"/>
+      <c r="Y134" s="149"/>
+      <c r="Z134" s="149"/>
+      <c r="AA134" s="150"/>
+      <c r="AB134" s="151"/>
+      <c r="AC134" s="320"/>
+      <c r="AD134" s="320"/>
+      <c r="AE134" s="320"/>
+      <c r="AF134" s="320"/>
+      <c r="AG134" s="320"/>
+      <c r="AH134" s="320"/>
+      <c r="AI134" s="322"/>
       <c r="AJ134" s="88"/>
     </row>
     <row r="135" spans="1:41">
@@ -12642,49 +12642,100 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:J74"/>
-    <mergeCell ref="R82:Y82"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="AL53:AO54"/>
-    <mergeCell ref="N53:U54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="J53:M54"/>
-    <mergeCell ref="AA53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="N56:U56"/>
-    <mergeCell ref="N57:U57"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="F52:AD52"/>
-    <mergeCell ref="F53:I54"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="N58:U58"/>
-    <mergeCell ref="N59:U59"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="L131:AI131"/>
+    <mergeCell ref="L133:AI133"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="D129:AA129"/>
+    <mergeCell ref="AB129:AI130"/>
+    <mergeCell ref="AB134:AI134"/>
+    <mergeCell ref="AB132:AI132"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="U134:AA134"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AH59"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="N65:U65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="V61:Z61"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="V64:Z64"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="V75:AH75"/>
+    <mergeCell ref="P73:U73"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="R83:Y83"/>
+    <mergeCell ref="R84:Y84"/>
+    <mergeCell ref="R85:Y85"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="Z85:AD85"/>
+    <mergeCell ref="AE85:AH85"/>
+    <mergeCell ref="AE82:AH82"/>
+    <mergeCell ref="Z83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="Z84:AD84"/>
+    <mergeCell ref="AE84:AH84"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="V73:AH74"/>
+    <mergeCell ref="V76:AH76"/>
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="N61:U61"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="K73:N74"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="N63:U63"/>
+    <mergeCell ref="N64:U64"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="V45:AC45"/>
     <mergeCell ref="V46:AC46"/>
@@ -12709,30 +12760,49 @@
     <mergeCell ref="AE52:AH54"/>
     <mergeCell ref="AL63:AO63"/>
     <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="N63:U63"/>
-    <mergeCell ref="N64:U64"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E45:M45"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="F52:AD52"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="N58:U58"/>
+    <mergeCell ref="N59:U59"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:J74"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="AL53:AO54"/>
+    <mergeCell ref="N53:U54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="J53:M54"/>
+    <mergeCell ref="AA53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="N56:U56"/>
+    <mergeCell ref="N57:U57"/>
     <mergeCell ref="J60:M60"/>
     <mergeCell ref="J61:M61"/>
     <mergeCell ref="J62:M62"/>
@@ -12743,76 +12813,6 @@
     <mergeCell ref="K82:Q82"/>
     <mergeCell ref="E82:J82"/>
     <mergeCell ref="O73:O74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="V73:AH74"/>
-    <mergeCell ref="V76:AH76"/>
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="N61:U61"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="N62:U62"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="Z85:AD85"/>
-    <mergeCell ref="AE85:AH85"/>
-    <mergeCell ref="AE82:AH82"/>
-    <mergeCell ref="Z83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
-    <mergeCell ref="Z84:AD84"/>
-    <mergeCell ref="AE84:AH84"/>
-    <mergeCell ref="K73:N74"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="V75:AH75"/>
-    <mergeCell ref="P73:U73"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="K84:Q84"/>
-    <mergeCell ref="K85:Q85"/>
-    <mergeCell ref="R83:Y83"/>
-    <mergeCell ref="R84:Y84"/>
-    <mergeCell ref="R85:Y85"/>
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AH59"/>
-    <mergeCell ref="AE60:AH60"/>
-    <mergeCell ref="AE61:AH61"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="N65:U65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="V61:Z61"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="V64:Z64"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V60:Z60"/>
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C133:K133"/>
-    <mergeCell ref="L131:AI131"/>
-    <mergeCell ref="L133:AI133"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="D129:AA129"/>
-    <mergeCell ref="AB129:AI130"/>
-    <mergeCell ref="AB134:AI134"/>
-    <mergeCell ref="AB132:AI132"/>
-    <mergeCell ref="U132:AA132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="U130:AA130"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="U134:AA134"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(画面)_(取引ID)_(取引名).xlsx
@@ -14,14 +14,9 @@
     <sheet name="2. 画面ID(画面名)" sheetId="28" r:id="rId5"/>
     <sheet name="データ" sheetId="29" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. 画面ID(画面名)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.1. 取引概要'!$B$5</definedName>
-    <definedName name="_Toc77519354" localSheetId="4">'2. 画面ID(画面名)'!#REF!</definedName>
-    <definedName name="a">[1]データ!$B$2:$B$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. 取引概要'!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. 画面ID(画面名)'!$A$1:$AI$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$F$13</definedName>
@@ -2061,6 +2056,150 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2103,149 +2242,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2274,15 +2278,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2331,30 +2326,240 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2364,24 +2569,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2448,27 +2635,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2480,177 +2646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3019,46 +3014,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="取引概要"/>
-      <sheetName val="企業情報更新画面"/>
-      <sheetName val="企業情報更新確認画面"/>
-      <sheetName val="企業情報更新完了画面"/>
-      <sheetName val="記述例集"/>
-      <sheetName val="記述例(ファイルアップロード)"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>ウィンドウスコープ</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>セッションスコープ</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4145,53 +4100,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="137" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="134" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="175" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="140" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4199,51 +4154,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="134" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="175" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="140" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4251,43 +4206,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4426,1014 +4381,1014 @@
       <c r="A7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="160" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="160" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="160" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="162"/>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="162"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="160" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="161"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="151"/>
     </row>
     <row r="8" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="131"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="184"/>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185"/>
-      <c r="AI8" s="186"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="163"/>
     </row>
     <row r="9" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="153"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="160"/>
     </row>
     <row r="10" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="56"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="153"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="160"/>
     </row>
     <row r="11" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="149"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="149"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="152"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="153"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="159"/>
+      <c r="AH11" s="159"/>
+      <c r="AI11" s="160"/>
     </row>
     <row r="12" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="153"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="160"/>
     </row>
     <row r="13" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="150"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="153"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="160"/>
     </row>
     <row r="14" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="56"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="150"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="153"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="160"/>
     </row>
     <row r="15" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="153"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="157"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="160"/>
     </row>
     <row r="16" spans="1:40" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="152"/>
-      <c r="AH16" s="152"/>
-      <c r="AI16" s="153"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="160"/>
     </row>
     <row r="17" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="56"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="149"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="150"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="152"/>
-      <c r="AH17" s="152"/>
-      <c r="AI17" s="153"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="159"/>
+      <c r="AH17" s="159"/>
+      <c r="AI17" s="160"/>
     </row>
     <row r="18" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="56"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="149"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="150"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="152"/>
-      <c r="AH18" s="152"/>
-      <c r="AI18" s="153"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="160"/>
     </row>
     <row r="19" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="152"/>
-      <c r="AI19" s="153"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
     </row>
     <row r="20" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="150"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="152"/>
-      <c r="AH20" s="152"/>
-      <c r="AI20" s="153"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160"/>
     </row>
     <row r="21" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="149"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="149"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="150"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="153"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
     </row>
     <row r="22" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="149"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152"/>
-      <c r="AI22" s="153"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="160"/>
     </row>
     <row r="23" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="152"/>
-      <c r="AH23" s="152"/>
-      <c r="AI23" s="153"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="160"/>
     </row>
     <row r="24" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="150"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="152"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="153"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="160"/>
     </row>
     <row r="25" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="149"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="150"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="152"/>
-      <c r="AH25" s="152"/>
-      <c r="AI25" s="153"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="160"/>
     </row>
     <row r="26" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="56"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="149"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="149"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="150"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="153"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
     </row>
     <row r="27" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="149"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="152"/>
-      <c r="AH27" s="152"/>
-      <c r="AI27" s="153"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="160"/>
     </row>
     <row r="28" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="149"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="152"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="153"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="160"/>
     </row>
     <row r="29" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="149"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="150"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="152"/>
-      <c r="AH29" s="152"/>
-      <c r="AI29" s="153"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="159"/>
+      <c r="AH29" s="159"/>
+      <c r="AI29" s="160"/>
     </row>
     <row r="30" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="149"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="152"/>
-      <c r="AH30" s="152"/>
-      <c r="AI30" s="153"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="156"/>
+      <c r="W30" s="156"/>
+      <c r="X30" s="156"/>
+      <c r="Y30" s="156"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="159"/>
+      <c r="AI30" s="160"/>
     </row>
     <row r="31" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="56"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="149"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="150"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="152"/>
-      <c r="AH31" s="152"/>
-      <c r="AI31" s="153"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="156"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="159"/>
+      <c r="AH31" s="159"/>
+      <c r="AI31" s="160"/>
     </row>
     <row r="32" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="56"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="149"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="152"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="153"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="160"/>
     </row>
     <row r="33" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="56"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="149"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="149"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="150"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152"/>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="153"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="160"/>
     </row>
     <row r="34" spans="1:35" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="28"/>
@@ -5474,161 +5429,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5653,6 +5453,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5809,157 +5764,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="181" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="137" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="196" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="134" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="205" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="181" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="134" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="181" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="29"/>
@@ -7418,14 +7373,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7435,6 +7382,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7461,157 +7416,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="181" t="str">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="137" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="196" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="134" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="205" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="181" t="str">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="134" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="181" t="str">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
     </row>
     <row r="4" spans="1:35" s="17" customFormat="1" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" s="26" customFormat="1" ht="12" customHeight="1">
@@ -7633,11 +7588,11 @@
       <c r="D8" s="219"/>
       <c r="E8" s="219"/>
       <c r="F8" s="220"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
       <c r="L8" s="219"/>
       <c r="M8" s="219"/>
       <c r="N8" s="219"/>
@@ -7669,7 +7624,7 @@
       <c r="D9" s="222"/>
       <c r="E9" s="222"/>
       <c r="F9" s="223"/>
-      <c r="G9" s="151"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="219"/>
       <c r="I9" s="219"/>
       <c r="J9" s="219"/>
@@ -8591,18 +8546,6 @@
     <row r="72" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C30:F34"/>
-    <mergeCell ref="C10:F29"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8614,6 +8557,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C30:F34"/>
+    <mergeCell ref="C10:F29"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8644,159 +8599,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="272" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="181" t="str">
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="137" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="196" t="str">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="134" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="169" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="288" t="str">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="289"/>
-      <c r="AI1" s="290"/>
+      <c r="AH1" s="295"/>
+      <c r="AI1" s="296"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="181" t="str">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="134" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="288" t="str">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="289"/>
-      <c r="AI2" s="290"/>
+      <c r="AH2" s="295"/>
+      <c r="AI2" s="296"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="181" t="str">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="169" t="str">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="288" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="289"/>
-      <c r="AI3" s="290"/>
+      <c r="AH3" s="295"/>
+      <c r="AI3" s="296"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" s="17" customFormat="1" ht="12" customHeight="1"/>
@@ -8950,39 +8905,39 @@
       <c r="D45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="274" t="s">
+      <c r="E45" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="274"/>
-      <c r="G45" s="274"/>
-      <c r="H45" s="274"/>
-      <c r="I45" s="274"/>
-      <c r="J45" s="274"/>
-      <c r="K45" s="274"/>
-      <c r="L45" s="274"/>
-      <c r="M45" s="274"/>
-      <c r="N45" s="274" t="s">
+      <c r="F45" s="279"/>
+      <c r="G45" s="279"/>
+      <c r="H45" s="279"/>
+      <c r="I45" s="279"/>
+      <c r="J45" s="279"/>
+      <c r="K45" s="279"/>
+      <c r="L45" s="279"/>
+      <c r="M45" s="279"/>
+      <c r="N45" s="279" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="274"/>
-      <c r="P45" s="274"/>
-      <c r="Q45" s="274" t="s">
+      <c r="O45" s="279"/>
+      <c r="P45" s="279"/>
+      <c r="Q45" s="279" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="274"/>
-      <c r="S45" s="274"/>
-      <c r="T45" s="274"/>
-      <c r="U45" s="274"/>
-      <c r="V45" s="274" t="s">
+      <c r="R45" s="279"/>
+      <c r="S45" s="279"/>
+      <c r="T45" s="279"/>
+      <c r="U45" s="279"/>
+      <c r="V45" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="274"/>
-      <c r="X45" s="274"/>
-      <c r="Y45" s="274"/>
-      <c r="Z45" s="274"/>
-      <c r="AA45" s="274"/>
-      <c r="AB45" s="274"/>
-      <c r="AC45" s="274"/>
+      <c r="W45" s="279"/>
+      <c r="X45" s="279"/>
+      <c r="Y45" s="279"/>
+      <c r="Z45" s="279"/>
+      <c r="AA45" s="279"/>
+      <c r="AB45" s="279"/>
+      <c r="AC45" s="279"/>
       <c r="AD45" s="83"/>
       <c r="AE45" s="83"/>
       <c r="AF45" s="83"/>
@@ -9102,42 +9057,42 @@
       <c r="AP51" s="82"/>
     </row>
     <row r="52" spans="3:47">
-      <c r="E52" s="292" t="s">
+      <c r="E52" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="279" t="s">
+      <c r="F52" s="297" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="280"/>
-      <c r="H52" s="280"/>
-      <c r="I52" s="280"/>
-      <c r="J52" s="280"/>
-      <c r="K52" s="280"/>
-      <c r="L52" s="280"/>
-      <c r="M52" s="280"/>
-      <c r="N52" s="280"/>
-      <c r="O52" s="280"/>
-      <c r="P52" s="280"/>
-      <c r="Q52" s="280"/>
-      <c r="R52" s="280"/>
-      <c r="S52" s="280"/>
-      <c r="T52" s="280"/>
-      <c r="U52" s="280"/>
-      <c r="V52" s="280"/>
-      <c r="W52" s="280"/>
-      <c r="X52" s="280"/>
-      <c r="Y52" s="280"/>
-      <c r="Z52" s="280"/>
-      <c r="AA52" s="280"/>
-      <c r="AB52" s="280"/>
-      <c r="AC52" s="280"/>
-      <c r="AD52" s="281"/>
-      <c r="AE52" s="282" t="s">
+      <c r="G52" s="298"/>
+      <c r="H52" s="298"/>
+      <c r="I52" s="298"/>
+      <c r="J52" s="298"/>
+      <c r="K52" s="298"/>
+      <c r="L52" s="298"/>
+      <c r="M52" s="298"/>
+      <c r="N52" s="298"/>
+      <c r="O52" s="298"/>
+      <c r="P52" s="298"/>
+      <c r="Q52" s="298"/>
+      <c r="R52" s="298"/>
+      <c r="S52" s="298"/>
+      <c r="T52" s="298"/>
+      <c r="U52" s="298"/>
+      <c r="V52" s="298"/>
+      <c r="W52" s="298"/>
+      <c r="X52" s="298"/>
+      <c r="Y52" s="298"/>
+      <c r="Z52" s="298"/>
+      <c r="AA52" s="298"/>
+      <c r="AB52" s="298"/>
+      <c r="AC52" s="298"/>
+      <c r="AD52" s="299"/>
+      <c r="AE52" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="AF52" s="283"/>
-      <c r="AG52" s="283"/>
-      <c r="AH52" s="284"/>
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="286"/>
+      <c r="AH52" s="287"/>
       <c r="AL52" s="82"/>
       <c r="AM52" s="82"/>
       <c r="AN52" s="82"/>
@@ -9145,29 +9100,29 @@
       <c r="AP52" s="82"/>
     </row>
     <row r="53" spans="3:47" ht="18" customHeight="1">
-      <c r="E53" s="293"/>
-      <c r="F53" s="282" t="s">
+      <c r="E53" s="284"/>
+      <c r="F53" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="283"/>
-      <c r="H53" s="283"/>
-      <c r="I53" s="284"/>
-      <c r="J53" s="250" t="s">
+      <c r="G53" s="286"/>
+      <c r="H53" s="286"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="314" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="256"/>
-      <c r="L53" s="256"/>
-      <c r="M53" s="257"/>
-      <c r="N53" s="250" t="s">
+      <c r="K53" s="320"/>
+      <c r="L53" s="320"/>
+      <c r="M53" s="321"/>
+      <c r="N53" s="314" t="s">
         <v>105</v>
       </c>
-      <c r="O53" s="251"/>
-      <c r="P53" s="251"/>
-      <c r="Q53" s="251"/>
-      <c r="R53" s="251"/>
-      <c r="S53" s="251"/>
-      <c r="T53" s="251"/>
-      <c r="U53" s="252"/>
+      <c r="O53" s="315"/>
+      <c r="P53" s="315"/>
+      <c r="Q53" s="315"/>
+      <c r="R53" s="315"/>
+      <c r="S53" s="315"/>
+      <c r="T53" s="315"/>
+      <c r="U53" s="316"/>
       <c r="V53" s="209" t="s">
         <v>38</v>
       </c>
@@ -9180,39 +9135,39 @@
       </c>
       <c r="AB53" s="210"/>
       <c r="AC53" s="211"/>
-      <c r="AD53" s="261" t="s">
+      <c r="AD53" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="AE53" s="295"/>
-      <c r="AF53" s="296"/>
-      <c r="AG53" s="296"/>
-      <c r="AH53" s="297"/>
-      <c r="AL53" s="244" t="s">
+      <c r="AE53" s="288"/>
+      <c r="AF53" s="289"/>
+      <c r="AG53" s="289"/>
+      <c r="AH53" s="290"/>
+      <c r="AL53" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="AM53" s="245"/>
-      <c r="AN53" s="245"/>
-      <c r="AO53" s="246"/>
+      <c r="AM53" s="309"/>
+      <c r="AN53" s="309"/>
+      <c r="AO53" s="310"/>
       <c r="AP53" s="82"/>
     </row>
     <row r="54" spans="3:47" s="26" customFormat="1">
-      <c r="E54" s="294"/>
-      <c r="F54" s="285"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="287"/>
-      <c r="J54" s="258"/>
-      <c r="K54" s="259"/>
-      <c r="L54" s="259"/>
-      <c r="M54" s="260"/>
-      <c r="N54" s="253"/>
-      <c r="O54" s="254"/>
-      <c r="P54" s="254"/>
-      <c r="Q54" s="254"/>
-      <c r="R54" s="254"/>
-      <c r="S54" s="254"/>
-      <c r="T54" s="254"/>
-      <c r="U54" s="255"/>
+      <c r="E54" s="278"/>
+      <c r="F54" s="291"/>
+      <c r="G54" s="292"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="293"/>
+      <c r="J54" s="322"/>
+      <c r="K54" s="323"/>
+      <c r="L54" s="323"/>
+      <c r="M54" s="324"/>
+      <c r="N54" s="317"/>
+      <c r="O54" s="318"/>
+      <c r="P54" s="318"/>
+      <c r="Q54" s="318"/>
+      <c r="R54" s="318"/>
+      <c r="S54" s="318"/>
+      <c r="T54" s="318"/>
+      <c r="U54" s="319"/>
       <c r="V54" s="215"/>
       <c r="W54" s="216"/>
       <c r="X54" s="216"/>
@@ -9221,62 +9176,62 @@
       <c r="AA54" s="215"/>
       <c r="AB54" s="216"/>
       <c r="AC54" s="217"/>
-      <c r="AD54" s="262"/>
-      <c r="AE54" s="285"/>
-      <c r="AF54" s="286"/>
-      <c r="AG54" s="286"/>
-      <c r="AH54" s="287"/>
+      <c r="AD54" s="326"/>
+      <c r="AE54" s="291"/>
+      <c r="AF54" s="292"/>
+      <c r="AG54" s="292"/>
+      <c r="AH54" s="293"/>
       <c r="AI54" s="67"/>
       <c r="AJ54" s="67"/>
       <c r="AK54" s="67"/>
-      <c r="AL54" s="247"/>
-      <c r="AM54" s="248"/>
-      <c r="AN54" s="248"/>
-      <c r="AO54" s="249"/>
+      <c r="AL54" s="311"/>
+      <c r="AM54" s="312"/>
+      <c r="AN54" s="312"/>
+      <c r="AO54" s="313"/>
       <c r="AP54" s="67"/>
     </row>
     <row r="55" spans="3:47" s="82" customFormat="1" ht="11.25" customHeight="1">
-      <c r="E55" s="291" t="s">
+      <c r="E55" s="283" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="291"/>
-      <c r="G55" s="291"/>
-      <c r="H55" s="291"/>
-      <c r="I55" s="291"/>
-      <c r="J55" s="291"/>
-      <c r="K55" s="291"/>
-      <c r="L55" s="291"/>
-      <c r="M55" s="291"/>
-      <c r="N55" s="291"/>
-      <c r="O55" s="291"/>
-      <c r="P55" s="291"/>
-      <c r="Q55" s="291"/>
-      <c r="R55" s="291"/>
-      <c r="S55" s="291"/>
-      <c r="T55" s="291"/>
-      <c r="U55" s="291"/>
-      <c r="V55" s="291"/>
-      <c r="W55" s="291"/>
-      <c r="X55" s="291"/>
-      <c r="Y55" s="291"/>
-      <c r="Z55" s="291"/>
-      <c r="AA55" s="291"/>
-      <c r="AB55" s="291"/>
-      <c r="AC55" s="291"/>
-      <c r="AD55" s="291"/>
-      <c r="AE55" s="291"/>
-      <c r="AF55" s="291"/>
-      <c r="AG55" s="291"/>
-      <c r="AH55" s="291"/>
+      <c r="F55" s="283"/>
+      <c r="G55" s="283"/>
+      <c r="H55" s="283"/>
+      <c r="I55" s="283"/>
+      <c r="J55" s="283"/>
+      <c r="K55" s="283"/>
+      <c r="L55" s="283"/>
+      <c r="M55" s="283"/>
+      <c r="N55" s="283"/>
+      <c r="O55" s="283"/>
+      <c r="P55" s="283"/>
+      <c r="Q55" s="283"/>
+      <c r="R55" s="283"/>
+      <c r="S55" s="283"/>
+      <c r="T55" s="283"/>
+      <c r="U55" s="283"/>
+      <c r="V55" s="283"/>
+      <c r="W55" s="283"/>
+      <c r="X55" s="283"/>
+      <c r="Y55" s="283"/>
+      <c r="Z55" s="283"/>
+      <c r="AA55" s="283"/>
+      <c r="AB55" s="283"/>
+      <c r="AC55" s="283"/>
+      <c r="AD55" s="283"/>
+      <c r="AE55" s="283"/>
+      <c r="AF55" s="283"/>
+      <c r="AG55" s="283"/>
+      <c r="AH55" s="283"/>
       <c r="AI55" s="118"/>
       <c r="AJ55" s="118"/>
       <c r="AK55" s="118"/>
-      <c r="AL55" s="241" t="s">
+      <c r="AL55" s="305" t="s">
         <v>106</v>
       </c>
-      <c r="AM55" s="242"/>
-      <c r="AN55" s="242"/>
-      <c r="AO55" s="243"/>
+      <c r="AM55" s="306"/>
+      <c r="AN55" s="306"/>
+      <c r="AO55" s="307"/>
       <c r="AQ55" s="67"/>
       <c r="AR55" s="67"/>
     </row>
@@ -9284,42 +9239,42 @@
       <c r="E56" s="56">
         <v>1</v>
       </c>
-      <c r="F56" s="276"/>
-      <c r="G56" s="277"/>
-      <c r="H56" s="277"/>
-      <c r="I56" s="278"/>
-      <c r="J56" s="264"/>
-      <c r="K56" s="264"/>
-      <c r="L56" s="264"/>
-      <c r="M56" s="264"/>
-      <c r="N56" s="263"/>
-      <c r="O56" s="263"/>
-      <c r="P56" s="263"/>
-      <c r="Q56" s="263"/>
-      <c r="R56" s="263"/>
-      <c r="S56" s="263"/>
-      <c r="T56" s="263"/>
-      <c r="U56" s="263"/>
-      <c r="V56" s="265"/>
-      <c r="W56" s="266"/>
-      <c r="X56" s="266"/>
-      <c r="Y56" s="266"/>
-      <c r="Z56" s="267"/>
-      <c r="AA56" s="276"/>
-      <c r="AB56" s="277"/>
-      <c r="AC56" s="278"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="244"/>
+      <c r="H56" s="244"/>
+      <c r="I56" s="245"/>
+      <c r="J56" s="276"/>
+      <c r="K56" s="276"/>
+      <c r="L56" s="276"/>
+      <c r="M56" s="276"/>
+      <c r="N56" s="246"/>
+      <c r="O56" s="246"/>
+      <c r="P56" s="246"/>
+      <c r="Q56" s="246"/>
+      <c r="R56" s="246"/>
+      <c r="S56" s="246"/>
+      <c r="T56" s="246"/>
+      <c r="U56" s="246"/>
+      <c r="V56" s="240"/>
+      <c r="W56" s="241"/>
+      <c r="X56" s="241"/>
+      <c r="Y56" s="241"/>
+      <c r="Z56" s="242"/>
+      <c r="AA56" s="243"/>
+      <c r="AB56" s="244"/>
+      <c r="AC56" s="245"/>
       <c r="AD56" s="58"/>
-      <c r="AE56" s="276"/>
-      <c r="AF56" s="277"/>
-      <c r="AG56" s="277"/>
-      <c r="AH56" s="278"/>
+      <c r="AE56" s="243"/>
+      <c r="AF56" s="244"/>
+      <c r="AG56" s="244"/>
+      <c r="AH56" s="245"/>
       <c r="AI56" s="118"/>
       <c r="AJ56" s="118"/>
       <c r="AK56" s="118"/>
-      <c r="AL56" s="235"/>
-      <c r="AM56" s="236"/>
-      <c r="AN56" s="236"/>
-      <c r="AO56" s="237"/>
+      <c r="AL56" s="250"/>
+      <c r="AM56" s="251"/>
+      <c r="AN56" s="251"/>
+      <c r="AO56" s="252"/>
       <c r="AQ56" s="67"/>
       <c r="AR56" s="67"/>
     </row>
@@ -9327,42 +9282,42 @@
       <c r="E57" s="56">
         <v>2</v>
       </c>
-      <c r="F57" s="276"/>
-      <c r="G57" s="277"/>
-      <c r="H57" s="277"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="264"/>
-      <c r="K57" s="264"/>
-      <c r="L57" s="264"/>
-      <c r="M57" s="264"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="263"/>
-      <c r="P57" s="263"/>
-      <c r="Q57" s="263"/>
-      <c r="R57" s="263"/>
-      <c r="S57" s="263"/>
-      <c r="T57" s="263"/>
-      <c r="U57" s="263"/>
-      <c r="V57" s="265"/>
-      <c r="W57" s="266"/>
-      <c r="X57" s="266"/>
-      <c r="Y57" s="266"/>
-      <c r="Z57" s="267"/>
-      <c r="AA57" s="276"/>
-      <c r="AB57" s="277"/>
-      <c r="AC57" s="278"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="244"/>
+      <c r="H57" s="244"/>
+      <c r="I57" s="245"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="276"/>
+      <c r="L57" s="276"/>
+      <c r="M57" s="276"/>
+      <c r="N57" s="246"/>
+      <c r="O57" s="246"/>
+      <c r="P57" s="246"/>
+      <c r="Q57" s="246"/>
+      <c r="R57" s="246"/>
+      <c r="S57" s="246"/>
+      <c r="T57" s="246"/>
+      <c r="U57" s="246"/>
+      <c r="V57" s="240"/>
+      <c r="W57" s="241"/>
+      <c r="X57" s="241"/>
+      <c r="Y57" s="241"/>
+      <c r="Z57" s="242"/>
+      <c r="AA57" s="243"/>
+      <c r="AB57" s="244"/>
+      <c r="AC57" s="245"/>
       <c r="AD57" s="129"/>
-      <c r="AE57" s="276"/>
-      <c r="AF57" s="277"/>
-      <c r="AG57" s="277"/>
-      <c r="AH57" s="278"/>
+      <c r="AE57" s="243"/>
+      <c r="AF57" s="244"/>
+      <c r="AG57" s="244"/>
+      <c r="AH57" s="245"/>
       <c r="AI57" s="118"/>
       <c r="AJ57" s="118"/>
       <c r="AK57" s="118"/>
-      <c r="AL57" s="238"/>
-      <c r="AM57" s="239"/>
-      <c r="AN57" s="239"/>
-      <c r="AO57" s="240"/>
+      <c r="AL57" s="280"/>
+      <c r="AM57" s="281"/>
+      <c r="AN57" s="281"/>
+      <c r="AO57" s="282"/>
       <c r="AQ57" s="67"/>
       <c r="AR57" s="67"/>
     </row>
@@ -9370,42 +9325,42 @@
       <c r="E58" s="56">
         <v>3</v>
       </c>
-      <c r="F58" s="276"/>
-      <c r="G58" s="277"/>
-      <c r="H58" s="277"/>
-      <c r="I58" s="278"/>
-      <c r="J58" s="264"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="264"/>
-      <c r="M58" s="264"/>
-      <c r="N58" s="263"/>
-      <c r="O58" s="263"/>
-      <c r="P58" s="263"/>
-      <c r="Q58" s="263"/>
-      <c r="R58" s="263"/>
-      <c r="S58" s="263"/>
-      <c r="T58" s="263"/>
-      <c r="U58" s="263"/>
-      <c r="V58" s="265"/>
-      <c r="W58" s="266"/>
-      <c r="X58" s="266"/>
-      <c r="Y58" s="266"/>
-      <c r="Z58" s="267"/>
-      <c r="AA58" s="276"/>
-      <c r="AB58" s="277"/>
-      <c r="AC58" s="278"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="244"/>
+      <c r="H58" s="244"/>
+      <c r="I58" s="245"/>
+      <c r="J58" s="276"/>
+      <c r="K58" s="276"/>
+      <c r="L58" s="276"/>
+      <c r="M58" s="276"/>
+      <c r="N58" s="246"/>
+      <c r="O58" s="246"/>
+      <c r="P58" s="246"/>
+      <c r="Q58" s="246"/>
+      <c r="R58" s="246"/>
+      <c r="S58" s="246"/>
+      <c r="T58" s="246"/>
+      <c r="U58" s="246"/>
+      <c r="V58" s="240"/>
+      <c r="W58" s="241"/>
+      <c r="X58" s="241"/>
+      <c r="Y58" s="241"/>
+      <c r="Z58" s="242"/>
+      <c r="AA58" s="243"/>
+      <c r="AB58" s="244"/>
+      <c r="AC58" s="245"/>
       <c r="AD58" s="129"/>
-      <c r="AE58" s="276"/>
-      <c r="AF58" s="277"/>
-      <c r="AG58" s="277"/>
-      <c r="AH58" s="278"/>
+      <c r="AE58" s="243"/>
+      <c r="AF58" s="244"/>
+      <c r="AG58" s="244"/>
+      <c r="AH58" s="245"/>
       <c r="AI58" s="92"/>
       <c r="AJ58" s="92"/>
       <c r="AK58" s="92"/>
-      <c r="AL58" s="238"/>
-      <c r="AM58" s="239"/>
-      <c r="AN58" s="239"/>
-      <c r="AO58" s="240"/>
+      <c r="AL58" s="280"/>
+      <c r="AM58" s="281"/>
+      <c r="AN58" s="281"/>
+      <c r="AO58" s="282"/>
       <c r="AQ58" s="67"/>
       <c r="AR58" s="67"/>
       <c r="AS58" s="67"/>
@@ -9416,281 +9371,281 @@
       <c r="E59" s="56">
         <v>4</v>
       </c>
-      <c r="F59" s="276"/>
-      <c r="G59" s="277"/>
-      <c r="H59" s="277"/>
-      <c r="I59" s="278"/>
-      <c r="J59" s="264"/>
-      <c r="K59" s="264"/>
-      <c r="L59" s="264"/>
-      <c r="M59" s="264"/>
-      <c r="N59" s="263"/>
-      <c r="O59" s="263"/>
-      <c r="P59" s="263"/>
-      <c r="Q59" s="263"/>
-      <c r="R59" s="263"/>
-      <c r="S59" s="263"/>
-      <c r="T59" s="263"/>
-      <c r="U59" s="263"/>
-      <c r="V59" s="265"/>
-      <c r="W59" s="266"/>
-      <c r="X59" s="266"/>
-      <c r="Y59" s="266"/>
-      <c r="Z59" s="267"/>
-      <c r="AA59" s="276"/>
-      <c r="AB59" s="277"/>
-      <c r="AC59" s="278"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="244"/>
+      <c r="H59" s="244"/>
+      <c r="I59" s="245"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="276"/>
+      <c r="L59" s="276"/>
+      <c r="M59" s="276"/>
+      <c r="N59" s="246"/>
+      <c r="O59" s="246"/>
+      <c r="P59" s="246"/>
+      <c r="Q59" s="246"/>
+      <c r="R59" s="246"/>
+      <c r="S59" s="246"/>
+      <c r="T59" s="246"/>
+      <c r="U59" s="246"/>
+      <c r="V59" s="240"/>
+      <c r="W59" s="241"/>
+      <c r="X59" s="241"/>
+      <c r="Y59" s="241"/>
+      <c r="Z59" s="242"/>
+      <c r="AA59" s="243"/>
+      <c r="AB59" s="244"/>
+      <c r="AC59" s="245"/>
       <c r="AD59" s="129"/>
-      <c r="AE59" s="276"/>
-      <c r="AF59" s="277"/>
-      <c r="AG59" s="277"/>
-      <c r="AH59" s="278"/>
+      <c r="AE59" s="243"/>
+      <c r="AF59" s="244"/>
+      <c r="AG59" s="244"/>
+      <c r="AH59" s="245"/>
       <c r="AI59" s="119"/>
       <c r="AJ59" s="119"/>
-      <c r="AL59" s="238"/>
-      <c r="AM59" s="239"/>
-      <c r="AN59" s="239"/>
-      <c r="AO59" s="240"/>
+      <c r="AL59" s="280"/>
+      <c r="AM59" s="281"/>
+      <c r="AN59" s="281"/>
+      <c r="AO59" s="282"/>
     </row>
     <row r="60" spans="3:47" ht="11.25" customHeight="1">
       <c r="E60" s="56">
         <v>5</v>
       </c>
-      <c r="F60" s="276"/>
-      <c r="G60" s="277"/>
-      <c r="H60" s="277"/>
-      <c r="I60" s="278"/>
-      <c r="J60" s="264"/>
-      <c r="K60" s="264"/>
-      <c r="L60" s="264"/>
-      <c r="M60" s="264"/>
-      <c r="N60" s="263"/>
-      <c r="O60" s="263"/>
-      <c r="P60" s="263"/>
-      <c r="Q60" s="263"/>
-      <c r="R60" s="263"/>
-      <c r="S60" s="263"/>
-      <c r="T60" s="263"/>
-      <c r="U60" s="263"/>
-      <c r="V60" s="265"/>
-      <c r="W60" s="266"/>
-      <c r="X60" s="266"/>
-      <c r="Y60" s="266"/>
-      <c r="Z60" s="267"/>
-      <c r="AA60" s="276"/>
-      <c r="AB60" s="277"/>
-      <c r="AC60" s="278"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="244"/>
+      <c r="H60" s="244"/>
+      <c r="I60" s="245"/>
+      <c r="J60" s="276"/>
+      <c r="K60" s="276"/>
+      <c r="L60" s="276"/>
+      <c r="M60" s="276"/>
+      <c r="N60" s="246"/>
+      <c r="O60" s="246"/>
+      <c r="P60" s="246"/>
+      <c r="Q60" s="246"/>
+      <c r="R60" s="246"/>
+      <c r="S60" s="246"/>
+      <c r="T60" s="246"/>
+      <c r="U60" s="246"/>
+      <c r="V60" s="240"/>
+      <c r="W60" s="241"/>
+      <c r="X60" s="241"/>
+      <c r="Y60" s="241"/>
+      <c r="Z60" s="242"/>
+      <c r="AA60" s="243"/>
+      <c r="AB60" s="244"/>
+      <c r="AC60" s="245"/>
       <c r="AD60" s="129"/>
-      <c r="AE60" s="276"/>
-      <c r="AF60" s="277"/>
-      <c r="AG60" s="277"/>
-      <c r="AH60" s="278"/>
+      <c r="AE60" s="243"/>
+      <c r="AF60" s="244"/>
+      <c r="AG60" s="244"/>
+      <c r="AH60" s="245"/>
       <c r="AI60" s="119"/>
       <c r="AJ60" s="119"/>
-      <c r="AL60" s="238"/>
-      <c r="AM60" s="239"/>
-      <c r="AN60" s="239"/>
-      <c r="AO60" s="240"/>
+      <c r="AL60" s="280"/>
+      <c r="AM60" s="281"/>
+      <c r="AN60" s="281"/>
+      <c r="AO60" s="282"/>
     </row>
     <row r="61" spans="3:47" ht="11.25" customHeight="1">
       <c r="E61" s="56">
         <v>6</v>
       </c>
-      <c r="F61" s="276"/>
-      <c r="G61" s="277"/>
-      <c r="H61" s="277"/>
-      <c r="I61" s="278"/>
-      <c r="J61" s="264"/>
-      <c r="K61" s="264"/>
-      <c r="L61" s="264"/>
-      <c r="M61" s="264"/>
-      <c r="N61" s="263"/>
-      <c r="O61" s="263"/>
-      <c r="P61" s="263"/>
-      <c r="Q61" s="263"/>
-      <c r="R61" s="263"/>
-      <c r="S61" s="263"/>
-      <c r="T61" s="263"/>
-      <c r="U61" s="263"/>
-      <c r="V61" s="265"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="266"/>
-      <c r="Z61" s="267"/>
-      <c r="AA61" s="276"/>
-      <c r="AB61" s="277"/>
-      <c r="AC61" s="278"/>
+      <c r="F61" s="243"/>
+      <c r="G61" s="244"/>
+      <c r="H61" s="244"/>
+      <c r="I61" s="245"/>
+      <c r="J61" s="276"/>
+      <c r="K61" s="276"/>
+      <c r="L61" s="276"/>
+      <c r="M61" s="276"/>
+      <c r="N61" s="246"/>
+      <c r="O61" s="246"/>
+      <c r="P61" s="246"/>
+      <c r="Q61" s="246"/>
+      <c r="R61" s="246"/>
+      <c r="S61" s="246"/>
+      <c r="T61" s="246"/>
+      <c r="U61" s="246"/>
+      <c r="V61" s="240"/>
+      <c r="W61" s="241"/>
+      <c r="X61" s="241"/>
+      <c r="Y61" s="241"/>
+      <c r="Z61" s="242"/>
+      <c r="AA61" s="243"/>
+      <c r="AB61" s="244"/>
+      <c r="AC61" s="245"/>
       <c r="AD61" s="129"/>
-      <c r="AE61" s="276"/>
-      <c r="AF61" s="277"/>
-      <c r="AG61" s="277"/>
-      <c r="AH61" s="278"/>
+      <c r="AE61" s="243"/>
+      <c r="AF61" s="244"/>
+      <c r="AG61" s="244"/>
+      <c r="AH61" s="245"/>
       <c r="AI61" s="119"/>
       <c r="AJ61" s="119"/>
-      <c r="AL61" s="238"/>
-      <c r="AM61" s="239"/>
-      <c r="AN61" s="239"/>
-      <c r="AO61" s="240"/>
+      <c r="AL61" s="280"/>
+      <c r="AM61" s="281"/>
+      <c r="AN61" s="281"/>
+      <c r="AO61" s="282"/>
     </row>
     <row r="62" spans="3:47" ht="11.25" customHeight="1">
       <c r="E62" s="56">
         <v>7</v>
       </c>
-      <c r="F62" s="276"/>
-      <c r="G62" s="277"/>
-      <c r="H62" s="277"/>
-      <c r="I62" s="278"/>
-      <c r="J62" s="264"/>
-      <c r="K62" s="264"/>
-      <c r="L62" s="264"/>
-      <c r="M62" s="264"/>
-      <c r="N62" s="263"/>
-      <c r="O62" s="263"/>
-      <c r="P62" s="263"/>
-      <c r="Q62" s="263"/>
-      <c r="R62" s="263"/>
-      <c r="S62" s="263"/>
-      <c r="T62" s="263"/>
-      <c r="U62" s="263"/>
-      <c r="V62" s="265"/>
-      <c r="W62" s="266"/>
-      <c r="X62" s="266"/>
-      <c r="Y62" s="266"/>
-      <c r="Z62" s="267"/>
-      <c r="AA62" s="276"/>
-      <c r="AB62" s="277"/>
-      <c r="AC62" s="278"/>
+      <c r="F62" s="243"/>
+      <c r="G62" s="244"/>
+      <c r="H62" s="244"/>
+      <c r="I62" s="245"/>
+      <c r="J62" s="276"/>
+      <c r="K62" s="276"/>
+      <c r="L62" s="276"/>
+      <c r="M62" s="276"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="240"/>
+      <c r="W62" s="241"/>
+      <c r="X62" s="241"/>
+      <c r="Y62" s="241"/>
+      <c r="Z62" s="242"/>
+      <c r="AA62" s="243"/>
+      <c r="AB62" s="244"/>
+      <c r="AC62" s="245"/>
       <c r="AD62" s="129"/>
-      <c r="AE62" s="276"/>
-      <c r="AF62" s="277"/>
-      <c r="AG62" s="277"/>
-      <c r="AH62" s="278"/>
+      <c r="AE62" s="243"/>
+      <c r="AF62" s="244"/>
+      <c r="AG62" s="244"/>
+      <c r="AH62" s="245"/>
       <c r="AI62" s="119"/>
       <c r="AJ62" s="119"/>
-      <c r="AL62" s="238"/>
-      <c r="AM62" s="239"/>
-      <c r="AN62" s="239"/>
-      <c r="AO62" s="240"/>
+      <c r="AL62" s="280"/>
+      <c r="AM62" s="281"/>
+      <c r="AN62" s="281"/>
+      <c r="AO62" s="282"/>
     </row>
     <row r="63" spans="3:47" ht="11.25" customHeight="1">
       <c r="E63" s="56">
         <v>8</v>
       </c>
-      <c r="F63" s="276"/>
-      <c r="G63" s="277"/>
-      <c r="H63" s="277"/>
-      <c r="I63" s="278"/>
-      <c r="J63" s="264"/>
-      <c r="K63" s="264"/>
-      <c r="L63" s="264"/>
-      <c r="M63" s="264"/>
-      <c r="N63" s="263"/>
-      <c r="O63" s="263"/>
-      <c r="P63" s="263"/>
-      <c r="Q63" s="263"/>
-      <c r="R63" s="263"/>
-      <c r="S63" s="263"/>
-      <c r="T63" s="263"/>
-      <c r="U63" s="263"/>
-      <c r="V63" s="265"/>
-      <c r="W63" s="266"/>
-      <c r="X63" s="266"/>
-      <c r="Y63" s="266"/>
-      <c r="Z63" s="267"/>
-      <c r="AA63" s="276"/>
-      <c r="AB63" s="277"/>
-      <c r="AC63" s="278"/>
+      <c r="F63" s="243"/>
+      <c r="G63" s="244"/>
+      <c r="H63" s="244"/>
+      <c r="I63" s="245"/>
+      <c r="J63" s="276"/>
+      <c r="K63" s="276"/>
+      <c r="L63" s="276"/>
+      <c r="M63" s="276"/>
+      <c r="N63" s="246"/>
+      <c r="O63" s="246"/>
+      <c r="P63" s="246"/>
+      <c r="Q63" s="246"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="246"/>
+      <c r="T63" s="246"/>
+      <c r="U63" s="246"/>
+      <c r="V63" s="240"/>
+      <c r="W63" s="241"/>
+      <c r="X63" s="241"/>
+      <c r="Y63" s="241"/>
+      <c r="Z63" s="242"/>
+      <c r="AA63" s="243"/>
+      <c r="AB63" s="244"/>
+      <c r="AC63" s="245"/>
       <c r="AD63" s="129"/>
-      <c r="AE63" s="276"/>
-      <c r="AF63" s="277"/>
-      <c r="AG63" s="277"/>
-      <c r="AH63" s="278"/>
+      <c r="AE63" s="243"/>
+      <c r="AF63" s="244"/>
+      <c r="AG63" s="244"/>
+      <c r="AH63" s="245"/>
       <c r="AI63" s="119"/>
       <c r="AJ63" s="119"/>
-      <c r="AL63" s="238"/>
-      <c r="AM63" s="239"/>
-      <c r="AN63" s="239"/>
-      <c r="AO63" s="240"/>
+      <c r="AL63" s="280"/>
+      <c r="AM63" s="281"/>
+      <c r="AN63" s="281"/>
+      <c r="AO63" s="282"/>
     </row>
     <row r="64" spans="3:47" ht="11.25" customHeight="1">
       <c r="E64" s="56">
         <v>9</v>
       </c>
-      <c r="F64" s="276"/>
-      <c r="G64" s="277"/>
-      <c r="H64" s="277"/>
-      <c r="I64" s="278"/>
-      <c r="J64" s="264"/>
-      <c r="K64" s="264"/>
-      <c r="L64" s="264"/>
-      <c r="M64" s="264"/>
-      <c r="N64" s="263"/>
-      <c r="O64" s="263"/>
-      <c r="P64" s="263"/>
-      <c r="Q64" s="263"/>
-      <c r="R64" s="263"/>
-      <c r="S64" s="263"/>
-      <c r="T64" s="263"/>
-      <c r="U64" s="263"/>
-      <c r="V64" s="265"/>
-      <c r="W64" s="266"/>
-      <c r="X64" s="266"/>
-      <c r="Y64" s="266"/>
-      <c r="Z64" s="267"/>
-      <c r="AA64" s="276"/>
-      <c r="AB64" s="277"/>
-      <c r="AC64" s="278"/>
+      <c r="F64" s="243"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="245"/>
+      <c r="J64" s="276"/>
+      <c r="K64" s="276"/>
+      <c r="L64" s="276"/>
+      <c r="M64" s="276"/>
+      <c r="N64" s="246"/>
+      <c r="O64" s="246"/>
+      <c r="P64" s="246"/>
+      <c r="Q64" s="246"/>
+      <c r="R64" s="246"/>
+      <c r="S64" s="246"/>
+      <c r="T64" s="246"/>
+      <c r="U64" s="246"/>
+      <c r="V64" s="240"/>
+      <c r="W64" s="241"/>
+      <c r="X64" s="241"/>
+      <c r="Y64" s="241"/>
+      <c r="Z64" s="242"/>
+      <c r="AA64" s="243"/>
+      <c r="AB64" s="244"/>
+      <c r="AC64" s="245"/>
       <c r="AD64" s="129"/>
-      <c r="AE64" s="276"/>
-      <c r="AF64" s="277"/>
-      <c r="AG64" s="277"/>
-      <c r="AH64" s="278"/>
+      <c r="AE64" s="243"/>
+      <c r="AF64" s="244"/>
+      <c r="AG64" s="244"/>
+      <c r="AH64" s="245"/>
       <c r="AI64" s="119"/>
       <c r="AJ64" s="119"/>
-      <c r="AL64" s="238"/>
-      <c r="AM64" s="239"/>
-      <c r="AN64" s="239"/>
-      <c r="AO64" s="240"/>
+      <c r="AL64" s="280"/>
+      <c r="AM64" s="281"/>
+      <c r="AN64" s="281"/>
+      <c r="AO64" s="282"/>
     </row>
     <row r="65" spans="3:53" ht="11.25" customHeight="1">
       <c r="E65" s="56">
         <v>10</v>
       </c>
-      <c r="F65" s="276"/>
-      <c r="G65" s="277"/>
-      <c r="H65" s="277"/>
-      <c r="I65" s="278"/>
-      <c r="J65" s="264"/>
-      <c r="K65" s="264"/>
-      <c r="L65" s="264"/>
-      <c r="M65" s="264"/>
-      <c r="N65" s="263"/>
-      <c r="O65" s="263"/>
-      <c r="P65" s="263"/>
-      <c r="Q65" s="263"/>
-      <c r="R65" s="263"/>
-      <c r="S65" s="263"/>
-      <c r="T65" s="263"/>
-      <c r="U65" s="263"/>
-      <c r="V65" s="265"/>
-      <c r="W65" s="266"/>
-      <c r="X65" s="266"/>
-      <c r="Y65" s="266"/>
-      <c r="Z65" s="267"/>
-      <c r="AA65" s="276"/>
-      <c r="AB65" s="277"/>
-      <c r="AC65" s="278"/>
+      <c r="F65" s="243"/>
+      <c r="G65" s="244"/>
+      <c r="H65" s="244"/>
+      <c r="I65" s="245"/>
+      <c r="J65" s="276"/>
+      <c r="K65" s="276"/>
+      <c r="L65" s="276"/>
+      <c r="M65" s="276"/>
+      <c r="N65" s="246"/>
+      <c r="O65" s="246"/>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="246"/>
+      <c r="R65" s="246"/>
+      <c r="S65" s="246"/>
+      <c r="T65" s="246"/>
+      <c r="U65" s="246"/>
+      <c r="V65" s="240"/>
+      <c r="W65" s="241"/>
+      <c r="X65" s="241"/>
+      <c r="Y65" s="241"/>
+      <c r="Z65" s="242"/>
+      <c r="AA65" s="243"/>
+      <c r="AB65" s="244"/>
+      <c r="AC65" s="245"/>
       <c r="AD65" s="129"/>
-      <c r="AE65" s="276"/>
-      <c r="AF65" s="277"/>
-      <c r="AG65" s="277"/>
-      <c r="AH65" s="278"/>
+      <c r="AE65" s="243"/>
+      <c r="AF65" s="244"/>
+      <c r="AG65" s="244"/>
+      <c r="AH65" s="245"/>
       <c r="AI65" s="119"/>
       <c r="AJ65" s="119"/>
-      <c r="AL65" s="238"/>
-      <c r="AM65" s="239"/>
-      <c r="AN65" s="239"/>
-      <c r="AO65" s="240"/>
+      <c r="AL65" s="280"/>
+      <c r="AM65" s="281"/>
+      <c r="AN65" s="281"/>
+      <c r="AO65" s="282"/>
     </row>
     <row r="66" spans="3:53" ht="11.25" customHeight="1">
       <c r="E66" s="84"/>
@@ -9924,49 +9879,49 @@
       <c r="AW72" s="31"/>
     </row>
     <row r="73" spans="3:53">
-      <c r="D73" s="224" t="s">
+      <c r="D73" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="226" t="s">
+      <c r="E73" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="227"/>
-      <c r="G73" s="227"/>
-      <c r="H73" s="227"/>
-      <c r="I73" s="227"/>
-      <c r="J73" s="228"/>
-      <c r="K73" s="226" t="s">
+      <c r="F73" s="267"/>
+      <c r="G73" s="267"/>
+      <c r="H73" s="267"/>
+      <c r="I73" s="267"/>
+      <c r="J73" s="268"/>
+      <c r="K73" s="266" t="s">
         <v>63</v>
       </c>
-      <c r="L73" s="227"/>
-      <c r="M73" s="227"/>
-      <c r="N73" s="228"/>
-      <c r="O73" s="272" t="s">
+      <c r="L73" s="267"/>
+      <c r="M73" s="267"/>
+      <c r="N73" s="268"/>
+      <c r="O73" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="P73" s="309" t="s">
+      <c r="P73" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="Q73" s="310"/>
-      <c r="R73" s="310"/>
-      <c r="S73" s="310"/>
-      <c r="T73" s="310"/>
-      <c r="U73" s="311"/>
-      <c r="V73" s="226" t="s">
+      <c r="Q73" s="248"/>
+      <c r="R73" s="248"/>
+      <c r="S73" s="248"/>
+      <c r="T73" s="248"/>
+      <c r="U73" s="249"/>
+      <c r="V73" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="W73" s="227"/>
-      <c r="X73" s="227"/>
-      <c r="Y73" s="227"/>
-      <c r="Z73" s="227"/>
-      <c r="AA73" s="227"/>
-      <c r="AB73" s="227"/>
-      <c r="AC73" s="227"/>
-      <c r="AD73" s="227"/>
-      <c r="AE73" s="227"/>
-      <c r="AF73" s="227"/>
-      <c r="AG73" s="227"/>
-      <c r="AH73" s="228"/>
+      <c r="W73" s="267"/>
+      <c r="X73" s="267"/>
+      <c r="Y73" s="267"/>
+      <c r="Z73" s="267"/>
+      <c r="AA73" s="267"/>
+      <c r="AB73" s="267"/>
+      <c r="AC73" s="267"/>
+      <c r="AD73" s="267"/>
+      <c r="AE73" s="267"/>
+      <c r="AF73" s="267"/>
+      <c r="AG73" s="267"/>
+      <c r="AH73" s="268"/>
       <c r="AK73" s="31"/>
       <c r="AL73" s="31"/>
       <c r="AM73" s="31"/>
@@ -9982,18 +9937,18 @@
       <c r="AW73" s="31"/>
     </row>
     <row r="74" spans="3:53">
-      <c r="D74" s="225"/>
-      <c r="E74" s="229"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230"/>
-      <c r="I74" s="230"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="229"/>
-      <c r="L74" s="230"/>
-      <c r="M74" s="230"/>
-      <c r="N74" s="231"/>
-      <c r="O74" s="273"/>
+      <c r="D74" s="301"/>
+      <c r="E74" s="269"/>
+      <c r="F74" s="270"/>
+      <c r="G74" s="270"/>
+      <c r="H74" s="270"/>
+      <c r="I74" s="270"/>
+      <c r="J74" s="271"/>
+      <c r="K74" s="269"/>
+      <c r="L74" s="270"/>
+      <c r="M74" s="270"/>
+      <c r="N74" s="271"/>
+      <c r="O74" s="330"/>
       <c r="P74" s="94" t="s">
         <v>65</v>
       </c>
@@ -10006,23 +9961,23 @@
       <c r="S74" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="304" t="s">
+      <c r="T74" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="U74" s="305"/>
-      <c r="V74" s="229"/>
-      <c r="W74" s="230"/>
-      <c r="X74" s="230"/>
-      <c r="Y74" s="230"/>
-      <c r="Z74" s="230"/>
-      <c r="AA74" s="230"/>
-      <c r="AB74" s="230"/>
-      <c r="AC74" s="230"/>
-      <c r="AD74" s="230"/>
-      <c r="AE74" s="230"/>
-      <c r="AF74" s="230"/>
-      <c r="AG74" s="230"/>
-      <c r="AH74" s="231"/>
+      <c r="U74" s="260"/>
+      <c r="V74" s="269"/>
+      <c r="W74" s="270"/>
+      <c r="X74" s="270"/>
+      <c r="Y74" s="270"/>
+      <c r="Z74" s="270"/>
+      <c r="AA74" s="270"/>
+      <c r="AB74" s="270"/>
+      <c r="AC74" s="270"/>
+      <c r="AD74" s="270"/>
+      <c r="AE74" s="270"/>
+      <c r="AF74" s="270"/>
+      <c r="AG74" s="270"/>
+      <c r="AH74" s="271"/>
       <c r="AK74" s="31"/>
       <c r="AL74" s="31"/>
       <c r="AM74" s="31"/>
@@ -10041,36 +9996,36 @@
       <c r="D75" s="95">
         <v>1</v>
       </c>
-      <c r="E75" s="148"/>
-      <c r="F75" s="149"/>
-      <c r="G75" s="149"/>
-      <c r="H75" s="149"/>
-      <c r="I75" s="149"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="148"/>
-      <c r="L75" s="149"/>
-      <c r="M75" s="149"/>
-      <c r="N75" s="150"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="156"/>
+      <c r="N75" s="157"/>
       <c r="O75" s="96"/>
       <c r="P75" s="130"/>
       <c r="Q75" s="130"/>
       <c r="R75" s="130"/>
       <c r="S75" s="130"/>
-      <c r="T75" s="268"/>
-      <c r="U75" s="269"/>
-      <c r="V75" s="148"/>
-      <c r="W75" s="149"/>
-      <c r="X75" s="149"/>
-      <c r="Y75" s="149"/>
-      <c r="Z75" s="149"/>
-      <c r="AA75" s="149"/>
-      <c r="AB75" s="149"/>
-      <c r="AC75" s="149"/>
-      <c r="AD75" s="149"/>
-      <c r="AE75" s="149"/>
-      <c r="AF75" s="149"/>
-      <c r="AG75" s="149"/>
-      <c r="AH75" s="150"/>
+      <c r="T75" s="261"/>
+      <c r="U75" s="262"/>
+      <c r="V75" s="155"/>
+      <c r="W75" s="156"/>
+      <c r="X75" s="156"/>
+      <c r="Y75" s="156"/>
+      <c r="Z75" s="156"/>
+      <c r="AA75" s="156"/>
+      <c r="AB75" s="156"/>
+      <c r="AC75" s="156"/>
+      <c r="AD75" s="156"/>
+      <c r="AE75" s="156"/>
+      <c r="AF75" s="156"/>
+      <c r="AG75" s="156"/>
+      <c r="AH75" s="157"/>
       <c r="AK75" s="31"/>
       <c r="AL75" s="31"/>
       <c r="AM75" s="31"/>
@@ -10089,36 +10044,36 @@
       <c r="D76" s="95">
         <v>2</v>
       </c>
-      <c r="E76" s="148"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="149"/>
-      <c r="H76" s="149"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="148"/>
-      <c r="L76" s="149"/>
-      <c r="M76" s="149"/>
-      <c r="N76" s="150"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="155"/>
+      <c r="L76" s="156"/>
+      <c r="M76" s="156"/>
+      <c r="N76" s="157"/>
       <c r="O76" s="97"/>
       <c r="P76" s="130"/>
       <c r="Q76" s="130"/>
       <c r="R76" s="130"/>
       <c r="S76" s="130"/>
-      <c r="T76" s="268"/>
-      <c r="U76" s="269"/>
-      <c r="V76" s="148"/>
-      <c r="W76" s="149"/>
-      <c r="X76" s="149"/>
-      <c r="Y76" s="149"/>
-      <c r="Z76" s="149"/>
-      <c r="AA76" s="149"/>
-      <c r="AB76" s="149"/>
-      <c r="AC76" s="149"/>
-      <c r="AD76" s="149"/>
-      <c r="AE76" s="149"/>
-      <c r="AF76" s="149"/>
-      <c r="AG76" s="149"/>
-      <c r="AH76" s="150"/>
+      <c r="T76" s="261"/>
+      <c r="U76" s="262"/>
+      <c r="V76" s="155"/>
+      <c r="W76" s="156"/>
+      <c r="X76" s="156"/>
+      <c r="Y76" s="156"/>
+      <c r="Z76" s="156"/>
+      <c r="AA76" s="156"/>
+      <c r="AB76" s="156"/>
+      <c r="AC76" s="156"/>
+      <c r="AD76" s="156"/>
+      <c r="AE76" s="156"/>
+      <c r="AF76" s="156"/>
+      <c r="AG76" s="156"/>
+      <c r="AH76" s="157"/>
       <c r="AK76" s="31"/>
       <c r="AL76" s="31"/>
       <c r="AM76" s="31"/>
@@ -10137,36 +10092,36 @@
       <c r="D77" s="95">
         <v>3</v>
       </c>
-      <c r="E77" s="148"/>
-      <c r="F77" s="149"/>
-      <c r="G77" s="149"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="149"/>
-      <c r="J77" s="150"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="149"/>
-      <c r="N77" s="150"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="156"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="157"/>
       <c r="O77" s="97"/>
       <c r="P77" s="130"/>
       <c r="Q77" s="130"/>
       <c r="R77" s="130"/>
       <c r="S77" s="130"/>
-      <c r="T77" s="268"/>
-      <c r="U77" s="269"/>
-      <c r="V77" s="148"/>
-      <c r="W77" s="149"/>
-      <c r="X77" s="149"/>
-      <c r="Y77" s="149"/>
-      <c r="Z77" s="149"/>
-      <c r="AA77" s="149"/>
-      <c r="AB77" s="149"/>
-      <c r="AC77" s="149"/>
-      <c r="AD77" s="149"/>
-      <c r="AE77" s="149"/>
-      <c r="AF77" s="149"/>
-      <c r="AG77" s="149"/>
-      <c r="AH77" s="150"/>
+      <c r="T77" s="261"/>
+      <c r="U77" s="262"/>
+      <c r="V77" s="155"/>
+      <c r="W77" s="156"/>
+      <c r="X77" s="156"/>
+      <c r="Y77" s="156"/>
+      <c r="Z77" s="156"/>
+      <c r="AA77" s="156"/>
+      <c r="AB77" s="156"/>
+      <c r="AC77" s="156"/>
+      <c r="AD77" s="156"/>
+      <c r="AE77" s="156"/>
+      <c r="AF77" s="156"/>
+      <c r="AG77" s="156"/>
+      <c r="AH77" s="157"/>
       <c r="AK77" s="31"/>
       <c r="AL77" s="31"/>
       <c r="AM77" s="31"/>
@@ -10304,151 +10259,151 @@
       <c r="D82" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="270" t="s">
+      <c r="E82" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="233"/>
-      <c r="G82" s="233"/>
-      <c r="H82" s="233"/>
-      <c r="I82" s="233"/>
-      <c r="J82" s="271"/>
-      <c r="K82" s="270" t="s">
+      <c r="F82" s="303"/>
+      <c r="G82" s="303"/>
+      <c r="H82" s="303"/>
+      <c r="I82" s="303"/>
+      <c r="J82" s="328"/>
+      <c r="K82" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="L82" s="233"/>
-      <c r="M82" s="233"/>
-      <c r="N82" s="233"/>
-      <c r="O82" s="233"/>
-      <c r="P82" s="233"/>
-      <c r="Q82" s="234"/>
-      <c r="R82" s="232" t="s">
+      <c r="L82" s="303"/>
+      <c r="M82" s="303"/>
+      <c r="N82" s="303"/>
+      <c r="O82" s="303"/>
+      <c r="P82" s="303"/>
+      <c r="Q82" s="304"/>
+      <c r="R82" s="302" t="s">
         <v>88</v>
       </c>
-      <c r="S82" s="233"/>
-      <c r="T82" s="233"/>
-      <c r="U82" s="233"/>
-      <c r="V82" s="233"/>
-      <c r="W82" s="233"/>
-      <c r="X82" s="233"/>
-      <c r="Y82" s="234"/>
-      <c r="Z82" s="306" t="s">
+      <c r="S82" s="303"/>
+      <c r="T82" s="303"/>
+      <c r="U82" s="303"/>
+      <c r="V82" s="303"/>
+      <c r="W82" s="303"/>
+      <c r="X82" s="303"/>
+      <c r="Y82" s="304"/>
+      <c r="Z82" s="263" t="s">
         <v>28</v>
       </c>
-      <c r="AA82" s="307"/>
-      <c r="AB82" s="307"/>
-      <c r="AC82" s="307"/>
-      <c r="AD82" s="308"/>
-      <c r="AE82" s="315" t="s">
+      <c r="AA82" s="264"/>
+      <c r="AB82" s="264"/>
+      <c r="AC82" s="264"/>
+      <c r="AD82" s="265"/>
+      <c r="AE82" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="AF82" s="316"/>
-      <c r="AG82" s="316"/>
-      <c r="AH82" s="317"/>
+      <c r="AF82" s="257"/>
+      <c r="AG82" s="257"/>
+      <c r="AH82" s="258"/>
     </row>
     <row r="83" spans="1:54">
       <c r="D83" s="57">
         <v>1</v>
       </c>
-      <c r="E83" s="235"/>
-      <c r="F83" s="236"/>
-      <c r="G83" s="236"/>
-      <c r="H83" s="236"/>
-      <c r="I83" s="236"/>
-      <c r="J83" s="237"/>
-      <c r="K83" s="148"/>
-      <c r="L83" s="149"/>
-      <c r="M83" s="149"/>
-      <c r="N83" s="149"/>
-      <c r="O83" s="149"/>
-      <c r="P83" s="149"/>
-      <c r="Q83" s="150"/>
-      <c r="R83" s="148"/>
-      <c r="S83" s="149"/>
-      <c r="T83" s="149"/>
-      <c r="U83" s="149"/>
-      <c r="V83" s="149"/>
-      <c r="W83" s="149"/>
-      <c r="X83" s="149"/>
-      <c r="Y83" s="150"/>
-      <c r="Z83" s="148"/>
-      <c r="AA83" s="149"/>
-      <c r="AB83" s="149"/>
-      <c r="AC83" s="149"/>
-      <c r="AD83" s="150"/>
-      <c r="AE83" s="312"/>
-      <c r="AF83" s="313"/>
-      <c r="AG83" s="313"/>
-      <c r="AH83" s="314"/>
+      <c r="E83" s="250"/>
+      <c r="F83" s="251"/>
+      <c r="G83" s="251"/>
+      <c r="H83" s="251"/>
+      <c r="I83" s="251"/>
+      <c r="J83" s="252"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="156"/>
+      <c r="M83" s="156"/>
+      <c r="N83" s="156"/>
+      <c r="O83" s="156"/>
+      <c r="P83" s="156"/>
+      <c r="Q83" s="157"/>
+      <c r="R83" s="155"/>
+      <c r="S83" s="156"/>
+      <c r="T83" s="156"/>
+      <c r="U83" s="156"/>
+      <c r="V83" s="156"/>
+      <c r="W83" s="156"/>
+      <c r="X83" s="156"/>
+      <c r="Y83" s="157"/>
+      <c r="Z83" s="155"/>
+      <c r="AA83" s="156"/>
+      <c r="AB83" s="156"/>
+      <c r="AC83" s="156"/>
+      <c r="AD83" s="157"/>
+      <c r="AE83" s="253"/>
+      <c r="AF83" s="254"/>
+      <c r="AG83" s="254"/>
+      <c r="AH83" s="255"/>
     </row>
     <row r="84" spans="1:54">
       <c r="D84" s="57">
         <v>2</v>
       </c>
-      <c r="E84" s="235"/>
-      <c r="F84" s="236"/>
-      <c r="G84" s="236"/>
-      <c r="H84" s="236"/>
-      <c r="I84" s="236"/>
-      <c r="J84" s="237"/>
-      <c r="K84" s="148"/>
-      <c r="L84" s="149"/>
-      <c r="M84" s="149"/>
-      <c r="N84" s="149"/>
-      <c r="O84" s="149"/>
-      <c r="P84" s="149"/>
-      <c r="Q84" s="150"/>
-      <c r="R84" s="148"/>
-      <c r="S84" s="149"/>
-      <c r="T84" s="149"/>
-      <c r="U84" s="149"/>
-      <c r="V84" s="149"/>
-      <c r="W84" s="149"/>
-      <c r="X84" s="149"/>
-      <c r="Y84" s="150"/>
-      <c r="Z84" s="148"/>
-      <c r="AA84" s="149"/>
-      <c r="AB84" s="149"/>
-      <c r="AC84" s="149"/>
-      <c r="AD84" s="150"/>
-      <c r="AE84" s="312"/>
-      <c r="AF84" s="313"/>
-      <c r="AG84" s="313"/>
-      <c r="AH84" s="314"/>
+      <c r="E84" s="250"/>
+      <c r="F84" s="251"/>
+      <c r="G84" s="251"/>
+      <c r="H84" s="251"/>
+      <c r="I84" s="251"/>
+      <c r="J84" s="252"/>
+      <c r="K84" s="155"/>
+      <c r="L84" s="156"/>
+      <c r="M84" s="156"/>
+      <c r="N84" s="156"/>
+      <c r="O84" s="156"/>
+      <c r="P84" s="156"/>
+      <c r="Q84" s="157"/>
+      <c r="R84" s="155"/>
+      <c r="S84" s="156"/>
+      <c r="T84" s="156"/>
+      <c r="U84" s="156"/>
+      <c r="V84" s="156"/>
+      <c r="W84" s="156"/>
+      <c r="X84" s="156"/>
+      <c r="Y84" s="157"/>
+      <c r="Z84" s="155"/>
+      <c r="AA84" s="156"/>
+      <c r="AB84" s="156"/>
+      <c r="AC84" s="156"/>
+      <c r="AD84" s="157"/>
+      <c r="AE84" s="253"/>
+      <c r="AF84" s="254"/>
+      <c r="AG84" s="254"/>
+      <c r="AH84" s="255"/>
     </row>
     <row r="85" spans="1:54">
       <c r="D85" s="57">
         <v>3</v>
       </c>
-      <c r="E85" s="235"/>
-      <c r="F85" s="236"/>
-      <c r="G85" s="236"/>
-      <c r="H85" s="236"/>
-      <c r="I85" s="236"/>
-      <c r="J85" s="237"/>
-      <c r="K85" s="148"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="149"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="149"/>
-      <c r="P85" s="149"/>
-      <c r="Q85" s="150"/>
-      <c r="R85" s="148"/>
-      <c r="S85" s="149"/>
-      <c r="T85" s="149"/>
-      <c r="U85" s="149"/>
-      <c r="V85" s="149"/>
-      <c r="W85" s="149"/>
-      <c r="X85" s="149"/>
-      <c r="Y85" s="150"/>
-      <c r="Z85" s="148"/>
-      <c r="AA85" s="149"/>
-      <c r="AB85" s="149"/>
-      <c r="AC85" s="149"/>
-      <c r="AD85" s="150"/>
-      <c r="AE85" s="312"/>
-      <c r="AF85" s="313"/>
-      <c r="AG85" s="313"/>
-      <c r="AH85" s="314"/>
+      <c r="E85" s="250"/>
+      <c r="F85" s="251"/>
+      <c r="G85" s="251"/>
+      <c r="H85" s="251"/>
+      <c r="I85" s="251"/>
+      <c r="J85" s="252"/>
+      <c r="K85" s="155"/>
+      <c r="L85" s="156"/>
+      <c r="M85" s="156"/>
+      <c r="N85" s="156"/>
+      <c r="O85" s="156"/>
+      <c r="P85" s="156"/>
+      <c r="Q85" s="157"/>
+      <c r="R85" s="155"/>
+      <c r="S85" s="156"/>
+      <c r="T85" s="156"/>
+      <c r="U85" s="156"/>
+      <c r="V85" s="156"/>
+      <c r="W85" s="156"/>
+      <c r="X85" s="156"/>
+      <c r="Y85" s="157"/>
+      <c r="Z85" s="155"/>
+      <c r="AA85" s="156"/>
+      <c r="AB85" s="156"/>
+      <c r="AC85" s="156"/>
+      <c r="AD85" s="157"/>
+      <c r="AE85" s="253"/>
+      <c r="AF85" s="254"/>
+      <c r="AG85" s="254"/>
+      <c r="AH85" s="255"/>
     </row>
     <row r="86" spans="1:54">
       <c r="AN86" s="31"/>
@@ -12108,134 +12063,134 @@
     <row r="129" spans="1:41">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
-      <c r="C129" s="292" t="s">
+      <c r="C129" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="323" t="s">
+      <c r="D129" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="320"/>
-      <c r="F129" s="320"/>
-      <c r="G129" s="320"/>
-      <c r="H129" s="320"/>
-      <c r="I129" s="320"/>
-      <c r="J129" s="320"/>
-      <c r="K129" s="320"/>
-      <c r="L129" s="320"/>
-      <c r="M129" s="320"/>
-      <c r="N129" s="320"/>
-      <c r="O129" s="320"/>
-      <c r="P129" s="320"/>
-      <c r="Q129" s="320"/>
-      <c r="R129" s="320"/>
-      <c r="S129" s="320"/>
-      <c r="T129" s="320"/>
-      <c r="U129" s="320"/>
-      <c r="V129" s="320"/>
-      <c r="W129" s="320"/>
-      <c r="X129" s="320"/>
-      <c r="Y129" s="320"/>
-      <c r="Z129" s="320"/>
-      <c r="AA129" s="322"/>
+      <c r="E129" s="226"/>
+      <c r="F129" s="226"/>
+      <c r="G129" s="226"/>
+      <c r="H129" s="226"/>
+      <c r="I129" s="226"/>
+      <c r="J129" s="226"/>
+      <c r="K129" s="226"/>
+      <c r="L129" s="226"/>
+      <c r="M129" s="226"/>
+      <c r="N129" s="226"/>
+      <c r="O129" s="226"/>
+      <c r="P129" s="226"/>
+      <c r="Q129" s="226"/>
+      <c r="R129" s="226"/>
+      <c r="S129" s="226"/>
+      <c r="T129" s="226"/>
+      <c r="U129" s="226"/>
+      <c r="V129" s="226"/>
+      <c r="W129" s="226"/>
+      <c r="X129" s="226"/>
+      <c r="Y129" s="226"/>
+      <c r="Z129" s="226"/>
+      <c r="AA129" s="228"/>
       <c r="AB129" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="AC129" s="326"/>
-      <c r="AD129" s="326"/>
-      <c r="AE129" s="326"/>
-      <c r="AF129" s="326"/>
-      <c r="AG129" s="326"/>
-      <c r="AH129" s="326"/>
-      <c r="AI129" s="327"/>
+      <c r="AC129" s="232"/>
+      <c r="AD129" s="232"/>
+      <c r="AE129" s="232"/>
+      <c r="AF129" s="232"/>
+      <c r="AG129" s="232"/>
+      <c r="AH129" s="232"/>
+      <c r="AI129" s="233"/>
       <c r="AJ129" s="101"/>
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="33"/>
       <c r="B130" s="62"/>
-      <c r="C130" s="294"/>
-      <c r="D130" s="323" t="s">
+      <c r="C130" s="278"/>
+      <c r="D130" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="324"/>
-      <c r="F130" s="324"/>
-      <c r="G130" s="324"/>
-      <c r="H130" s="324"/>
-      <c r="I130" s="324"/>
-      <c r="J130" s="324"/>
-      <c r="K130" s="325"/>
-      <c r="L130" s="323" t="s">
+      <c r="E130" s="230"/>
+      <c r="F130" s="230"/>
+      <c r="G130" s="230"/>
+      <c r="H130" s="230"/>
+      <c r="I130" s="230"/>
+      <c r="J130" s="230"/>
+      <c r="K130" s="231"/>
+      <c r="L130" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="324"/>
-      <c r="N130" s="324"/>
-      <c r="O130" s="325"/>
-      <c r="P130" s="323" t="s">
+      <c r="M130" s="230"/>
+      <c r="N130" s="230"/>
+      <c r="O130" s="231"/>
+      <c r="P130" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="Q130" s="324"/>
-      <c r="R130" s="324"/>
-      <c r="S130" s="324"/>
-      <c r="T130" s="325"/>
-      <c r="U130" s="323" t="s">
+      <c r="Q130" s="230"/>
+      <c r="R130" s="230"/>
+      <c r="S130" s="230"/>
+      <c r="T130" s="231"/>
+      <c r="U130" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="V130" s="324"/>
-      <c r="W130" s="324"/>
-      <c r="X130" s="324"/>
-      <c r="Y130" s="324"/>
-      <c r="Z130" s="324"/>
-      <c r="AA130" s="325"/>
-      <c r="AB130" s="328"/>
-      <c r="AC130" s="329"/>
-      <c r="AD130" s="329"/>
-      <c r="AE130" s="329"/>
-      <c r="AF130" s="329"/>
-      <c r="AG130" s="329"/>
-      <c r="AH130" s="329"/>
-      <c r="AI130" s="330"/>
+      <c r="V130" s="230"/>
+      <c r="W130" s="230"/>
+      <c r="X130" s="230"/>
+      <c r="Y130" s="230"/>
+      <c r="Z130" s="230"/>
+      <c r="AA130" s="231"/>
+      <c r="AB130" s="234"/>
+      <c r="AC130" s="235"/>
+      <c r="AD130" s="235"/>
+      <c r="AE130" s="235"/>
+      <c r="AF130" s="235"/>
+      <c r="AG130" s="235"/>
+      <c r="AH130" s="235"/>
+      <c r="AI130" s="236"/>
       <c r="AJ130" s="102"/>
       <c r="AK130" s="31"/>
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
-      <c r="C131" s="318" t="s">
+      <c r="C131" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="D131" s="319"/>
-      <c r="E131" s="319"/>
-      <c r="F131" s="319"/>
-      <c r="G131" s="319"/>
-      <c r="H131" s="319"/>
-      <c r="I131" s="319"/>
-      <c r="J131" s="319"/>
-      <c r="K131" s="319"/>
-      <c r="L131" s="319" t="s">
+      <c r="D131" s="225"/>
+      <c r="E131" s="225"/>
+      <c r="F131" s="225"/>
+      <c r="G131" s="225"/>
+      <c r="H131" s="225"/>
+      <c r="I131" s="225"/>
+      <c r="J131" s="225"/>
+      <c r="K131" s="225"/>
+      <c r="L131" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="M131" s="319"/>
-      <c r="N131" s="319"/>
-      <c r="O131" s="319"/>
-      <c r="P131" s="319"/>
-      <c r="Q131" s="319"/>
-      <c r="R131" s="319"/>
-      <c r="S131" s="319"/>
-      <c r="T131" s="319"/>
-      <c r="U131" s="319"/>
-      <c r="V131" s="319"/>
-      <c r="W131" s="319"/>
-      <c r="X131" s="319"/>
-      <c r="Y131" s="319"/>
-      <c r="Z131" s="319"/>
-      <c r="AA131" s="319"/>
-      <c r="AB131" s="319"/>
-      <c r="AC131" s="319"/>
-      <c r="AD131" s="319"/>
-      <c r="AE131" s="319"/>
-      <c r="AF131" s="319"/>
-      <c r="AG131" s="319"/>
-      <c r="AH131" s="319"/>
-      <c r="AI131" s="321"/>
+      <c r="M131" s="225"/>
+      <c r="N131" s="225"/>
+      <c r="O131" s="225"/>
+      <c r="P131" s="225"/>
+      <c r="Q131" s="225"/>
+      <c r="R131" s="225"/>
+      <c r="S131" s="225"/>
+      <c r="T131" s="225"/>
+      <c r="U131" s="225"/>
+      <c r="V131" s="225"/>
+      <c r="W131" s="225"/>
+      <c r="X131" s="225"/>
+      <c r="Y131" s="225"/>
+      <c r="Z131" s="225"/>
+      <c r="AA131" s="225"/>
+      <c r="AB131" s="225"/>
+      <c r="AC131" s="225"/>
+      <c r="AD131" s="225"/>
+      <c r="AE131" s="225"/>
+      <c r="AF131" s="225"/>
+      <c r="AG131" s="225"/>
+      <c r="AH131" s="225"/>
+      <c r="AI131" s="227"/>
       <c r="AJ131" s="103"/>
     </row>
     <row r="132" spans="1:41">
@@ -12244,80 +12199,80 @@
       <c r="C132" s="104">
         <v>1</v>
       </c>
-      <c r="D132" s="148"/>
-      <c r="E132" s="149"/>
-      <c r="F132" s="149"/>
-      <c r="G132" s="149"/>
-      <c r="H132" s="149"/>
-      <c r="I132" s="149"/>
-      <c r="J132" s="149"/>
-      <c r="K132" s="150"/>
-      <c r="L132" s="301"/>
-      <c r="M132" s="302"/>
-      <c r="N132" s="302"/>
-      <c r="O132" s="303"/>
-      <c r="P132" s="265"/>
-      <c r="Q132" s="266"/>
-      <c r="R132" s="266"/>
-      <c r="S132" s="266"/>
-      <c r="T132" s="267"/>
-      <c r="U132" s="148"/>
-      <c r="V132" s="149"/>
-      <c r="W132" s="149"/>
-      <c r="X132" s="149"/>
-      <c r="Y132" s="149"/>
-      <c r="Z132" s="149"/>
-      <c r="AA132" s="150"/>
-      <c r="AB132" s="151"/>
-      <c r="AC132" s="320"/>
-      <c r="AD132" s="320"/>
-      <c r="AE132" s="320"/>
-      <c r="AF132" s="320"/>
-      <c r="AG132" s="320"/>
-      <c r="AH132" s="320"/>
-      <c r="AI132" s="322"/>
+      <c r="D132" s="155"/>
+      <c r="E132" s="156"/>
+      <c r="F132" s="156"/>
+      <c r="G132" s="156"/>
+      <c r="H132" s="156"/>
+      <c r="I132" s="156"/>
+      <c r="J132" s="156"/>
+      <c r="K132" s="157"/>
+      <c r="L132" s="237"/>
+      <c r="M132" s="238"/>
+      <c r="N132" s="238"/>
+      <c r="O132" s="239"/>
+      <c r="P132" s="240"/>
+      <c r="Q132" s="241"/>
+      <c r="R132" s="241"/>
+      <c r="S132" s="241"/>
+      <c r="T132" s="242"/>
+      <c r="U132" s="155"/>
+      <c r="V132" s="156"/>
+      <c r="W132" s="156"/>
+      <c r="X132" s="156"/>
+      <c r="Y132" s="156"/>
+      <c r="Z132" s="156"/>
+      <c r="AA132" s="157"/>
+      <c r="AB132" s="158"/>
+      <c r="AC132" s="226"/>
+      <c r="AD132" s="226"/>
+      <c r="AE132" s="226"/>
+      <c r="AF132" s="226"/>
+      <c r="AG132" s="226"/>
+      <c r="AH132" s="226"/>
+      <c r="AI132" s="228"/>
       <c r="AJ132" s="88"/>
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
-      <c r="C133" s="318" t="s">
+      <c r="C133" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="D133" s="320"/>
-      <c r="E133" s="320"/>
-      <c r="F133" s="320"/>
-      <c r="G133" s="320"/>
-      <c r="H133" s="320"/>
-      <c r="I133" s="320"/>
-      <c r="J133" s="320"/>
-      <c r="K133" s="320"/>
-      <c r="L133" s="319" t="s">
+      <c r="D133" s="226"/>
+      <c r="E133" s="226"/>
+      <c r="F133" s="226"/>
+      <c r="G133" s="226"/>
+      <c r="H133" s="226"/>
+      <c r="I133" s="226"/>
+      <c r="J133" s="226"/>
+      <c r="K133" s="226"/>
+      <c r="L133" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="M133" s="320"/>
-      <c r="N133" s="320"/>
-      <c r="O133" s="320"/>
-      <c r="P133" s="320"/>
-      <c r="Q133" s="320"/>
-      <c r="R133" s="320"/>
-      <c r="S133" s="320"/>
-      <c r="T133" s="320"/>
-      <c r="U133" s="320"/>
-      <c r="V133" s="320"/>
-      <c r="W133" s="320"/>
-      <c r="X133" s="320"/>
-      <c r="Y133" s="320"/>
-      <c r="Z133" s="320"/>
-      <c r="AA133" s="320"/>
-      <c r="AB133" s="320"/>
-      <c r="AC133" s="320"/>
-      <c r="AD133" s="320"/>
-      <c r="AE133" s="320"/>
-      <c r="AF133" s="320"/>
-      <c r="AG133" s="320"/>
-      <c r="AH133" s="320"/>
-      <c r="AI133" s="322"/>
+      <c r="M133" s="226"/>
+      <c r="N133" s="226"/>
+      <c r="O133" s="226"/>
+      <c r="P133" s="226"/>
+      <c r="Q133" s="226"/>
+      <c r="R133" s="226"/>
+      <c r="S133" s="226"/>
+      <c r="T133" s="226"/>
+      <c r="U133" s="226"/>
+      <c r="V133" s="226"/>
+      <c r="W133" s="226"/>
+      <c r="X133" s="226"/>
+      <c r="Y133" s="226"/>
+      <c r="Z133" s="226"/>
+      <c r="AA133" s="226"/>
+      <c r="AB133" s="226"/>
+      <c r="AC133" s="226"/>
+      <c r="AD133" s="226"/>
+      <c r="AE133" s="226"/>
+      <c r="AF133" s="226"/>
+      <c r="AG133" s="226"/>
+      <c r="AH133" s="226"/>
+      <c r="AI133" s="228"/>
       <c r="AJ133" s="103"/>
     </row>
     <row r="134" spans="1:41">
@@ -12326,38 +12281,38 @@
       <c r="C134" s="104">
         <v>2</v>
       </c>
-      <c r="D134" s="148"/>
-      <c r="E134" s="149"/>
-      <c r="F134" s="149"/>
-      <c r="G134" s="149"/>
-      <c r="H134" s="149"/>
-      <c r="I134" s="149"/>
-      <c r="J134" s="149"/>
-      <c r="K134" s="150"/>
-      <c r="L134" s="301"/>
-      <c r="M134" s="302"/>
-      <c r="N134" s="302"/>
-      <c r="O134" s="303"/>
-      <c r="P134" s="265"/>
-      <c r="Q134" s="266"/>
-      <c r="R134" s="266"/>
-      <c r="S134" s="266"/>
-      <c r="T134" s="267"/>
-      <c r="U134" s="148"/>
-      <c r="V134" s="149"/>
-      <c r="W134" s="149"/>
-      <c r="X134" s="149"/>
-      <c r="Y134" s="149"/>
-      <c r="Z134" s="149"/>
-      <c r="AA134" s="150"/>
-      <c r="AB134" s="151"/>
-      <c r="AC134" s="320"/>
-      <c r="AD134" s="320"/>
-      <c r="AE134" s="320"/>
-      <c r="AF134" s="320"/>
-      <c r="AG134" s="320"/>
-      <c r="AH134" s="320"/>
-      <c r="AI134" s="322"/>
+      <c r="D134" s="155"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="156"/>
+      <c r="G134" s="156"/>
+      <c r="H134" s="156"/>
+      <c r="I134" s="156"/>
+      <c r="J134" s="156"/>
+      <c r="K134" s="157"/>
+      <c r="L134" s="237"/>
+      <c r="M134" s="238"/>
+      <c r="N134" s="238"/>
+      <c r="O134" s="239"/>
+      <c r="P134" s="240"/>
+      <c r="Q134" s="241"/>
+      <c r="R134" s="241"/>
+      <c r="S134" s="241"/>
+      <c r="T134" s="242"/>
+      <c r="U134" s="155"/>
+      <c r="V134" s="156"/>
+      <c r="W134" s="156"/>
+      <c r="X134" s="156"/>
+      <c r="Y134" s="156"/>
+      <c r="Z134" s="156"/>
+      <c r="AA134" s="157"/>
+      <c r="AB134" s="158"/>
+      <c r="AC134" s="226"/>
+      <c r="AD134" s="226"/>
+      <c r="AE134" s="226"/>
+      <c r="AF134" s="226"/>
+      <c r="AG134" s="226"/>
+      <c r="AH134" s="226"/>
+      <c r="AI134" s="228"/>
       <c r="AJ134" s="88"/>
     </row>
     <row r="135" spans="1:41">
@@ -12642,42 +12597,117 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="C131:K131"/>
-    <mergeCell ref="C133:K133"/>
-    <mergeCell ref="L131:AI131"/>
-    <mergeCell ref="L133:AI133"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="D129:AA129"/>
-    <mergeCell ref="AB129:AI130"/>
-    <mergeCell ref="AB134:AI134"/>
-    <mergeCell ref="AB132:AI132"/>
-    <mergeCell ref="U132:AA132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="U130:AA130"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="U134:AA134"/>
-    <mergeCell ref="AE58:AH58"/>
-    <mergeCell ref="AE59:AH59"/>
-    <mergeCell ref="AE60:AH60"/>
-    <mergeCell ref="AE61:AH61"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="N65:U65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AA65:AC65"/>
-    <mergeCell ref="V61:Z61"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="V64:Z64"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:J74"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="AL53:AO54"/>
+    <mergeCell ref="N53:U54"/>
+    <mergeCell ref="V53:Z54"/>
+    <mergeCell ref="J53:M54"/>
+    <mergeCell ref="AA53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="N56:U56"/>
+    <mergeCell ref="N57:U57"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="V63:Z63"/>
+    <mergeCell ref="V77:AH77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="E45:M45"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="F52:AD52"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="AA59:AC59"/>
+    <mergeCell ref="N58:U58"/>
+    <mergeCell ref="N59:U59"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V45:AC45"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="V47:AC47"/>
+    <mergeCell ref="AL58:AO58"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="E55:AH55"/>
+    <mergeCell ref="AA56:AC56"/>
+    <mergeCell ref="AE56:AH56"/>
+    <mergeCell ref="AE57:AH57"/>
+    <mergeCell ref="V62:Z62"/>
+    <mergeCell ref="AA63:AC63"/>
+    <mergeCell ref="V56:Z56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="AA57:AC57"/>
+    <mergeCell ref="V57:Z57"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="AE52:AH54"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="N63:U63"/>
+    <mergeCell ref="N64:U64"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Z82:AD82"/>
+    <mergeCell ref="V73:AH74"/>
+    <mergeCell ref="V76:AH76"/>
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="N61:U61"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="K73:N74"/>
     <mergeCell ref="E75:J75"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="V75:AH75"/>
@@ -12702,117 +12732,42 @@
     <mergeCell ref="AE83:AH83"/>
     <mergeCell ref="Z84:AD84"/>
     <mergeCell ref="AE84:AH84"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Z82:AD82"/>
-    <mergeCell ref="V73:AH74"/>
-    <mergeCell ref="V76:AH76"/>
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="N61:U61"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="N62:U62"/>
-    <mergeCell ref="K73:N74"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="N63:U63"/>
-    <mergeCell ref="N64:U64"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V45:AC45"/>
-    <mergeCell ref="V46:AC46"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="V47:AC47"/>
-    <mergeCell ref="AL58:AO58"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="E55:AH55"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AE56:AH56"/>
-    <mergeCell ref="AE57:AH57"/>
-    <mergeCell ref="V62:Z62"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="V56:Z56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="AA57:AC57"/>
-    <mergeCell ref="V57:Z57"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="AE52:AH54"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="E47:M47"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="F52:AD52"/>
-    <mergeCell ref="F53:I54"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="AA59:AC59"/>
-    <mergeCell ref="N58:U58"/>
-    <mergeCell ref="N59:U59"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:J74"/>
-    <mergeCell ref="R82:Y82"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="AL53:AO54"/>
-    <mergeCell ref="N53:U54"/>
-    <mergeCell ref="V53:Z54"/>
-    <mergeCell ref="J53:M54"/>
-    <mergeCell ref="AA53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="N56:U56"/>
-    <mergeCell ref="N57:U57"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="V63:Z63"/>
-    <mergeCell ref="V77:AH77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AH59"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="N65:U65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AA65:AC65"/>
+    <mergeCell ref="V61:Z61"/>
+    <mergeCell ref="AA64:AC64"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="V64:Z64"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="V60:Z60"/>
+    <mergeCell ref="C131:K131"/>
+    <mergeCell ref="C133:K133"/>
+    <mergeCell ref="L131:AI131"/>
+    <mergeCell ref="L133:AI133"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="D129:AA129"/>
+    <mergeCell ref="AB129:AI130"/>
+    <mergeCell ref="AB134:AI134"/>
+    <mergeCell ref="AB132:AI132"/>
+    <mergeCell ref="U132:AA132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="U130:AA130"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="U134:AA134"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
